--- a/gantt-chart/xlsx/SWYL-Gantt-Chart.xlsx
+++ b/gantt-chart/xlsx/SWYL-Gantt-Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logann131/coding/web-dev/SWYL/documentation/gantt-chart/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3948607A-8F18-7F4D-91E1-A5D517830424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D3ABB-5E57-354F-8B1E-5E33D13F5B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$140</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$136</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$C1</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -211,9 +211,6 @@
     <t xml:space="preserve">    UI - Home page</t>
   </si>
   <si>
-    <t xml:space="preserve">    UI - Profile/Edit page</t>
-  </si>
-  <si>
     <t xml:space="preserve">    UI - NFT minting page</t>
   </si>
   <si>
@@ -226,22 +223,13 @@
     <t xml:space="preserve">    UI - NFT transaction history page</t>
   </si>
   <si>
-    <t xml:space="preserve">    UI - NFT relist page</t>
-  </si>
-  <si>
     <t xml:space="preserve">    UI - Searching component</t>
   </si>
   <si>
     <t xml:space="preserve">    UI - Donation component</t>
   </si>
   <si>
-    <t xml:space="preserve">    UI - Membership plan page</t>
-  </si>
-  <si>
     <t xml:space="preserve">    UI - Community page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    UI - My Supporters page</t>
   </si>
   <si>
     <t xml:space="preserve">    UI - Navbar</t>
@@ -745,9 +733,6 @@
     <t>Backend V4 - Revise servers</t>
   </si>
   <si>
-    <t xml:space="preserve">    SRS_v3.0 - Database Model Class diagrams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    SRS_v4.0 - Revise User Stories + Features</t>
   </si>
   <si>
@@ -761,6 +746,9 @@
   </si>
   <si>
     <t xml:space="preserve">    UI - NFT marketplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UI - NFT relist Component</t>
   </si>
 </sst>
 </file>
@@ -2141,6 +2129,30 @@
     <xf numFmtId="164" fontId="24" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="47" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2161,30 +2173,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="47" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2893,11 +2881,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DH147"/>
+  <dimension ref="A1:DH143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV14" sqref="AV14"/>
+      <pane ySplit="6" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA63" sqref="AA63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2921,27 +2909,27 @@
       <c r="E1" s="39"/>
       <c r="G1" s="1"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="226" t="str">
+      <c r="I1" s="234" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","")</f>
         <v/>
       </c>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="227"/>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="227"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="235"/>
     </row>
     <row r="2" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -2950,21 +2938,21 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="231">
+      <c r="D2" s="239">
         <v>44795</v>
       </c>
-      <c r="E2" s="232"/>
+      <c r="E2" s="240"/>
     </row>
     <row r="3" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="231">
+      <c r="D3" s="239">
         <f ca="1">TODAY()</f>
-        <v>44838</v>
-      </c>
-      <c r="E3" s="232"/>
+        <v>44842</v>
+      </c>
+      <c r="E3" s="240"/>
     </row>
     <row r="4" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
@@ -2973,156 +2961,156 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="228">
+      <c r="H4" s="236">
         <f>H5</f>
         <v>44795</v>
       </c>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="229"/>
-      <c r="N4" s="230"/>
-      <c r="O4" s="228">
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="236">
         <f>O5</f>
         <v>44802</v>
       </c>
-      <c r="P4" s="229"/>
-      <c r="Q4" s="229"/>
-      <c r="R4" s="229"/>
-      <c r="S4" s="229"/>
-      <c r="T4" s="229"/>
-      <c r="U4" s="230"/>
-      <c r="V4" s="228">
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237"/>
+      <c r="R4" s="237"/>
+      <c r="S4" s="237"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="238"/>
+      <c r="V4" s="236">
         <f>V5</f>
         <v>44809</v>
       </c>
-      <c r="W4" s="229"/>
-      <c r="X4" s="229"/>
-      <c r="Y4" s="229"/>
-      <c r="Z4" s="229"/>
-      <c r="AA4" s="229"/>
-      <c r="AB4" s="230"/>
-      <c r="AC4" s="228">
+      <c r="W4" s="237"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="237"/>
+      <c r="Z4" s="237"/>
+      <c r="AA4" s="237"/>
+      <c r="AB4" s="238"/>
+      <c r="AC4" s="236">
         <f>AC5</f>
         <v>44816</v>
       </c>
-      <c r="AD4" s="229"/>
-      <c r="AE4" s="229"/>
-      <c r="AF4" s="229"/>
-      <c r="AG4" s="229"/>
-      <c r="AH4" s="229"/>
-      <c r="AI4" s="230"/>
-      <c r="AJ4" s="228">
+      <c r="AD4" s="237"/>
+      <c r="AE4" s="237"/>
+      <c r="AF4" s="237"/>
+      <c r="AG4" s="237"/>
+      <c r="AH4" s="237"/>
+      <c r="AI4" s="238"/>
+      <c r="AJ4" s="236">
         <f>AJ5</f>
         <v>44823</v>
       </c>
-      <c r="AK4" s="229"/>
-      <c r="AL4" s="229"/>
-      <c r="AM4" s="229"/>
-      <c r="AN4" s="229"/>
-      <c r="AO4" s="229"/>
-      <c r="AP4" s="230"/>
-      <c r="AQ4" s="228">
+      <c r="AK4" s="237"/>
+      <c r="AL4" s="237"/>
+      <c r="AM4" s="237"/>
+      <c r="AN4" s="237"/>
+      <c r="AO4" s="237"/>
+      <c r="AP4" s="238"/>
+      <c r="AQ4" s="236">
         <f>AQ5</f>
         <v>44830</v>
       </c>
-      <c r="AR4" s="229"/>
-      <c r="AS4" s="229"/>
-      <c r="AT4" s="229"/>
-      <c r="AU4" s="229"/>
-      <c r="AV4" s="229"/>
-      <c r="AW4" s="230"/>
-      <c r="AX4" s="228">
+      <c r="AR4" s="237"/>
+      <c r="AS4" s="237"/>
+      <c r="AT4" s="237"/>
+      <c r="AU4" s="237"/>
+      <c r="AV4" s="237"/>
+      <c r="AW4" s="238"/>
+      <c r="AX4" s="236">
         <f>AX5</f>
         <v>44837</v>
       </c>
-      <c r="AY4" s="229"/>
-      <c r="AZ4" s="229"/>
-      <c r="BA4" s="229"/>
-      <c r="BB4" s="229"/>
-      <c r="BC4" s="229"/>
-      <c r="BD4" s="230"/>
-      <c r="BE4" s="228">
+      <c r="AY4" s="237"/>
+      <c r="AZ4" s="237"/>
+      <c r="BA4" s="237"/>
+      <c r="BB4" s="237"/>
+      <c r="BC4" s="237"/>
+      <c r="BD4" s="238"/>
+      <c r="BE4" s="236">
         <f>BE5</f>
         <v>44844</v>
       </c>
-      <c r="BF4" s="229"/>
-      <c r="BG4" s="229"/>
-      <c r="BH4" s="229"/>
-      <c r="BI4" s="229"/>
-      <c r="BJ4" s="229"/>
-      <c r="BK4" s="230"/>
-      <c r="BL4" s="228">
+      <c r="BF4" s="237"/>
+      <c r="BG4" s="237"/>
+      <c r="BH4" s="237"/>
+      <c r="BI4" s="237"/>
+      <c r="BJ4" s="237"/>
+      <c r="BK4" s="238"/>
+      <c r="BL4" s="236">
         <f>BL5</f>
         <v>44851</v>
       </c>
-      <c r="BM4" s="229"/>
-      <c r="BN4" s="229"/>
-      <c r="BO4" s="229"/>
-      <c r="BP4" s="229"/>
-      <c r="BQ4" s="229"/>
-      <c r="BR4" s="230"/>
-      <c r="BS4" s="228">
+      <c r="BM4" s="237"/>
+      <c r="BN4" s="237"/>
+      <c r="BO4" s="237"/>
+      <c r="BP4" s="237"/>
+      <c r="BQ4" s="237"/>
+      <c r="BR4" s="238"/>
+      <c r="BS4" s="236">
         <f>BS5</f>
         <v>44858</v>
       </c>
-      <c r="BT4" s="229"/>
-      <c r="BU4" s="229"/>
-      <c r="BV4" s="229"/>
-      <c r="BW4" s="229"/>
-      <c r="BX4" s="229"/>
-      <c r="BY4" s="230"/>
-      <c r="BZ4" s="228">
+      <c r="BT4" s="237"/>
+      <c r="BU4" s="237"/>
+      <c r="BV4" s="237"/>
+      <c r="BW4" s="237"/>
+      <c r="BX4" s="237"/>
+      <c r="BY4" s="238"/>
+      <c r="BZ4" s="236">
         <f>BZ5</f>
         <v>44865</v>
       </c>
-      <c r="CA4" s="229"/>
-      <c r="CB4" s="229"/>
-      <c r="CC4" s="229"/>
-      <c r="CD4" s="229"/>
-      <c r="CE4" s="229"/>
-      <c r="CF4" s="230"/>
-      <c r="CG4" s="228">
+      <c r="CA4" s="237"/>
+      <c r="CB4" s="237"/>
+      <c r="CC4" s="237"/>
+      <c r="CD4" s="237"/>
+      <c r="CE4" s="237"/>
+      <c r="CF4" s="238"/>
+      <c r="CG4" s="236">
         <f>CG5</f>
         <v>44872</v>
       </c>
-      <c r="CH4" s="229"/>
-      <c r="CI4" s="229"/>
-      <c r="CJ4" s="229"/>
-      <c r="CK4" s="229"/>
-      <c r="CL4" s="229"/>
-      <c r="CM4" s="230"/>
-      <c r="CN4" s="228">
+      <c r="CH4" s="237"/>
+      <c r="CI4" s="237"/>
+      <c r="CJ4" s="237"/>
+      <c r="CK4" s="237"/>
+      <c r="CL4" s="237"/>
+      <c r="CM4" s="238"/>
+      <c r="CN4" s="236">
         <f>CN5</f>
         <v>44879</v>
       </c>
-      <c r="CO4" s="229"/>
-      <c r="CP4" s="229"/>
-      <c r="CQ4" s="229"/>
-      <c r="CR4" s="229"/>
-      <c r="CS4" s="229"/>
-      <c r="CT4" s="230"/>
-      <c r="CU4" s="228">
+      <c r="CO4" s="237"/>
+      <c r="CP4" s="237"/>
+      <c r="CQ4" s="237"/>
+      <c r="CR4" s="237"/>
+      <c r="CS4" s="237"/>
+      <c r="CT4" s="238"/>
+      <c r="CU4" s="236">
         <f>CU5</f>
         <v>44886</v>
       </c>
-      <c r="CV4" s="229"/>
-      <c r="CW4" s="229"/>
-      <c r="CX4" s="229"/>
-      <c r="CY4" s="229"/>
-      <c r="CZ4" s="229"/>
-      <c r="DA4" s="230"/>
-      <c r="DB4" s="228">
+      <c r="CV4" s="237"/>
+      <c r="CW4" s="237"/>
+      <c r="CX4" s="237"/>
+      <c r="CY4" s="237"/>
+      <c r="CZ4" s="237"/>
+      <c r="DA4" s="238"/>
+      <c r="DB4" s="236">
         <f>DB5</f>
         <v>44893</v>
       </c>
-      <c r="DC4" s="229"/>
-      <c r="DD4" s="229"/>
-      <c r="DE4" s="229"/>
-      <c r="DF4" s="229"/>
-      <c r="DG4" s="229"/>
-      <c r="DH4" s="230"/>
+      <c r="DC4" s="237"/>
+      <c r="DD4" s="237"/>
+      <c r="DE4" s="237"/>
+      <c r="DF4" s="237"/>
+      <c r="DG4" s="237"/>
+      <c r="DH4" s="238"/>
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -3995,7 +3983,7 @@
       <c r="E7" s="111"/>
       <c r="F7" s="112"/>
       <c r="G7" s="112" t="str">
-        <f t="shared" ref="G7:G143" si="42">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G7:G139" si="42">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H7" s="113"/>
@@ -4226,7 +4214,7 @@
     <row r="9" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="122" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" s="123">
         <v>1</v>
@@ -5455,7 +5443,7 @@
     <row r="19" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="144" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C19" s="145">
         <v>1</v>
@@ -5577,7 +5565,7 @@
     <row r="20" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="144" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="145">
         <v>1</v>
@@ -5699,7 +5687,7 @@
     <row r="21" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="144" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="145">
         <v>1</v>
@@ -5821,7 +5809,7 @@
     <row r="22" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="144" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C22" s="145">
         <v>1</v>
@@ -5943,10 +5931,10 @@
     <row r="23" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="129" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C23" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="130">
         <v>44830</v>
@@ -6065,10 +6053,10 @@
     <row r="24" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="138" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C24" s="139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="140">
         <v>44830</v>
@@ -6187,10 +6175,10 @@
     <row r="25" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="138" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C25" s="139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="140">
         <v>44831</v>
@@ -6307,13 +6295,13 @@
     </row>
     <row r="26" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="121" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B26" s="136" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="132">
         <v>44837</v>
@@ -6431,13 +6419,13 @@
     </row>
     <row r="27" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B27" s="153" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C27" s="154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="155">
         <v>44837</v>
@@ -6555,13 +6543,13 @@
     </row>
     <row r="28" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="121" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B28" s="153" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C28" s="154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="155">
         <v>44837</v>
@@ -6679,70 +6667,70 @@
     </row>
     <row r="29" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="164"/>
-      <c r="B29" s="153" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="154">
+      <c r="B29" s="171" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="172">
         <v>0</v>
       </c>
-      <c r="D29" s="155">
-        <v>44837</v>
-      </c>
-      <c r="E29" s="155">
-        <v>44837</v>
-      </c>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="157"/>
-      <c r="S29" s="157"/>
-      <c r="T29" s="157"/>
-      <c r="U29" s="157"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="157"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="157"/>
-      <c r="Z29" s="157"/>
-      <c r="AA29" s="157"/>
-      <c r="AB29" s="157"/>
-      <c r="AC29" s="157"/>
-      <c r="AD29" s="157"/>
-      <c r="AE29" s="157"/>
-      <c r="AF29" s="157"/>
-      <c r="AG29" s="157"/>
-      <c r="AH29" s="157"/>
-      <c r="AI29" s="157"/>
-      <c r="AJ29" s="157"/>
-      <c r="AK29" s="157"/>
-      <c r="AL29" s="157"/>
-      <c r="AM29" s="157"/>
-      <c r="AN29" s="157"/>
-      <c r="AO29" s="157"/>
-      <c r="AP29" s="157"/>
-      <c r="AQ29" s="157"/>
-      <c r="AR29" s="157"/>
-      <c r="AS29" s="157"/>
-      <c r="AT29" s="157"/>
-      <c r="AU29" s="157"/>
-      <c r="AV29" s="157"/>
-      <c r="AW29" s="157"/>
-      <c r="AX29" s="157"/>
-      <c r="AY29" s="120"/>
-      <c r="AZ29" s="120"/>
-      <c r="BA29" s="120"/>
-      <c r="BB29" s="120"/>
-      <c r="BC29" s="120"/>
-      <c r="BD29" s="120"/>
-      <c r="BE29" s="25"/>
+      <c r="D29" s="173">
+        <v>44844</v>
+      </c>
+      <c r="E29" s="173">
+        <v>44844</v>
+      </c>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="176"/>
+      <c r="Y29" s="175"/>
+      <c r="Z29" s="175"/>
+      <c r="AA29" s="175"/>
+      <c r="AB29" s="175"/>
+      <c r="AC29" s="175"/>
+      <c r="AD29" s="175"/>
+      <c r="AE29" s="175"/>
+      <c r="AF29" s="175"/>
+      <c r="AG29" s="175"/>
+      <c r="AH29" s="175"/>
+      <c r="AI29" s="175"/>
+      <c r="AJ29" s="175"/>
+      <c r="AK29" s="175"/>
+      <c r="AL29" s="175"/>
+      <c r="AM29" s="175"/>
+      <c r="AN29" s="175"/>
+      <c r="AO29" s="175"/>
+      <c r="AP29" s="175"/>
+      <c r="AQ29" s="175"/>
+      <c r="AR29" s="175"/>
+      <c r="AS29" s="175"/>
+      <c r="AT29" s="175"/>
+      <c r="AU29" s="175"/>
+      <c r="AV29" s="175"/>
+      <c r="AW29" s="175"/>
+      <c r="AX29" s="175"/>
+      <c r="AY29" s="177"/>
+      <c r="AZ29" s="177"/>
+      <c r="BA29" s="177"/>
+      <c r="BB29" s="177"/>
+      <c r="BC29" s="177"/>
+      <c r="BD29" s="177"/>
+      <c r="BE29" s="177"/>
       <c r="BF29" s="25"/>
       <c r="BG29" s="25"/>
       <c r="BH29" s="25"/>
@@ -6801,70 +6789,70 @@
     </row>
     <row r="30" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="164"/>
-      <c r="B30" s="171" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="172">
+      <c r="B30" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="166">
         <v>0</v>
       </c>
-      <c r="D30" s="173">
+      <c r="D30" s="167">
         <v>44844</v>
       </c>
-      <c r="E30" s="173">
+      <c r="E30" s="167">
         <v>44844</v>
       </c>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="175"/>
-      <c r="M30" s="175"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="175"/>
-      <c r="S30" s="175"/>
-      <c r="T30" s="175"/>
-      <c r="U30" s="175"/>
-      <c r="V30" s="175"/>
-      <c r="W30" s="175"/>
-      <c r="X30" s="176"/>
-      <c r="Y30" s="175"/>
-      <c r="Z30" s="175"/>
-      <c r="AA30" s="175"/>
-      <c r="AB30" s="175"/>
-      <c r="AC30" s="175"/>
-      <c r="AD30" s="175"/>
-      <c r="AE30" s="175"/>
-      <c r="AF30" s="175"/>
-      <c r="AG30" s="175"/>
-      <c r="AH30" s="175"/>
-      <c r="AI30" s="175"/>
-      <c r="AJ30" s="175"/>
-      <c r="AK30" s="175"/>
-      <c r="AL30" s="175"/>
-      <c r="AM30" s="175"/>
-      <c r="AN30" s="175"/>
-      <c r="AO30" s="175"/>
-      <c r="AP30" s="175"/>
-      <c r="AQ30" s="175"/>
-      <c r="AR30" s="175"/>
-      <c r="AS30" s="175"/>
-      <c r="AT30" s="175"/>
-      <c r="AU30" s="175"/>
-      <c r="AV30" s="175"/>
-      <c r="AW30" s="175"/>
-      <c r="AX30" s="175"/>
-      <c r="AY30" s="177"/>
-      <c r="AZ30" s="177"/>
-      <c r="BA30" s="177"/>
-      <c r="BB30" s="177"/>
-      <c r="BC30" s="177"/>
-      <c r="BD30" s="177"/>
-      <c r="BE30" s="177"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="169"/>
+      <c r="Q30" s="169"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="169"/>
+      <c r="T30" s="169"/>
+      <c r="U30" s="169"/>
+      <c r="V30" s="169"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="170"/>
+      <c r="Y30" s="169"/>
+      <c r="Z30" s="169"/>
+      <c r="AA30" s="169"/>
+      <c r="AB30" s="169"/>
+      <c r="AC30" s="169"/>
+      <c r="AD30" s="169"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="169"/>
+      <c r="AG30" s="169"/>
+      <c r="AH30" s="169"/>
+      <c r="AI30" s="169"/>
+      <c r="AJ30" s="169"/>
+      <c r="AK30" s="169"/>
+      <c r="AL30" s="169"/>
+      <c r="AM30" s="169"/>
+      <c r="AN30" s="169"/>
+      <c r="AO30" s="169"/>
+      <c r="AP30" s="169"/>
+      <c r="AQ30" s="169"/>
+      <c r="AR30" s="169"/>
+      <c r="AS30" s="169"/>
+      <c r="AT30" s="169"/>
+      <c r="AU30" s="169"/>
+      <c r="AV30" s="169"/>
+      <c r="AW30" s="169"/>
+      <c r="AX30" s="169"/>
+      <c r="AY30" s="169"/>
+      <c r="AZ30" s="169"/>
+      <c r="BA30" s="169"/>
+      <c r="BB30" s="169"/>
+      <c r="BC30" s="169"/>
+      <c r="BD30" s="169"/>
+      <c r="BE30" s="169"/>
       <c r="BF30" s="25"/>
       <c r="BG30" s="25"/>
       <c r="BH30" s="25"/>
@@ -6924,7 +6912,7 @@
     <row r="31" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="164"/>
       <c r="B31" s="165" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C31" s="166">
         <v>0</v>
@@ -7046,7 +7034,7 @@
     <row r="32" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="164"/>
       <c r="B32" s="165" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C32" s="166">
         <v>0</v>
@@ -7166,71 +7154,71 @@
       <c r="DH32" s="25"/>
     </row>
     <row r="33" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="164"/>
-      <c r="B33" s="165" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="166">
-        <v>0</v>
-      </c>
-      <c r="D33" s="167">
-        <v>44844</v>
-      </c>
-      <c r="E33" s="167">
-        <v>44844</v>
-      </c>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="169"/>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="169"/>
-      <c r="S33" s="169"/>
-      <c r="T33" s="169"/>
-      <c r="U33" s="169"/>
-      <c r="V33" s="169"/>
-      <c r="W33" s="169"/>
-      <c r="X33" s="170"/>
-      <c r="Y33" s="169"/>
-      <c r="Z33" s="169"/>
-      <c r="AA33" s="169"/>
-      <c r="AB33" s="169"/>
-      <c r="AC33" s="169"/>
-      <c r="AD33" s="169"/>
-      <c r="AE33" s="169"/>
-      <c r="AF33" s="169"/>
-      <c r="AG33" s="169"/>
-      <c r="AH33" s="169"/>
-      <c r="AI33" s="169"/>
-      <c r="AJ33" s="169"/>
-      <c r="AK33" s="169"/>
-      <c r="AL33" s="169"/>
-      <c r="AM33" s="169"/>
-      <c r="AN33" s="169"/>
-      <c r="AO33" s="169"/>
-      <c r="AP33" s="169"/>
-      <c r="AQ33" s="169"/>
-      <c r="AR33" s="169"/>
-      <c r="AS33" s="169"/>
-      <c r="AT33" s="169"/>
-      <c r="AU33" s="169"/>
-      <c r="AV33" s="169"/>
-      <c r="AW33" s="169"/>
-      <c r="AX33" s="169"/>
-      <c r="AY33" s="169"/>
-      <c r="AZ33" s="169"/>
-      <c r="BA33" s="169"/>
-      <c r="BB33" s="169"/>
-      <c r="BC33" s="169"/>
-      <c r="BD33" s="169"/>
-      <c r="BE33" s="169"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="194" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="195">
+        <v>0.3</v>
+      </c>
+      <c r="D33" s="225">
+        <v>44834</v>
+      </c>
+      <c r="E33" s="196">
+        <v>44843</v>
+      </c>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="226"/>
+      <c r="BA33" s="45"/>
+      <c r="BB33" s="45"/>
+      <c r="BC33" s="45"/>
+      <c r="BD33" s="45"/>
+      <c r="BE33" s="25"/>
       <c r="BF33" s="25"/>
       <c r="BG33" s="25"/>
       <c r="BH33" s="25"/>
@@ -7289,69 +7277,69 @@
     </row>
     <row r="34" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="194" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="195">
-        <v>0</v>
-      </c>
-      <c r="D34" s="225">
+      <c r="B34" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
         <v>44834</v>
       </c>
-      <c r="E34" s="196">
-        <v>44843</v>
-      </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="45"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="45"/>
-      <c r="AP34" s="45"/>
-      <c r="AQ34" s="45"/>
-      <c r="AR34" s="45"/>
-      <c r="AS34" s="45"/>
-      <c r="AT34" s="45"/>
-      <c r="AU34" s="45"/>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="233"/>
-      <c r="BA34" s="45"/>
-      <c r="BB34" s="45"/>
-      <c r="BC34" s="45"/>
-      <c r="BD34" s="45"/>
+      <c r="E34" s="19">
+        <v>44834</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
+      <c r="BB34" s="49"/>
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="49"/>
       <c r="BE34" s="25"/>
       <c r="BF34" s="25"/>
       <c r="BG34" s="25"/>
@@ -7412,16 +7400,16 @@
     <row r="35" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="47" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C35" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="19">
         <v>44834</v>
       </c>
       <c r="E35" s="19">
-        <v>44834</v>
+        <v>44838</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -7534,16 +7522,16 @@
     <row r="36" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="19">
-        <v>44834</v>
+        <v>44839</v>
       </c>
       <c r="E36" s="19">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
@@ -7656,16 +7644,16 @@
     <row r="37" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="19">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="E37" s="19">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
@@ -7778,16 +7766,16 @@
     <row r="38" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="19">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="E38" s="19">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
@@ -7900,16 +7888,16 @@
     <row r="39" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="19">
-        <v>44839</v>
-      </c>
-      <c r="E39" s="19">
-        <v>44839</v>
+        <v>44840</v>
+      </c>
+      <c r="E39" s="20">
+        <v>44841</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
@@ -8022,16 +8010,16 @@
     <row r="40" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="19">
-        <v>44839</v>
+        <v>44841</v>
       </c>
       <c r="E40" s="20">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
@@ -8144,16 +8132,16 @@
     <row r="41" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="18">
-        <v>0</v>
-      </c>
-      <c r="D41" s="19">
-        <v>44840</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="20">
+        <v>44842</v>
       </c>
       <c r="E41" s="20">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
@@ -8266,10 +8254,10 @@
     <row r="42" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="47" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="C42" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="20">
         <v>44842</v>
@@ -8388,10 +8376,10 @@
     <row r="43" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="47" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="C43" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="20">
         <v>44842</v>
@@ -8510,10 +8498,10 @@
     <row r="44" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="20">
         <v>44842</v>
@@ -8632,10 +8620,10 @@
     <row r="45" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="47" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="C45" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="20">
         <v>44842</v>
@@ -8751,19 +8739,19 @@
       <c r="DG45" s="25"/>
       <c r="DH45" s="25"/>
     </row>
-    <row r="46" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="20">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="E46" s="20">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
@@ -8873,13 +8861,13 @@
       <c r="DG46" s="25"/>
       <c r="DH46" s="25"/>
     </row>
-    <row r="47" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C47" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="20">
         <v>44843</v>
@@ -8998,10 +8986,10 @@
     <row r="48" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="20">
         <v>44843</v>
@@ -9120,10 +9108,10 @@
     <row r="49" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="47" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C49" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="20">
         <v>44843</v>
@@ -9239,76 +9227,78 @@
       <c r="DG49" s="25"/>
       <c r="DH49" s="25"/>
     </row>
-    <row r="50" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
-      <c r="B50" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="18">
+      <c r="B50" s="191" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="192">
         <v>0</v>
       </c>
-      <c r="D50" s="20">
-        <v>44843</v>
-      </c>
-      <c r="E50" s="20">
-        <v>44843</v>
-      </c>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="49"/>
-      <c r="AB50" s="49"/>
-      <c r="AC50" s="49"/>
-      <c r="AD50" s="49"/>
-      <c r="AE50" s="49"/>
-      <c r="AF50" s="49"/>
-      <c r="AG50" s="49"/>
-      <c r="AH50" s="49"/>
-      <c r="AI50" s="49"/>
-      <c r="AJ50" s="49"/>
-      <c r="AK50" s="49"/>
-      <c r="AL50" s="49"/>
-      <c r="AM50" s="49"/>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="49"/>
-      <c r="AQ50" s="49"/>
-      <c r="AR50" s="49"/>
-      <c r="AS50" s="49"/>
-      <c r="AT50" s="49"/>
-      <c r="AU50" s="49"/>
-      <c r="AV50" s="49"/>
-      <c r="AW50" s="49"/>
-      <c r="AX50" s="49"/>
-      <c r="AY50" s="49"/>
-      <c r="AZ50" s="49"/>
-      <c r="BA50" s="49"/>
-      <c r="BB50" s="49"/>
-      <c r="BC50" s="49"/>
-      <c r="BD50" s="49"/>
-      <c r="BE50" s="25"/>
-      <c r="BF50" s="25"/>
-      <c r="BG50" s="25"/>
-      <c r="BH50" s="25"/>
-      <c r="BI50" s="25"/>
+      <c r="D50" s="193">
+        <v>44849</v>
+      </c>
+      <c r="E50" s="193">
+        <v>44850</v>
+      </c>
+      <c r="F50" s="188"/>
+      <c r="G50" s="188"/>
+      <c r="H50" s="189"/>
+      <c r="I50" s="189"/>
+      <c r="J50" s="189"/>
+      <c r="K50" s="189" t="s">
+        <v>142</v>
+      </c>
+      <c r="L50" s="189"/>
+      <c r="M50" s="189"/>
+      <c r="N50" s="189"/>
+      <c r="O50" s="189"/>
+      <c r="P50" s="189"/>
+      <c r="Q50" s="189"/>
+      <c r="R50" s="189"/>
+      <c r="S50" s="189"/>
+      <c r="T50" s="189"/>
+      <c r="U50" s="189"/>
+      <c r="V50" s="189"/>
+      <c r="W50" s="189"/>
+      <c r="X50" s="190"/>
+      <c r="Y50" s="189"/>
+      <c r="Z50" s="189"/>
+      <c r="AA50" s="189"/>
+      <c r="AB50" s="189"/>
+      <c r="AC50" s="189"/>
+      <c r="AD50" s="189"/>
+      <c r="AE50" s="189"/>
+      <c r="AF50" s="189"/>
+      <c r="AG50" s="189"/>
+      <c r="AH50" s="189"/>
+      <c r="AI50" s="189"/>
+      <c r="AJ50" s="189"/>
+      <c r="AK50" s="189"/>
+      <c r="AL50" s="189"/>
+      <c r="AM50" s="189"/>
+      <c r="AN50" s="189"/>
+      <c r="AO50" s="189"/>
+      <c r="AP50" s="189"/>
+      <c r="AQ50" s="189"/>
+      <c r="AR50" s="189"/>
+      <c r="AS50" s="189"/>
+      <c r="AT50" s="189"/>
+      <c r="AU50" s="189"/>
+      <c r="AV50" s="189"/>
+      <c r="AW50" s="189"/>
+      <c r="AX50" s="189"/>
+      <c r="AY50" s="189"/>
+      <c r="AZ50" s="189"/>
+      <c r="BA50" s="189"/>
+      <c r="BB50" s="189"/>
+      <c r="BC50" s="189"/>
+      <c r="BD50" s="189"/>
+      <c r="BE50" s="189"/>
+      <c r="BF50" s="189"/>
+      <c r="BG50" s="189"/>
+      <c r="BH50" s="189"/>
+      <c r="BI50" s="189"/>
       <c r="BJ50" s="25"/>
       <c r="BK50" s="25"/>
       <c r="BL50" s="25"/>
@@ -9363,76 +9353,76 @@
     </row>
     <row r="51" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
-      <c r="B51" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="18">
+      <c r="B51" s="178" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="179">
         <v>0</v>
       </c>
-      <c r="D51" s="20">
-        <v>44843</v>
-      </c>
-      <c r="E51" s="20">
-        <v>44843</v>
-      </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
-      <c r="U51" s="49"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="49"/>
-      <c r="X51" s="50"/>
-      <c r="Y51" s="49"/>
-      <c r="Z51" s="49"/>
-      <c r="AA51" s="49"/>
-      <c r="AB51" s="49"/>
-      <c r="AC51" s="49"/>
-      <c r="AD51" s="49"/>
-      <c r="AE51" s="49"/>
-      <c r="AF51" s="49"/>
-      <c r="AG51" s="49"/>
-      <c r="AH51" s="49"/>
-      <c r="AI51" s="49"/>
-      <c r="AJ51" s="49"/>
-      <c r="AK51" s="49"/>
-      <c r="AL51" s="49"/>
-      <c r="AM51" s="49"/>
-      <c r="AN51" s="49"/>
-      <c r="AO51" s="49"/>
-      <c r="AP51" s="49"/>
-      <c r="AQ51" s="49"/>
-      <c r="AR51" s="49"/>
-      <c r="AS51" s="49"/>
-      <c r="AT51" s="49"/>
-      <c r="AU51" s="49"/>
-      <c r="AV51" s="49"/>
-      <c r="AW51" s="49"/>
-      <c r="AX51" s="49"/>
-      <c r="AY51" s="49"/>
-      <c r="AZ51" s="49"/>
-      <c r="BA51" s="49"/>
-      <c r="BB51" s="49"/>
-      <c r="BC51" s="49"/>
-      <c r="BD51" s="49"/>
-      <c r="BE51" s="25"/>
-      <c r="BF51" s="25"/>
-      <c r="BG51" s="25"/>
-      <c r="BH51" s="25"/>
-      <c r="BI51" s="25"/>
-      <c r="BJ51" s="25"/>
-      <c r="BK51" s="25"/>
+      <c r="D51" s="180">
+        <v>44849</v>
+      </c>
+      <c r="E51" s="180">
+        <v>44849</v>
+      </c>
+      <c r="F51" s="181"/>
+      <c r="G51" s="181"/>
+      <c r="H51" s="182"/>
+      <c r="I51" s="182"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="182"/>
+      <c r="L51" s="182"/>
+      <c r="M51" s="182"/>
+      <c r="N51" s="182"/>
+      <c r="O51" s="182"/>
+      <c r="P51" s="182"/>
+      <c r="Q51" s="182"/>
+      <c r="R51" s="182"/>
+      <c r="S51" s="182"/>
+      <c r="T51" s="182"/>
+      <c r="U51" s="182"/>
+      <c r="V51" s="182"/>
+      <c r="W51" s="182"/>
+      <c r="X51" s="183"/>
+      <c r="Y51" s="182"/>
+      <c r="Z51" s="182"/>
+      <c r="AA51" s="182"/>
+      <c r="AB51" s="182"/>
+      <c r="AC51" s="182"/>
+      <c r="AD51" s="182"/>
+      <c r="AE51" s="182"/>
+      <c r="AF51" s="182"/>
+      <c r="AG51" s="182"/>
+      <c r="AH51" s="182"/>
+      <c r="AI51" s="182"/>
+      <c r="AJ51" s="182"/>
+      <c r="AK51" s="182"/>
+      <c r="AL51" s="182"/>
+      <c r="AM51" s="182"/>
+      <c r="AN51" s="182"/>
+      <c r="AO51" s="182"/>
+      <c r="AP51" s="182"/>
+      <c r="AQ51" s="182"/>
+      <c r="AR51" s="182"/>
+      <c r="AS51" s="182"/>
+      <c r="AT51" s="182"/>
+      <c r="AU51" s="182"/>
+      <c r="AV51" s="182"/>
+      <c r="AW51" s="182"/>
+      <c r="AX51" s="182"/>
+      <c r="AY51" s="182"/>
+      <c r="AZ51" s="182"/>
+      <c r="BA51" s="182"/>
+      <c r="BB51" s="182"/>
+      <c r="BC51" s="182"/>
+      <c r="BD51" s="182"/>
+      <c r="BE51" s="182"/>
+      <c r="BF51" s="182"/>
+      <c r="BG51" s="182"/>
+      <c r="BH51" s="182"/>
+      <c r="BI51" s="182"/>
+      <c r="BJ51" s="45"/>
+      <c r="BK51" s="45"/>
       <c r="BL51" s="25"/>
       <c r="BM51" s="25"/>
       <c r="BN51" s="25"/>
@@ -9483,78 +9473,78 @@
       <c r="DG51" s="25"/>
       <c r="DH51" s="25"/>
     </row>
-    <row r="52" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
-      <c r="B52" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="18">
+      <c r="B52" s="184" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="185">
         <v>0</v>
       </c>
-      <c r="D52" s="20">
-        <v>44843</v>
-      </c>
-      <c r="E52" s="20">
-        <v>44843</v>
-      </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="49"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="49"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="49"/>
-      <c r="Z52" s="49"/>
-      <c r="AA52" s="49"/>
-      <c r="AB52" s="49"/>
-      <c r="AC52" s="49"/>
-      <c r="AD52" s="49"/>
-      <c r="AE52" s="49"/>
-      <c r="AF52" s="49"/>
-      <c r="AG52" s="49"/>
-      <c r="AH52" s="49"/>
-      <c r="AI52" s="49"/>
-      <c r="AJ52" s="49"/>
-      <c r="AK52" s="49"/>
-      <c r="AL52" s="49"/>
-      <c r="AM52" s="49"/>
-      <c r="AN52" s="49"/>
-      <c r="AO52" s="49"/>
-      <c r="AP52" s="49"/>
-      <c r="AQ52" s="49"/>
-      <c r="AR52" s="49"/>
-      <c r="AS52" s="49"/>
-      <c r="AT52" s="49"/>
-      <c r="AU52" s="49"/>
-      <c r="AV52" s="49"/>
-      <c r="AW52" s="49"/>
-      <c r="AX52" s="49"/>
-      <c r="AY52" s="49"/>
-      <c r="AZ52" s="49"/>
-      <c r="BA52" s="49"/>
-      <c r="BB52" s="49"/>
-      <c r="BC52" s="49"/>
-      <c r="BD52" s="49"/>
-      <c r="BE52" s="25"/>
-      <c r="BF52" s="25"/>
-      <c r="BG52" s="25"/>
-      <c r="BH52" s="25"/>
-      <c r="BI52" s="25"/>
-      <c r="BJ52" s="25"/>
-      <c r="BK52" s="25"/>
+      <c r="D52" s="180">
+        <v>44849</v>
+      </c>
+      <c r="E52" s="180">
+        <v>44849</v>
+      </c>
+      <c r="F52" s="181"/>
+      <c r="G52" s="181"/>
+      <c r="H52" s="182"/>
+      <c r="I52" s="182"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="182"/>
+      <c r="L52" s="182"/>
+      <c r="M52" s="182"/>
+      <c r="N52" s="182"/>
+      <c r="O52" s="182"/>
+      <c r="P52" s="182"/>
+      <c r="Q52" s="182"/>
+      <c r="R52" s="182"/>
+      <c r="S52" s="182"/>
+      <c r="T52" s="182"/>
+      <c r="U52" s="182"/>
+      <c r="V52" s="182"/>
+      <c r="W52" s="182"/>
+      <c r="X52" s="183"/>
+      <c r="Y52" s="182"/>
+      <c r="Z52" s="182"/>
+      <c r="AA52" s="182"/>
+      <c r="AB52" s="182"/>
+      <c r="AC52" s="182"/>
+      <c r="AD52" s="182"/>
+      <c r="AE52" s="182"/>
+      <c r="AF52" s="182"/>
+      <c r="AG52" s="182"/>
+      <c r="AH52" s="182"/>
+      <c r="AI52" s="182"/>
+      <c r="AJ52" s="182"/>
+      <c r="AK52" s="182"/>
+      <c r="AL52" s="182"/>
+      <c r="AM52" s="182"/>
+      <c r="AN52" s="182"/>
+      <c r="AO52" s="182"/>
+      <c r="AP52" s="182"/>
+      <c r="AQ52" s="182"/>
+      <c r="AR52" s="182"/>
+      <c r="AS52" s="182"/>
+      <c r="AT52" s="182"/>
+      <c r="AU52" s="182"/>
+      <c r="AV52" s="182"/>
+      <c r="AW52" s="182"/>
+      <c r="AX52" s="182"/>
+      <c r="AY52" s="182"/>
+      <c r="AZ52" s="182"/>
+      <c r="BA52" s="182"/>
+      <c r="BB52" s="182"/>
+      <c r="BC52" s="182"/>
+      <c r="BD52" s="182"/>
+      <c r="BE52" s="182"/>
+      <c r="BF52" s="182"/>
+      <c r="BG52" s="182"/>
+      <c r="BH52" s="182"/>
+      <c r="BI52" s="182"/>
+      <c r="BJ52" s="45"/>
+      <c r="BK52" s="45"/>
       <c r="BL52" s="25"/>
       <c r="BM52" s="25"/>
       <c r="BN52" s="25"/>
@@ -9605,78 +9595,78 @@
       <c r="DG52" s="25"/>
       <c r="DH52" s="25"/>
     </row>
-    <row r="53" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
-      <c r="B53" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="18">
+      <c r="B53" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="185">
         <v>0</v>
       </c>
-      <c r="D53" s="20">
-        <v>44843</v>
-      </c>
-      <c r="E53" s="20">
-        <v>44843</v>
-      </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="49"/>
-      <c r="Z53" s="49"/>
-      <c r="AA53" s="49"/>
-      <c r="AB53" s="49"/>
-      <c r="AC53" s="49"/>
-      <c r="AD53" s="49"/>
-      <c r="AE53" s="49"/>
-      <c r="AF53" s="49"/>
-      <c r="AG53" s="49"/>
-      <c r="AH53" s="49"/>
-      <c r="AI53" s="49"/>
-      <c r="AJ53" s="49"/>
-      <c r="AK53" s="49"/>
-      <c r="AL53" s="49"/>
-      <c r="AM53" s="49"/>
-      <c r="AN53" s="49"/>
-      <c r="AO53" s="49"/>
-      <c r="AP53" s="49"/>
-      <c r="AQ53" s="49"/>
-      <c r="AR53" s="49"/>
-      <c r="AS53" s="49"/>
-      <c r="AT53" s="49"/>
-      <c r="AU53" s="49"/>
-      <c r="AV53" s="49"/>
-      <c r="AW53" s="49"/>
-      <c r="AX53" s="49"/>
-      <c r="AY53" s="49"/>
-      <c r="AZ53" s="49"/>
-      <c r="BA53" s="49"/>
-      <c r="BB53" s="49"/>
-      <c r="BC53" s="49"/>
-      <c r="BD53" s="49"/>
-      <c r="BE53" s="25"/>
-      <c r="BF53" s="25"/>
-      <c r="BG53" s="25"/>
-      <c r="BH53" s="25"/>
-      <c r="BI53" s="25"/>
-      <c r="BJ53" s="25"/>
-      <c r="BK53" s="25"/>
+      <c r="D53" s="180">
+        <v>44849</v>
+      </c>
+      <c r="E53" s="180">
+        <v>44849</v>
+      </c>
+      <c r="F53" s="181"/>
+      <c r="G53" s="181"/>
+      <c r="H53" s="182"/>
+      <c r="I53" s="182"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="182"/>
+      <c r="L53" s="182"/>
+      <c r="M53" s="182"/>
+      <c r="N53" s="182"/>
+      <c r="O53" s="182"/>
+      <c r="P53" s="182"/>
+      <c r="Q53" s="182"/>
+      <c r="R53" s="182"/>
+      <c r="S53" s="182"/>
+      <c r="T53" s="182"/>
+      <c r="U53" s="182"/>
+      <c r="V53" s="182"/>
+      <c r="W53" s="182"/>
+      <c r="X53" s="183"/>
+      <c r="Y53" s="182"/>
+      <c r="Z53" s="182"/>
+      <c r="AA53" s="182"/>
+      <c r="AB53" s="182"/>
+      <c r="AC53" s="182"/>
+      <c r="AD53" s="182"/>
+      <c r="AE53" s="182"/>
+      <c r="AF53" s="182"/>
+      <c r="AG53" s="182"/>
+      <c r="AH53" s="182"/>
+      <c r="AI53" s="182"/>
+      <c r="AJ53" s="182"/>
+      <c r="AK53" s="182"/>
+      <c r="AL53" s="182"/>
+      <c r="AM53" s="182"/>
+      <c r="AN53" s="182"/>
+      <c r="AO53" s="182"/>
+      <c r="AP53" s="182"/>
+      <c r="AQ53" s="182"/>
+      <c r="AR53" s="182"/>
+      <c r="AS53" s="182"/>
+      <c r="AT53" s="182"/>
+      <c r="AU53" s="182"/>
+      <c r="AV53" s="182"/>
+      <c r="AW53" s="182"/>
+      <c r="AX53" s="182"/>
+      <c r="AY53" s="182"/>
+      <c r="AZ53" s="182"/>
+      <c r="BA53" s="182"/>
+      <c r="BB53" s="182"/>
+      <c r="BC53" s="182"/>
+      <c r="BD53" s="182"/>
+      <c r="BE53" s="182"/>
+      <c r="BF53" s="182"/>
+      <c r="BG53" s="182"/>
+      <c r="BH53" s="182"/>
+      <c r="BI53" s="182"/>
+      <c r="BJ53" s="45"/>
+      <c r="BK53" s="45"/>
       <c r="BL53" s="25"/>
       <c r="BM53" s="25"/>
       <c r="BN53" s="25"/>
@@ -9729,78 +9719,76 @@
     </row>
     <row r="54" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
-      <c r="B54" s="191" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="192">
+      <c r="B54" s="184" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="185">
         <v>0</v>
       </c>
-      <c r="D54" s="193">
-        <v>44849</v>
-      </c>
-      <c r="E54" s="193">
+      <c r="D54" s="180">
         <v>44850</v>
       </c>
-      <c r="F54" s="188"/>
-      <c r="G54" s="188"/>
-      <c r="H54" s="189"/>
-      <c r="I54" s="189"/>
-      <c r="J54" s="189"/>
-      <c r="K54" s="189" t="s">
-        <v>146</v>
-      </c>
-      <c r="L54" s="189"/>
-      <c r="M54" s="189"/>
-      <c r="N54" s="189"/>
-      <c r="O54" s="189"/>
-      <c r="P54" s="189"/>
-      <c r="Q54" s="189"/>
-      <c r="R54" s="189"/>
-      <c r="S54" s="189"/>
-      <c r="T54" s="189"/>
-      <c r="U54" s="189"/>
-      <c r="V54" s="189"/>
-      <c r="W54" s="189"/>
-      <c r="X54" s="190"/>
-      <c r="Y54" s="189"/>
-      <c r="Z54" s="189"/>
-      <c r="AA54" s="189"/>
-      <c r="AB54" s="189"/>
-      <c r="AC54" s="189"/>
-      <c r="AD54" s="189"/>
-      <c r="AE54" s="189"/>
-      <c r="AF54" s="189"/>
-      <c r="AG54" s="189"/>
-      <c r="AH54" s="189"/>
-      <c r="AI54" s="189"/>
-      <c r="AJ54" s="189"/>
-      <c r="AK54" s="189"/>
-      <c r="AL54" s="189"/>
-      <c r="AM54" s="189"/>
-      <c r="AN54" s="189"/>
-      <c r="AO54" s="189"/>
-      <c r="AP54" s="189"/>
-      <c r="AQ54" s="189"/>
-      <c r="AR54" s="189"/>
-      <c r="AS54" s="189"/>
-      <c r="AT54" s="189"/>
-      <c r="AU54" s="189"/>
-      <c r="AV54" s="189"/>
-      <c r="AW54" s="189"/>
-      <c r="AX54" s="189"/>
-      <c r="AY54" s="189"/>
-      <c r="AZ54" s="189"/>
-      <c r="BA54" s="189"/>
-      <c r="BB54" s="189"/>
-      <c r="BC54" s="189"/>
-      <c r="BD54" s="189"/>
-      <c r="BE54" s="189"/>
-      <c r="BF54" s="189"/>
-      <c r="BG54" s="189"/>
-      <c r="BH54" s="189"/>
-      <c r="BI54" s="189"/>
-      <c r="BJ54" s="25"/>
-      <c r="BK54" s="25"/>
+      <c r="E54" s="180">
+        <v>44850</v>
+      </c>
+      <c r="F54" s="181"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="182"/>
+      <c r="I54" s="182"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="182"/>
+      <c r="L54" s="182"/>
+      <c r="M54" s="182"/>
+      <c r="N54" s="182"/>
+      <c r="O54" s="182"/>
+      <c r="P54" s="182"/>
+      <c r="Q54" s="182"/>
+      <c r="R54" s="182"/>
+      <c r="S54" s="182"/>
+      <c r="T54" s="182"/>
+      <c r="U54" s="182"/>
+      <c r="V54" s="182"/>
+      <c r="W54" s="182"/>
+      <c r="X54" s="183"/>
+      <c r="Y54" s="182"/>
+      <c r="Z54" s="182"/>
+      <c r="AA54" s="182"/>
+      <c r="AB54" s="182"/>
+      <c r="AC54" s="182"/>
+      <c r="AD54" s="182"/>
+      <c r="AE54" s="182"/>
+      <c r="AF54" s="182"/>
+      <c r="AG54" s="182"/>
+      <c r="AH54" s="182"/>
+      <c r="AI54" s="182"/>
+      <c r="AJ54" s="182"/>
+      <c r="AK54" s="182"/>
+      <c r="AL54" s="182"/>
+      <c r="AM54" s="182"/>
+      <c r="AN54" s="182"/>
+      <c r="AO54" s="182"/>
+      <c r="AP54" s="182"/>
+      <c r="AQ54" s="182"/>
+      <c r="AR54" s="182"/>
+      <c r="AS54" s="182"/>
+      <c r="AT54" s="182"/>
+      <c r="AU54" s="182"/>
+      <c r="AV54" s="182"/>
+      <c r="AW54" s="182"/>
+      <c r="AX54" s="182"/>
+      <c r="AY54" s="182"/>
+      <c r="AZ54" s="182"/>
+      <c r="BA54" s="182"/>
+      <c r="BB54" s="182"/>
+      <c r="BC54" s="182"/>
+      <c r="BD54" s="182"/>
+      <c r="BE54" s="182"/>
+      <c r="BF54" s="182"/>
+      <c r="BG54" s="182"/>
+      <c r="BH54" s="182"/>
+      <c r="BI54" s="182"/>
+      <c r="BJ54" s="45"/>
+      <c r="BK54" s="45"/>
       <c r="BL54" s="25"/>
       <c r="BM54" s="25"/>
       <c r="BN54" s="25"/>
@@ -9853,17 +9841,17 @@
     </row>
     <row r="55" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
-      <c r="B55" s="178" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="179">
+      <c r="B55" s="186" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="187">
         <v>0</v>
       </c>
       <c r="D55" s="180">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="E55" s="180">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="F55" s="181"/>
       <c r="G55" s="181"/>
@@ -9975,80 +9963,80 @@
     </row>
     <row r="56" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
-      <c r="B56" s="184" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="185">
+      <c r="B56" s="227" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="228">
         <v>0</v>
       </c>
-      <c r="D56" s="180">
-        <v>44849</v>
-      </c>
-      <c r="E56" s="180">
-        <v>44849</v>
-      </c>
-      <c r="F56" s="181"/>
-      <c r="G56" s="181"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="182"/>
-      <c r="J56" s="182"/>
-      <c r="K56" s="182"/>
-      <c r="L56" s="182"/>
-      <c r="M56" s="182"/>
-      <c r="N56" s="182"/>
-      <c r="O56" s="182"/>
-      <c r="P56" s="182"/>
-      <c r="Q56" s="182"/>
-      <c r="R56" s="182"/>
-      <c r="S56" s="182"/>
-      <c r="T56" s="182"/>
-      <c r="U56" s="182"/>
-      <c r="V56" s="182"/>
-      <c r="W56" s="182"/>
-      <c r="X56" s="183"/>
-      <c r="Y56" s="182"/>
-      <c r="Z56" s="182"/>
-      <c r="AA56" s="182"/>
-      <c r="AB56" s="182"/>
-      <c r="AC56" s="182"/>
-      <c r="AD56" s="182"/>
-      <c r="AE56" s="182"/>
-      <c r="AF56" s="182"/>
-      <c r="AG56" s="182"/>
-      <c r="AH56" s="182"/>
-      <c r="AI56" s="182"/>
-      <c r="AJ56" s="182"/>
-      <c r="AK56" s="182"/>
-      <c r="AL56" s="182"/>
-      <c r="AM56" s="182"/>
-      <c r="AN56" s="182"/>
-      <c r="AO56" s="182"/>
-      <c r="AP56" s="182"/>
-      <c r="AQ56" s="182"/>
-      <c r="AR56" s="182"/>
-      <c r="AS56" s="182"/>
-      <c r="AT56" s="182"/>
-      <c r="AU56" s="182"/>
-      <c r="AV56" s="182"/>
-      <c r="AW56" s="182"/>
-      <c r="AX56" s="182"/>
-      <c r="AY56" s="182"/>
-      <c r="AZ56" s="182"/>
-      <c r="BA56" s="182"/>
-      <c r="BB56" s="182"/>
-      <c r="BC56" s="182"/>
-      <c r="BD56" s="182"/>
-      <c r="BE56" s="182"/>
-      <c r="BF56" s="182"/>
-      <c r="BG56" s="182"/>
-      <c r="BH56" s="182"/>
-      <c r="BI56" s="182"/>
-      <c r="BJ56" s="45"/>
-      <c r="BK56" s="45"/>
-      <c r="BL56" s="25"/>
-      <c r="BM56" s="25"/>
-      <c r="BN56" s="25"/>
-      <c r="BO56" s="25"/>
+      <c r="D56" s="229">
+        <v>44854</v>
+      </c>
+      <c r="E56" s="229">
+        <v>44854</v>
+      </c>
+      <c r="F56" s="230"/>
+      <c r="G56" s="230"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="231"/>
+      <c r="K56" s="231"/>
+      <c r="L56" s="231"/>
+      <c r="M56" s="231"/>
+      <c r="N56" s="231"/>
+      <c r="O56" s="231"/>
+      <c r="P56" s="231"/>
+      <c r="Q56" s="231"/>
+      <c r="R56" s="231"/>
+      <c r="S56" s="231"/>
+      <c r="T56" s="231"/>
+      <c r="U56" s="231"/>
+      <c r="V56" s="231"/>
+      <c r="W56" s="231"/>
+      <c r="X56" s="232"/>
+      <c r="Y56" s="231"/>
+      <c r="Z56" s="231"/>
+      <c r="AA56" s="231"/>
+      <c r="AB56" s="231"/>
+      <c r="AC56" s="231"/>
+      <c r="AD56" s="231"/>
+      <c r="AE56" s="231"/>
+      <c r="AF56" s="231"/>
+      <c r="AG56" s="231"/>
+      <c r="AH56" s="231"/>
+      <c r="AI56" s="231"/>
+      <c r="AJ56" s="231"/>
+      <c r="AK56" s="231"/>
+      <c r="AL56" s="231"/>
+      <c r="AM56" s="231"/>
+      <c r="AN56" s="231"/>
+      <c r="AO56" s="231"/>
+      <c r="AP56" s="231"/>
+      <c r="AQ56" s="231"/>
+      <c r="AR56" s="231"/>
+      <c r="AS56" s="231"/>
+      <c r="AT56" s="231"/>
+      <c r="AU56" s="231"/>
+      <c r="AV56" s="231"/>
+      <c r="AW56" s="231"/>
+      <c r="AX56" s="231"/>
+      <c r="AY56" s="231"/>
+      <c r="AZ56" s="231"/>
+      <c r="BA56" s="231"/>
+      <c r="BB56" s="231"/>
+      <c r="BC56" s="231"/>
+      <c r="BD56" s="231"/>
+      <c r="BE56" s="231"/>
+      <c r="BF56" s="231"/>
+      <c r="BG56" s="231"/>
+      <c r="BH56" s="231"/>
+      <c r="BI56" s="231"/>
+      <c r="BJ56" s="231"/>
+      <c r="BK56" s="231"/>
+      <c r="BL56" s="231"/>
+      <c r="BM56" s="231"/>
+      <c r="BN56" s="233"/>
+      <c r="BO56" s="233"/>
       <c r="BP56" s="25"/>
       <c r="BQ56" s="25"/>
       <c r="BR56" s="25"/>
@@ -10097,198 +10085,198 @@
     </row>
     <row r="57" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
-      <c r="B57" s="184" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="185">
-        <v>0</v>
-      </c>
-      <c r="D57" s="180">
-        <v>44849</v>
-      </c>
-      <c r="E57" s="180">
-        <v>44849</v>
-      </c>
-      <c r="F57" s="181"/>
-      <c r="G57" s="181"/>
-      <c r="H57" s="182"/>
-      <c r="I57" s="182"/>
-      <c r="J57" s="182"/>
-      <c r="K57" s="182"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="182"/>
-      <c r="N57" s="182"/>
-      <c r="O57" s="182"/>
-      <c r="P57" s="182"/>
-      <c r="Q57" s="182"/>
-      <c r="R57" s="182"/>
-      <c r="S57" s="182"/>
-      <c r="T57" s="182"/>
-      <c r="U57" s="182"/>
-      <c r="V57" s="182"/>
-      <c r="W57" s="182"/>
-      <c r="X57" s="183"/>
-      <c r="Y57" s="182"/>
-      <c r="Z57" s="182"/>
-      <c r="AA57" s="182"/>
-      <c r="AB57" s="182"/>
-      <c r="AC57" s="182"/>
-      <c r="AD57" s="182"/>
-      <c r="AE57" s="182"/>
-      <c r="AF57" s="182"/>
-      <c r="AG57" s="182"/>
-      <c r="AH57" s="182"/>
-      <c r="AI57" s="182"/>
-      <c r="AJ57" s="182"/>
-      <c r="AK57" s="182"/>
-      <c r="AL57" s="182"/>
-      <c r="AM57" s="182"/>
-      <c r="AN57" s="182"/>
-      <c r="AO57" s="182"/>
-      <c r="AP57" s="182"/>
-      <c r="AQ57" s="182"/>
-      <c r="AR57" s="182"/>
-      <c r="AS57" s="182"/>
-      <c r="AT57" s="182"/>
-      <c r="AU57" s="182"/>
-      <c r="AV57" s="182"/>
-      <c r="AW57" s="182"/>
-      <c r="AX57" s="182"/>
-      <c r="AY57" s="182"/>
-      <c r="AZ57" s="182"/>
-      <c r="BA57" s="182"/>
-      <c r="BB57" s="182"/>
-      <c r="BC57" s="182"/>
-      <c r="BD57" s="182"/>
-      <c r="BE57" s="182"/>
-      <c r="BF57" s="182"/>
-      <c r="BG57" s="182"/>
-      <c r="BH57" s="182"/>
-      <c r="BI57" s="182"/>
-      <c r="BJ57" s="45"/>
-      <c r="BK57" s="45"/>
-      <c r="BL57" s="25"/>
-      <c r="BM57" s="25"/>
-      <c r="BN57" s="25"/>
-      <c r="BO57" s="25"/>
-      <c r="BP57" s="25"/>
-      <c r="BQ57" s="25"/>
-      <c r="BR57" s="25"/>
-      <c r="BS57" s="25"/>
-      <c r="BT57" s="25"/>
-      <c r="BU57" s="25"/>
-      <c r="BV57" s="25"/>
-      <c r="BW57" s="25"/>
-      <c r="BX57" s="25"/>
-      <c r="BY57" s="25"/>
-      <c r="BZ57" s="25"/>
-      <c r="CA57" s="25"/>
-      <c r="CB57" s="25"/>
-      <c r="CC57" s="25"/>
-      <c r="CD57" s="25"/>
-      <c r="CE57" s="25"/>
-      <c r="CF57" s="25"/>
-      <c r="CG57" s="25"/>
-      <c r="CH57" s="25"/>
-      <c r="CI57" s="25"/>
-      <c r="CJ57" s="25"/>
-      <c r="CK57" s="25"/>
-      <c r="CL57" s="25"/>
-      <c r="CM57" s="25"/>
-      <c r="CN57" s="25"/>
-      <c r="CO57" s="25"/>
-      <c r="CP57" s="25"/>
-      <c r="CQ57" s="25"/>
-      <c r="CR57" s="25"/>
-      <c r="CS57" s="25"/>
-      <c r="CT57" s="25"/>
-      <c r="CU57" s="25"/>
-      <c r="CV57" s="25"/>
-      <c r="CW57" s="25"/>
-      <c r="CX57" s="25"/>
-      <c r="CY57" s="25"/>
-      <c r="CZ57" s="25"/>
-      <c r="DA57" s="25"/>
-      <c r="DB57" s="25"/>
-      <c r="DC57" s="25"/>
-      <c r="DD57" s="25"/>
-      <c r="DE57" s="25"/>
-      <c r="DF57" s="25"/>
-      <c r="DG57" s="25"/>
-      <c r="DH57" s="25"/>
+      <c r="B57" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="68"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="72"/>
+      <c r="S57" s="72"/>
+      <c r="T57" s="72"/>
+      <c r="U57" s="72"/>
+      <c r="V57" s="72"/>
+      <c r="W57" s="72"/>
+      <c r="X57" s="72"/>
+      <c r="Y57" s="72"/>
+      <c r="Z57" s="72"/>
+      <c r="AA57" s="72"/>
+      <c r="AB57" s="72"/>
+      <c r="AC57" s="72"/>
+      <c r="AD57" s="72"/>
+      <c r="AE57" s="72"/>
+      <c r="AF57" s="72"/>
+      <c r="AG57" s="72"/>
+      <c r="AH57" s="72"/>
+      <c r="AI57" s="72"/>
+      <c r="AJ57" s="72"/>
+      <c r="AK57" s="72"/>
+      <c r="AL57" s="72"/>
+      <c r="AM57" s="72"/>
+      <c r="AN57" s="72"/>
+      <c r="AO57" s="72"/>
+      <c r="AP57" s="72"/>
+      <c r="AQ57" s="72"/>
+      <c r="AR57" s="72"/>
+      <c r="AS57" s="72"/>
+      <c r="AT57" s="72"/>
+      <c r="AU57" s="72"/>
+      <c r="AV57" s="72"/>
+      <c r="AW57" s="72"/>
+      <c r="AX57" s="72"/>
+      <c r="AY57" s="72"/>
+      <c r="AZ57" s="72"/>
+      <c r="BA57" s="72"/>
+      <c r="BB57" s="72"/>
+      <c r="BC57" s="72"/>
+      <c r="BD57" s="72"/>
+      <c r="BE57" s="72"/>
+      <c r="BF57" s="72"/>
+      <c r="BG57" s="72"/>
+      <c r="BH57" s="72"/>
+      <c r="BI57" s="72"/>
+      <c r="BJ57" s="72"/>
+      <c r="BK57" s="72"/>
+      <c r="BL57" s="72"/>
+      <c r="BM57" s="72"/>
+      <c r="BN57" s="72"/>
+      <c r="BO57" s="72"/>
+      <c r="BP57" s="72"/>
+      <c r="BQ57" s="72"/>
+      <c r="BR57" s="72"/>
+      <c r="BS57" s="72"/>
+      <c r="BT57" s="72"/>
+      <c r="BU57" s="72"/>
+      <c r="BV57" s="72"/>
+      <c r="BW57" s="72"/>
+      <c r="BX57" s="72"/>
+      <c r="BY57" s="72"/>
+      <c r="BZ57" s="72"/>
+      <c r="CA57" s="72"/>
+      <c r="CB57" s="72"/>
+      <c r="CC57" s="72"/>
+      <c r="CD57" s="72"/>
+      <c r="CE57" s="72"/>
+      <c r="CF57" s="72"/>
+      <c r="CG57" s="72"/>
+      <c r="CH57" s="72"/>
+      <c r="CI57" s="72"/>
+      <c r="CJ57" s="72"/>
+      <c r="CK57" s="72"/>
+      <c r="CL57" s="72"/>
+      <c r="CM57" s="72"/>
+      <c r="CN57" s="72"/>
+      <c r="CO57" s="72"/>
+      <c r="CP57" s="72"/>
+      <c r="CQ57" s="72"/>
+      <c r="CR57" s="72"/>
+      <c r="CS57" s="72"/>
+      <c r="CT57" s="72"/>
+      <c r="CU57" s="72"/>
+      <c r="CV57" s="72"/>
+      <c r="CW57" s="72"/>
+      <c r="CX57" s="72"/>
+      <c r="CY57" s="72"/>
+      <c r="CZ57" s="72"/>
+      <c r="DA57" s="72"/>
+      <c r="DB57" s="72"/>
+      <c r="DC57" s="72"/>
+      <c r="DD57" s="72"/>
+      <c r="DE57" s="72"/>
+      <c r="DF57" s="72"/>
+      <c r="DG57" s="72"/>
+      <c r="DH57" s="72"/>
     </row>
     <row r="58" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
-      <c r="B58" s="184" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="185">
+      <c r="B58" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="58">
         <v>0</v>
       </c>
-      <c r="D58" s="180">
-        <v>44850</v>
-      </c>
-      <c r="E58" s="180">
-        <v>44850</v>
-      </c>
-      <c r="F58" s="181"/>
-      <c r="G58" s="181"/>
-      <c r="H58" s="182"/>
-      <c r="I58" s="182"/>
-      <c r="J58" s="182"/>
-      <c r="K58" s="182"/>
-      <c r="L58" s="182"/>
-      <c r="M58" s="182"/>
-      <c r="N58" s="182"/>
-      <c r="O58" s="182"/>
-      <c r="P58" s="182"/>
-      <c r="Q58" s="182"/>
-      <c r="R58" s="182"/>
-      <c r="S58" s="182"/>
-      <c r="T58" s="182"/>
-      <c r="U58" s="182"/>
-      <c r="V58" s="182"/>
-      <c r="W58" s="182"/>
-      <c r="X58" s="183"/>
-      <c r="Y58" s="182"/>
-      <c r="Z58" s="182"/>
-      <c r="AA58" s="182"/>
-      <c r="AB58" s="182"/>
-      <c r="AC58" s="182"/>
-      <c r="AD58" s="182"/>
-      <c r="AE58" s="182"/>
-      <c r="AF58" s="182"/>
-      <c r="AG58" s="182"/>
-      <c r="AH58" s="182"/>
-      <c r="AI58" s="182"/>
-      <c r="AJ58" s="182"/>
-      <c r="AK58" s="182"/>
-      <c r="AL58" s="182"/>
-      <c r="AM58" s="182"/>
-      <c r="AN58" s="182"/>
-      <c r="AO58" s="182"/>
-      <c r="AP58" s="182"/>
-      <c r="AQ58" s="182"/>
-      <c r="AR58" s="182"/>
-      <c r="AS58" s="182"/>
-      <c r="AT58" s="182"/>
-      <c r="AU58" s="182"/>
-      <c r="AV58" s="182"/>
-      <c r="AW58" s="182"/>
-      <c r="AX58" s="182"/>
-      <c r="AY58" s="182"/>
-      <c r="AZ58" s="182"/>
-      <c r="BA58" s="182"/>
-      <c r="BB58" s="182"/>
-      <c r="BC58" s="182"/>
-      <c r="BD58" s="182"/>
-      <c r="BE58" s="182"/>
-      <c r="BF58" s="182"/>
-      <c r="BG58" s="182"/>
-      <c r="BH58" s="182"/>
-      <c r="BI58" s="182"/>
-      <c r="BJ58" s="45"/>
-      <c r="BK58" s="45"/>
+      <c r="D58" s="59">
+        <v>44844</v>
+      </c>
+      <c r="E58" s="60">
+        <v>44848</v>
+      </c>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="62"/>
+      <c r="V58" s="62"/>
+      <c r="W58" s="62"/>
+      <c r="X58" s="62"/>
+      <c r="Y58" s="62"/>
+      <c r="Z58" s="62"/>
+      <c r="AA58" s="62"/>
+      <c r="AB58" s="62"/>
+      <c r="AC58" s="62"/>
+      <c r="AD58" s="62"/>
+      <c r="AE58" s="62"/>
+      <c r="AF58" s="62"/>
+      <c r="AG58" s="62"/>
+      <c r="AH58" s="62"/>
+      <c r="AI58" s="62"/>
+      <c r="AJ58" s="62"/>
+      <c r="AK58" s="62"/>
+      <c r="AL58" s="62"/>
+      <c r="AM58" s="62"/>
+      <c r="AN58" s="62"/>
+      <c r="AO58" s="62"/>
+      <c r="AP58" s="62"/>
+      <c r="AQ58" s="62"/>
+      <c r="AR58" s="62"/>
+      <c r="AS58" s="62"/>
+      <c r="AT58" s="62"/>
+      <c r="AU58" s="62"/>
+      <c r="AV58" s="62"/>
+      <c r="AW58" s="62"/>
+      <c r="AX58" s="62"/>
+      <c r="AY58" s="62"/>
+      <c r="AZ58" s="62"/>
+      <c r="BA58" s="62"/>
+      <c r="BB58" s="62"/>
+      <c r="BC58" s="62"/>
+      <c r="BD58" s="62"/>
+      <c r="BE58" s="62"/>
+      <c r="BF58" s="62"/>
+      <c r="BG58" s="62"/>
+      <c r="BH58" s="62"/>
+      <c r="BI58" s="120"/>
+      <c r="BJ58" s="120"/>
+      <c r="BK58" s="120"/>
       <c r="BL58" s="25"/>
       <c r="BM58" s="25"/>
       <c r="BN58" s="25"/>
@@ -10341,76 +10329,76 @@
     </row>
     <row r="59" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
-      <c r="B59" s="186" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="187">
+      <c r="B59" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="52">
         <v>0</v>
       </c>
-      <c r="D59" s="180">
-        <v>44850</v>
-      </c>
-      <c r="E59" s="180">
-        <v>44850</v>
-      </c>
-      <c r="F59" s="181"/>
-      <c r="G59" s="181"/>
-      <c r="H59" s="182"/>
-      <c r="I59" s="182"/>
-      <c r="J59" s="182"/>
-      <c r="K59" s="182"/>
-      <c r="L59" s="182"/>
-      <c r="M59" s="182"/>
-      <c r="N59" s="182"/>
-      <c r="O59" s="182"/>
-      <c r="P59" s="182"/>
-      <c r="Q59" s="182"/>
-      <c r="R59" s="182"/>
-      <c r="S59" s="182"/>
-      <c r="T59" s="182"/>
-      <c r="U59" s="182"/>
-      <c r="V59" s="182"/>
-      <c r="W59" s="182"/>
-      <c r="X59" s="183"/>
-      <c r="Y59" s="182"/>
-      <c r="Z59" s="182"/>
-      <c r="AA59" s="182"/>
-      <c r="AB59" s="182"/>
-      <c r="AC59" s="182"/>
-      <c r="AD59" s="182"/>
-      <c r="AE59" s="182"/>
-      <c r="AF59" s="182"/>
-      <c r="AG59" s="182"/>
-      <c r="AH59" s="182"/>
-      <c r="AI59" s="182"/>
-      <c r="AJ59" s="182"/>
-      <c r="AK59" s="182"/>
-      <c r="AL59" s="182"/>
-      <c r="AM59" s="182"/>
-      <c r="AN59" s="182"/>
-      <c r="AO59" s="182"/>
-      <c r="AP59" s="182"/>
-      <c r="AQ59" s="182"/>
-      <c r="AR59" s="182"/>
-      <c r="AS59" s="182"/>
-      <c r="AT59" s="182"/>
-      <c r="AU59" s="182"/>
-      <c r="AV59" s="182"/>
-      <c r="AW59" s="182"/>
-      <c r="AX59" s="182"/>
-      <c r="AY59" s="182"/>
-      <c r="AZ59" s="182"/>
-      <c r="BA59" s="182"/>
-      <c r="BB59" s="182"/>
-      <c r="BC59" s="182"/>
-      <c r="BD59" s="182"/>
-      <c r="BE59" s="182"/>
-      <c r="BF59" s="182"/>
-      <c r="BG59" s="182"/>
-      <c r="BH59" s="182"/>
-      <c r="BI59" s="182"/>
-      <c r="BJ59" s="45"/>
-      <c r="BK59" s="45"/>
+      <c r="D59" s="53">
+        <v>44844</v>
+      </c>
+      <c r="E59" s="53">
+        <v>44844</v>
+      </c>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="55"/>
+      <c r="AC59" s="55"/>
+      <c r="AD59" s="55"/>
+      <c r="AE59" s="55"/>
+      <c r="AF59" s="55"/>
+      <c r="AG59" s="55"/>
+      <c r="AH59" s="55"/>
+      <c r="AI59" s="55"/>
+      <c r="AJ59" s="55"/>
+      <c r="AK59" s="55"/>
+      <c r="AL59" s="55"/>
+      <c r="AM59" s="55"/>
+      <c r="AN59" s="55"/>
+      <c r="AO59" s="55"/>
+      <c r="AP59" s="55"/>
+      <c r="AQ59" s="55"/>
+      <c r="AR59" s="55"/>
+      <c r="AS59" s="55"/>
+      <c r="AT59" s="55"/>
+      <c r="AU59" s="55"/>
+      <c r="AV59" s="55"/>
+      <c r="AW59" s="55"/>
+      <c r="AX59" s="55"/>
+      <c r="AY59" s="55"/>
+      <c r="AZ59" s="55"/>
+      <c r="BA59" s="55"/>
+      <c r="BB59" s="55"/>
+      <c r="BC59" s="55"/>
+      <c r="BD59" s="55"/>
+      <c r="BE59" s="55"/>
+      <c r="BF59" s="55"/>
+      <c r="BG59" s="55"/>
+      <c r="BH59" s="55"/>
+      <c r="BI59" s="55"/>
+      <c r="BJ59" s="120"/>
+      <c r="BK59" s="120"/>
       <c r="BL59" s="25"/>
       <c r="BM59" s="25"/>
       <c r="BN59" s="25"/>
@@ -10463,80 +10451,80 @@
     </row>
     <row r="60" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
-      <c r="B60" s="234" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="235">
+      <c r="B60" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="52">
         <v>0</v>
       </c>
-      <c r="D60" s="236">
-        <v>44854</v>
-      </c>
-      <c r="E60" s="236">
-        <v>44854</v>
-      </c>
-      <c r="F60" s="237"/>
-      <c r="G60" s="237"/>
-      <c r="H60" s="238"/>
-      <c r="I60" s="238"/>
-      <c r="J60" s="238"/>
-      <c r="K60" s="238"/>
-      <c r="L60" s="238"/>
-      <c r="M60" s="238"/>
-      <c r="N60" s="238"/>
-      <c r="O60" s="238"/>
-      <c r="P60" s="238"/>
-      <c r="Q60" s="238"/>
-      <c r="R60" s="238"/>
-      <c r="S60" s="238"/>
-      <c r="T60" s="238"/>
-      <c r="U60" s="238"/>
-      <c r="V60" s="238"/>
-      <c r="W60" s="238"/>
-      <c r="X60" s="239"/>
-      <c r="Y60" s="238"/>
-      <c r="Z60" s="238"/>
-      <c r="AA60" s="238"/>
-      <c r="AB60" s="238"/>
-      <c r="AC60" s="238"/>
-      <c r="AD60" s="238"/>
-      <c r="AE60" s="238"/>
-      <c r="AF60" s="238"/>
-      <c r="AG60" s="238"/>
-      <c r="AH60" s="238"/>
-      <c r="AI60" s="238"/>
-      <c r="AJ60" s="238"/>
-      <c r="AK60" s="238"/>
-      <c r="AL60" s="238"/>
-      <c r="AM60" s="238"/>
-      <c r="AN60" s="238"/>
-      <c r="AO60" s="238"/>
-      <c r="AP60" s="238"/>
-      <c r="AQ60" s="238"/>
-      <c r="AR60" s="238"/>
-      <c r="AS60" s="238"/>
-      <c r="AT60" s="238"/>
-      <c r="AU60" s="238"/>
-      <c r="AV60" s="238"/>
-      <c r="AW60" s="238"/>
-      <c r="AX60" s="238"/>
-      <c r="AY60" s="238"/>
-      <c r="AZ60" s="238"/>
-      <c r="BA60" s="238"/>
-      <c r="BB60" s="238"/>
-      <c r="BC60" s="238"/>
-      <c r="BD60" s="238"/>
-      <c r="BE60" s="238"/>
-      <c r="BF60" s="238"/>
-      <c r="BG60" s="238"/>
-      <c r="BH60" s="238"/>
-      <c r="BI60" s="238"/>
-      <c r="BJ60" s="238"/>
-      <c r="BK60" s="238"/>
-      <c r="BL60" s="238"/>
-      <c r="BM60" s="238"/>
-      <c r="BN60" s="240"/>
-      <c r="BO60" s="240"/>
+      <c r="D60" s="53">
+        <v>44844</v>
+      </c>
+      <c r="E60" s="53">
+        <v>44844</v>
+      </c>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="55"/>
+      <c r="Y60" s="55"/>
+      <c r="Z60" s="55"/>
+      <c r="AA60" s="55"/>
+      <c r="AB60" s="55"/>
+      <c r="AC60" s="55"/>
+      <c r="AD60" s="55"/>
+      <c r="AE60" s="55"/>
+      <c r="AF60" s="55"/>
+      <c r="AG60" s="55"/>
+      <c r="AH60" s="55"/>
+      <c r="AI60" s="55"/>
+      <c r="AJ60" s="55"/>
+      <c r="AK60" s="55"/>
+      <c r="AL60" s="55"/>
+      <c r="AM60" s="55"/>
+      <c r="AN60" s="55"/>
+      <c r="AO60" s="55"/>
+      <c r="AP60" s="55"/>
+      <c r="AQ60" s="55"/>
+      <c r="AR60" s="55"/>
+      <c r="AS60" s="55"/>
+      <c r="AT60" s="55"/>
+      <c r="AU60" s="55"/>
+      <c r="AV60" s="55"/>
+      <c r="AW60" s="55"/>
+      <c r="AX60" s="55"/>
+      <c r="AY60" s="55"/>
+      <c r="AZ60" s="55"/>
+      <c r="BA60" s="55"/>
+      <c r="BB60" s="55"/>
+      <c r="BC60" s="55"/>
+      <c r="BD60" s="55"/>
+      <c r="BE60" s="55"/>
+      <c r="BF60" s="55"/>
+      <c r="BG60" s="55"/>
+      <c r="BH60" s="55"/>
+      <c r="BI60" s="55"/>
+      <c r="BJ60" s="120"/>
+      <c r="BK60" s="120"/>
+      <c r="BL60" s="25"/>
+      <c r="BM60" s="25"/>
+      <c r="BN60" s="25"/>
+      <c r="BO60" s="25"/>
       <c r="BP60" s="25"/>
       <c r="BQ60" s="25"/>
       <c r="BR60" s="25"/>
@@ -10585,196 +10573,196 @@
     </row>
     <row r="61" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
-      <c r="B61" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="72"/>
-      <c r="W61" s="72"/>
-      <c r="X61" s="72"/>
-      <c r="Y61" s="72"/>
-      <c r="Z61" s="72"/>
-      <c r="AA61" s="72"/>
-      <c r="AB61" s="72"/>
-      <c r="AC61" s="72"/>
-      <c r="AD61" s="72"/>
-      <c r="AE61" s="72"/>
-      <c r="AF61" s="72"/>
-      <c r="AG61" s="72"/>
-      <c r="AH61" s="72"/>
-      <c r="AI61" s="72"/>
-      <c r="AJ61" s="72"/>
-      <c r="AK61" s="72"/>
-      <c r="AL61" s="72"/>
-      <c r="AM61" s="72"/>
-      <c r="AN61" s="72"/>
-      <c r="AO61" s="72"/>
-      <c r="AP61" s="72"/>
-      <c r="AQ61" s="72"/>
-      <c r="AR61" s="72"/>
-      <c r="AS61" s="72"/>
-      <c r="AT61" s="72"/>
-      <c r="AU61" s="72"/>
-      <c r="AV61" s="72"/>
-      <c r="AW61" s="72"/>
-      <c r="AX61" s="72"/>
-      <c r="AY61" s="72"/>
-      <c r="AZ61" s="72"/>
-      <c r="BA61" s="72"/>
-      <c r="BB61" s="72"/>
-      <c r="BC61" s="72"/>
-      <c r="BD61" s="72"/>
-      <c r="BE61" s="72"/>
-      <c r="BF61" s="72"/>
-      <c r="BG61" s="72"/>
-      <c r="BH61" s="72"/>
-      <c r="BI61" s="72"/>
-      <c r="BJ61" s="72"/>
-      <c r="BK61" s="72"/>
-      <c r="BL61" s="72"/>
-      <c r="BM61" s="72"/>
-      <c r="BN61" s="72"/>
-      <c r="BO61" s="72"/>
-      <c r="BP61" s="72"/>
-      <c r="BQ61" s="72"/>
-      <c r="BR61" s="72"/>
-      <c r="BS61" s="72"/>
-      <c r="BT61" s="72"/>
-      <c r="BU61" s="72"/>
-      <c r="BV61" s="72"/>
-      <c r="BW61" s="72"/>
-      <c r="BX61" s="72"/>
-      <c r="BY61" s="72"/>
-      <c r="BZ61" s="72"/>
-      <c r="CA61" s="72"/>
-      <c r="CB61" s="72"/>
-      <c r="CC61" s="72"/>
-      <c r="CD61" s="72"/>
-      <c r="CE61" s="72"/>
-      <c r="CF61" s="72"/>
-      <c r="CG61" s="72"/>
-      <c r="CH61" s="72"/>
-      <c r="CI61" s="72"/>
-      <c r="CJ61" s="72"/>
-      <c r="CK61" s="72"/>
-      <c r="CL61" s="72"/>
-      <c r="CM61" s="72"/>
-      <c r="CN61" s="72"/>
-      <c r="CO61" s="72"/>
-      <c r="CP61" s="72"/>
-      <c r="CQ61" s="72"/>
-      <c r="CR61" s="72"/>
-      <c r="CS61" s="72"/>
-      <c r="CT61" s="72"/>
-      <c r="CU61" s="72"/>
-      <c r="CV61" s="72"/>
-      <c r="CW61" s="72"/>
-      <c r="CX61" s="72"/>
-      <c r="CY61" s="72"/>
-      <c r="CZ61" s="72"/>
-      <c r="DA61" s="72"/>
-      <c r="DB61" s="72"/>
-      <c r="DC61" s="72"/>
-      <c r="DD61" s="72"/>
-      <c r="DE61" s="72"/>
-      <c r="DF61" s="72"/>
-      <c r="DG61" s="72"/>
-      <c r="DH61" s="72"/>
+      <c r="B61" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="52">
+        <v>0</v>
+      </c>
+      <c r="D61" s="53">
+        <v>44844</v>
+      </c>
+      <c r="E61" s="53">
+        <v>44844</v>
+      </c>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+      <c r="Y61" s="55"/>
+      <c r="Z61" s="55"/>
+      <c r="AA61" s="55"/>
+      <c r="AB61" s="55"/>
+      <c r="AC61" s="55"/>
+      <c r="AD61" s="55"/>
+      <c r="AE61" s="55"/>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="55"/>
+      <c r="AH61" s="55"/>
+      <c r="AI61" s="55"/>
+      <c r="AJ61" s="55"/>
+      <c r="AK61" s="55"/>
+      <c r="AL61" s="55"/>
+      <c r="AM61" s="55"/>
+      <c r="AN61" s="55"/>
+      <c r="AO61" s="55"/>
+      <c r="AP61" s="55"/>
+      <c r="AQ61" s="55"/>
+      <c r="AR61" s="55"/>
+      <c r="AS61" s="55"/>
+      <c r="AT61" s="55"/>
+      <c r="AU61" s="55"/>
+      <c r="AV61" s="55"/>
+      <c r="AW61" s="55"/>
+      <c r="AX61" s="55"/>
+      <c r="AY61" s="55"/>
+      <c r="AZ61" s="55"/>
+      <c r="BA61" s="55"/>
+      <c r="BB61" s="55"/>
+      <c r="BC61" s="55"/>
+      <c r="BD61" s="55"/>
+      <c r="BE61" s="55"/>
+      <c r="BF61" s="55"/>
+      <c r="BG61" s="55"/>
+      <c r="BH61" s="55"/>
+      <c r="BI61" s="55"/>
+      <c r="BJ61" s="120"/>
+      <c r="BK61" s="120"/>
+      <c r="BL61" s="25"/>
+      <c r="BM61" s="25"/>
+      <c r="BN61" s="25"/>
+      <c r="BO61" s="25"/>
+      <c r="BP61" s="25"/>
+      <c r="BQ61" s="25"/>
+      <c r="BR61" s="25"/>
+      <c r="BS61" s="25"/>
+      <c r="BT61" s="25"/>
+      <c r="BU61" s="25"/>
+      <c r="BV61" s="25"/>
+      <c r="BW61" s="25"/>
+      <c r="BX61" s="25"/>
+      <c r="BY61" s="25"/>
+      <c r="BZ61" s="25"/>
+      <c r="CA61" s="25"/>
+      <c r="CB61" s="25"/>
+      <c r="CC61" s="25"/>
+      <c r="CD61" s="25"/>
+      <c r="CE61" s="25"/>
+      <c r="CF61" s="25"/>
+      <c r="CG61" s="25"/>
+      <c r="CH61" s="25"/>
+      <c r="CI61" s="25"/>
+      <c r="CJ61" s="25"/>
+      <c r="CK61" s="25"/>
+      <c r="CL61" s="25"/>
+      <c r="CM61" s="25"/>
+      <c r="CN61" s="25"/>
+      <c r="CO61" s="25"/>
+      <c r="CP61" s="25"/>
+      <c r="CQ61" s="25"/>
+      <c r="CR61" s="25"/>
+      <c r="CS61" s="25"/>
+      <c r="CT61" s="25"/>
+      <c r="CU61" s="25"/>
+      <c r="CV61" s="25"/>
+      <c r="CW61" s="25"/>
+      <c r="CX61" s="25"/>
+      <c r="CY61" s="25"/>
+      <c r="CZ61" s="25"/>
+      <c r="DA61" s="25"/>
+      <c r="DB61" s="25"/>
+      <c r="DC61" s="25"/>
+      <c r="DD61" s="25"/>
+      <c r="DE61" s="25"/>
+      <c r="DF61" s="25"/>
+      <c r="DG61" s="25"/>
+      <c r="DH61" s="25"/>
     </row>
     <row r="62" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
-      <c r="B62" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="58">
+      <c r="B62" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="52">
         <v>0</v>
       </c>
-      <c r="D62" s="59">
+      <c r="D62" s="53">
         <v>44844</v>
       </c>
-      <c r="E62" s="60">
-        <v>44848</v>
-      </c>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61">
-        <f t="shared" si="42"/>
-        <v>5</v>
-      </c>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="62"/>
-      <c r="U62" s="62"/>
-      <c r="V62" s="62"/>
-      <c r="W62" s="62"/>
-      <c r="X62" s="62"/>
-      <c r="Y62" s="62"/>
-      <c r="Z62" s="62"/>
-      <c r="AA62" s="62"/>
-      <c r="AB62" s="62"/>
-      <c r="AC62" s="62"/>
-      <c r="AD62" s="62"/>
-      <c r="AE62" s="62"/>
-      <c r="AF62" s="62"/>
-      <c r="AG62" s="62"/>
-      <c r="AH62" s="62"/>
-      <c r="AI62" s="62"/>
-      <c r="AJ62" s="62"/>
-      <c r="AK62" s="62"/>
-      <c r="AL62" s="62"/>
-      <c r="AM62" s="62"/>
-      <c r="AN62" s="62"/>
-      <c r="AO62" s="62"/>
-      <c r="AP62" s="62"/>
-      <c r="AQ62" s="62"/>
-      <c r="AR62" s="62"/>
-      <c r="AS62" s="62"/>
-      <c r="AT62" s="62"/>
-      <c r="AU62" s="62"/>
-      <c r="AV62" s="62"/>
-      <c r="AW62" s="62"/>
-      <c r="AX62" s="62"/>
-      <c r="AY62" s="62"/>
-      <c r="AZ62" s="62"/>
-      <c r="BA62" s="62"/>
-      <c r="BB62" s="62"/>
-      <c r="BC62" s="62"/>
-      <c r="BD62" s="62"/>
-      <c r="BE62" s="62"/>
-      <c r="BF62" s="62"/>
-      <c r="BG62" s="62"/>
-      <c r="BH62" s="62"/>
-      <c r="BI62" s="120"/>
+      <c r="E62" s="53">
+        <v>44844</v>
+      </c>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="55"/>
+      <c r="AE62" s="55"/>
+      <c r="AF62" s="55"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="55"/>
+      <c r="AI62" s="55"/>
+      <c r="AJ62" s="55"/>
+      <c r="AK62" s="55"/>
+      <c r="AL62" s="55"/>
+      <c r="AM62" s="55"/>
+      <c r="AN62" s="55"/>
+      <c r="AO62" s="55"/>
+      <c r="AP62" s="55"/>
+      <c r="AQ62" s="55"/>
+      <c r="AR62" s="55"/>
+      <c r="AS62" s="55"/>
+      <c r="AT62" s="55"/>
+      <c r="AU62" s="55"/>
+      <c r="AV62" s="55"/>
+      <c r="AW62" s="55"/>
+      <c r="AX62" s="55"/>
+      <c r="AY62" s="55"/>
+      <c r="AZ62" s="55"/>
+      <c r="BA62" s="55"/>
+      <c r="BB62" s="55"/>
+      <c r="BC62" s="55"/>
+      <c r="BD62" s="55"/>
+      <c r="BE62" s="55"/>
+      <c r="BF62" s="55"/>
+      <c r="BG62" s="55"/>
+      <c r="BH62" s="55"/>
+      <c r="BI62" s="55"/>
       <c r="BJ62" s="120"/>
       <c r="BK62" s="120"/>
       <c r="BL62" s="25"/>
@@ -10830,7 +10818,7 @@
     <row r="63" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="51" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C63" s="52">
         <v>0</v>
@@ -10952,7 +10940,7 @@
     <row r="64" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="51" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C64" s="52">
         <v>0</v>
@@ -11074,7 +11062,7 @@
     <row r="65" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="51" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C65" s="52">
         <v>0</v>
@@ -11193,10 +11181,10 @@
       <c r="DG65" s="25"/>
       <c r="DH65" s="25"/>
     </row>
-    <row r="66" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="51" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C66" s="52">
         <v>0</v>
@@ -11208,7 +11196,10 @@
         <v>44844</v>
       </c>
       <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
+      <c r="G66" s="54">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
       <c r="J66" s="55"/>
@@ -11221,8 +11212,8 @@
       <c r="Q66" s="55"/>
       <c r="R66" s="55"/>
       <c r="S66" s="55"/>
-      <c r="T66" s="55"/>
-      <c r="U66" s="55"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
       <c r="V66" s="55"/>
       <c r="W66" s="55"/>
       <c r="X66" s="55"/>
@@ -11315,10 +11306,10 @@
       <c r="DG66" s="25"/>
       <c r="DH66" s="25"/>
     </row>
-    <row r="67" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="51" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C67" s="52">
         <v>0</v>
@@ -11330,7 +11321,10 @@
         <v>44844</v>
       </c>
       <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
+      <c r="G67" s="54">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
       <c r="H67" s="55"/>
       <c r="I67" s="55"/>
       <c r="J67" s="55"/>
@@ -11440,19 +11434,22 @@
     <row r="68" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="51" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C68" s="52">
         <v>0</v>
       </c>
       <c r="D68" s="53">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="E68" s="53">
-        <v>44844</v>
+        <v>44846</v>
       </c>
       <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
+      <c r="G68" s="54">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
       <c r="J68" s="55"/>
@@ -11469,7 +11466,7 @@
       <c r="U68" s="55"/>
       <c r="V68" s="55"/>
       <c r="W68" s="55"/>
-      <c r="X68" s="55"/>
+      <c r="X68" s="56"/>
       <c r="Y68" s="55"/>
       <c r="Z68" s="55"/>
       <c r="AA68" s="55"/>
@@ -11562,19 +11559,22 @@
     <row r="69" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="51" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="C69" s="52">
         <v>0</v>
       </c>
       <c r="D69" s="53">
-        <v>44844</v>
-      </c>
-      <c r="E69" s="53">
-        <v>44844</v>
+        <v>44846</v>
+      </c>
+      <c r="E69" s="57">
+        <v>44847</v>
       </c>
       <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
+      <c r="G69" s="54">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
       <c r="H69" s="55"/>
       <c r="I69" s="55"/>
       <c r="J69" s="55"/>
@@ -11681,25 +11681,22 @@
       <c r="DG69" s="25"/>
       <c r="DH69" s="25"/>
     </row>
-    <row r="70" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" s="52">
         <v>0</v>
       </c>
-      <c r="D70" s="53">
-        <v>44844</v>
-      </c>
-      <c r="E70" s="53">
-        <v>44844</v>
+      <c r="D70" s="57">
+        <v>44847</v>
+      </c>
+      <c r="E70" s="57">
+        <v>44848</v>
       </c>
       <c r="F70" s="54"/>
-      <c r="G70" s="54">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
+      <c r="G70" s="54"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
       <c r="J70" s="55"/>
@@ -11712,8 +11709,8 @@
       <c r="Q70" s="55"/>
       <c r="R70" s="55"/>
       <c r="S70" s="55"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
+      <c r="T70" s="55"/>
+      <c r="U70" s="55"/>
       <c r="V70" s="55"/>
       <c r="W70" s="55"/>
       <c r="X70" s="55"/>
@@ -11806,25 +11803,22 @@
       <c r="DG70" s="25"/>
       <c r="DH70" s="25"/>
     </row>
-    <row r="71" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="52">
         <v>0</v>
       </c>
-      <c r="D71" s="53">
-        <v>44844</v>
-      </c>
-      <c r="E71" s="53">
-        <v>44844</v>
+      <c r="D71" s="57">
+        <v>44848</v>
+      </c>
+      <c r="E71" s="57">
+        <v>44848</v>
       </c>
       <c r="F71" s="54"/>
-      <c r="G71" s="54">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
+      <c r="G71" s="54"/>
       <c r="H71" s="55"/>
       <c r="I71" s="55"/>
       <c r="J71" s="55"/>
@@ -11933,86 +11927,86 @@
     </row>
     <row r="72" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
-      <c r="B72" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="52">
+      <c r="B72" s="197" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="198">
         <v>0</v>
       </c>
-      <c r="D72" s="53">
-        <v>44845</v>
-      </c>
-      <c r="E72" s="53">
-        <v>44846</v>
-      </c>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54">
+      <c r="D72" s="199">
+        <v>44854</v>
+      </c>
+      <c r="E72" s="199">
+        <v>44854</v>
+      </c>
+      <c r="F72" s="200"/>
+      <c r="G72" s="200">
         <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="55"/>
-      <c r="T72" s="55"/>
-      <c r="U72" s="55"/>
-      <c r="V72" s="55"/>
-      <c r="W72" s="55"/>
-      <c r="X72" s="56"/>
-      <c r="Y72" s="55"/>
-      <c r="Z72" s="55"/>
-      <c r="AA72" s="55"/>
-      <c r="AB72" s="55"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="55"/>
-      <c r="AE72" s="55"/>
-      <c r="AF72" s="55"/>
-      <c r="AG72" s="55"/>
-      <c r="AH72" s="55"/>
-      <c r="AI72" s="55"/>
-      <c r="AJ72" s="55"/>
-      <c r="AK72" s="55"/>
-      <c r="AL72" s="55"/>
-      <c r="AM72" s="55"/>
-      <c r="AN72" s="55"/>
-      <c r="AO72" s="55"/>
-      <c r="AP72" s="55"/>
-      <c r="AQ72" s="55"/>
-      <c r="AR72" s="55"/>
-      <c r="AS72" s="55"/>
-      <c r="AT72" s="55"/>
-      <c r="AU72" s="55"/>
-      <c r="AV72" s="55"/>
-      <c r="AW72" s="55"/>
-      <c r="AX72" s="55"/>
-      <c r="AY72" s="55"/>
-      <c r="AZ72" s="55"/>
-      <c r="BA72" s="55"/>
-      <c r="BB72" s="55"/>
-      <c r="BC72" s="55"/>
-      <c r="BD72" s="55"/>
-      <c r="BE72" s="55"/>
-      <c r="BF72" s="55"/>
-      <c r="BG72" s="55"/>
-      <c r="BH72" s="55"/>
-      <c r="BI72" s="55"/>
-      <c r="BJ72" s="120"/>
-      <c r="BK72" s="120"/>
-      <c r="BL72" s="25"/>
-      <c r="BM72" s="25"/>
-      <c r="BN72" s="25"/>
-      <c r="BO72" s="25"/>
-      <c r="BP72" s="25"/>
-      <c r="BQ72" s="25"/>
-      <c r="BR72" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="201"/>
+      <c r="I72" s="201"/>
+      <c r="J72" s="201"/>
+      <c r="K72" s="201"/>
+      <c r="L72" s="201"/>
+      <c r="M72" s="201"/>
+      <c r="N72" s="201"/>
+      <c r="O72" s="201"/>
+      <c r="P72" s="201"/>
+      <c r="Q72" s="201"/>
+      <c r="R72" s="201"/>
+      <c r="S72" s="201"/>
+      <c r="T72" s="201"/>
+      <c r="U72" s="201"/>
+      <c r="V72" s="201"/>
+      <c r="W72" s="201"/>
+      <c r="X72" s="201"/>
+      <c r="Y72" s="201"/>
+      <c r="Z72" s="201"/>
+      <c r="AA72" s="201"/>
+      <c r="AB72" s="201"/>
+      <c r="AC72" s="201"/>
+      <c r="AD72" s="201"/>
+      <c r="AE72" s="201"/>
+      <c r="AF72" s="201"/>
+      <c r="AG72" s="201"/>
+      <c r="AH72" s="201"/>
+      <c r="AI72" s="201"/>
+      <c r="AJ72" s="201"/>
+      <c r="AK72" s="201"/>
+      <c r="AL72" s="201"/>
+      <c r="AM72" s="201"/>
+      <c r="AN72" s="201"/>
+      <c r="AO72" s="201"/>
+      <c r="AP72" s="201"/>
+      <c r="AQ72" s="201"/>
+      <c r="AR72" s="201"/>
+      <c r="AS72" s="201"/>
+      <c r="AT72" s="201"/>
+      <c r="AU72" s="201"/>
+      <c r="AV72" s="201"/>
+      <c r="AW72" s="201"/>
+      <c r="AX72" s="201"/>
+      <c r="AY72" s="201"/>
+      <c r="AZ72" s="201"/>
+      <c r="BA72" s="201"/>
+      <c r="BB72" s="201"/>
+      <c r="BC72" s="201"/>
+      <c r="BD72" s="201"/>
+      <c r="BE72" s="201"/>
+      <c r="BF72" s="201"/>
+      <c r="BG72" s="201"/>
+      <c r="BH72" s="201"/>
+      <c r="BI72" s="201"/>
+      <c r="BJ72" s="201"/>
+      <c r="BK72" s="201"/>
+      <c r="BL72" s="201"/>
+      <c r="BM72" s="201"/>
+      <c r="BN72" s="201"/>
+      <c r="BO72" s="201"/>
+      <c r="BP72" s="120"/>
+      <c r="BQ72" s="120"/>
+      <c r="BR72" s="120"/>
       <c r="BS72" s="25"/>
       <c r="BT72" s="25"/>
       <c r="BU72" s="25"/>
@@ -12058,86 +12052,83 @@
     </row>
     <row r="73" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
-      <c r="B73" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="52">
+      <c r="B73" s="202" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="203">
         <v>0</v>
       </c>
-      <c r="D73" s="53">
-        <v>44846</v>
-      </c>
-      <c r="E73" s="57">
-        <v>44847</v>
-      </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
-      <c r="T73" s="55"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="55"/>
-      <c r="W73" s="55"/>
-      <c r="X73" s="55"/>
-      <c r="Y73" s="55"/>
-      <c r="Z73" s="55"/>
-      <c r="AA73" s="55"/>
-      <c r="AB73" s="55"/>
-      <c r="AC73" s="55"/>
-      <c r="AD73" s="55"/>
-      <c r="AE73" s="55"/>
-      <c r="AF73" s="55"/>
-      <c r="AG73" s="55"/>
-      <c r="AH73" s="55"/>
-      <c r="AI73" s="55"/>
-      <c r="AJ73" s="55"/>
-      <c r="AK73" s="55"/>
-      <c r="AL73" s="55"/>
-      <c r="AM73" s="55"/>
-      <c r="AN73" s="55"/>
-      <c r="AO73" s="55"/>
-      <c r="AP73" s="55"/>
-      <c r="AQ73" s="55"/>
-      <c r="AR73" s="55"/>
-      <c r="AS73" s="55"/>
-      <c r="AT73" s="55"/>
-      <c r="AU73" s="55"/>
-      <c r="AV73" s="55"/>
-      <c r="AW73" s="55"/>
-      <c r="AX73" s="55"/>
-      <c r="AY73" s="55"/>
-      <c r="AZ73" s="55"/>
-      <c r="BA73" s="55"/>
-      <c r="BB73" s="55"/>
-      <c r="BC73" s="55"/>
-      <c r="BD73" s="55"/>
-      <c r="BE73" s="55"/>
-      <c r="BF73" s="55"/>
-      <c r="BG73" s="55"/>
-      <c r="BH73" s="55"/>
-      <c r="BI73" s="55"/>
-      <c r="BJ73" s="120"/>
-      <c r="BK73" s="120"/>
-      <c r="BL73" s="25"/>
-      <c r="BM73" s="25"/>
-      <c r="BN73" s="25"/>
-      <c r="BO73" s="25"/>
-      <c r="BP73" s="25"/>
-      <c r="BQ73" s="25"/>
-      <c r="BR73" s="25"/>
+      <c r="D73" s="204">
+        <v>44854</v>
+      </c>
+      <c r="E73" s="204">
+        <v>44854</v>
+      </c>
+      <c r="F73" s="205"/>
+      <c r="G73" s="205"/>
+      <c r="H73" s="206"/>
+      <c r="I73" s="206"/>
+      <c r="J73" s="206"/>
+      <c r="K73" s="206"/>
+      <c r="L73" s="206"/>
+      <c r="M73" s="206"/>
+      <c r="N73" s="206"/>
+      <c r="O73" s="206"/>
+      <c r="P73" s="206"/>
+      <c r="Q73" s="206"/>
+      <c r="R73" s="206"/>
+      <c r="S73" s="206"/>
+      <c r="T73" s="206"/>
+      <c r="U73" s="206"/>
+      <c r="V73" s="206"/>
+      <c r="W73" s="206"/>
+      <c r="X73" s="206"/>
+      <c r="Y73" s="206"/>
+      <c r="Z73" s="206"/>
+      <c r="AA73" s="206"/>
+      <c r="AB73" s="206"/>
+      <c r="AC73" s="206"/>
+      <c r="AD73" s="206"/>
+      <c r="AE73" s="206"/>
+      <c r="AF73" s="206"/>
+      <c r="AG73" s="206"/>
+      <c r="AH73" s="206"/>
+      <c r="AI73" s="206"/>
+      <c r="AJ73" s="206"/>
+      <c r="AK73" s="206"/>
+      <c r="AL73" s="206"/>
+      <c r="AM73" s="206"/>
+      <c r="AN73" s="206"/>
+      <c r="AO73" s="206"/>
+      <c r="AP73" s="206"/>
+      <c r="AQ73" s="206"/>
+      <c r="AR73" s="206"/>
+      <c r="AS73" s="206"/>
+      <c r="AT73" s="206"/>
+      <c r="AU73" s="206"/>
+      <c r="AV73" s="206"/>
+      <c r="AW73" s="206"/>
+      <c r="AX73" s="206"/>
+      <c r="AY73" s="206"/>
+      <c r="AZ73" s="206"/>
+      <c r="BA73" s="206"/>
+      <c r="BB73" s="206"/>
+      <c r="BC73" s="206"/>
+      <c r="BD73" s="206"/>
+      <c r="BE73" s="206"/>
+      <c r="BF73" s="206"/>
+      <c r="BG73" s="206"/>
+      <c r="BH73" s="206"/>
+      <c r="BI73" s="206"/>
+      <c r="BJ73" s="206"/>
+      <c r="BK73" s="206"/>
+      <c r="BL73" s="206"/>
+      <c r="BM73" s="206"/>
+      <c r="BN73" s="206"/>
+      <c r="BO73" s="206"/>
+      <c r="BP73" s="120"/>
+      <c r="BQ73" s="120"/>
+      <c r="BR73" s="120"/>
       <c r="BS73" s="25"/>
       <c r="BT73" s="25"/>
       <c r="BU73" s="25"/>
@@ -12183,83 +12174,83 @@
     </row>
     <row r="74" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
-      <c r="B74" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" s="52">
+      <c r="B74" s="202" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="203">
         <v>0</v>
       </c>
-      <c r="D74" s="57">
-        <v>44847</v>
-      </c>
-      <c r="E74" s="57">
-        <v>44848</v>
-      </c>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="55"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="55"/>
-      <c r="V74" s="55"/>
-      <c r="W74" s="55"/>
-      <c r="X74" s="55"/>
-      <c r="Y74" s="55"/>
-      <c r="Z74" s="55"/>
-      <c r="AA74" s="55"/>
-      <c r="AB74" s="55"/>
-      <c r="AC74" s="55"/>
-      <c r="AD74" s="55"/>
-      <c r="AE74" s="55"/>
-      <c r="AF74" s="55"/>
-      <c r="AG74" s="55"/>
-      <c r="AH74" s="55"/>
-      <c r="AI74" s="55"/>
-      <c r="AJ74" s="55"/>
-      <c r="AK74" s="55"/>
-      <c r="AL74" s="55"/>
-      <c r="AM74" s="55"/>
-      <c r="AN74" s="55"/>
-      <c r="AO74" s="55"/>
-      <c r="AP74" s="55"/>
-      <c r="AQ74" s="55"/>
-      <c r="AR74" s="55"/>
-      <c r="AS74" s="55"/>
-      <c r="AT74" s="55"/>
-      <c r="AU74" s="55"/>
-      <c r="AV74" s="55"/>
-      <c r="AW74" s="55"/>
-      <c r="AX74" s="55"/>
-      <c r="AY74" s="55"/>
-      <c r="AZ74" s="55"/>
-      <c r="BA74" s="55"/>
-      <c r="BB74" s="55"/>
-      <c r="BC74" s="55"/>
-      <c r="BD74" s="55"/>
-      <c r="BE74" s="55"/>
-      <c r="BF74" s="55"/>
-      <c r="BG74" s="55"/>
-      <c r="BH74" s="55"/>
-      <c r="BI74" s="55"/>
-      <c r="BJ74" s="120"/>
-      <c r="BK74" s="120"/>
-      <c r="BL74" s="25"/>
-      <c r="BM74" s="25"/>
-      <c r="BN74" s="25"/>
-      <c r="BO74" s="25"/>
-      <c r="BP74" s="25"/>
-      <c r="BQ74" s="25"/>
-      <c r="BR74" s="25"/>
+      <c r="D74" s="204">
+        <v>44854</v>
+      </c>
+      <c r="E74" s="204">
+        <v>44854</v>
+      </c>
+      <c r="F74" s="205"/>
+      <c r="G74" s="205"/>
+      <c r="H74" s="206"/>
+      <c r="I74" s="206"/>
+      <c r="J74" s="206"/>
+      <c r="K74" s="206"/>
+      <c r="L74" s="206"/>
+      <c r="M74" s="206"/>
+      <c r="N74" s="206"/>
+      <c r="O74" s="206"/>
+      <c r="P74" s="206"/>
+      <c r="Q74" s="206"/>
+      <c r="R74" s="206"/>
+      <c r="S74" s="206"/>
+      <c r="T74" s="206"/>
+      <c r="U74" s="206"/>
+      <c r="V74" s="206"/>
+      <c r="W74" s="206"/>
+      <c r="X74" s="206"/>
+      <c r="Y74" s="206"/>
+      <c r="Z74" s="206"/>
+      <c r="AA74" s="206"/>
+      <c r="AB74" s="206"/>
+      <c r="AC74" s="206"/>
+      <c r="AD74" s="206"/>
+      <c r="AE74" s="206"/>
+      <c r="AF74" s="206"/>
+      <c r="AG74" s="206"/>
+      <c r="AH74" s="206"/>
+      <c r="AI74" s="206"/>
+      <c r="AJ74" s="206"/>
+      <c r="AK74" s="206"/>
+      <c r="AL74" s="206"/>
+      <c r="AM74" s="206"/>
+      <c r="AN74" s="206"/>
+      <c r="AO74" s="206"/>
+      <c r="AP74" s="206"/>
+      <c r="AQ74" s="206"/>
+      <c r="AR74" s="206"/>
+      <c r="AS74" s="206"/>
+      <c r="AT74" s="206"/>
+      <c r="AU74" s="206"/>
+      <c r="AV74" s="206"/>
+      <c r="AW74" s="206"/>
+      <c r="AX74" s="206"/>
+      <c r="AY74" s="206"/>
+      <c r="AZ74" s="206"/>
+      <c r="BA74" s="206"/>
+      <c r="BB74" s="206"/>
+      <c r="BC74" s="206"/>
+      <c r="BD74" s="206"/>
+      <c r="BE74" s="206"/>
+      <c r="BF74" s="206"/>
+      <c r="BG74" s="206"/>
+      <c r="BH74" s="206"/>
+      <c r="BI74" s="206"/>
+      <c r="BJ74" s="206"/>
+      <c r="BK74" s="206"/>
+      <c r="BL74" s="206"/>
+      <c r="BM74" s="206"/>
+      <c r="BN74" s="206"/>
+      <c r="BO74" s="206"/>
+      <c r="BP74" s="120"/>
+      <c r="BQ74" s="120"/>
+      <c r="BR74" s="120"/>
       <c r="BS74" s="25"/>
       <c r="BT74" s="25"/>
       <c r="BU74" s="25"/>
@@ -12305,83 +12296,83 @@
     </row>
     <row r="75" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
-      <c r="B75" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" s="52">
+      <c r="B75" s="202" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="203">
         <v>0</v>
       </c>
-      <c r="D75" s="57">
-        <v>44848</v>
-      </c>
-      <c r="E75" s="57">
-        <v>44848</v>
-      </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="55"/>
-      <c r="S75" s="55"/>
-      <c r="T75" s="55"/>
-      <c r="U75" s="55"/>
-      <c r="V75" s="55"/>
-      <c r="W75" s="55"/>
-      <c r="X75" s="55"/>
-      <c r="Y75" s="55"/>
-      <c r="Z75" s="55"/>
-      <c r="AA75" s="55"/>
-      <c r="AB75" s="55"/>
-      <c r="AC75" s="55"/>
-      <c r="AD75" s="55"/>
-      <c r="AE75" s="55"/>
-      <c r="AF75" s="55"/>
-      <c r="AG75" s="55"/>
-      <c r="AH75" s="55"/>
-      <c r="AI75" s="55"/>
-      <c r="AJ75" s="55"/>
-      <c r="AK75" s="55"/>
-      <c r="AL75" s="55"/>
-      <c r="AM75" s="55"/>
-      <c r="AN75" s="55"/>
-      <c r="AO75" s="55"/>
-      <c r="AP75" s="55"/>
-      <c r="AQ75" s="55"/>
-      <c r="AR75" s="55"/>
-      <c r="AS75" s="55"/>
-      <c r="AT75" s="55"/>
-      <c r="AU75" s="55"/>
-      <c r="AV75" s="55"/>
-      <c r="AW75" s="55"/>
-      <c r="AX75" s="55"/>
-      <c r="AY75" s="55"/>
-      <c r="AZ75" s="55"/>
-      <c r="BA75" s="55"/>
-      <c r="BB75" s="55"/>
-      <c r="BC75" s="55"/>
-      <c r="BD75" s="55"/>
-      <c r="BE75" s="55"/>
-      <c r="BF75" s="55"/>
-      <c r="BG75" s="55"/>
-      <c r="BH75" s="55"/>
-      <c r="BI75" s="55"/>
-      <c r="BJ75" s="120"/>
-      <c r="BK75" s="120"/>
-      <c r="BL75" s="25"/>
-      <c r="BM75" s="25"/>
-      <c r="BN75" s="25"/>
-      <c r="BO75" s="25"/>
-      <c r="BP75" s="25"/>
-      <c r="BQ75" s="25"/>
-      <c r="BR75" s="25"/>
+      <c r="D75" s="204">
+        <v>44854</v>
+      </c>
+      <c r="E75" s="204">
+        <v>44854</v>
+      </c>
+      <c r="F75" s="205"/>
+      <c r="G75" s="205"/>
+      <c r="H75" s="206"/>
+      <c r="I75" s="206"/>
+      <c r="J75" s="206"/>
+      <c r="K75" s="206"/>
+      <c r="L75" s="206"/>
+      <c r="M75" s="206"/>
+      <c r="N75" s="206"/>
+      <c r="O75" s="206"/>
+      <c r="P75" s="206"/>
+      <c r="Q75" s="206"/>
+      <c r="R75" s="206"/>
+      <c r="S75" s="206"/>
+      <c r="T75" s="206"/>
+      <c r="U75" s="206"/>
+      <c r="V75" s="206"/>
+      <c r="W75" s="206"/>
+      <c r="X75" s="206"/>
+      <c r="Y75" s="206"/>
+      <c r="Z75" s="206"/>
+      <c r="AA75" s="206"/>
+      <c r="AB75" s="206"/>
+      <c r="AC75" s="206"/>
+      <c r="AD75" s="206"/>
+      <c r="AE75" s="206"/>
+      <c r="AF75" s="206"/>
+      <c r="AG75" s="206"/>
+      <c r="AH75" s="206"/>
+      <c r="AI75" s="206"/>
+      <c r="AJ75" s="206"/>
+      <c r="AK75" s="206"/>
+      <c r="AL75" s="206"/>
+      <c r="AM75" s="206"/>
+      <c r="AN75" s="206"/>
+      <c r="AO75" s="206"/>
+      <c r="AP75" s="206"/>
+      <c r="AQ75" s="206"/>
+      <c r="AR75" s="206"/>
+      <c r="AS75" s="206"/>
+      <c r="AT75" s="206"/>
+      <c r="AU75" s="206"/>
+      <c r="AV75" s="206"/>
+      <c r="AW75" s="206"/>
+      <c r="AX75" s="206"/>
+      <c r="AY75" s="206"/>
+      <c r="AZ75" s="206"/>
+      <c r="BA75" s="206"/>
+      <c r="BB75" s="206"/>
+      <c r="BC75" s="206"/>
+      <c r="BD75" s="206"/>
+      <c r="BE75" s="206"/>
+      <c r="BF75" s="206"/>
+      <c r="BG75" s="206"/>
+      <c r="BH75" s="206"/>
+      <c r="BI75" s="206"/>
+      <c r="BJ75" s="206"/>
+      <c r="BK75" s="206"/>
+      <c r="BL75" s="206"/>
+      <c r="BM75" s="206"/>
+      <c r="BN75" s="206"/>
+      <c r="BO75" s="206"/>
+      <c r="BP75" s="120"/>
+      <c r="BQ75" s="120"/>
+      <c r="BR75" s="120"/>
       <c r="BS75" s="25"/>
       <c r="BT75" s="25"/>
       <c r="BU75" s="25"/>
@@ -12427,86 +12418,83 @@
     </row>
     <row r="76" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
-      <c r="B76" s="197" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="198">
+      <c r="B76" s="216" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="217">
         <v>0</v>
       </c>
-      <c r="D76" s="199">
-        <v>44854</v>
-      </c>
-      <c r="E76" s="199">
-        <v>44854</v>
-      </c>
-      <c r="F76" s="200"/>
-      <c r="G76" s="200">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="H76" s="201"/>
-      <c r="I76" s="201"/>
-      <c r="J76" s="201"/>
-      <c r="K76" s="201"/>
-      <c r="L76" s="201"/>
-      <c r="M76" s="201"/>
-      <c r="N76" s="201"/>
-      <c r="O76" s="201"/>
-      <c r="P76" s="201"/>
-      <c r="Q76" s="201"/>
-      <c r="R76" s="201"/>
-      <c r="S76" s="201"/>
-      <c r="T76" s="201"/>
-      <c r="U76" s="201"/>
-      <c r="V76" s="201"/>
-      <c r="W76" s="201"/>
-      <c r="X76" s="201"/>
-      <c r="Y76" s="201"/>
-      <c r="Z76" s="201"/>
-      <c r="AA76" s="201"/>
-      <c r="AB76" s="201"/>
-      <c r="AC76" s="201"/>
-      <c r="AD76" s="201"/>
-      <c r="AE76" s="201"/>
-      <c r="AF76" s="201"/>
-      <c r="AG76" s="201"/>
-      <c r="AH76" s="201"/>
-      <c r="AI76" s="201"/>
-      <c r="AJ76" s="201"/>
-      <c r="AK76" s="201"/>
-      <c r="AL76" s="201"/>
-      <c r="AM76" s="201"/>
-      <c r="AN76" s="201"/>
-      <c r="AO76" s="201"/>
-      <c r="AP76" s="201"/>
-      <c r="AQ76" s="201"/>
-      <c r="AR76" s="201"/>
-      <c r="AS76" s="201"/>
-      <c r="AT76" s="201"/>
-      <c r="AU76" s="201"/>
-      <c r="AV76" s="201"/>
-      <c r="AW76" s="201"/>
-      <c r="AX76" s="201"/>
-      <c r="AY76" s="201"/>
-      <c r="AZ76" s="201"/>
-      <c r="BA76" s="201"/>
-      <c r="BB76" s="201"/>
-      <c r="BC76" s="201"/>
-      <c r="BD76" s="201"/>
-      <c r="BE76" s="201"/>
-      <c r="BF76" s="201"/>
-      <c r="BG76" s="201"/>
-      <c r="BH76" s="201"/>
-      <c r="BI76" s="201"/>
-      <c r="BJ76" s="201"/>
-      <c r="BK76" s="201"/>
-      <c r="BL76" s="201"/>
-      <c r="BM76" s="201"/>
-      <c r="BN76" s="201"/>
-      <c r="BO76" s="201"/>
-      <c r="BP76" s="120"/>
-      <c r="BQ76" s="120"/>
-      <c r="BR76" s="120"/>
+      <c r="D76" s="218">
+        <v>44850</v>
+      </c>
+      <c r="E76" s="218">
+        <v>44857</v>
+      </c>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="80"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="80"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="80"/>
+      <c r="Q76" s="80"/>
+      <c r="R76" s="80"/>
+      <c r="S76" s="80"/>
+      <c r="T76" s="80"/>
+      <c r="U76" s="80"/>
+      <c r="V76" s="80"/>
+      <c r="W76" s="80"/>
+      <c r="X76" s="80"/>
+      <c r="Y76" s="80"/>
+      <c r="Z76" s="80"/>
+      <c r="AA76" s="80"/>
+      <c r="AB76" s="80"/>
+      <c r="AC76" s="80"/>
+      <c r="AD76" s="80"/>
+      <c r="AE76" s="80"/>
+      <c r="AF76" s="80"/>
+      <c r="AG76" s="80"/>
+      <c r="AH76" s="80"/>
+      <c r="AI76" s="80"/>
+      <c r="AJ76" s="80"/>
+      <c r="AK76" s="80"/>
+      <c r="AL76" s="80"/>
+      <c r="AM76" s="80"/>
+      <c r="AN76" s="80"/>
+      <c r="AO76" s="80"/>
+      <c r="AP76" s="80"/>
+      <c r="AQ76" s="80"/>
+      <c r="AR76" s="80"/>
+      <c r="AS76" s="80"/>
+      <c r="AT76" s="80"/>
+      <c r="AU76" s="80"/>
+      <c r="AV76" s="80"/>
+      <c r="AW76" s="80"/>
+      <c r="AX76" s="80"/>
+      <c r="AY76" s="80"/>
+      <c r="AZ76" s="80"/>
+      <c r="BA76" s="80"/>
+      <c r="BB76" s="80"/>
+      <c r="BC76" s="80"/>
+      <c r="BD76" s="80"/>
+      <c r="BE76" s="80"/>
+      <c r="BF76" s="80"/>
+      <c r="BG76" s="80"/>
+      <c r="BH76" s="80"/>
+      <c r="BI76" s="80"/>
+      <c r="BJ76" s="80"/>
+      <c r="BK76" s="80"/>
+      <c r="BL76" s="80"/>
+      <c r="BM76" s="80"/>
+      <c r="BN76" s="80"/>
+      <c r="BO76" s="80"/>
+      <c r="BP76" s="80"/>
+      <c r="BQ76" s="80"/>
+      <c r="BR76" s="80"/>
       <c r="BS76" s="25"/>
       <c r="BT76" s="25"/>
       <c r="BU76" s="25"/>
@@ -12552,84 +12540,84 @@
     </row>
     <row r="77" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
-      <c r="B77" s="202" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="203">
+      <c r="B77" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="21">
         <v>0</v>
       </c>
-      <c r="D77" s="204">
-        <v>44854</v>
-      </c>
-      <c r="E77" s="204">
-        <v>44854</v>
-      </c>
-      <c r="F77" s="205"/>
-      <c r="G77" s="205"/>
-      <c r="H77" s="206"/>
-      <c r="I77" s="206"/>
-      <c r="J77" s="206"/>
-      <c r="K77" s="206"/>
-      <c r="L77" s="206"/>
-      <c r="M77" s="206"/>
-      <c r="N77" s="206"/>
-      <c r="O77" s="206"/>
-      <c r="P77" s="206"/>
-      <c r="Q77" s="206"/>
-      <c r="R77" s="206"/>
-      <c r="S77" s="206"/>
-      <c r="T77" s="206"/>
-      <c r="U77" s="206"/>
-      <c r="V77" s="206"/>
-      <c r="W77" s="206"/>
-      <c r="X77" s="206"/>
-      <c r="Y77" s="206"/>
-      <c r="Z77" s="206"/>
-      <c r="AA77" s="206"/>
-      <c r="AB77" s="206"/>
-      <c r="AC77" s="206"/>
-      <c r="AD77" s="206"/>
-      <c r="AE77" s="206"/>
-      <c r="AF77" s="206"/>
-      <c r="AG77" s="206"/>
-      <c r="AH77" s="206"/>
-      <c r="AI77" s="206"/>
-      <c r="AJ77" s="206"/>
-      <c r="AK77" s="206"/>
-      <c r="AL77" s="206"/>
-      <c r="AM77" s="206"/>
-      <c r="AN77" s="206"/>
-      <c r="AO77" s="206"/>
-      <c r="AP77" s="206"/>
-      <c r="AQ77" s="206"/>
-      <c r="AR77" s="206"/>
-      <c r="AS77" s="206"/>
-      <c r="AT77" s="206"/>
-      <c r="AU77" s="206"/>
-      <c r="AV77" s="206"/>
-      <c r="AW77" s="206"/>
-      <c r="AX77" s="206"/>
-      <c r="AY77" s="206"/>
-      <c r="AZ77" s="206"/>
-      <c r="BA77" s="206"/>
-      <c r="BB77" s="206"/>
-      <c r="BC77" s="206"/>
-      <c r="BD77" s="206"/>
-      <c r="BE77" s="206"/>
-      <c r="BF77" s="206"/>
-      <c r="BG77" s="206"/>
-      <c r="BH77" s="206"/>
-      <c r="BI77" s="206"/>
-      <c r="BJ77" s="206"/>
-      <c r="BK77" s="206"/>
-      <c r="BL77" s="206"/>
-      <c r="BM77" s="206"/>
-      <c r="BN77" s="206"/>
-      <c r="BO77" s="206"/>
-      <c r="BP77" s="120"/>
-      <c r="BQ77" s="120"/>
-      <c r="BR77" s="120"/>
-      <c r="BS77" s="25"/>
+      <c r="D77" s="76">
+        <v>44850</v>
+      </c>
+      <c r="E77" s="76">
+        <v>44850</v>
+      </c>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="82"/>
+      <c r="J77" s="82"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="82"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="82"/>
+      <c r="O77" s="82"/>
+      <c r="P77" s="82"/>
+      <c r="Q77" s="82"/>
+      <c r="R77" s="82"/>
+      <c r="S77" s="82"/>
+      <c r="T77" s="82"/>
+      <c r="U77" s="82"/>
+      <c r="V77" s="82"/>
+      <c r="W77" s="82"/>
+      <c r="X77" s="82"/>
+      <c r="Y77" s="82"/>
+      <c r="Z77" s="82"/>
+      <c r="AA77" s="82"/>
+      <c r="AB77" s="82"/>
+      <c r="AC77" s="82"/>
+      <c r="AD77" s="82"/>
+      <c r="AE77" s="82"/>
+      <c r="AF77" s="82"/>
+      <c r="AG77" s="82"/>
+      <c r="AH77" s="82"/>
+      <c r="AI77" s="82"/>
+      <c r="AJ77" s="82"/>
+      <c r="AK77" s="82"/>
+      <c r="AL77" s="82"/>
+      <c r="AM77" s="82"/>
+      <c r="AN77" s="82"/>
+      <c r="AO77" s="82"/>
+      <c r="AP77" s="82"/>
+      <c r="AQ77" s="82"/>
+      <c r="AR77" s="82"/>
+      <c r="AS77" s="82"/>
+      <c r="AT77" s="82"/>
+      <c r="AU77" s="82"/>
+      <c r="AV77" s="82"/>
+      <c r="AW77" s="82"/>
+      <c r="AX77" s="82"/>
+      <c r="AY77" s="82"/>
+      <c r="AZ77" s="82"/>
+      <c r="BA77" s="82"/>
+      <c r="BB77" s="82"/>
+      <c r="BC77" s="82"/>
+      <c r="BD77" s="82"/>
+      <c r="BE77" s="82"/>
+      <c r="BF77" s="82"/>
+      <c r="BG77" s="82"/>
+      <c r="BH77" s="82"/>
+      <c r="BI77" s="82"/>
+      <c r="BJ77" s="82"/>
+      <c r="BK77" s="82"/>
+      <c r="BL77" s="82"/>
+      <c r="BM77" s="82"/>
+      <c r="BN77" s="82"/>
+      <c r="BO77" s="82"/>
+      <c r="BP77" s="82"/>
+      <c r="BQ77" s="82"/>
+      <c r="BR77" s="82"/>
+      <c r="BS77" s="120"/>
       <c r="BT77" s="25"/>
       <c r="BU77" s="25"/>
       <c r="BV77" s="25"/>
@@ -12674,84 +12662,84 @@
     </row>
     <row r="78" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
-      <c r="B78" s="202" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" s="203">
+      <c r="B78" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="21">
         <v>0</v>
       </c>
-      <c r="D78" s="204">
-        <v>44854</v>
-      </c>
-      <c r="E78" s="204">
-        <v>44854</v>
-      </c>
-      <c r="F78" s="205"/>
-      <c r="G78" s="205"/>
-      <c r="H78" s="206"/>
-      <c r="I78" s="206"/>
-      <c r="J78" s="206"/>
-      <c r="K78" s="206"/>
-      <c r="L78" s="206"/>
-      <c r="M78" s="206"/>
-      <c r="N78" s="206"/>
-      <c r="O78" s="206"/>
-      <c r="P78" s="206"/>
-      <c r="Q78" s="206"/>
-      <c r="R78" s="206"/>
-      <c r="S78" s="206"/>
-      <c r="T78" s="206"/>
-      <c r="U78" s="206"/>
-      <c r="V78" s="206"/>
-      <c r="W78" s="206"/>
-      <c r="X78" s="206"/>
-      <c r="Y78" s="206"/>
-      <c r="Z78" s="206"/>
-      <c r="AA78" s="206"/>
-      <c r="AB78" s="206"/>
-      <c r="AC78" s="206"/>
-      <c r="AD78" s="206"/>
-      <c r="AE78" s="206"/>
-      <c r="AF78" s="206"/>
-      <c r="AG78" s="206"/>
-      <c r="AH78" s="206"/>
-      <c r="AI78" s="206"/>
-      <c r="AJ78" s="206"/>
-      <c r="AK78" s="206"/>
-      <c r="AL78" s="206"/>
-      <c r="AM78" s="206"/>
-      <c r="AN78" s="206"/>
-      <c r="AO78" s="206"/>
-      <c r="AP78" s="206"/>
-      <c r="AQ78" s="206"/>
-      <c r="AR78" s="206"/>
-      <c r="AS78" s="206"/>
-      <c r="AT78" s="206"/>
-      <c r="AU78" s="206"/>
-      <c r="AV78" s="206"/>
-      <c r="AW78" s="206"/>
-      <c r="AX78" s="206"/>
-      <c r="AY78" s="206"/>
-      <c r="AZ78" s="206"/>
-      <c r="BA78" s="206"/>
-      <c r="BB78" s="206"/>
-      <c r="BC78" s="206"/>
-      <c r="BD78" s="206"/>
-      <c r="BE78" s="206"/>
-      <c r="BF78" s="206"/>
-      <c r="BG78" s="206"/>
-      <c r="BH78" s="206"/>
-      <c r="BI78" s="206"/>
-      <c r="BJ78" s="206"/>
-      <c r="BK78" s="206"/>
-      <c r="BL78" s="206"/>
-      <c r="BM78" s="206"/>
-      <c r="BN78" s="206"/>
-      <c r="BO78" s="206"/>
-      <c r="BP78" s="120"/>
-      <c r="BQ78" s="120"/>
-      <c r="BR78" s="120"/>
-      <c r="BS78" s="25"/>
+      <c r="D78" s="76">
+        <v>44850</v>
+      </c>
+      <c r="E78" s="76">
+        <v>44850</v>
+      </c>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="82"/>
+      <c r="O78" s="82"/>
+      <c r="P78" s="82"/>
+      <c r="Q78" s="82"/>
+      <c r="R78" s="82"/>
+      <c r="S78" s="82"/>
+      <c r="T78" s="82"/>
+      <c r="U78" s="82"/>
+      <c r="V78" s="82"/>
+      <c r="W78" s="82"/>
+      <c r="X78" s="82"/>
+      <c r="Y78" s="82"/>
+      <c r="Z78" s="82"/>
+      <c r="AA78" s="82"/>
+      <c r="AB78" s="82"/>
+      <c r="AC78" s="82"/>
+      <c r="AD78" s="82"/>
+      <c r="AE78" s="82"/>
+      <c r="AF78" s="82"/>
+      <c r="AG78" s="82"/>
+      <c r="AH78" s="82"/>
+      <c r="AI78" s="82"/>
+      <c r="AJ78" s="82"/>
+      <c r="AK78" s="82"/>
+      <c r="AL78" s="82"/>
+      <c r="AM78" s="82"/>
+      <c r="AN78" s="82"/>
+      <c r="AO78" s="82"/>
+      <c r="AP78" s="82"/>
+      <c r="AQ78" s="82"/>
+      <c r="AR78" s="82"/>
+      <c r="AS78" s="82"/>
+      <c r="AT78" s="82"/>
+      <c r="AU78" s="82"/>
+      <c r="AV78" s="82"/>
+      <c r="AW78" s="82"/>
+      <c r="AX78" s="82"/>
+      <c r="AY78" s="82"/>
+      <c r="AZ78" s="82"/>
+      <c r="BA78" s="82"/>
+      <c r="BB78" s="82"/>
+      <c r="BC78" s="82"/>
+      <c r="BD78" s="82"/>
+      <c r="BE78" s="82"/>
+      <c r="BF78" s="82"/>
+      <c r="BG78" s="82"/>
+      <c r="BH78" s="82"/>
+      <c r="BI78" s="82"/>
+      <c r="BJ78" s="82"/>
+      <c r="BK78" s="82"/>
+      <c r="BL78" s="82"/>
+      <c r="BM78" s="82"/>
+      <c r="BN78" s="82"/>
+      <c r="BO78" s="82"/>
+      <c r="BP78" s="82"/>
+      <c r="BQ78" s="82"/>
+      <c r="BR78" s="82"/>
+      <c r="BS78" s="120"/>
       <c r="BT78" s="25"/>
       <c r="BU78" s="25"/>
       <c r="BV78" s="25"/>
@@ -12794,86 +12782,86 @@
       <c r="DG78" s="25"/>
       <c r="DH78" s="25"/>
     </row>
-    <row r="79" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
-      <c r="B79" s="202" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="203">
+      <c r="B79" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="21">
         <v>0</v>
       </c>
-      <c r="D79" s="204">
-        <v>44854</v>
-      </c>
-      <c r="E79" s="204">
-        <v>44854</v>
-      </c>
-      <c r="F79" s="205"/>
-      <c r="G79" s="205"/>
-      <c r="H79" s="206"/>
-      <c r="I79" s="206"/>
-      <c r="J79" s="206"/>
-      <c r="K79" s="206"/>
-      <c r="L79" s="206"/>
-      <c r="M79" s="206"/>
-      <c r="N79" s="206"/>
-      <c r="O79" s="206"/>
-      <c r="P79" s="206"/>
-      <c r="Q79" s="206"/>
-      <c r="R79" s="206"/>
-      <c r="S79" s="206"/>
-      <c r="T79" s="206"/>
-      <c r="U79" s="206"/>
-      <c r="V79" s="206"/>
-      <c r="W79" s="206"/>
-      <c r="X79" s="206"/>
-      <c r="Y79" s="206"/>
-      <c r="Z79" s="206"/>
-      <c r="AA79" s="206"/>
-      <c r="AB79" s="206"/>
-      <c r="AC79" s="206"/>
-      <c r="AD79" s="206"/>
-      <c r="AE79" s="206"/>
-      <c r="AF79" s="206"/>
-      <c r="AG79" s="206"/>
-      <c r="AH79" s="206"/>
-      <c r="AI79" s="206"/>
-      <c r="AJ79" s="206"/>
-      <c r="AK79" s="206"/>
-      <c r="AL79" s="206"/>
-      <c r="AM79" s="206"/>
-      <c r="AN79" s="206"/>
-      <c r="AO79" s="206"/>
-      <c r="AP79" s="206"/>
-      <c r="AQ79" s="206"/>
-      <c r="AR79" s="206"/>
-      <c r="AS79" s="206"/>
-      <c r="AT79" s="206"/>
-      <c r="AU79" s="206"/>
-      <c r="AV79" s="206"/>
-      <c r="AW79" s="206"/>
-      <c r="AX79" s="206"/>
-      <c r="AY79" s="206"/>
-      <c r="AZ79" s="206"/>
-      <c r="BA79" s="206"/>
-      <c r="BB79" s="206"/>
-      <c r="BC79" s="206"/>
-      <c r="BD79" s="206"/>
-      <c r="BE79" s="206"/>
-      <c r="BF79" s="206"/>
-      <c r="BG79" s="206"/>
-      <c r="BH79" s="206"/>
-      <c r="BI79" s="206"/>
-      <c r="BJ79" s="206"/>
-      <c r="BK79" s="206"/>
-      <c r="BL79" s="206"/>
-      <c r="BM79" s="206"/>
-      <c r="BN79" s="206"/>
-      <c r="BO79" s="206"/>
-      <c r="BP79" s="120"/>
-      <c r="BQ79" s="120"/>
-      <c r="BR79" s="120"/>
-      <c r="BS79" s="25"/>
+      <c r="D79" s="76">
+        <v>44850</v>
+      </c>
+      <c r="E79" s="76">
+        <v>44850</v>
+      </c>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="82"/>
+      <c r="I79" s="82"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="82"/>
+      <c r="L79" s="82"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="82"/>
+      <c r="O79" s="82"/>
+      <c r="P79" s="82"/>
+      <c r="Q79" s="82"/>
+      <c r="R79" s="82"/>
+      <c r="S79" s="82"/>
+      <c r="T79" s="82"/>
+      <c r="U79" s="82"/>
+      <c r="V79" s="82"/>
+      <c r="W79" s="82"/>
+      <c r="X79" s="82"/>
+      <c r="Y79" s="82"/>
+      <c r="Z79" s="82"/>
+      <c r="AA79" s="82"/>
+      <c r="AB79" s="82"/>
+      <c r="AC79" s="82"/>
+      <c r="AD79" s="82"/>
+      <c r="AE79" s="82"/>
+      <c r="AF79" s="82"/>
+      <c r="AG79" s="82"/>
+      <c r="AH79" s="82"/>
+      <c r="AI79" s="82"/>
+      <c r="AJ79" s="82"/>
+      <c r="AK79" s="82"/>
+      <c r="AL79" s="82"/>
+      <c r="AM79" s="82"/>
+      <c r="AN79" s="82"/>
+      <c r="AO79" s="82"/>
+      <c r="AP79" s="82"/>
+      <c r="AQ79" s="82"/>
+      <c r="AR79" s="82"/>
+      <c r="AS79" s="82"/>
+      <c r="AT79" s="82"/>
+      <c r="AU79" s="82"/>
+      <c r="AV79" s="82"/>
+      <c r="AW79" s="82"/>
+      <c r="AX79" s="82"/>
+      <c r="AY79" s="82"/>
+      <c r="AZ79" s="82"/>
+      <c r="BA79" s="82"/>
+      <c r="BB79" s="82"/>
+      <c r="BC79" s="82"/>
+      <c r="BD79" s="82"/>
+      <c r="BE79" s="82"/>
+      <c r="BF79" s="82"/>
+      <c r="BG79" s="82"/>
+      <c r="BH79" s="82"/>
+      <c r="BI79" s="82"/>
+      <c r="BJ79" s="82"/>
+      <c r="BK79" s="82"/>
+      <c r="BL79" s="82"/>
+      <c r="BM79" s="82"/>
+      <c r="BN79" s="82"/>
+      <c r="BO79" s="82"/>
+      <c r="BP79" s="82"/>
+      <c r="BQ79" s="82"/>
+      <c r="BR79" s="82"/>
+      <c r="BS79" s="120"/>
       <c r="BT79" s="25"/>
       <c r="BU79" s="25"/>
       <c r="BV79" s="25"/>
@@ -12918,84 +12906,84 @@
     </row>
     <row r="80" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
-      <c r="B80" s="216" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="217">
+      <c r="B80" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="21">
         <v>0</v>
       </c>
-      <c r="D80" s="218">
+      <c r="D80" s="76">
         <v>44850</v>
       </c>
-      <c r="E80" s="218">
-        <v>44857</v>
-      </c>
-      <c r="F80" s="79"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="80"/>
-      <c r="I80" s="80"/>
-      <c r="J80" s="80"/>
-      <c r="K80" s="80"/>
-      <c r="L80" s="80"/>
-      <c r="M80" s="80"/>
-      <c r="N80" s="80"/>
-      <c r="O80" s="80"/>
-      <c r="P80" s="80"/>
-      <c r="Q80" s="80"/>
-      <c r="R80" s="80"/>
-      <c r="S80" s="80"/>
-      <c r="T80" s="80"/>
-      <c r="U80" s="80"/>
-      <c r="V80" s="80"/>
-      <c r="W80" s="80"/>
-      <c r="X80" s="80"/>
-      <c r="Y80" s="80"/>
-      <c r="Z80" s="80"/>
-      <c r="AA80" s="80"/>
-      <c r="AB80" s="80"/>
-      <c r="AC80" s="80"/>
-      <c r="AD80" s="80"/>
-      <c r="AE80" s="80"/>
-      <c r="AF80" s="80"/>
-      <c r="AG80" s="80"/>
-      <c r="AH80" s="80"/>
-      <c r="AI80" s="80"/>
-      <c r="AJ80" s="80"/>
-      <c r="AK80" s="80"/>
-      <c r="AL80" s="80"/>
-      <c r="AM80" s="80"/>
-      <c r="AN80" s="80"/>
-      <c r="AO80" s="80"/>
-      <c r="AP80" s="80"/>
-      <c r="AQ80" s="80"/>
-      <c r="AR80" s="80"/>
-      <c r="AS80" s="80"/>
-      <c r="AT80" s="80"/>
-      <c r="AU80" s="80"/>
-      <c r="AV80" s="80"/>
-      <c r="AW80" s="80"/>
-      <c r="AX80" s="80"/>
-      <c r="AY80" s="80"/>
-      <c r="AZ80" s="80"/>
-      <c r="BA80" s="80"/>
-      <c r="BB80" s="80"/>
-      <c r="BC80" s="80"/>
-      <c r="BD80" s="80"/>
-      <c r="BE80" s="80"/>
-      <c r="BF80" s="80"/>
-      <c r="BG80" s="80"/>
-      <c r="BH80" s="80"/>
-      <c r="BI80" s="80"/>
-      <c r="BJ80" s="80"/>
-      <c r="BK80" s="80"/>
-      <c r="BL80" s="80"/>
-      <c r="BM80" s="80"/>
-      <c r="BN80" s="80"/>
-      <c r="BO80" s="80"/>
-      <c r="BP80" s="80"/>
-      <c r="BQ80" s="80"/>
-      <c r="BR80" s="80"/>
-      <c r="BS80" s="25"/>
+      <c r="E80" s="76">
+        <v>44850</v>
+      </c>
+      <c r="F80" s="81"/>
+      <c r="G80" s="81"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="82"/>
+      <c r="K80" s="82"/>
+      <c r="L80" s="82"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="82"/>
+      <c r="O80" s="82"/>
+      <c r="P80" s="82"/>
+      <c r="Q80" s="82"/>
+      <c r="R80" s="82"/>
+      <c r="S80" s="82"/>
+      <c r="T80" s="82"/>
+      <c r="U80" s="82"/>
+      <c r="V80" s="82"/>
+      <c r="W80" s="82"/>
+      <c r="X80" s="82"/>
+      <c r="Y80" s="82"/>
+      <c r="Z80" s="82"/>
+      <c r="AA80" s="82"/>
+      <c r="AB80" s="82"/>
+      <c r="AC80" s="82"/>
+      <c r="AD80" s="82"/>
+      <c r="AE80" s="82"/>
+      <c r="AF80" s="82"/>
+      <c r="AG80" s="82"/>
+      <c r="AH80" s="82"/>
+      <c r="AI80" s="82"/>
+      <c r="AJ80" s="82"/>
+      <c r="AK80" s="82"/>
+      <c r="AL80" s="82"/>
+      <c r="AM80" s="82"/>
+      <c r="AN80" s="82"/>
+      <c r="AO80" s="82"/>
+      <c r="AP80" s="82"/>
+      <c r="AQ80" s="82"/>
+      <c r="AR80" s="82"/>
+      <c r="AS80" s="82"/>
+      <c r="AT80" s="82"/>
+      <c r="AU80" s="82"/>
+      <c r="AV80" s="82"/>
+      <c r="AW80" s="82"/>
+      <c r="AX80" s="82"/>
+      <c r="AY80" s="82"/>
+      <c r="AZ80" s="82"/>
+      <c r="BA80" s="82"/>
+      <c r="BB80" s="82"/>
+      <c r="BC80" s="82"/>
+      <c r="BD80" s="82"/>
+      <c r="BE80" s="82"/>
+      <c r="BF80" s="82"/>
+      <c r="BG80" s="82"/>
+      <c r="BH80" s="82"/>
+      <c r="BI80" s="82"/>
+      <c r="BJ80" s="82"/>
+      <c r="BK80" s="82"/>
+      <c r="BL80" s="82"/>
+      <c r="BM80" s="82"/>
+      <c r="BN80" s="82"/>
+      <c r="BO80" s="82"/>
+      <c r="BP80" s="82"/>
+      <c r="BQ80" s="82"/>
+      <c r="BR80" s="82"/>
+      <c r="BS80" s="120"/>
       <c r="BT80" s="25"/>
       <c r="BU80" s="25"/>
       <c r="BV80" s="25"/>
@@ -13038,10 +13026,10 @@
       <c r="DG80" s="25"/>
       <c r="DH80" s="25"/>
     </row>
-    <row r="81" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="78" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C81" s="21">
         <v>0</v>
@@ -13163,7 +13151,7 @@
     <row r="82" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="78" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C82" s="21">
         <v>0</v>
@@ -13285,7 +13273,7 @@
     <row r="83" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="78" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C83" s="21">
         <v>0</v>
@@ -13407,7 +13395,7 @@
     <row r="84" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="78" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C84" s="21">
         <v>0</v>
@@ -13526,10 +13514,10 @@
       <c r="DG84" s="25"/>
       <c r="DH84" s="25"/>
     </row>
-    <row r="85" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="78" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C85" s="21">
         <v>0</v>
@@ -13650,18 +13638,10 @@
     </row>
     <row r="86" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
-      <c r="B86" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="21">
-        <v>0</v>
-      </c>
-      <c r="D86" s="76">
-        <v>44850</v>
-      </c>
-      <c r="E86" s="76">
-        <v>44850</v>
-      </c>
+      <c r="B86" s="78"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
       <c r="F86" s="81"/>
       <c r="G86" s="81"/>
       <c r="H86" s="82"/>
@@ -13770,10 +13750,10 @@
       <c r="DG86" s="25"/>
       <c r="DH86" s="25"/>
     </row>
-    <row r="87" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="78" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C87" s="21">
         <v>0</v>
@@ -13782,7 +13762,7 @@
         <v>44850</v>
       </c>
       <c r="E87" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F87" s="81"/>
       <c r="G87" s="81"/>
@@ -13892,19 +13872,19 @@
       <c r="DG87" s="25"/>
       <c r="DH87" s="25"/>
     </row>
-    <row r="88" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C88" s="21">
         <v>0</v>
       </c>
       <c r="D88" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E88" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F88" s="81"/>
       <c r="G88" s="81"/>
@@ -14014,19 +13994,19 @@
       <c r="DG88" s="25"/>
       <c r="DH88" s="25"/>
     </row>
-    <row r="89" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C89" s="21">
         <v>0</v>
       </c>
       <c r="D89" s="76">
-        <v>44850</v>
-      </c>
-      <c r="E89" s="76">
-        <v>44850</v>
+        <v>44852</v>
+      </c>
+      <c r="E89" s="77">
+        <v>44853</v>
       </c>
       <c r="F89" s="81"/>
       <c r="G89" s="81"/>
@@ -14136,12 +14116,20 @@
       <c r="DG89" s="25"/>
       <c r="DH89" s="25"/>
     </row>
-    <row r="90" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
-      <c r="B90" s="78"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
+      <c r="B90" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="21">
+        <v>0</v>
+      </c>
+      <c r="D90" s="77">
+        <v>44853</v>
+      </c>
+      <c r="E90" s="77">
+        <v>44853</v>
+      </c>
       <c r="F90" s="81"/>
       <c r="G90" s="81"/>
       <c r="H90" s="82"/>
@@ -14250,19 +14238,19 @@
       <c r="DG90" s="25"/>
       <c r="DH90" s="25"/>
     </row>
-    <row r="91" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C91" s="21">
         <v>0</v>
       </c>
       <c r="D91" s="76">
-        <v>44850</v>
-      </c>
-      <c r="E91" s="76">
-        <v>44851</v>
+        <v>44854</v>
+      </c>
+      <c r="E91" s="77">
+        <v>44855</v>
       </c>
       <c r="F91" s="81"/>
       <c r="G91" s="81"/>
@@ -14372,19 +14360,19 @@
       <c r="DG91" s="25"/>
       <c r="DH91" s="25"/>
     </row>
-    <row r="92" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C92" s="21">
         <v>0</v>
       </c>
-      <c r="D92" s="76">
-        <v>44851</v>
-      </c>
-      <c r="E92" s="76">
-        <v>44851</v>
+      <c r="D92" s="77">
+        <v>44855</v>
+      </c>
+      <c r="E92" s="77">
+        <v>44855</v>
       </c>
       <c r="F92" s="81"/>
       <c r="G92" s="81"/>
@@ -14494,19 +14482,19 @@
       <c r="DG92" s="25"/>
       <c r="DH92" s="25"/>
     </row>
-    <row r="93" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="78" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C93" s="21">
         <v>0</v>
       </c>
       <c r="D93" s="76">
-        <v>44852</v>
+        <v>44856</v>
       </c>
       <c r="E93" s="77">
-        <v>44853</v>
+        <v>44857</v>
       </c>
       <c r="F93" s="81"/>
       <c r="G93" s="81"/>
@@ -14616,19 +14604,19 @@
       <c r="DG93" s="25"/>
       <c r="DH93" s="25"/>
     </row>
-    <row r="94" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C94" s="21">
         <v>0</v>
       </c>
       <c r="D94" s="77">
-        <v>44853</v>
+        <v>44857</v>
       </c>
       <c r="E94" s="77">
-        <v>44853</v>
+        <v>44857</v>
       </c>
       <c r="F94" s="81"/>
       <c r="G94" s="81"/>
@@ -14738,89 +14726,89 @@
       <c r="DG94" s="25"/>
       <c r="DH94" s="25"/>
     </row>
-    <row r="95" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
-      <c r="B95" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C95" s="21">
+      <c r="B95" s="213" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="219">
         <v>0</v>
       </c>
-      <c r="D95" s="76">
-        <v>44854</v>
-      </c>
-      <c r="E95" s="77">
-        <v>44855</v>
-      </c>
-      <c r="F95" s="81"/>
-      <c r="G95" s="81"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="82"/>
-      <c r="J95" s="82"/>
-      <c r="K95" s="82"/>
-      <c r="L95" s="82"/>
-      <c r="M95" s="82"/>
-      <c r="N95" s="82"/>
-      <c r="O95" s="82"/>
-      <c r="P95" s="82"/>
-      <c r="Q95" s="82"/>
-      <c r="R95" s="82"/>
-      <c r="S95" s="82"/>
-      <c r="T95" s="82"/>
-      <c r="U95" s="82"/>
-      <c r="V95" s="82"/>
-      <c r="W95" s="82"/>
-      <c r="X95" s="82"/>
-      <c r="Y95" s="82"/>
-      <c r="Z95" s="82"/>
-      <c r="AA95" s="82"/>
-      <c r="AB95" s="82"/>
-      <c r="AC95" s="82"/>
-      <c r="AD95" s="82"/>
-      <c r="AE95" s="82"/>
-      <c r="AF95" s="82"/>
-      <c r="AG95" s="82"/>
-      <c r="AH95" s="82"/>
-      <c r="AI95" s="82"/>
-      <c r="AJ95" s="82"/>
-      <c r="AK95" s="82"/>
-      <c r="AL95" s="82"/>
-      <c r="AM95" s="82"/>
-      <c r="AN95" s="82"/>
-      <c r="AO95" s="82"/>
-      <c r="AP95" s="82"/>
-      <c r="AQ95" s="82"/>
-      <c r="AR95" s="82"/>
-      <c r="AS95" s="82"/>
-      <c r="AT95" s="82"/>
-      <c r="AU95" s="82"/>
-      <c r="AV95" s="82"/>
-      <c r="AW95" s="82"/>
-      <c r="AX95" s="82"/>
-      <c r="AY95" s="82"/>
-      <c r="AZ95" s="82"/>
-      <c r="BA95" s="82"/>
-      <c r="BB95" s="82"/>
-      <c r="BC95" s="82"/>
-      <c r="BD95" s="82"/>
-      <c r="BE95" s="82"/>
-      <c r="BF95" s="82"/>
-      <c r="BG95" s="82"/>
-      <c r="BH95" s="82"/>
-      <c r="BI95" s="82"/>
-      <c r="BJ95" s="82"/>
-      <c r="BK95" s="82"/>
-      <c r="BL95" s="82"/>
-      <c r="BM95" s="82"/>
-      <c r="BN95" s="82"/>
-      <c r="BO95" s="82"/>
-      <c r="BP95" s="82"/>
-      <c r="BQ95" s="82"/>
-      <c r="BR95" s="82"/>
-      <c r="BS95" s="120"/>
-      <c r="BT95" s="25"/>
-      <c r="BU95" s="25"/>
-      <c r="BV95" s="25"/>
+      <c r="D95" s="220">
+        <v>44861</v>
+      </c>
+      <c r="E95" s="220">
+        <v>44861</v>
+      </c>
+      <c r="F95" s="207"/>
+      <c r="G95" s="207"/>
+      <c r="H95" s="208"/>
+      <c r="I95" s="208"/>
+      <c r="J95" s="208"/>
+      <c r="K95" s="208"/>
+      <c r="L95" s="208"/>
+      <c r="M95" s="208"/>
+      <c r="N95" s="208"/>
+      <c r="O95" s="208"/>
+      <c r="P95" s="208"/>
+      <c r="Q95" s="208"/>
+      <c r="R95" s="208"/>
+      <c r="S95" s="208"/>
+      <c r="T95" s="208"/>
+      <c r="U95" s="208"/>
+      <c r="V95" s="208"/>
+      <c r="W95" s="208"/>
+      <c r="X95" s="208"/>
+      <c r="Y95" s="208"/>
+      <c r="Z95" s="208"/>
+      <c r="AA95" s="208"/>
+      <c r="AB95" s="208"/>
+      <c r="AC95" s="208"/>
+      <c r="AD95" s="208"/>
+      <c r="AE95" s="208"/>
+      <c r="AF95" s="208"/>
+      <c r="AG95" s="208"/>
+      <c r="AH95" s="208"/>
+      <c r="AI95" s="208"/>
+      <c r="AJ95" s="208"/>
+      <c r="AK95" s="208"/>
+      <c r="AL95" s="208"/>
+      <c r="AM95" s="208"/>
+      <c r="AN95" s="208"/>
+      <c r="AO95" s="208"/>
+      <c r="AP95" s="208"/>
+      <c r="AQ95" s="208"/>
+      <c r="AR95" s="208"/>
+      <c r="AS95" s="208"/>
+      <c r="AT95" s="208"/>
+      <c r="AU95" s="208"/>
+      <c r="AV95" s="208"/>
+      <c r="AW95" s="208"/>
+      <c r="AX95" s="208"/>
+      <c r="AY95" s="208"/>
+      <c r="AZ95" s="208"/>
+      <c r="BA95" s="208"/>
+      <c r="BB95" s="208"/>
+      <c r="BC95" s="208"/>
+      <c r="BD95" s="208"/>
+      <c r="BE95" s="208"/>
+      <c r="BF95" s="208"/>
+      <c r="BG95" s="208"/>
+      <c r="BH95" s="208"/>
+      <c r="BI95" s="208"/>
+      <c r="BJ95" s="208"/>
+      <c r="BK95" s="208"/>
+      <c r="BL95" s="208"/>
+      <c r="BM95" s="208"/>
+      <c r="BN95" s="208"/>
+      <c r="BO95" s="208"/>
+      <c r="BP95" s="208"/>
+      <c r="BQ95" s="208"/>
+      <c r="BR95" s="208"/>
+      <c r="BS95" s="208"/>
+      <c r="BT95" s="208"/>
+      <c r="BU95" s="208"/>
+      <c r="BV95" s="208"/>
       <c r="BW95" s="25"/>
       <c r="BX95" s="25"/>
       <c r="BY95" s="25"/>
@@ -14862,91 +14850,91 @@
     </row>
     <row r="96" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
-      <c r="B96" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" s="21">
+      <c r="B96" s="214" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="221">
         <v>0</v>
       </c>
-      <c r="D96" s="77">
-        <v>44855</v>
-      </c>
-      <c r="E96" s="77">
-        <v>44855</v>
-      </c>
-      <c r="F96" s="81"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
-      <c r="J96" s="82"/>
-      <c r="K96" s="82"/>
-      <c r="L96" s="82"/>
-      <c r="M96" s="82"/>
-      <c r="N96" s="82"/>
-      <c r="O96" s="82"/>
-      <c r="P96" s="82"/>
-      <c r="Q96" s="82"/>
-      <c r="R96" s="82"/>
-      <c r="S96" s="82"/>
-      <c r="T96" s="82"/>
-      <c r="U96" s="82"/>
-      <c r="V96" s="82"/>
-      <c r="W96" s="82"/>
-      <c r="X96" s="82"/>
-      <c r="Y96" s="82"/>
-      <c r="Z96" s="82"/>
-      <c r="AA96" s="82"/>
-      <c r="AB96" s="82"/>
-      <c r="AC96" s="82"/>
-      <c r="AD96" s="82"/>
-      <c r="AE96" s="82"/>
-      <c r="AF96" s="82"/>
-      <c r="AG96" s="82"/>
-      <c r="AH96" s="82"/>
-      <c r="AI96" s="82"/>
-      <c r="AJ96" s="82"/>
-      <c r="AK96" s="82"/>
-      <c r="AL96" s="82"/>
-      <c r="AM96" s="82"/>
-      <c r="AN96" s="82"/>
-      <c r="AO96" s="82"/>
-      <c r="AP96" s="82"/>
-      <c r="AQ96" s="82"/>
-      <c r="AR96" s="82"/>
-      <c r="AS96" s="82"/>
-      <c r="AT96" s="82"/>
-      <c r="AU96" s="82"/>
-      <c r="AV96" s="82"/>
-      <c r="AW96" s="82"/>
-      <c r="AX96" s="82"/>
-      <c r="AY96" s="82"/>
-      <c r="AZ96" s="82"/>
-      <c r="BA96" s="82"/>
-      <c r="BB96" s="82"/>
-      <c r="BC96" s="82"/>
-      <c r="BD96" s="82"/>
-      <c r="BE96" s="82"/>
-      <c r="BF96" s="82"/>
-      <c r="BG96" s="82"/>
-      <c r="BH96" s="82"/>
-      <c r="BI96" s="82"/>
-      <c r="BJ96" s="82"/>
-      <c r="BK96" s="82"/>
-      <c r="BL96" s="82"/>
-      <c r="BM96" s="82"/>
-      <c r="BN96" s="82"/>
-      <c r="BO96" s="82"/>
-      <c r="BP96" s="82"/>
-      <c r="BQ96" s="82"/>
-      <c r="BR96" s="82"/>
-      <c r="BS96" s="120"/>
-      <c r="BT96" s="25"/>
-      <c r="BU96" s="25"/>
-      <c r="BV96" s="25"/>
-      <c r="BW96" s="25"/>
-      <c r="BX96" s="25"/>
-      <c r="BY96" s="25"/>
-      <c r="BZ96" s="25"/>
+      <c r="D96" s="222">
+        <v>44865</v>
+      </c>
+      <c r="E96" s="222">
+        <v>44865</v>
+      </c>
+      <c r="F96" s="209"/>
+      <c r="G96" s="209"/>
+      <c r="H96" s="210"/>
+      <c r="I96" s="210"/>
+      <c r="J96" s="210"/>
+      <c r="K96" s="210"/>
+      <c r="L96" s="210"/>
+      <c r="M96" s="210"/>
+      <c r="N96" s="210"/>
+      <c r="O96" s="210"/>
+      <c r="P96" s="210"/>
+      <c r="Q96" s="210"/>
+      <c r="R96" s="210"/>
+      <c r="S96" s="210"/>
+      <c r="T96" s="210"/>
+      <c r="U96" s="210"/>
+      <c r="V96" s="210"/>
+      <c r="W96" s="210"/>
+      <c r="X96" s="210"/>
+      <c r="Y96" s="210"/>
+      <c r="Z96" s="210"/>
+      <c r="AA96" s="210"/>
+      <c r="AB96" s="210"/>
+      <c r="AC96" s="210"/>
+      <c r="AD96" s="210"/>
+      <c r="AE96" s="210"/>
+      <c r="AF96" s="210"/>
+      <c r="AG96" s="210"/>
+      <c r="AH96" s="210"/>
+      <c r="AI96" s="210"/>
+      <c r="AJ96" s="210"/>
+      <c r="AK96" s="210"/>
+      <c r="AL96" s="210"/>
+      <c r="AM96" s="210"/>
+      <c r="AN96" s="210"/>
+      <c r="AO96" s="210"/>
+      <c r="AP96" s="210"/>
+      <c r="AQ96" s="210"/>
+      <c r="AR96" s="210"/>
+      <c r="AS96" s="210"/>
+      <c r="AT96" s="210"/>
+      <c r="AU96" s="210"/>
+      <c r="AV96" s="210"/>
+      <c r="AW96" s="210"/>
+      <c r="AX96" s="210"/>
+      <c r="AY96" s="210"/>
+      <c r="AZ96" s="210"/>
+      <c r="BA96" s="210"/>
+      <c r="BB96" s="210"/>
+      <c r="BC96" s="210"/>
+      <c r="BD96" s="210"/>
+      <c r="BE96" s="210"/>
+      <c r="BF96" s="210"/>
+      <c r="BG96" s="210"/>
+      <c r="BH96" s="210"/>
+      <c r="BI96" s="210"/>
+      <c r="BJ96" s="210"/>
+      <c r="BK96" s="210"/>
+      <c r="BL96" s="210"/>
+      <c r="BM96" s="210"/>
+      <c r="BN96" s="210"/>
+      <c r="BO96" s="210"/>
+      <c r="BP96" s="210"/>
+      <c r="BQ96" s="210"/>
+      <c r="BR96" s="210"/>
+      <c r="BS96" s="210"/>
+      <c r="BT96" s="210"/>
+      <c r="BU96" s="210"/>
+      <c r="BV96" s="210"/>
+      <c r="BW96" s="210"/>
+      <c r="BX96" s="210"/>
+      <c r="BY96" s="210"/>
+      <c r="BZ96" s="210"/>
       <c r="CA96" s="25"/>
       <c r="CB96" s="25"/>
       <c r="CC96" s="25"/>
@@ -14984,96 +14972,96 @@
     </row>
     <row r="97" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
-      <c r="B97" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="21">
+      <c r="B97" s="215" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="223">
         <v>0</v>
       </c>
-      <c r="D97" s="76">
-        <v>44856</v>
-      </c>
-      <c r="E97" s="77">
-        <v>44857</v>
-      </c>
-      <c r="F97" s="81"/>
-      <c r="G97" s="81"/>
-      <c r="H97" s="82"/>
-      <c r="I97" s="82"/>
-      <c r="J97" s="82"/>
-      <c r="K97" s="82"/>
-      <c r="L97" s="82"/>
-      <c r="M97" s="82"/>
-      <c r="N97" s="82"/>
-      <c r="O97" s="82"/>
-      <c r="P97" s="82"/>
-      <c r="Q97" s="82"/>
-      <c r="R97" s="82"/>
-      <c r="S97" s="82"/>
-      <c r="T97" s="82"/>
-      <c r="U97" s="82"/>
-      <c r="V97" s="82"/>
-      <c r="W97" s="82"/>
-      <c r="X97" s="82"/>
-      <c r="Y97" s="82"/>
-      <c r="Z97" s="82"/>
-      <c r="AA97" s="82"/>
-      <c r="AB97" s="82"/>
-      <c r="AC97" s="82"/>
-      <c r="AD97" s="82"/>
-      <c r="AE97" s="82"/>
-      <c r="AF97" s="82"/>
-      <c r="AG97" s="82"/>
-      <c r="AH97" s="82"/>
-      <c r="AI97" s="82"/>
-      <c r="AJ97" s="82"/>
-      <c r="AK97" s="82"/>
-      <c r="AL97" s="82"/>
-      <c r="AM97" s="82"/>
-      <c r="AN97" s="82"/>
-      <c r="AO97" s="82"/>
-      <c r="AP97" s="82"/>
-      <c r="AQ97" s="82"/>
-      <c r="AR97" s="82"/>
-      <c r="AS97" s="82"/>
-      <c r="AT97" s="82"/>
-      <c r="AU97" s="82"/>
-      <c r="AV97" s="82"/>
-      <c r="AW97" s="82"/>
-      <c r="AX97" s="82"/>
-      <c r="AY97" s="82"/>
-      <c r="AZ97" s="82"/>
-      <c r="BA97" s="82"/>
-      <c r="BB97" s="82"/>
-      <c r="BC97" s="82"/>
-      <c r="BD97" s="82"/>
-      <c r="BE97" s="82"/>
-      <c r="BF97" s="82"/>
-      <c r="BG97" s="82"/>
-      <c r="BH97" s="82"/>
-      <c r="BI97" s="82"/>
-      <c r="BJ97" s="82"/>
-      <c r="BK97" s="82"/>
-      <c r="BL97" s="82"/>
-      <c r="BM97" s="82"/>
-      <c r="BN97" s="82"/>
-      <c r="BO97" s="82"/>
-      <c r="BP97" s="82"/>
-      <c r="BQ97" s="82"/>
-      <c r="BR97" s="82"/>
-      <c r="BS97" s="120"/>
-      <c r="BT97" s="25"/>
-      <c r="BU97" s="25"/>
-      <c r="BV97" s="25"/>
-      <c r="BW97" s="25"/>
-      <c r="BX97" s="25"/>
-      <c r="BY97" s="25"/>
-      <c r="BZ97" s="25"/>
-      <c r="CA97" s="25"/>
-      <c r="CB97" s="25"/>
-      <c r="CC97" s="25"/>
-      <c r="CD97" s="25"/>
-      <c r="CE97" s="25"/>
+      <c r="D97" s="224">
+        <v>44870</v>
+      </c>
+      <c r="E97" s="224">
+        <v>44870</v>
+      </c>
+      <c r="F97" s="211"/>
+      <c r="G97" s="211"/>
+      <c r="H97" s="212"/>
+      <c r="I97" s="212"/>
+      <c r="J97" s="212"/>
+      <c r="K97" s="212"/>
+      <c r="L97" s="212"/>
+      <c r="M97" s="212"/>
+      <c r="N97" s="212"/>
+      <c r="O97" s="212"/>
+      <c r="P97" s="212"/>
+      <c r="Q97" s="212"/>
+      <c r="R97" s="212"/>
+      <c r="S97" s="212"/>
+      <c r="T97" s="212"/>
+      <c r="U97" s="212"/>
+      <c r="V97" s="212"/>
+      <c r="W97" s="212"/>
+      <c r="X97" s="212"/>
+      <c r="Y97" s="212"/>
+      <c r="Z97" s="212"/>
+      <c r="AA97" s="212"/>
+      <c r="AB97" s="212"/>
+      <c r="AC97" s="212"/>
+      <c r="AD97" s="212"/>
+      <c r="AE97" s="212"/>
+      <c r="AF97" s="212"/>
+      <c r="AG97" s="212"/>
+      <c r="AH97" s="212"/>
+      <c r="AI97" s="212"/>
+      <c r="AJ97" s="212"/>
+      <c r="AK97" s="212"/>
+      <c r="AL97" s="212"/>
+      <c r="AM97" s="212"/>
+      <c r="AN97" s="212"/>
+      <c r="AO97" s="212"/>
+      <c r="AP97" s="212"/>
+      <c r="AQ97" s="212"/>
+      <c r="AR97" s="212"/>
+      <c r="AS97" s="212"/>
+      <c r="AT97" s="212"/>
+      <c r="AU97" s="212"/>
+      <c r="AV97" s="212"/>
+      <c r="AW97" s="212"/>
+      <c r="AX97" s="212"/>
+      <c r="AY97" s="212"/>
+      <c r="AZ97" s="212"/>
+      <c r="BA97" s="212"/>
+      <c r="BB97" s="212"/>
+      <c r="BC97" s="212"/>
+      <c r="BD97" s="212"/>
+      <c r="BE97" s="212"/>
+      <c r="BF97" s="212"/>
+      <c r="BG97" s="212"/>
+      <c r="BH97" s="212"/>
+      <c r="BI97" s="212"/>
+      <c r="BJ97" s="212"/>
+      <c r="BK97" s="212"/>
+      <c r="BL97" s="212"/>
+      <c r="BM97" s="212"/>
+      <c r="BN97" s="212"/>
+      <c r="BO97" s="212"/>
+      <c r="BP97" s="212"/>
+      <c r="BQ97" s="212"/>
+      <c r="BR97" s="212"/>
+      <c r="BS97" s="212"/>
+      <c r="BT97" s="212"/>
+      <c r="BU97" s="212"/>
+      <c r="BV97" s="212"/>
+      <c r="BW97" s="212"/>
+      <c r="BX97" s="212"/>
+      <c r="BY97" s="212"/>
+      <c r="BZ97" s="212"/>
+      <c r="CA97" s="212"/>
+      <c r="CB97" s="212"/>
+      <c r="CC97" s="212"/>
+      <c r="CD97" s="212"/>
+      <c r="CE97" s="212"/>
       <c r="CF97" s="25"/>
       <c r="CG97" s="25"/>
       <c r="CH97" s="25"/>
@@ -15106,111 +15094,114 @@
     </row>
     <row r="98" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
-      <c r="B98" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C98" s="21">
+      <c r="B98" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="91">
         <v>0</v>
       </c>
-      <c r="D98" s="77">
-        <v>44857</v>
-      </c>
-      <c r="E98" s="77">
-        <v>44857</v>
-      </c>
-      <c r="F98" s="81"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="82"/>
-      <c r="K98" s="82"/>
-      <c r="L98" s="82"/>
-      <c r="M98" s="82"/>
-      <c r="N98" s="82"/>
-      <c r="O98" s="82"/>
-      <c r="P98" s="82"/>
-      <c r="Q98" s="82"/>
-      <c r="R98" s="82"/>
-      <c r="S98" s="82"/>
-      <c r="T98" s="82"/>
-      <c r="U98" s="82"/>
-      <c r="V98" s="82"/>
-      <c r="W98" s="82"/>
-      <c r="X98" s="82"/>
-      <c r="Y98" s="82"/>
-      <c r="Z98" s="82"/>
-      <c r="AA98" s="82"/>
-      <c r="AB98" s="82"/>
-      <c r="AC98" s="82"/>
-      <c r="AD98" s="82"/>
-      <c r="AE98" s="82"/>
-      <c r="AF98" s="82"/>
-      <c r="AG98" s="82"/>
-      <c r="AH98" s="82"/>
-      <c r="AI98" s="82"/>
-      <c r="AJ98" s="82"/>
-      <c r="AK98" s="82"/>
-      <c r="AL98" s="82"/>
-      <c r="AM98" s="82"/>
-      <c r="AN98" s="82"/>
-      <c r="AO98" s="82"/>
-      <c r="AP98" s="82"/>
-      <c r="AQ98" s="82"/>
-      <c r="AR98" s="82"/>
-      <c r="AS98" s="82"/>
-      <c r="AT98" s="82"/>
-      <c r="AU98" s="82"/>
-      <c r="AV98" s="82"/>
-      <c r="AW98" s="82"/>
-      <c r="AX98" s="82"/>
-      <c r="AY98" s="82"/>
-      <c r="AZ98" s="82"/>
-      <c r="BA98" s="82"/>
-      <c r="BB98" s="82"/>
-      <c r="BC98" s="82"/>
-      <c r="BD98" s="82"/>
-      <c r="BE98" s="82"/>
-      <c r="BF98" s="82"/>
-      <c r="BG98" s="82"/>
-      <c r="BH98" s="82"/>
-      <c r="BI98" s="82"/>
-      <c r="BJ98" s="82"/>
-      <c r="BK98" s="82"/>
-      <c r="BL98" s="82"/>
-      <c r="BM98" s="82"/>
-      <c r="BN98" s="82"/>
-      <c r="BO98" s="82"/>
-      <c r="BP98" s="82"/>
-      <c r="BQ98" s="82"/>
-      <c r="BR98" s="82"/>
-      <c r="BS98" s="120"/>
-      <c r="BT98" s="25"/>
-      <c r="BU98" s="25"/>
-      <c r="BV98" s="25"/>
-      <c r="BW98" s="25"/>
-      <c r="BX98" s="25"/>
-      <c r="BY98" s="25"/>
-      <c r="BZ98" s="25"/>
-      <c r="CA98" s="25"/>
-      <c r="CB98" s="25"/>
-      <c r="CC98" s="25"/>
-      <c r="CD98" s="25"/>
-      <c r="CE98" s="25"/>
-      <c r="CF98" s="25"/>
-      <c r="CG98" s="25"/>
-      <c r="CH98" s="25"/>
-      <c r="CI98" s="25"/>
-      <c r="CJ98" s="25"/>
-      <c r="CK98" s="25"/>
-      <c r="CL98" s="25"/>
-      <c r="CM98" s="25"/>
-      <c r="CN98" s="25"/>
-      <c r="CO98" s="25"/>
-      <c r="CP98" s="25"/>
-      <c r="CQ98" s="25"/>
-      <c r="CR98" s="25"/>
-      <c r="CS98" s="25"/>
-      <c r="CT98" s="25"/>
+      <c r="D98" s="92">
+        <v>44858</v>
+      </c>
+      <c r="E98" s="93">
+        <v>44885</v>
+      </c>
+      <c r="F98" s="94"/>
+      <c r="G98" s="94">
+        <f t="shared" si="42"/>
+        <v>28</v>
+      </c>
+      <c r="H98" s="95"/>
+      <c r="I98" s="95"/>
+      <c r="J98" s="95"/>
+      <c r="K98" s="95"/>
+      <c r="L98" s="95"/>
+      <c r="M98" s="95"/>
+      <c r="N98" s="95"/>
+      <c r="O98" s="95"/>
+      <c r="P98" s="95"/>
+      <c r="Q98" s="95"/>
+      <c r="R98" s="95"/>
+      <c r="S98" s="95"/>
+      <c r="T98" s="95"/>
+      <c r="U98" s="95"/>
+      <c r="V98" s="95"/>
+      <c r="W98" s="95"/>
+      <c r="X98" s="95"/>
+      <c r="Y98" s="95"/>
+      <c r="Z98" s="95"/>
+      <c r="AA98" s="95"/>
+      <c r="AB98" s="95"/>
+      <c r="AC98" s="95"/>
+      <c r="AD98" s="95"/>
+      <c r="AE98" s="95"/>
+      <c r="AF98" s="95"/>
+      <c r="AG98" s="95"/>
+      <c r="AH98" s="95"/>
+      <c r="AI98" s="95"/>
+      <c r="AJ98" s="95"/>
+      <c r="AK98" s="95"/>
+      <c r="AL98" s="95"/>
+      <c r="AM98" s="95"/>
+      <c r="AN98" s="95"/>
+      <c r="AO98" s="95"/>
+      <c r="AP98" s="95"/>
+      <c r="AQ98" s="95"/>
+      <c r="AR98" s="95"/>
+      <c r="AS98" s="95"/>
+      <c r="AT98" s="95"/>
+      <c r="AU98" s="95"/>
+      <c r="AV98" s="95"/>
+      <c r="AW98" s="95"/>
+      <c r="AX98" s="95"/>
+      <c r="AY98" s="95"/>
+      <c r="AZ98" s="95"/>
+      <c r="BA98" s="95"/>
+      <c r="BB98" s="95"/>
+      <c r="BC98" s="95"/>
+      <c r="BD98" s="95"/>
+      <c r="BE98" s="95"/>
+      <c r="BF98" s="95"/>
+      <c r="BG98" s="95"/>
+      <c r="BH98" s="95"/>
+      <c r="BI98" s="95"/>
+      <c r="BJ98" s="95"/>
+      <c r="BK98" s="95"/>
+      <c r="BL98" s="95"/>
+      <c r="BM98" s="95"/>
+      <c r="BN98" s="95"/>
+      <c r="BO98" s="95"/>
+      <c r="BP98" s="95"/>
+      <c r="BQ98" s="95"/>
+      <c r="BR98" s="95"/>
+      <c r="BS98" s="95"/>
+      <c r="BT98" s="95"/>
+      <c r="BU98" s="95"/>
+      <c r="BV98" s="95"/>
+      <c r="BW98" s="95"/>
+      <c r="BX98" s="95"/>
+      <c r="BY98" s="95"/>
+      <c r="BZ98" s="95"/>
+      <c r="CA98" s="95"/>
+      <c r="CB98" s="95"/>
+      <c r="CC98" s="95"/>
+      <c r="CD98" s="95"/>
+      <c r="CE98" s="95"/>
+      <c r="CF98" s="95"/>
+      <c r="CG98" s="95"/>
+      <c r="CH98" s="95"/>
+      <c r="CI98" s="95"/>
+      <c r="CJ98" s="95"/>
+      <c r="CK98" s="95"/>
+      <c r="CL98" s="95"/>
+      <c r="CM98" s="95"/>
+      <c r="CN98" s="87"/>
+      <c r="CO98" s="87"/>
+      <c r="CP98" s="87"/>
+      <c r="CQ98" s="87"/>
+      <c r="CR98" s="87"/>
+      <c r="CS98" s="87"/>
+      <c r="CT98" s="87"/>
       <c r="CU98" s="25"/>
       <c r="CV98" s="25"/>
       <c r="CW98" s="25"/>
@@ -15228,111 +15219,111 @@
     </row>
     <row r="99" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
-      <c r="B99" s="213" t="s">
-        <v>153</v>
-      </c>
-      <c r="C99" s="219">
+      <c r="B99" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="98">
         <v>0</v>
       </c>
-      <c r="D99" s="220">
-        <v>44861</v>
-      </c>
-      <c r="E99" s="220">
-        <v>44861</v>
-      </c>
-      <c r="F99" s="207"/>
-      <c r="G99" s="207"/>
-      <c r="H99" s="208"/>
-      <c r="I99" s="208"/>
-      <c r="J99" s="208"/>
-      <c r="K99" s="208"/>
-      <c r="L99" s="208"/>
-      <c r="M99" s="208"/>
-      <c r="N99" s="208"/>
-      <c r="O99" s="208"/>
-      <c r="P99" s="208"/>
-      <c r="Q99" s="208"/>
-      <c r="R99" s="208"/>
-      <c r="S99" s="208"/>
-      <c r="T99" s="208"/>
-      <c r="U99" s="208"/>
-      <c r="V99" s="208"/>
-      <c r="W99" s="208"/>
-      <c r="X99" s="208"/>
-      <c r="Y99" s="208"/>
-      <c r="Z99" s="208"/>
-      <c r="AA99" s="208"/>
-      <c r="AB99" s="208"/>
-      <c r="AC99" s="208"/>
-      <c r="AD99" s="208"/>
-      <c r="AE99" s="208"/>
-      <c r="AF99" s="208"/>
-      <c r="AG99" s="208"/>
-      <c r="AH99" s="208"/>
-      <c r="AI99" s="208"/>
-      <c r="AJ99" s="208"/>
-      <c r="AK99" s="208"/>
-      <c r="AL99" s="208"/>
-      <c r="AM99" s="208"/>
-      <c r="AN99" s="208"/>
-      <c r="AO99" s="208"/>
-      <c r="AP99" s="208"/>
-      <c r="AQ99" s="208"/>
-      <c r="AR99" s="208"/>
-      <c r="AS99" s="208"/>
-      <c r="AT99" s="208"/>
-      <c r="AU99" s="208"/>
-      <c r="AV99" s="208"/>
-      <c r="AW99" s="208"/>
-      <c r="AX99" s="208"/>
-      <c r="AY99" s="208"/>
-      <c r="AZ99" s="208"/>
-      <c r="BA99" s="208"/>
-      <c r="BB99" s="208"/>
-      <c r="BC99" s="208"/>
-      <c r="BD99" s="208"/>
-      <c r="BE99" s="208"/>
-      <c r="BF99" s="208"/>
-      <c r="BG99" s="208"/>
-      <c r="BH99" s="208"/>
-      <c r="BI99" s="208"/>
-      <c r="BJ99" s="208"/>
-      <c r="BK99" s="208"/>
-      <c r="BL99" s="208"/>
-      <c r="BM99" s="208"/>
-      <c r="BN99" s="208"/>
-      <c r="BO99" s="208"/>
-      <c r="BP99" s="208"/>
-      <c r="BQ99" s="208"/>
-      <c r="BR99" s="208"/>
-      <c r="BS99" s="208"/>
-      <c r="BT99" s="208"/>
-      <c r="BU99" s="208"/>
-      <c r="BV99" s="208"/>
-      <c r="BW99" s="25"/>
-      <c r="BX99" s="25"/>
-      <c r="BY99" s="25"/>
-      <c r="BZ99" s="25"/>
-      <c r="CA99" s="25"/>
-      <c r="CB99" s="25"/>
-      <c r="CC99" s="25"/>
-      <c r="CD99" s="25"/>
-      <c r="CE99" s="25"/>
-      <c r="CF99" s="25"/>
-      <c r="CG99" s="25"/>
-      <c r="CH99" s="25"/>
-      <c r="CI99" s="25"/>
-      <c r="CJ99" s="25"/>
-      <c r="CK99" s="25"/>
-      <c r="CL99" s="25"/>
-      <c r="CM99" s="25"/>
-      <c r="CN99" s="25"/>
-      <c r="CO99" s="25"/>
-      <c r="CP99" s="25"/>
-      <c r="CQ99" s="25"/>
-      <c r="CR99" s="25"/>
-      <c r="CS99" s="25"/>
-      <c r="CT99" s="25"/>
+      <c r="D99" s="100">
+        <v>44858</v>
+      </c>
+      <c r="E99" s="101">
+        <v>44864</v>
+      </c>
+      <c r="F99" s="86"/>
+      <c r="G99" s="86"/>
+      <c r="H99" s="87"/>
+      <c r="I99" s="87"/>
+      <c r="J99" s="87"/>
+      <c r="K99" s="87"/>
+      <c r="L99" s="87"/>
+      <c r="M99" s="87"/>
+      <c r="N99" s="87"/>
+      <c r="O99" s="87"/>
+      <c r="P99" s="87"/>
+      <c r="Q99" s="87"/>
+      <c r="R99" s="87"/>
+      <c r="S99" s="87"/>
+      <c r="T99" s="87"/>
+      <c r="U99" s="87"/>
+      <c r="V99" s="87"/>
+      <c r="W99" s="87"/>
+      <c r="X99" s="87"/>
+      <c r="Y99" s="87"/>
+      <c r="Z99" s="87"/>
+      <c r="AA99" s="87"/>
+      <c r="AB99" s="87"/>
+      <c r="AC99" s="87"/>
+      <c r="AD99" s="87"/>
+      <c r="AE99" s="87"/>
+      <c r="AF99" s="87"/>
+      <c r="AG99" s="87"/>
+      <c r="AH99" s="87"/>
+      <c r="AI99" s="87"/>
+      <c r="AJ99" s="87"/>
+      <c r="AK99" s="87"/>
+      <c r="AL99" s="87"/>
+      <c r="AM99" s="87"/>
+      <c r="AN99" s="87"/>
+      <c r="AO99" s="87"/>
+      <c r="AP99" s="87"/>
+      <c r="AQ99" s="87"/>
+      <c r="AR99" s="87"/>
+      <c r="AS99" s="87"/>
+      <c r="AT99" s="87"/>
+      <c r="AU99" s="87"/>
+      <c r="AV99" s="87"/>
+      <c r="AW99" s="87"/>
+      <c r="AX99" s="87"/>
+      <c r="AY99" s="87"/>
+      <c r="AZ99" s="87"/>
+      <c r="BA99" s="87"/>
+      <c r="BB99" s="87"/>
+      <c r="BC99" s="87"/>
+      <c r="BD99" s="87"/>
+      <c r="BE99" s="87"/>
+      <c r="BF99" s="87"/>
+      <c r="BG99" s="87"/>
+      <c r="BH99" s="87"/>
+      <c r="BI99" s="87"/>
+      <c r="BJ99" s="87"/>
+      <c r="BK99" s="87"/>
+      <c r="BL99" s="87"/>
+      <c r="BM99" s="87"/>
+      <c r="BN99" s="87"/>
+      <c r="BO99" s="87"/>
+      <c r="BP99" s="87"/>
+      <c r="BQ99" s="87"/>
+      <c r="BR99" s="87"/>
+      <c r="BS99" s="87"/>
+      <c r="BT99" s="87"/>
+      <c r="BU99" s="87"/>
+      <c r="BV99" s="87"/>
+      <c r="BW99" s="87"/>
+      <c r="BX99" s="87"/>
+      <c r="BY99" s="87"/>
+      <c r="BZ99" s="87"/>
+      <c r="CA99" s="87"/>
+      <c r="CB99" s="87"/>
+      <c r="CC99" s="87"/>
+      <c r="CD99" s="87"/>
+      <c r="CE99" s="87"/>
+      <c r="CF99" s="87"/>
+      <c r="CG99" s="87"/>
+      <c r="CH99" s="87"/>
+      <c r="CI99" s="87"/>
+      <c r="CJ99" s="87"/>
+      <c r="CK99" s="87"/>
+      <c r="CL99" s="87"/>
+      <c r="CM99" s="87"/>
+      <c r="CN99" s="87"/>
+      <c r="CO99" s="87"/>
+      <c r="CP99" s="87"/>
+      <c r="CQ99" s="87"/>
+      <c r="CR99" s="87"/>
+      <c r="CS99" s="87"/>
+      <c r="CT99" s="87"/>
       <c r="CU99" s="25"/>
       <c r="CV99" s="25"/>
       <c r="CW99" s="25"/>
@@ -15350,111 +15341,111 @@
     </row>
     <row r="100" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
-      <c r="B100" s="214" t="s">
-        <v>154</v>
-      </c>
-      <c r="C100" s="221">
+      <c r="B100" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="84">
         <v>0</v>
       </c>
-      <c r="D100" s="222">
-        <v>44865</v>
-      </c>
-      <c r="E100" s="222">
-        <v>44865</v>
-      </c>
-      <c r="F100" s="209"/>
-      <c r="G100" s="209"/>
-      <c r="H100" s="210"/>
-      <c r="I100" s="210"/>
-      <c r="J100" s="210"/>
-      <c r="K100" s="210"/>
-      <c r="L100" s="210"/>
-      <c r="M100" s="210"/>
-      <c r="N100" s="210"/>
-      <c r="O100" s="210"/>
-      <c r="P100" s="210"/>
-      <c r="Q100" s="210"/>
-      <c r="R100" s="210"/>
-      <c r="S100" s="210"/>
-      <c r="T100" s="210"/>
-      <c r="U100" s="210"/>
-      <c r="V100" s="210"/>
-      <c r="W100" s="210"/>
-      <c r="X100" s="210"/>
-      <c r="Y100" s="210"/>
-      <c r="Z100" s="210"/>
-      <c r="AA100" s="210"/>
-      <c r="AB100" s="210"/>
-      <c r="AC100" s="210"/>
-      <c r="AD100" s="210"/>
-      <c r="AE100" s="210"/>
-      <c r="AF100" s="210"/>
-      <c r="AG100" s="210"/>
-      <c r="AH100" s="210"/>
-      <c r="AI100" s="210"/>
-      <c r="AJ100" s="210"/>
-      <c r="AK100" s="210"/>
-      <c r="AL100" s="210"/>
-      <c r="AM100" s="210"/>
-      <c r="AN100" s="210"/>
-      <c r="AO100" s="210"/>
-      <c r="AP100" s="210"/>
-      <c r="AQ100" s="210"/>
-      <c r="AR100" s="210"/>
-      <c r="AS100" s="210"/>
-      <c r="AT100" s="210"/>
-      <c r="AU100" s="210"/>
-      <c r="AV100" s="210"/>
-      <c r="AW100" s="210"/>
-      <c r="AX100" s="210"/>
-      <c r="AY100" s="210"/>
-      <c r="AZ100" s="210"/>
-      <c r="BA100" s="210"/>
-      <c r="BB100" s="210"/>
-      <c r="BC100" s="210"/>
-      <c r="BD100" s="210"/>
-      <c r="BE100" s="210"/>
-      <c r="BF100" s="210"/>
-      <c r="BG100" s="210"/>
-      <c r="BH100" s="210"/>
-      <c r="BI100" s="210"/>
-      <c r="BJ100" s="210"/>
-      <c r="BK100" s="210"/>
-      <c r="BL100" s="210"/>
-      <c r="BM100" s="210"/>
-      <c r="BN100" s="210"/>
-      <c r="BO100" s="210"/>
-      <c r="BP100" s="210"/>
-      <c r="BQ100" s="210"/>
-      <c r="BR100" s="210"/>
-      <c r="BS100" s="210"/>
-      <c r="BT100" s="210"/>
-      <c r="BU100" s="210"/>
-      <c r="BV100" s="210"/>
-      <c r="BW100" s="210"/>
-      <c r="BX100" s="210"/>
-      <c r="BY100" s="210"/>
-      <c r="BZ100" s="210"/>
-      <c r="CA100" s="25"/>
-      <c r="CB100" s="25"/>
-      <c r="CC100" s="25"/>
-      <c r="CD100" s="25"/>
-      <c r="CE100" s="25"/>
-      <c r="CF100" s="25"/>
-      <c r="CG100" s="25"/>
-      <c r="CH100" s="25"/>
-      <c r="CI100" s="25"/>
-      <c r="CJ100" s="25"/>
-      <c r="CK100" s="25"/>
-      <c r="CL100" s="25"/>
-      <c r="CM100" s="25"/>
-      <c r="CN100" s="25"/>
-      <c r="CO100" s="25"/>
-      <c r="CP100" s="25"/>
-      <c r="CQ100" s="25"/>
-      <c r="CR100" s="25"/>
-      <c r="CS100" s="25"/>
-      <c r="CT100" s="25"/>
+      <c r="D100" s="85">
+        <v>44858</v>
+      </c>
+      <c r="E100" s="85">
+        <v>44858</v>
+      </c>
+      <c r="F100" s="86"/>
+      <c r="G100" s="86"/>
+      <c r="H100" s="87"/>
+      <c r="I100" s="87"/>
+      <c r="J100" s="87"/>
+      <c r="K100" s="87"/>
+      <c r="L100" s="87"/>
+      <c r="M100" s="87"/>
+      <c r="N100" s="87"/>
+      <c r="O100" s="87"/>
+      <c r="P100" s="87"/>
+      <c r="Q100" s="87"/>
+      <c r="R100" s="87"/>
+      <c r="S100" s="87"/>
+      <c r="T100" s="87"/>
+      <c r="U100" s="87"/>
+      <c r="V100" s="87"/>
+      <c r="W100" s="87"/>
+      <c r="X100" s="87"/>
+      <c r="Y100" s="87"/>
+      <c r="Z100" s="87"/>
+      <c r="AA100" s="87"/>
+      <c r="AB100" s="87"/>
+      <c r="AC100" s="87"/>
+      <c r="AD100" s="87"/>
+      <c r="AE100" s="87"/>
+      <c r="AF100" s="87"/>
+      <c r="AG100" s="87"/>
+      <c r="AH100" s="87"/>
+      <c r="AI100" s="87"/>
+      <c r="AJ100" s="87"/>
+      <c r="AK100" s="87"/>
+      <c r="AL100" s="87"/>
+      <c r="AM100" s="87"/>
+      <c r="AN100" s="87"/>
+      <c r="AO100" s="87"/>
+      <c r="AP100" s="87"/>
+      <c r="AQ100" s="87"/>
+      <c r="AR100" s="87"/>
+      <c r="AS100" s="87"/>
+      <c r="AT100" s="87"/>
+      <c r="AU100" s="87"/>
+      <c r="AV100" s="87"/>
+      <c r="AW100" s="87"/>
+      <c r="AX100" s="87"/>
+      <c r="AY100" s="87"/>
+      <c r="AZ100" s="87"/>
+      <c r="BA100" s="87"/>
+      <c r="BB100" s="87"/>
+      <c r="BC100" s="87"/>
+      <c r="BD100" s="87"/>
+      <c r="BE100" s="87"/>
+      <c r="BF100" s="87"/>
+      <c r="BG100" s="87"/>
+      <c r="BH100" s="87"/>
+      <c r="BI100" s="87"/>
+      <c r="BJ100" s="87"/>
+      <c r="BK100" s="87"/>
+      <c r="BL100" s="87"/>
+      <c r="BM100" s="87"/>
+      <c r="BN100" s="87"/>
+      <c r="BO100" s="87"/>
+      <c r="BP100" s="87"/>
+      <c r="BQ100" s="87"/>
+      <c r="BR100" s="87"/>
+      <c r="BS100" s="87"/>
+      <c r="BT100" s="87"/>
+      <c r="BU100" s="87"/>
+      <c r="BV100" s="87"/>
+      <c r="BW100" s="87"/>
+      <c r="BX100" s="87"/>
+      <c r="BY100" s="87"/>
+      <c r="BZ100" s="87"/>
+      <c r="CA100" s="87"/>
+      <c r="CB100" s="87"/>
+      <c r="CC100" s="87"/>
+      <c r="CD100" s="87"/>
+      <c r="CE100" s="87"/>
+      <c r="CF100" s="87"/>
+      <c r="CG100" s="87"/>
+      <c r="CH100" s="87"/>
+      <c r="CI100" s="87"/>
+      <c r="CJ100" s="87"/>
+      <c r="CK100" s="87"/>
+      <c r="CL100" s="87"/>
+      <c r="CM100" s="87"/>
+      <c r="CN100" s="87"/>
+      <c r="CO100" s="87"/>
+      <c r="CP100" s="87"/>
+      <c r="CQ100" s="87"/>
+      <c r="CR100" s="87"/>
+      <c r="CS100" s="87"/>
+      <c r="CT100" s="87"/>
       <c r="CU100" s="25"/>
       <c r="CV100" s="25"/>
       <c r="CW100" s="25"/>
@@ -15472,111 +15463,111 @@
     </row>
     <row r="101" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
-      <c r="B101" s="215" t="s">
-        <v>155</v>
-      </c>
-      <c r="C101" s="223">
+      <c r="B101" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="84">
         <v>0</v>
       </c>
-      <c r="D101" s="224">
-        <v>44870</v>
-      </c>
-      <c r="E101" s="224">
-        <v>44870</v>
-      </c>
-      <c r="F101" s="211"/>
-      <c r="G101" s="211"/>
-      <c r="H101" s="212"/>
-      <c r="I101" s="212"/>
-      <c r="J101" s="212"/>
-      <c r="K101" s="212"/>
-      <c r="L101" s="212"/>
-      <c r="M101" s="212"/>
-      <c r="N101" s="212"/>
-      <c r="O101" s="212"/>
-      <c r="P101" s="212"/>
-      <c r="Q101" s="212"/>
-      <c r="R101" s="212"/>
-      <c r="S101" s="212"/>
-      <c r="T101" s="212"/>
-      <c r="U101" s="212"/>
-      <c r="V101" s="212"/>
-      <c r="W101" s="212"/>
-      <c r="X101" s="212"/>
-      <c r="Y101" s="212"/>
-      <c r="Z101" s="212"/>
-      <c r="AA101" s="212"/>
-      <c r="AB101" s="212"/>
-      <c r="AC101" s="212"/>
-      <c r="AD101" s="212"/>
-      <c r="AE101" s="212"/>
-      <c r="AF101" s="212"/>
-      <c r="AG101" s="212"/>
-      <c r="AH101" s="212"/>
-      <c r="AI101" s="212"/>
-      <c r="AJ101" s="212"/>
-      <c r="AK101" s="212"/>
-      <c r="AL101" s="212"/>
-      <c r="AM101" s="212"/>
-      <c r="AN101" s="212"/>
-      <c r="AO101" s="212"/>
-      <c r="AP101" s="212"/>
-      <c r="AQ101" s="212"/>
-      <c r="AR101" s="212"/>
-      <c r="AS101" s="212"/>
-      <c r="AT101" s="212"/>
-      <c r="AU101" s="212"/>
-      <c r="AV101" s="212"/>
-      <c r="AW101" s="212"/>
-      <c r="AX101" s="212"/>
-      <c r="AY101" s="212"/>
-      <c r="AZ101" s="212"/>
-      <c r="BA101" s="212"/>
-      <c r="BB101" s="212"/>
-      <c r="BC101" s="212"/>
-      <c r="BD101" s="212"/>
-      <c r="BE101" s="212"/>
-      <c r="BF101" s="212"/>
-      <c r="BG101" s="212"/>
-      <c r="BH101" s="212"/>
-      <c r="BI101" s="212"/>
-      <c r="BJ101" s="212"/>
-      <c r="BK101" s="212"/>
-      <c r="BL101" s="212"/>
-      <c r="BM101" s="212"/>
-      <c r="BN101" s="212"/>
-      <c r="BO101" s="212"/>
-      <c r="BP101" s="212"/>
-      <c r="BQ101" s="212"/>
-      <c r="BR101" s="212"/>
-      <c r="BS101" s="212"/>
-      <c r="BT101" s="212"/>
-      <c r="BU101" s="212"/>
-      <c r="BV101" s="212"/>
-      <c r="BW101" s="212"/>
-      <c r="BX101" s="212"/>
-      <c r="BY101" s="212"/>
-      <c r="BZ101" s="212"/>
-      <c r="CA101" s="212"/>
-      <c r="CB101" s="212"/>
-      <c r="CC101" s="212"/>
-      <c r="CD101" s="212"/>
-      <c r="CE101" s="212"/>
-      <c r="CF101" s="25"/>
-      <c r="CG101" s="25"/>
-      <c r="CH101" s="25"/>
-      <c r="CI101" s="25"/>
-      <c r="CJ101" s="25"/>
-      <c r="CK101" s="25"/>
-      <c r="CL101" s="25"/>
-      <c r="CM101" s="25"/>
-      <c r="CN101" s="25"/>
-      <c r="CO101" s="25"/>
-      <c r="CP101" s="25"/>
-      <c r="CQ101" s="25"/>
-      <c r="CR101" s="25"/>
-      <c r="CS101" s="25"/>
-      <c r="CT101" s="25"/>
+      <c r="D101" s="85">
+        <v>44858</v>
+      </c>
+      <c r="E101" s="85">
+        <v>44858</v>
+      </c>
+      <c r="F101" s="86"/>
+      <c r="G101" s="86"/>
+      <c r="H101" s="87"/>
+      <c r="I101" s="87"/>
+      <c r="J101" s="87"/>
+      <c r="K101" s="87"/>
+      <c r="L101" s="87"/>
+      <c r="M101" s="87"/>
+      <c r="N101" s="87"/>
+      <c r="O101" s="87"/>
+      <c r="P101" s="87"/>
+      <c r="Q101" s="87"/>
+      <c r="R101" s="87"/>
+      <c r="S101" s="87"/>
+      <c r="T101" s="87"/>
+      <c r="U101" s="87"/>
+      <c r="V101" s="87"/>
+      <c r="W101" s="87"/>
+      <c r="X101" s="87"/>
+      <c r="Y101" s="87"/>
+      <c r="Z101" s="87"/>
+      <c r="AA101" s="87"/>
+      <c r="AB101" s="87"/>
+      <c r="AC101" s="87"/>
+      <c r="AD101" s="87"/>
+      <c r="AE101" s="87"/>
+      <c r="AF101" s="87"/>
+      <c r="AG101" s="87"/>
+      <c r="AH101" s="87"/>
+      <c r="AI101" s="87"/>
+      <c r="AJ101" s="87"/>
+      <c r="AK101" s="87"/>
+      <c r="AL101" s="87"/>
+      <c r="AM101" s="87"/>
+      <c r="AN101" s="87"/>
+      <c r="AO101" s="87"/>
+      <c r="AP101" s="87"/>
+      <c r="AQ101" s="87"/>
+      <c r="AR101" s="87"/>
+      <c r="AS101" s="87"/>
+      <c r="AT101" s="87"/>
+      <c r="AU101" s="87"/>
+      <c r="AV101" s="87"/>
+      <c r="AW101" s="87"/>
+      <c r="AX101" s="87"/>
+      <c r="AY101" s="87"/>
+      <c r="AZ101" s="87"/>
+      <c r="BA101" s="87"/>
+      <c r="BB101" s="87"/>
+      <c r="BC101" s="87"/>
+      <c r="BD101" s="87"/>
+      <c r="BE101" s="87"/>
+      <c r="BF101" s="87"/>
+      <c r="BG101" s="87"/>
+      <c r="BH101" s="87"/>
+      <c r="BI101" s="87"/>
+      <c r="BJ101" s="87"/>
+      <c r="BK101" s="87"/>
+      <c r="BL101" s="87"/>
+      <c r="BM101" s="87"/>
+      <c r="BN101" s="87"/>
+      <c r="BO101" s="87"/>
+      <c r="BP101" s="87"/>
+      <c r="BQ101" s="87"/>
+      <c r="BR101" s="87"/>
+      <c r="BS101" s="87"/>
+      <c r="BT101" s="87"/>
+      <c r="BU101" s="87"/>
+      <c r="BV101" s="87"/>
+      <c r="BW101" s="87"/>
+      <c r="BX101" s="87"/>
+      <c r="BY101" s="87"/>
+      <c r="BZ101" s="87"/>
+      <c r="CA101" s="87"/>
+      <c r="CB101" s="87"/>
+      <c r="CC101" s="87"/>
+      <c r="CD101" s="87"/>
+      <c r="CE101" s="87"/>
+      <c r="CF101" s="87"/>
+      <c r="CG101" s="87"/>
+      <c r="CH101" s="87"/>
+      <c r="CI101" s="87"/>
+      <c r="CJ101" s="87"/>
+      <c r="CK101" s="87"/>
+      <c r="CL101" s="87"/>
+      <c r="CM101" s="87"/>
+      <c r="CN101" s="87"/>
+      <c r="CO101" s="87"/>
+      <c r="CP101" s="87"/>
+      <c r="CQ101" s="87"/>
+      <c r="CR101" s="87"/>
+      <c r="CS101" s="87"/>
+      <c r="CT101" s="87"/>
       <c r="CU101" s="25"/>
       <c r="CV101" s="25"/>
       <c r="CW101" s="25"/>
@@ -15594,107 +15585,104 @@
     </row>
     <row r="102" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
-      <c r="B102" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C102" s="91">
+      <c r="B102" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="84">
         <v>0</v>
       </c>
-      <c r="D102" s="92">
+      <c r="D102" s="85">
         <v>44858</v>
       </c>
-      <c r="E102" s="93">
-        <v>44885</v>
-      </c>
-      <c r="F102" s="94"/>
-      <c r="G102" s="94">
-        <f t="shared" si="42"/>
-        <v>28</v>
-      </c>
-      <c r="H102" s="95"/>
-      <c r="I102" s="95"/>
-      <c r="J102" s="95"/>
-      <c r="K102" s="95"/>
-      <c r="L102" s="95"/>
-      <c r="M102" s="95"/>
-      <c r="N102" s="95"/>
-      <c r="O102" s="95"/>
-      <c r="P102" s="95"/>
-      <c r="Q102" s="95"/>
-      <c r="R102" s="95"/>
-      <c r="S102" s="95"/>
-      <c r="T102" s="95"/>
-      <c r="U102" s="95"/>
-      <c r="V102" s="95"/>
-      <c r="W102" s="95"/>
-      <c r="X102" s="95"/>
-      <c r="Y102" s="95"/>
-      <c r="Z102" s="95"/>
-      <c r="AA102" s="95"/>
-      <c r="AB102" s="95"/>
-      <c r="AC102" s="95"/>
-      <c r="AD102" s="95"/>
-      <c r="AE102" s="95"/>
-      <c r="AF102" s="95"/>
-      <c r="AG102" s="95"/>
-      <c r="AH102" s="95"/>
-      <c r="AI102" s="95"/>
-      <c r="AJ102" s="95"/>
-      <c r="AK102" s="95"/>
-      <c r="AL102" s="95"/>
-      <c r="AM102" s="95"/>
-      <c r="AN102" s="95"/>
-      <c r="AO102" s="95"/>
-      <c r="AP102" s="95"/>
-      <c r="AQ102" s="95"/>
-      <c r="AR102" s="95"/>
-      <c r="AS102" s="95"/>
-      <c r="AT102" s="95"/>
-      <c r="AU102" s="95"/>
-      <c r="AV102" s="95"/>
-      <c r="AW102" s="95"/>
-      <c r="AX102" s="95"/>
-      <c r="AY102" s="95"/>
-      <c r="AZ102" s="95"/>
-      <c r="BA102" s="95"/>
-      <c r="BB102" s="95"/>
-      <c r="BC102" s="95"/>
-      <c r="BD102" s="95"/>
-      <c r="BE102" s="95"/>
-      <c r="BF102" s="95"/>
-      <c r="BG102" s="95"/>
-      <c r="BH102" s="95"/>
-      <c r="BI102" s="95"/>
-      <c r="BJ102" s="95"/>
-      <c r="BK102" s="95"/>
-      <c r="BL102" s="95"/>
-      <c r="BM102" s="95"/>
-      <c r="BN102" s="95"/>
-      <c r="BO102" s="95"/>
-      <c r="BP102" s="95"/>
-      <c r="BQ102" s="95"/>
-      <c r="BR102" s="95"/>
-      <c r="BS102" s="95"/>
-      <c r="BT102" s="95"/>
-      <c r="BU102" s="95"/>
-      <c r="BV102" s="95"/>
-      <c r="BW102" s="95"/>
-      <c r="BX102" s="95"/>
-      <c r="BY102" s="95"/>
-      <c r="BZ102" s="95"/>
-      <c r="CA102" s="95"/>
-      <c r="CB102" s="95"/>
-      <c r="CC102" s="95"/>
-      <c r="CD102" s="95"/>
-      <c r="CE102" s="95"/>
-      <c r="CF102" s="95"/>
-      <c r="CG102" s="95"/>
-      <c r="CH102" s="95"/>
-      <c r="CI102" s="95"/>
-      <c r="CJ102" s="95"/>
-      <c r="CK102" s="95"/>
-      <c r="CL102" s="95"/>
-      <c r="CM102" s="95"/>
+      <c r="E102" s="85">
+        <v>44858</v>
+      </c>
+      <c r="F102" s="86"/>
+      <c r="G102" s="86"/>
+      <c r="H102" s="87"/>
+      <c r="I102" s="87"/>
+      <c r="J102" s="87"/>
+      <c r="K102" s="87"/>
+      <c r="L102" s="87"/>
+      <c r="M102" s="87"/>
+      <c r="N102" s="87"/>
+      <c r="O102" s="87"/>
+      <c r="P102" s="87"/>
+      <c r="Q102" s="87"/>
+      <c r="R102" s="87"/>
+      <c r="S102" s="87"/>
+      <c r="T102" s="87"/>
+      <c r="U102" s="87"/>
+      <c r="V102" s="87"/>
+      <c r="W102" s="87"/>
+      <c r="X102" s="87"/>
+      <c r="Y102" s="87"/>
+      <c r="Z102" s="87"/>
+      <c r="AA102" s="87"/>
+      <c r="AB102" s="87"/>
+      <c r="AC102" s="87"/>
+      <c r="AD102" s="87"/>
+      <c r="AE102" s="87"/>
+      <c r="AF102" s="87"/>
+      <c r="AG102" s="87"/>
+      <c r="AH102" s="87"/>
+      <c r="AI102" s="87"/>
+      <c r="AJ102" s="87"/>
+      <c r="AK102" s="87"/>
+      <c r="AL102" s="87"/>
+      <c r="AM102" s="87"/>
+      <c r="AN102" s="87"/>
+      <c r="AO102" s="87"/>
+      <c r="AP102" s="87"/>
+      <c r="AQ102" s="87"/>
+      <c r="AR102" s="87"/>
+      <c r="AS102" s="87"/>
+      <c r="AT102" s="87"/>
+      <c r="AU102" s="87"/>
+      <c r="AV102" s="87"/>
+      <c r="AW102" s="87"/>
+      <c r="AX102" s="87"/>
+      <c r="AY102" s="87"/>
+      <c r="AZ102" s="87"/>
+      <c r="BA102" s="87"/>
+      <c r="BB102" s="87"/>
+      <c r="BC102" s="87"/>
+      <c r="BD102" s="87"/>
+      <c r="BE102" s="87"/>
+      <c r="BF102" s="87"/>
+      <c r="BG102" s="87"/>
+      <c r="BH102" s="87"/>
+      <c r="BI102" s="87"/>
+      <c r="BJ102" s="87"/>
+      <c r="BK102" s="87"/>
+      <c r="BL102" s="87"/>
+      <c r="BM102" s="87"/>
+      <c r="BN102" s="87"/>
+      <c r="BO102" s="87"/>
+      <c r="BP102" s="87"/>
+      <c r="BQ102" s="87"/>
+      <c r="BR102" s="87"/>
+      <c r="BS102" s="87"/>
+      <c r="BT102" s="87"/>
+      <c r="BU102" s="87"/>
+      <c r="BV102" s="87"/>
+      <c r="BW102" s="87"/>
+      <c r="BX102" s="87"/>
+      <c r="BY102" s="87"/>
+      <c r="BZ102" s="87"/>
+      <c r="CA102" s="87"/>
+      <c r="CB102" s="87"/>
+      <c r="CC102" s="87"/>
+      <c r="CD102" s="87"/>
+      <c r="CE102" s="87"/>
+      <c r="CF102" s="87"/>
+      <c r="CG102" s="87"/>
+      <c r="CH102" s="87"/>
+      <c r="CI102" s="87"/>
+      <c r="CJ102" s="87"/>
+      <c r="CK102" s="87"/>
+      <c r="CL102" s="87"/>
+      <c r="CM102" s="87"/>
       <c r="CN102" s="87"/>
       <c r="CO102" s="87"/>
       <c r="CP102" s="87"/>
@@ -15720,16 +15708,16 @@
     <row r="103" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" s="98">
+        <v>89</v>
+      </c>
+      <c r="C103" s="84">
         <v>0</v>
       </c>
-      <c r="D103" s="100">
+      <c r="D103" s="97">
         <v>44858</v>
       </c>
-      <c r="E103" s="101">
-        <v>44864</v>
+      <c r="E103" s="97">
+        <v>44859</v>
       </c>
       <c r="F103" s="86"/>
       <c r="G103" s="86"/>
@@ -15842,16 +15830,16 @@
     <row r="104" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="84">
         <v>0</v>
       </c>
-      <c r="D104" s="85">
-        <v>44858</v>
-      </c>
-      <c r="E104" s="85">
-        <v>44858</v>
+      <c r="D104" s="97">
+        <v>44859</v>
+      </c>
+      <c r="E104" s="97">
+        <v>44860</v>
       </c>
       <c r="F104" s="86"/>
       <c r="G104" s="86"/>
@@ -15963,17 +15951,17 @@
     </row>
     <row r="105" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
-      <c r="B105" s="83" t="s">
-        <v>92</v>
+      <c r="B105" s="96" t="s">
+        <v>91</v>
       </c>
       <c r="C105" s="84">
         <v>0</v>
       </c>
-      <c r="D105" s="85">
-        <v>44858</v>
-      </c>
-      <c r="E105" s="85">
-        <v>44858</v>
+      <c r="D105" s="97">
+        <v>44860</v>
+      </c>
+      <c r="E105" s="97">
+        <v>44862</v>
       </c>
       <c r="F105" s="86"/>
       <c r="G105" s="86"/>
@@ -16085,17 +16073,17 @@
     </row>
     <row r="106" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
-      <c r="B106" s="83" t="s">
-        <v>96</v>
+      <c r="B106" s="96" t="s">
+        <v>95</v>
       </c>
       <c r="C106" s="84">
         <v>0</v>
       </c>
-      <c r="D106" s="85">
-        <v>44858</v>
-      </c>
-      <c r="E106" s="85">
-        <v>44858</v>
+      <c r="D106" s="97">
+        <v>44862</v>
+      </c>
+      <c r="E106" s="97">
+        <v>44864</v>
       </c>
       <c r="F106" s="86"/>
       <c r="G106" s="86"/>
@@ -16208,16 +16196,16 @@
     <row r="107" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C107" s="84">
+        <v>97</v>
+      </c>
+      <c r="C107" s="98">
         <v>0</v>
       </c>
-      <c r="D107" s="97">
-        <v>44858</v>
-      </c>
-      <c r="E107" s="97">
-        <v>44859</v>
+      <c r="D107" s="99">
+        <v>44865</v>
+      </c>
+      <c r="E107" s="99">
+        <v>44885</v>
       </c>
       <c r="F107" s="86"/>
       <c r="G107" s="86"/>
@@ -16330,16 +16318,16 @@
     <row r="108" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="83" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C108" s="84">
         <v>0</v>
       </c>
       <c r="D108" s="97">
-        <v>44859</v>
+        <v>44865</v>
       </c>
       <c r="E108" s="97">
-        <v>44860</v>
+        <v>44865</v>
       </c>
       <c r="F108" s="86"/>
       <c r="G108" s="86"/>
@@ -16451,17 +16439,17 @@
     </row>
     <row r="109" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
-      <c r="B109" s="96" t="s">
-        <v>95</v>
+      <c r="B109" s="83" t="s">
+        <v>116</v>
       </c>
       <c r="C109" s="84">
         <v>0</v>
       </c>
       <c r="D109" s="97">
-        <v>44860</v>
+        <v>44865</v>
       </c>
       <c r="E109" s="97">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="F109" s="86"/>
       <c r="G109" s="86"/>
@@ -16573,17 +16561,17 @@
     </row>
     <row r="110" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
-      <c r="B110" s="96" t="s">
-        <v>99</v>
+      <c r="B110" s="83" t="s">
+        <v>117</v>
       </c>
       <c r="C110" s="84">
         <v>0</v>
       </c>
       <c r="D110" s="97">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="E110" s="97">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="F110" s="86"/>
       <c r="G110" s="86"/>
@@ -16696,16 +16684,16 @@
     <row r="111" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C111" s="98">
+        <v>118</v>
+      </c>
+      <c r="C111" s="84">
         <v>0</v>
       </c>
-      <c r="D111" s="99">
+      <c r="D111" s="97">
         <v>44865</v>
       </c>
-      <c r="E111" s="99">
-        <v>44885</v>
+      <c r="E111" s="97">
+        <v>44865</v>
       </c>
       <c r="F111" s="86"/>
       <c r="G111" s="86"/>
@@ -16937,7 +16925,7 @@
       <c r="DG112" s="25"/>
       <c r="DH112" s="25"/>
     </row>
-    <row r="113" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:112" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="83" t="s">
         <v>120</v>
@@ -17059,7 +17047,7 @@
       <c r="DG113" s="25"/>
       <c r="DH113" s="25"/>
     </row>
-    <row r="114" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="83" t="s">
         <v>121</v>
@@ -17181,7 +17169,7 @@
       <c r="DG114" s="25"/>
       <c r="DH114" s="25"/>
     </row>
-    <row r="115" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="B115" s="83" t="s">
         <v>122</v>
@@ -17303,19 +17291,19 @@
       <c r="DG115" s="25"/>
       <c r="DH115" s="25"/>
     </row>
-    <row r="116" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
-      <c r="B116" s="83" t="s">
-        <v>123</v>
+      <c r="B116" s="88" t="s">
+        <v>98</v>
       </c>
       <c r="C116" s="84">
         <v>0</v>
       </c>
       <c r="D116" s="97">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="E116" s="97">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="F116" s="86"/>
       <c r="G116" s="86"/>
@@ -17335,7 +17323,7 @@
       <c r="U116" s="87"/>
       <c r="V116" s="87"/>
       <c r="W116" s="87"/>
-      <c r="X116" s="87"/>
+      <c r="X116" s="89"/>
       <c r="Y116" s="87"/>
       <c r="Z116" s="87"/>
       <c r="AA116" s="87"/>
@@ -17425,19 +17413,19 @@
       <c r="DG116" s="25"/>
       <c r="DH116" s="25"/>
     </row>
-    <row r="117" spans="1:112" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
-      <c r="B117" s="83" t="s">
-        <v>124</v>
+      <c r="B117" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="C117" s="84">
         <v>0</v>
       </c>
       <c r="D117" s="97">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="E117" s="97">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="F117" s="86"/>
       <c r="G117" s="86"/>
@@ -17457,7 +17445,7 @@
       <c r="U117" s="87"/>
       <c r="V117" s="87"/>
       <c r="W117" s="87"/>
-      <c r="X117" s="87"/>
+      <c r="X117" s="89"/>
       <c r="Y117" s="87"/>
       <c r="Z117" s="87"/>
       <c r="AA117" s="87"/>
@@ -17549,17 +17537,17 @@
     </row>
     <row r="118" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
-      <c r="B118" s="83" t="s">
-        <v>125</v>
+      <c r="B118" s="88" t="s">
+        <v>101</v>
       </c>
       <c r="C118" s="84">
         <v>0</v>
       </c>
       <c r="D118" s="97">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="E118" s="97">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="F118" s="86"/>
       <c r="G118" s="86"/>
@@ -17579,7 +17567,7 @@
       <c r="U118" s="87"/>
       <c r="V118" s="87"/>
       <c r="W118" s="87"/>
-      <c r="X118" s="87"/>
+      <c r="X118" s="89"/>
       <c r="Y118" s="87"/>
       <c r="Z118" s="87"/>
       <c r="AA118" s="87"/>
@@ -17671,17 +17659,17 @@
     </row>
     <row r="119" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
-      <c r="B119" s="83" t="s">
-        <v>126</v>
+      <c r="B119" s="88" t="s">
+        <v>100</v>
       </c>
       <c r="C119" s="84">
         <v>0</v>
       </c>
       <c r="D119" s="97">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="E119" s="97">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="F119" s="86"/>
       <c r="G119" s="86"/>
@@ -17701,7 +17689,7 @@
       <c r="U119" s="87"/>
       <c r="V119" s="87"/>
       <c r="W119" s="87"/>
-      <c r="X119" s="87"/>
+      <c r="X119" s="89"/>
       <c r="Y119" s="87"/>
       <c r="Z119" s="87"/>
       <c r="AA119" s="87"/>
@@ -17794,16 +17782,16 @@
     <row r="120" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C120" s="84">
         <v>0</v>
       </c>
       <c r="D120" s="97">
-        <v>44866</v>
+        <v>44869</v>
       </c>
       <c r="E120" s="97">
-        <v>44866</v>
+        <v>44869</v>
       </c>
       <c r="F120" s="86"/>
       <c r="G120" s="86"/>
@@ -17916,16 +17904,16 @@
     <row r="121" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C121" s="84">
         <v>0</v>
       </c>
       <c r="D121" s="97">
-        <v>44866</v>
+        <v>44869</v>
       </c>
       <c r="E121" s="97">
-        <v>44866</v>
+        <v>44870</v>
       </c>
       <c r="F121" s="86"/>
       <c r="G121" s="86"/>
@@ -18038,16 +18026,16 @@
     <row r="122" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C122" s="84">
         <v>0</v>
       </c>
       <c r="D122" s="97">
-        <v>44866</v>
+        <v>44871</v>
       </c>
       <c r="E122" s="97">
-        <v>44866</v>
+        <v>44872</v>
       </c>
       <c r="F122" s="86"/>
       <c r="G122" s="86"/>
@@ -18160,16 +18148,16 @@
     <row r="123" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C123" s="84">
         <v>0</v>
       </c>
       <c r="D123" s="97">
-        <v>44866</v>
+        <v>44873</v>
       </c>
       <c r="E123" s="97">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="F123" s="86"/>
       <c r="G123" s="86"/>
@@ -18282,16 +18270,16 @@
     <row r="124" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C124" s="84">
         <v>0</v>
       </c>
       <c r="D124" s="97">
-        <v>44869</v>
+        <v>44874</v>
       </c>
       <c r="E124" s="97">
-        <v>44869</v>
+        <v>44874</v>
       </c>
       <c r="F124" s="86"/>
       <c r="G124" s="86"/>
@@ -18404,16 +18392,16 @@
     <row r="125" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C125" s="84">
         <v>0</v>
       </c>
-      <c r="D125" s="97">
-        <v>44869</v>
-      </c>
-      <c r="E125" s="97">
-        <v>44870</v>
+      <c r="D125" s="85">
+        <v>44875</v>
+      </c>
+      <c r="E125" s="85">
+        <v>44877</v>
       </c>
       <c r="F125" s="86"/>
       <c r="G125" s="86"/>
@@ -18531,11 +18519,11 @@
       <c r="C126" s="84">
         <v>0</v>
       </c>
-      <c r="D126" s="97">
-        <v>44871</v>
-      </c>
-      <c r="E126" s="97">
-        <v>44872</v>
+      <c r="D126" s="85">
+        <v>44878</v>
+      </c>
+      <c r="E126" s="85">
+        <v>44878</v>
       </c>
       <c r="F126" s="86"/>
       <c r="G126" s="86"/>
@@ -18648,16 +18636,16 @@
     <row r="127" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="88" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C127" s="84">
         <v>0</v>
       </c>
-      <c r="D127" s="97">
-        <v>44873</v>
+      <c r="D127" s="85">
+        <v>44879</v>
       </c>
       <c r="E127" s="97">
-        <v>44873</v>
+        <v>44879</v>
       </c>
       <c r="F127" s="86"/>
       <c r="G127" s="86"/>
@@ -18770,16 +18758,16 @@
     <row r="128" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C128" s="84">
         <v>0</v>
       </c>
       <c r="D128" s="97">
-        <v>44874</v>
+        <v>44879</v>
       </c>
       <c r="E128" s="97">
-        <v>44874</v>
+        <v>44879</v>
       </c>
       <c r="F128" s="86"/>
       <c r="G128" s="86"/>
@@ -18892,16 +18880,16 @@
     <row r="129" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C129" s="84">
         <v>0</v>
       </c>
-      <c r="D129" s="85">
-        <v>44875</v>
-      </c>
-      <c r="E129" s="85">
-        <v>44877</v>
+      <c r="D129" s="97">
+        <v>44880</v>
+      </c>
+      <c r="E129" s="97">
+        <v>44880</v>
       </c>
       <c r="F129" s="86"/>
       <c r="G129" s="86"/>
@@ -19014,16 +19002,16 @@
     <row r="130" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C130" s="84">
         <v>0</v>
       </c>
-      <c r="D130" s="85">
-        <v>44878</v>
-      </c>
-      <c r="E130" s="85">
-        <v>44878</v>
+      <c r="D130" s="97">
+        <v>44881</v>
+      </c>
+      <c r="E130" s="97">
+        <v>44882</v>
       </c>
       <c r="F130" s="86"/>
       <c r="G130" s="86"/>
@@ -19133,19 +19121,19 @@
       <c r="DG130" s="25"/>
       <c r="DH130" s="25"/>
     </row>
-    <row r="131" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="88" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C131" s="84">
         <v>0</v>
       </c>
-      <c r="D131" s="85">
-        <v>44879</v>
+      <c r="D131" s="97">
+        <v>44882</v>
       </c>
       <c r="E131" s="97">
-        <v>44879</v>
+        <v>44882</v>
       </c>
       <c r="F131" s="86"/>
       <c r="G131" s="86"/>
@@ -19255,7 +19243,7 @@
       <c r="DG131" s="25"/>
       <c r="DH131" s="25"/>
     </row>
-    <row r="132" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="88" t="s">
         <v>113</v>
@@ -19264,10 +19252,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="97">
-        <v>44879</v>
+        <v>44883</v>
       </c>
       <c r="E132" s="97">
-        <v>44879</v>
+        <v>44885</v>
       </c>
       <c r="F132" s="86"/>
       <c r="G132" s="86"/>
@@ -19377,7 +19365,7 @@
       <c r="DG132" s="25"/>
       <c r="DH132" s="25"/>
     </row>
-    <row r="133" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="88" t="s">
         <v>114</v>
@@ -19386,10 +19374,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="97">
-        <v>44880</v>
+        <v>44885</v>
       </c>
       <c r="E133" s="97">
-        <v>44880</v>
+        <v>44885</v>
       </c>
       <c r="F133" s="86"/>
       <c r="G133" s="86"/>
@@ -19499,1251 +19487,763 @@
       <c r="DG133" s="25"/>
       <c r="DH133" s="25"/>
     </row>
-    <row r="134" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
-      <c r="B134" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="C134" s="84">
-        <v>0</v>
-      </c>
-      <c r="D134" s="97">
-        <v>44881</v>
-      </c>
-      <c r="E134" s="97">
-        <v>44882</v>
-      </c>
-      <c r="F134" s="86"/>
-      <c r="G134" s="86"/>
-      <c r="H134" s="87"/>
-      <c r="I134" s="87"/>
-      <c r="J134" s="87"/>
-      <c r="K134" s="87"/>
-      <c r="L134" s="87"/>
-      <c r="M134" s="87"/>
-      <c r="N134" s="87"/>
-      <c r="O134" s="87"/>
-      <c r="P134" s="87"/>
-      <c r="Q134" s="87"/>
-      <c r="R134" s="87"/>
-      <c r="S134" s="87"/>
-      <c r="T134" s="87"/>
-      <c r="U134" s="87"/>
-      <c r="V134" s="87"/>
-      <c r="W134" s="87"/>
-      <c r="X134" s="89"/>
-      <c r="Y134" s="87"/>
-      <c r="Z134" s="87"/>
-      <c r="AA134" s="87"/>
-      <c r="AB134" s="87"/>
-      <c r="AC134" s="87"/>
-      <c r="AD134" s="87"/>
-      <c r="AE134" s="87"/>
-      <c r="AF134" s="87"/>
-      <c r="AG134" s="87"/>
-      <c r="AH134" s="87"/>
-      <c r="AI134" s="87"/>
-      <c r="AJ134" s="87"/>
-      <c r="AK134" s="87"/>
-      <c r="AL134" s="87"/>
-      <c r="AM134" s="87"/>
-      <c r="AN134" s="87"/>
-      <c r="AO134" s="87"/>
-      <c r="AP134" s="87"/>
-      <c r="AQ134" s="87"/>
-      <c r="AR134" s="87"/>
-      <c r="AS134" s="87"/>
-      <c r="AT134" s="87"/>
-      <c r="AU134" s="87"/>
-      <c r="AV134" s="87"/>
-      <c r="AW134" s="87"/>
-      <c r="AX134" s="87"/>
-      <c r="AY134" s="87"/>
-      <c r="AZ134" s="87"/>
-      <c r="BA134" s="87"/>
-      <c r="BB134" s="87"/>
-      <c r="BC134" s="87"/>
-      <c r="BD134" s="87"/>
-      <c r="BE134" s="87"/>
-      <c r="BF134" s="87"/>
-      <c r="BG134" s="87"/>
-      <c r="BH134" s="87"/>
-      <c r="BI134" s="87"/>
-      <c r="BJ134" s="87"/>
-      <c r="BK134" s="87"/>
-      <c r="BL134" s="87"/>
-      <c r="BM134" s="87"/>
-      <c r="BN134" s="87"/>
-      <c r="BO134" s="87"/>
-      <c r="BP134" s="87"/>
-      <c r="BQ134" s="87"/>
-      <c r="BR134" s="87"/>
-      <c r="BS134" s="87"/>
-      <c r="BT134" s="87"/>
-      <c r="BU134" s="87"/>
-      <c r="BV134" s="87"/>
-      <c r="BW134" s="87"/>
-      <c r="BX134" s="87"/>
-      <c r="BY134" s="87"/>
-      <c r="BZ134" s="87"/>
-      <c r="CA134" s="87"/>
-      <c r="CB134" s="87"/>
-      <c r="CC134" s="87"/>
-      <c r="CD134" s="87"/>
-      <c r="CE134" s="87"/>
-      <c r="CF134" s="87"/>
-      <c r="CG134" s="87"/>
-      <c r="CH134" s="87"/>
-      <c r="CI134" s="87"/>
-      <c r="CJ134" s="87"/>
-      <c r="CK134" s="87"/>
-      <c r="CL134" s="87"/>
-      <c r="CM134" s="87"/>
-      <c r="CN134" s="87"/>
-      <c r="CO134" s="87"/>
-      <c r="CP134" s="87"/>
-      <c r="CQ134" s="87"/>
-      <c r="CR134" s="87"/>
-      <c r="CS134" s="87"/>
-      <c r="CT134" s="87"/>
-      <c r="CU134" s="25"/>
-      <c r="CV134" s="25"/>
-      <c r="CW134" s="25"/>
-      <c r="CX134" s="25"/>
-      <c r="CY134" s="25"/>
-      <c r="CZ134" s="25"/>
-      <c r="DA134" s="25"/>
-      <c r="DB134" s="25"/>
-      <c r="DC134" s="25"/>
-      <c r="DD134" s="25"/>
-      <c r="DE134" s="25"/>
-      <c r="DF134" s="25"/>
-      <c r="DG134" s="25"/>
-      <c r="DH134" s="25"/>
+      <c r="B134" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="102"/>
+      <c r="D134" s="103"/>
+      <c r="E134" s="104"/>
+      <c r="F134" s="105"/>
+      <c r="G134" s="105" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H134" s="106"/>
+      <c r="I134" s="106"/>
+      <c r="J134" s="106"/>
+      <c r="K134" s="106"/>
+      <c r="L134" s="106"/>
+      <c r="M134" s="106"/>
+      <c r="N134" s="106"/>
+      <c r="O134" s="106"/>
+      <c r="P134" s="106"/>
+      <c r="Q134" s="106"/>
+      <c r="R134" s="106"/>
+      <c r="S134" s="106"/>
+      <c r="T134" s="106"/>
+      <c r="U134" s="106"/>
+      <c r="V134" s="106"/>
+      <c r="W134" s="106"/>
+      <c r="X134" s="106"/>
+      <c r="Y134" s="106"/>
+      <c r="Z134" s="106"/>
+      <c r="AA134" s="106"/>
+      <c r="AB134" s="106"/>
+      <c r="AC134" s="106"/>
+      <c r="AD134" s="106"/>
+      <c r="AE134" s="106"/>
+      <c r="AF134" s="106"/>
+      <c r="AG134" s="106"/>
+      <c r="AH134" s="106"/>
+      <c r="AI134" s="106"/>
+      <c r="AJ134" s="106"/>
+      <c r="AK134" s="106"/>
+      <c r="AL134" s="106"/>
+      <c r="AM134" s="106"/>
+      <c r="AN134" s="106"/>
+      <c r="AO134" s="106"/>
+      <c r="AP134" s="106"/>
+      <c r="AQ134" s="106"/>
+      <c r="AR134" s="106"/>
+      <c r="AS134" s="106"/>
+      <c r="AT134" s="106"/>
+      <c r="AU134" s="106"/>
+      <c r="AV134" s="106"/>
+      <c r="AW134" s="106"/>
+      <c r="AX134" s="106"/>
+      <c r="AY134" s="106"/>
+      <c r="AZ134" s="106"/>
+      <c r="BA134" s="106"/>
+      <c r="BB134" s="106"/>
+      <c r="BC134" s="106"/>
+      <c r="BD134" s="106"/>
+      <c r="BE134" s="106"/>
+      <c r="BF134" s="106"/>
+      <c r="BG134" s="106"/>
+      <c r="BH134" s="106"/>
+      <c r="BI134" s="106"/>
+      <c r="BJ134" s="106"/>
+      <c r="BK134" s="106"/>
+      <c r="BL134" s="106"/>
+      <c r="BM134" s="106"/>
+      <c r="BN134" s="106"/>
+      <c r="BO134" s="106"/>
+      <c r="BP134" s="106"/>
+      <c r="BQ134" s="106"/>
+      <c r="BR134" s="106"/>
+      <c r="BS134" s="106"/>
+      <c r="BT134" s="106"/>
+      <c r="BU134" s="106"/>
+      <c r="BV134" s="106"/>
+      <c r="BW134" s="106"/>
+      <c r="BX134" s="106"/>
+      <c r="BY134" s="106"/>
+      <c r="BZ134" s="106"/>
+      <c r="CA134" s="106"/>
+      <c r="CB134" s="106"/>
+      <c r="CC134" s="106"/>
+      <c r="CD134" s="106"/>
+      <c r="CE134" s="106"/>
+      <c r="CF134" s="106"/>
+      <c r="CG134" s="106"/>
+      <c r="CH134" s="106"/>
+      <c r="CI134" s="106"/>
+      <c r="CJ134" s="106"/>
+      <c r="CK134" s="106"/>
+      <c r="CL134" s="106"/>
+      <c r="CM134" s="106"/>
+      <c r="CN134" s="106"/>
+      <c r="CO134" s="106"/>
+      <c r="CP134" s="106"/>
+      <c r="CQ134" s="106"/>
+      <c r="CR134" s="106"/>
+      <c r="CS134" s="106"/>
+      <c r="CT134" s="106"/>
+      <c r="CU134" s="106"/>
+      <c r="CV134" s="106"/>
+      <c r="CW134" s="106"/>
+      <c r="CX134" s="106"/>
+      <c r="CY134" s="106"/>
+      <c r="CZ134" s="106"/>
+      <c r="DA134" s="106"/>
+      <c r="DB134" s="106"/>
+      <c r="DC134" s="106"/>
+      <c r="DD134" s="106"/>
+      <c r="DE134" s="106"/>
+      <c r="DF134" s="106"/>
+      <c r="DG134" s="106"/>
+      <c r="DH134" s="106"/>
     </row>
     <row r="135" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
-      <c r="B135" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="C135" s="84">
+      <c r="B135" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="22">
         <v>0</v>
       </c>
-      <c r="D135" s="97">
-        <v>44882</v>
-      </c>
-      <c r="E135" s="97">
-        <v>44882</v>
-      </c>
-      <c r="F135" s="86"/>
-      <c r="G135" s="86"/>
-      <c r="H135" s="87"/>
-      <c r="I135" s="87"/>
-      <c r="J135" s="87"/>
-      <c r="K135" s="87"/>
-      <c r="L135" s="87"/>
-      <c r="M135" s="87"/>
-      <c r="N135" s="87"/>
-      <c r="O135" s="87"/>
-      <c r="P135" s="87"/>
-      <c r="Q135" s="87"/>
-      <c r="R135" s="87"/>
-      <c r="S135" s="87"/>
-      <c r="T135" s="87"/>
-      <c r="U135" s="87"/>
-      <c r="V135" s="87"/>
-      <c r="W135" s="87"/>
-      <c r="X135" s="89"/>
-      <c r="Y135" s="87"/>
-      <c r="Z135" s="87"/>
-      <c r="AA135" s="87"/>
-      <c r="AB135" s="87"/>
-      <c r="AC135" s="87"/>
-      <c r="AD135" s="87"/>
-      <c r="AE135" s="87"/>
-      <c r="AF135" s="87"/>
-      <c r="AG135" s="87"/>
-      <c r="AH135" s="87"/>
-      <c r="AI135" s="87"/>
-      <c r="AJ135" s="87"/>
-      <c r="AK135" s="87"/>
-      <c r="AL135" s="87"/>
-      <c r="AM135" s="87"/>
-      <c r="AN135" s="87"/>
-      <c r="AO135" s="87"/>
-      <c r="AP135" s="87"/>
-      <c r="AQ135" s="87"/>
-      <c r="AR135" s="87"/>
-      <c r="AS135" s="87"/>
-      <c r="AT135" s="87"/>
-      <c r="AU135" s="87"/>
-      <c r="AV135" s="87"/>
-      <c r="AW135" s="87"/>
-      <c r="AX135" s="87"/>
-      <c r="AY135" s="87"/>
-      <c r="AZ135" s="87"/>
-      <c r="BA135" s="87"/>
-      <c r="BB135" s="87"/>
-      <c r="BC135" s="87"/>
-      <c r="BD135" s="87"/>
-      <c r="BE135" s="87"/>
-      <c r="BF135" s="87"/>
-      <c r="BG135" s="87"/>
-      <c r="BH135" s="87"/>
-      <c r="BI135" s="87"/>
-      <c r="BJ135" s="87"/>
-      <c r="BK135" s="87"/>
-      <c r="BL135" s="87"/>
-      <c r="BM135" s="87"/>
-      <c r="BN135" s="87"/>
-      <c r="BO135" s="87"/>
-      <c r="BP135" s="87"/>
-      <c r="BQ135" s="87"/>
-      <c r="BR135" s="87"/>
-      <c r="BS135" s="87"/>
-      <c r="BT135" s="87"/>
-      <c r="BU135" s="87"/>
-      <c r="BV135" s="87"/>
-      <c r="BW135" s="87"/>
-      <c r="BX135" s="87"/>
-      <c r="BY135" s="87"/>
-      <c r="BZ135" s="87"/>
-      <c r="CA135" s="87"/>
-      <c r="CB135" s="87"/>
-      <c r="CC135" s="87"/>
-      <c r="CD135" s="87"/>
-      <c r="CE135" s="87"/>
-      <c r="CF135" s="87"/>
-      <c r="CG135" s="87"/>
-      <c r="CH135" s="87"/>
-      <c r="CI135" s="87"/>
-      <c r="CJ135" s="87"/>
-      <c r="CK135" s="87"/>
-      <c r="CL135" s="87"/>
-      <c r="CM135" s="87"/>
-      <c r="CN135" s="87"/>
-      <c r="CO135" s="87"/>
-      <c r="CP135" s="87"/>
-      <c r="CQ135" s="87"/>
-      <c r="CR135" s="87"/>
-      <c r="CS135" s="87"/>
-      <c r="CT135" s="87"/>
-      <c r="CU135" s="25"/>
-      <c r="CV135" s="25"/>
-      <c r="CW135" s="25"/>
-      <c r="CX135" s="25"/>
-      <c r="CY135" s="25"/>
-      <c r="CZ135" s="25"/>
-      <c r="DA135" s="25"/>
-      <c r="DB135" s="25"/>
-      <c r="DC135" s="25"/>
-      <c r="DD135" s="25"/>
-      <c r="DE135" s="25"/>
-      <c r="DF135" s="25"/>
-      <c r="DG135" s="25"/>
-      <c r="DH135" s="25"/>
+      <c r="D135" s="23">
+        <v>44886</v>
+      </c>
+      <c r="E135" s="23">
+        <v>44889</v>
+      </c>
+      <c r="F135" s="117"/>
+      <c r="G135" s="117">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="H135" s="118"/>
+      <c r="I135" s="118"/>
+      <c r="J135" s="118"/>
+      <c r="K135" s="118"/>
+      <c r="L135" s="118"/>
+      <c r="M135" s="118"/>
+      <c r="N135" s="118"/>
+      <c r="O135" s="118"/>
+      <c r="P135" s="118"/>
+      <c r="Q135" s="118"/>
+      <c r="R135" s="118"/>
+      <c r="S135" s="118"/>
+      <c r="T135" s="118"/>
+      <c r="U135" s="118"/>
+      <c r="V135" s="118"/>
+      <c r="W135" s="118"/>
+      <c r="X135" s="118"/>
+      <c r="Y135" s="118"/>
+      <c r="Z135" s="118"/>
+      <c r="AA135" s="118"/>
+      <c r="AB135" s="118"/>
+      <c r="AC135" s="118"/>
+      <c r="AD135" s="118"/>
+      <c r="AE135" s="118"/>
+      <c r="AF135" s="118"/>
+      <c r="AG135" s="118"/>
+      <c r="AH135" s="118"/>
+      <c r="AI135" s="118"/>
+      <c r="AJ135" s="118"/>
+      <c r="AK135" s="118"/>
+      <c r="AL135" s="118"/>
+      <c r="AM135" s="118"/>
+      <c r="AN135" s="118"/>
+      <c r="AO135" s="118"/>
+      <c r="AP135" s="118"/>
+      <c r="AQ135" s="118"/>
+      <c r="AR135" s="118"/>
+      <c r="AS135" s="118"/>
+      <c r="AT135" s="118"/>
+      <c r="AU135" s="118"/>
+      <c r="AV135" s="118"/>
+      <c r="AW135" s="118"/>
+      <c r="AX135" s="118"/>
+      <c r="AY135" s="118"/>
+      <c r="AZ135" s="118"/>
+      <c r="BA135" s="118"/>
+      <c r="BB135" s="118"/>
+      <c r="BC135" s="118"/>
+      <c r="BD135" s="118"/>
+      <c r="BE135" s="118"/>
+      <c r="BF135" s="118"/>
+      <c r="BG135" s="118"/>
+      <c r="BH135" s="118"/>
+      <c r="BI135" s="118"/>
+      <c r="BJ135" s="118"/>
+      <c r="BK135" s="118"/>
+      <c r="BL135" s="118"/>
+      <c r="BM135" s="118"/>
+      <c r="BN135" s="118"/>
+      <c r="BO135" s="118"/>
+      <c r="BP135" s="118"/>
+      <c r="BQ135" s="118"/>
+      <c r="BR135" s="118"/>
+      <c r="BS135" s="118"/>
+      <c r="BT135" s="118"/>
+      <c r="BU135" s="118"/>
+      <c r="BV135" s="118"/>
+      <c r="BW135" s="118"/>
+      <c r="BX135" s="118"/>
+      <c r="BY135" s="118"/>
+      <c r="BZ135" s="118"/>
+      <c r="CA135" s="118"/>
+      <c r="CB135" s="118"/>
+      <c r="CC135" s="118"/>
+      <c r="CD135" s="118"/>
+      <c r="CE135" s="118"/>
+      <c r="CF135" s="118"/>
+      <c r="CG135" s="118"/>
+      <c r="CH135" s="118"/>
+      <c r="CI135" s="118"/>
+      <c r="CJ135" s="118"/>
+      <c r="CK135" s="118"/>
+      <c r="CL135" s="118"/>
+      <c r="CM135" s="118"/>
+      <c r="CN135" s="118"/>
+      <c r="CO135" s="118"/>
+      <c r="CP135" s="118"/>
+      <c r="CQ135" s="118"/>
+      <c r="CR135" s="118"/>
+      <c r="CS135" s="118"/>
+      <c r="CT135" s="118"/>
+      <c r="CU135" s="118"/>
+      <c r="CV135" s="118"/>
+      <c r="CW135" s="118"/>
+      <c r="CX135" s="118"/>
+      <c r="CY135" s="118"/>
+      <c r="CZ135" s="118"/>
+      <c r="DA135" s="118"/>
+      <c r="DB135" s="118"/>
+      <c r="DC135" s="118"/>
+      <c r="DD135" s="118"/>
+      <c r="DE135" s="118"/>
+      <c r="DF135" s="118"/>
+      <c r="DG135" s="118"/>
+      <c r="DH135" s="118"/>
     </row>
     <row r="136" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17"/>
-      <c r="B136" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" s="84">
+      <c r="B136" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="22">
         <v>0</v>
       </c>
-      <c r="D136" s="97">
-        <v>44883</v>
-      </c>
-      <c r="E136" s="97">
-        <v>44885</v>
-      </c>
-      <c r="F136" s="86"/>
-      <c r="G136" s="86"/>
-      <c r="H136" s="87"/>
-      <c r="I136" s="87"/>
-      <c r="J136" s="87"/>
-      <c r="K136" s="87"/>
-      <c r="L136" s="87"/>
-      <c r="M136" s="87"/>
-      <c r="N136" s="87"/>
-      <c r="O136" s="87"/>
-      <c r="P136" s="87"/>
-      <c r="Q136" s="87"/>
-      <c r="R136" s="87"/>
-      <c r="S136" s="87"/>
-      <c r="T136" s="87"/>
-      <c r="U136" s="87"/>
-      <c r="V136" s="87"/>
-      <c r="W136" s="87"/>
-      <c r="X136" s="89"/>
-      <c r="Y136" s="87"/>
-      <c r="Z136" s="87"/>
-      <c r="AA136" s="87"/>
-      <c r="AB136" s="87"/>
-      <c r="AC136" s="87"/>
-      <c r="AD136" s="87"/>
-      <c r="AE136" s="87"/>
-      <c r="AF136" s="87"/>
-      <c r="AG136" s="87"/>
-      <c r="AH136" s="87"/>
-      <c r="AI136" s="87"/>
-      <c r="AJ136" s="87"/>
-      <c r="AK136" s="87"/>
-      <c r="AL136" s="87"/>
-      <c r="AM136" s="87"/>
-      <c r="AN136" s="87"/>
-      <c r="AO136" s="87"/>
-      <c r="AP136" s="87"/>
-      <c r="AQ136" s="87"/>
-      <c r="AR136" s="87"/>
-      <c r="AS136" s="87"/>
-      <c r="AT136" s="87"/>
-      <c r="AU136" s="87"/>
-      <c r="AV136" s="87"/>
-      <c r="AW136" s="87"/>
-      <c r="AX136" s="87"/>
-      <c r="AY136" s="87"/>
-      <c r="AZ136" s="87"/>
-      <c r="BA136" s="87"/>
-      <c r="BB136" s="87"/>
-      <c r="BC136" s="87"/>
-      <c r="BD136" s="87"/>
-      <c r="BE136" s="87"/>
-      <c r="BF136" s="87"/>
-      <c r="BG136" s="87"/>
-      <c r="BH136" s="87"/>
-      <c r="BI136" s="87"/>
-      <c r="BJ136" s="87"/>
-      <c r="BK136" s="87"/>
-      <c r="BL136" s="87"/>
-      <c r="BM136" s="87"/>
-      <c r="BN136" s="87"/>
-      <c r="BO136" s="87"/>
-      <c r="BP136" s="87"/>
-      <c r="BQ136" s="87"/>
-      <c r="BR136" s="87"/>
-      <c r="BS136" s="87"/>
-      <c r="BT136" s="87"/>
-      <c r="BU136" s="87"/>
-      <c r="BV136" s="87"/>
-      <c r="BW136" s="87"/>
-      <c r="BX136" s="87"/>
-      <c r="BY136" s="87"/>
-      <c r="BZ136" s="87"/>
-      <c r="CA136" s="87"/>
-      <c r="CB136" s="87"/>
-      <c r="CC136" s="87"/>
-      <c r="CD136" s="87"/>
-      <c r="CE136" s="87"/>
-      <c r="CF136" s="87"/>
-      <c r="CG136" s="87"/>
-      <c r="CH136" s="87"/>
-      <c r="CI136" s="87"/>
-      <c r="CJ136" s="87"/>
-      <c r="CK136" s="87"/>
-      <c r="CL136" s="87"/>
-      <c r="CM136" s="87"/>
-      <c r="CN136" s="87"/>
-      <c r="CO136" s="87"/>
-      <c r="CP136" s="87"/>
-      <c r="CQ136" s="87"/>
-      <c r="CR136" s="87"/>
-      <c r="CS136" s="87"/>
-      <c r="CT136" s="87"/>
-      <c r="CU136" s="25"/>
-      <c r="CV136" s="25"/>
-      <c r="CW136" s="25"/>
-      <c r="CX136" s="25"/>
-      <c r="CY136" s="25"/>
-      <c r="CZ136" s="25"/>
-      <c r="DA136" s="25"/>
-      <c r="DB136" s="25"/>
-      <c r="DC136" s="25"/>
-      <c r="DD136" s="25"/>
-      <c r="DE136" s="25"/>
-      <c r="DF136" s="25"/>
-      <c r="DG136" s="25"/>
-      <c r="DH136" s="25"/>
+      <c r="D136" s="23">
+        <v>44890</v>
+      </c>
+      <c r="E136" s="119">
+        <v>44893</v>
+      </c>
+      <c r="F136" s="117"/>
+      <c r="G136" s="117">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="H136" s="118"/>
+      <c r="I136" s="118"/>
+      <c r="J136" s="118"/>
+      <c r="K136" s="118"/>
+      <c r="L136" s="118"/>
+      <c r="M136" s="118"/>
+      <c r="N136" s="118"/>
+      <c r="O136" s="118"/>
+      <c r="P136" s="118"/>
+      <c r="Q136" s="118"/>
+      <c r="R136" s="118"/>
+      <c r="S136" s="118"/>
+      <c r="T136" s="118"/>
+      <c r="U136" s="118"/>
+      <c r="V136" s="118"/>
+      <c r="W136" s="118"/>
+      <c r="X136" s="118"/>
+      <c r="Y136" s="118"/>
+      <c r="Z136" s="118"/>
+      <c r="AA136" s="118"/>
+      <c r="AB136" s="118"/>
+      <c r="AC136" s="118"/>
+      <c r="AD136" s="118"/>
+      <c r="AE136" s="118"/>
+      <c r="AF136" s="118"/>
+      <c r="AG136" s="118"/>
+      <c r="AH136" s="118"/>
+      <c r="AI136" s="118"/>
+      <c r="AJ136" s="118"/>
+      <c r="AK136" s="118"/>
+      <c r="AL136" s="118"/>
+      <c r="AM136" s="118"/>
+      <c r="AN136" s="118"/>
+      <c r="AO136" s="118"/>
+      <c r="AP136" s="118"/>
+      <c r="AQ136" s="118"/>
+      <c r="AR136" s="118"/>
+      <c r="AS136" s="118"/>
+      <c r="AT136" s="118"/>
+      <c r="AU136" s="118"/>
+      <c r="AV136" s="118"/>
+      <c r="AW136" s="118"/>
+      <c r="AX136" s="118"/>
+      <c r="AY136" s="118"/>
+      <c r="AZ136" s="118"/>
+      <c r="BA136" s="118"/>
+      <c r="BB136" s="118"/>
+      <c r="BC136" s="118"/>
+      <c r="BD136" s="118"/>
+      <c r="BE136" s="118"/>
+      <c r="BF136" s="118"/>
+      <c r="BG136" s="118"/>
+      <c r="BH136" s="118"/>
+      <c r="BI136" s="118"/>
+      <c r="BJ136" s="118"/>
+      <c r="BK136" s="118"/>
+      <c r="BL136" s="118"/>
+      <c r="BM136" s="118"/>
+      <c r="BN136" s="118"/>
+      <c r="BO136" s="118"/>
+      <c r="BP136" s="118"/>
+      <c r="BQ136" s="118"/>
+      <c r="BR136" s="118"/>
+      <c r="BS136" s="118"/>
+      <c r="BT136" s="118"/>
+      <c r="BU136" s="118"/>
+      <c r="BV136" s="118"/>
+      <c r="BW136" s="118"/>
+      <c r="BX136" s="118"/>
+      <c r="BY136" s="118"/>
+      <c r="BZ136" s="118"/>
+      <c r="CA136" s="118"/>
+      <c r="CB136" s="118"/>
+      <c r="CC136" s="118"/>
+      <c r="CD136" s="118"/>
+      <c r="CE136" s="118"/>
+      <c r="CF136" s="118"/>
+      <c r="CG136" s="118"/>
+      <c r="CH136" s="118"/>
+      <c r="CI136" s="118"/>
+      <c r="CJ136" s="118"/>
+      <c r="CK136" s="118"/>
+      <c r="CL136" s="118"/>
+      <c r="CM136" s="118"/>
+      <c r="CN136" s="118"/>
+      <c r="CO136" s="118"/>
+      <c r="CP136" s="118"/>
+      <c r="CQ136" s="118"/>
+      <c r="CR136" s="118"/>
+      <c r="CS136" s="118"/>
+      <c r="CT136" s="118"/>
+      <c r="CU136" s="118"/>
+      <c r="CV136" s="118"/>
+      <c r="CW136" s="118"/>
+      <c r="CX136" s="118"/>
+      <c r="CY136" s="118"/>
+      <c r="CZ136" s="118"/>
+      <c r="DA136" s="118"/>
+      <c r="DB136" s="118"/>
+      <c r="DC136" s="118"/>
+      <c r="DD136" s="118"/>
+      <c r="DE136" s="118"/>
+      <c r="DF136" s="118"/>
+      <c r="DG136" s="118"/>
+      <c r="DH136" s="118"/>
     </row>
-    <row r="137" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
-      <c r="B137" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C137" s="84">
+      <c r="B137" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="22">
         <v>0</v>
       </c>
-      <c r="D137" s="97">
-        <v>44885</v>
-      </c>
-      <c r="E137" s="97">
-        <v>44885</v>
-      </c>
-      <c r="F137" s="86"/>
-      <c r="G137" s="86"/>
-      <c r="H137" s="87"/>
-      <c r="I137" s="87"/>
-      <c r="J137" s="87"/>
-      <c r="K137" s="87"/>
-      <c r="L137" s="87"/>
-      <c r="M137" s="87"/>
-      <c r="N137" s="87"/>
-      <c r="O137" s="87"/>
-      <c r="P137" s="87"/>
-      <c r="Q137" s="87"/>
-      <c r="R137" s="87"/>
-      <c r="S137" s="87"/>
-      <c r="T137" s="87"/>
-      <c r="U137" s="87"/>
-      <c r="V137" s="87"/>
-      <c r="W137" s="87"/>
-      <c r="X137" s="89"/>
-      <c r="Y137" s="87"/>
-      <c r="Z137" s="87"/>
-      <c r="AA137" s="87"/>
-      <c r="AB137" s="87"/>
-      <c r="AC137" s="87"/>
-      <c r="AD137" s="87"/>
-      <c r="AE137" s="87"/>
-      <c r="AF137" s="87"/>
-      <c r="AG137" s="87"/>
-      <c r="AH137" s="87"/>
-      <c r="AI137" s="87"/>
-      <c r="AJ137" s="87"/>
-      <c r="AK137" s="87"/>
-      <c r="AL137" s="87"/>
-      <c r="AM137" s="87"/>
-      <c r="AN137" s="87"/>
-      <c r="AO137" s="87"/>
-      <c r="AP137" s="87"/>
-      <c r="AQ137" s="87"/>
-      <c r="AR137" s="87"/>
-      <c r="AS137" s="87"/>
-      <c r="AT137" s="87"/>
-      <c r="AU137" s="87"/>
-      <c r="AV137" s="87"/>
-      <c r="AW137" s="87"/>
-      <c r="AX137" s="87"/>
-      <c r="AY137" s="87"/>
-      <c r="AZ137" s="87"/>
-      <c r="BA137" s="87"/>
-      <c r="BB137" s="87"/>
-      <c r="BC137" s="87"/>
-      <c r="BD137" s="87"/>
-      <c r="BE137" s="87"/>
-      <c r="BF137" s="87"/>
-      <c r="BG137" s="87"/>
-      <c r="BH137" s="87"/>
-      <c r="BI137" s="87"/>
-      <c r="BJ137" s="87"/>
-      <c r="BK137" s="87"/>
-      <c r="BL137" s="87"/>
-      <c r="BM137" s="87"/>
-      <c r="BN137" s="87"/>
-      <c r="BO137" s="87"/>
-      <c r="BP137" s="87"/>
-      <c r="BQ137" s="87"/>
-      <c r="BR137" s="87"/>
-      <c r="BS137" s="87"/>
-      <c r="BT137" s="87"/>
-      <c r="BU137" s="87"/>
-      <c r="BV137" s="87"/>
-      <c r="BW137" s="87"/>
-      <c r="BX137" s="87"/>
-      <c r="BY137" s="87"/>
-      <c r="BZ137" s="87"/>
-      <c r="CA137" s="87"/>
-      <c r="CB137" s="87"/>
-      <c r="CC137" s="87"/>
-      <c r="CD137" s="87"/>
-      <c r="CE137" s="87"/>
-      <c r="CF137" s="87"/>
-      <c r="CG137" s="87"/>
-      <c r="CH137" s="87"/>
-      <c r="CI137" s="87"/>
-      <c r="CJ137" s="87"/>
-      <c r="CK137" s="87"/>
-      <c r="CL137" s="87"/>
-      <c r="CM137" s="87"/>
-      <c r="CN137" s="87"/>
-      <c r="CO137" s="87"/>
-      <c r="CP137" s="87"/>
-      <c r="CQ137" s="87"/>
-      <c r="CR137" s="87"/>
-      <c r="CS137" s="87"/>
-      <c r="CT137" s="87"/>
-      <c r="CU137" s="25"/>
-      <c r="CV137" s="25"/>
-      <c r="CW137" s="25"/>
-      <c r="CX137" s="25"/>
-      <c r="CY137" s="25"/>
-      <c r="CZ137" s="25"/>
-      <c r="DA137" s="25"/>
-      <c r="DB137" s="25"/>
-      <c r="DC137" s="25"/>
-      <c r="DD137" s="25"/>
-      <c r="DE137" s="25"/>
-      <c r="DF137" s="25"/>
-      <c r="DG137" s="25"/>
-      <c r="DH137" s="25"/>
+      <c r="D137" s="23">
+        <v>44894</v>
+      </c>
+      <c r="E137" s="24">
+        <v>44899</v>
+      </c>
+      <c r="F137" s="117"/>
+      <c r="G137" s="117">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="H137" s="118"/>
+      <c r="I137" s="118"/>
+      <c r="J137" s="118"/>
+      <c r="K137" s="118"/>
+      <c r="L137" s="118"/>
+      <c r="M137" s="118"/>
+      <c r="N137" s="118"/>
+      <c r="O137" s="118"/>
+      <c r="P137" s="118"/>
+      <c r="Q137" s="118"/>
+      <c r="R137" s="118"/>
+      <c r="S137" s="118"/>
+      <c r="T137" s="118"/>
+      <c r="U137" s="118"/>
+      <c r="V137" s="118"/>
+      <c r="W137" s="118"/>
+      <c r="X137" s="118"/>
+      <c r="Y137" s="118"/>
+      <c r="Z137" s="118"/>
+      <c r="AA137" s="118"/>
+      <c r="AB137" s="118"/>
+      <c r="AC137" s="118"/>
+      <c r="AD137" s="118"/>
+      <c r="AE137" s="118"/>
+      <c r="AF137" s="118"/>
+      <c r="AG137" s="118"/>
+      <c r="AH137" s="118"/>
+      <c r="AI137" s="118"/>
+      <c r="AJ137" s="118"/>
+      <c r="AK137" s="118"/>
+      <c r="AL137" s="118"/>
+      <c r="AM137" s="118"/>
+      <c r="AN137" s="118"/>
+      <c r="AO137" s="118"/>
+      <c r="AP137" s="118"/>
+      <c r="AQ137" s="118"/>
+      <c r="AR137" s="118"/>
+      <c r="AS137" s="118"/>
+      <c r="AT137" s="118"/>
+      <c r="AU137" s="118"/>
+      <c r="AV137" s="118"/>
+      <c r="AW137" s="118"/>
+      <c r="AX137" s="118"/>
+      <c r="AY137" s="118"/>
+      <c r="AZ137" s="118"/>
+      <c r="BA137" s="118"/>
+      <c r="BB137" s="118"/>
+      <c r="BC137" s="118"/>
+      <c r="BD137" s="118"/>
+      <c r="BE137" s="118"/>
+      <c r="BF137" s="118"/>
+      <c r="BG137" s="118"/>
+      <c r="BH137" s="118"/>
+      <c r="BI137" s="118"/>
+      <c r="BJ137" s="118"/>
+      <c r="BK137" s="118"/>
+      <c r="BL137" s="118"/>
+      <c r="BM137" s="118"/>
+      <c r="BN137" s="118"/>
+      <c r="BO137" s="118"/>
+      <c r="BP137" s="118"/>
+      <c r="BQ137" s="118"/>
+      <c r="BR137" s="118"/>
+      <c r="BS137" s="118"/>
+      <c r="BT137" s="118"/>
+      <c r="BU137" s="118"/>
+      <c r="BV137" s="118"/>
+      <c r="BW137" s="118"/>
+      <c r="BX137" s="118"/>
+      <c r="BY137" s="118"/>
+      <c r="BZ137" s="118"/>
+      <c r="CA137" s="118"/>
+      <c r="CB137" s="118"/>
+      <c r="CC137" s="118"/>
+      <c r="CD137" s="118"/>
+      <c r="CE137" s="118"/>
+      <c r="CF137" s="118"/>
+      <c r="CG137" s="118"/>
+      <c r="CH137" s="118"/>
+      <c r="CI137" s="118"/>
+      <c r="CJ137" s="118"/>
+      <c r="CK137" s="118"/>
+      <c r="CL137" s="118"/>
+      <c r="CM137" s="118"/>
+      <c r="CN137" s="118"/>
+      <c r="CO137" s="118"/>
+      <c r="CP137" s="118"/>
+      <c r="CQ137" s="118"/>
+      <c r="CR137" s="118"/>
+      <c r="CS137" s="118"/>
+      <c r="CT137" s="118"/>
+      <c r="CU137" s="118"/>
+      <c r="CV137" s="118"/>
+      <c r="CW137" s="118"/>
+      <c r="CX137" s="118"/>
+      <c r="CY137" s="118"/>
+      <c r="CZ137" s="118"/>
+      <c r="DA137" s="118"/>
+      <c r="DB137" s="118"/>
+      <c r="DC137" s="118"/>
+      <c r="DD137" s="118"/>
+      <c r="DE137" s="118"/>
+      <c r="DF137" s="118"/>
+      <c r="DG137" s="118"/>
+      <c r="DH137" s="118"/>
     </row>
-    <row r="138" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
-      <c r="B138" s="107" t="s">
-        <v>128</v>
-      </c>
-      <c r="C138" s="102"/>
-      <c r="D138" s="103"/>
-      <c r="E138" s="104"/>
-      <c r="F138" s="105"/>
-      <c r="G138" s="105" t="str">
+      <c r="B138" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="22">
+        <v>0</v>
+      </c>
+      <c r="D138" s="24">
+        <v>44899</v>
+      </c>
+      <c r="E138" s="24">
+        <v>44899</v>
+      </c>
+      <c r="F138" s="117"/>
+      <c r="G138" s="117">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="H138" s="118"/>
+      <c r="I138" s="118"/>
+      <c r="J138" s="118"/>
+      <c r="K138" s="118"/>
+      <c r="L138" s="118"/>
+      <c r="M138" s="118"/>
+      <c r="N138" s="118"/>
+      <c r="O138" s="118"/>
+      <c r="P138" s="118"/>
+      <c r="Q138" s="118"/>
+      <c r="R138" s="118"/>
+      <c r="S138" s="118"/>
+      <c r="T138" s="118"/>
+      <c r="U138" s="118"/>
+      <c r="V138" s="118"/>
+      <c r="W138" s="118"/>
+      <c r="X138" s="118"/>
+      <c r="Y138" s="118"/>
+      <c r="Z138" s="118"/>
+      <c r="AA138" s="118"/>
+      <c r="AB138" s="118"/>
+      <c r="AC138" s="118"/>
+      <c r="AD138" s="118"/>
+      <c r="AE138" s="118"/>
+      <c r="AF138" s="118"/>
+      <c r="AG138" s="118"/>
+      <c r="AH138" s="118"/>
+      <c r="AI138" s="118"/>
+      <c r="AJ138" s="118"/>
+      <c r="AK138" s="118"/>
+      <c r="AL138" s="118"/>
+      <c r="AM138" s="118"/>
+      <c r="AN138" s="118"/>
+      <c r="AO138" s="118"/>
+      <c r="AP138" s="118"/>
+      <c r="AQ138" s="118"/>
+      <c r="AR138" s="118"/>
+      <c r="AS138" s="118"/>
+      <c r="AT138" s="118"/>
+      <c r="AU138" s="118"/>
+      <c r="AV138" s="118"/>
+      <c r="AW138" s="118"/>
+      <c r="AX138" s="118"/>
+      <c r="AY138" s="118"/>
+      <c r="AZ138" s="118"/>
+      <c r="BA138" s="118"/>
+      <c r="BB138" s="118"/>
+      <c r="BC138" s="118"/>
+      <c r="BD138" s="118"/>
+      <c r="BE138" s="118"/>
+      <c r="BF138" s="118"/>
+      <c r="BG138" s="118"/>
+      <c r="BH138" s="118"/>
+      <c r="BI138" s="118"/>
+      <c r="BJ138" s="118"/>
+      <c r="BK138" s="118"/>
+      <c r="BL138" s="118"/>
+      <c r="BM138" s="118"/>
+      <c r="BN138" s="118"/>
+      <c r="BO138" s="118"/>
+      <c r="BP138" s="118"/>
+      <c r="BQ138" s="118"/>
+      <c r="BR138" s="118"/>
+      <c r="BS138" s="118"/>
+      <c r="BT138" s="118"/>
+      <c r="BU138" s="118"/>
+      <c r="BV138" s="118"/>
+      <c r="BW138" s="118"/>
+      <c r="BX138" s="118"/>
+      <c r="BY138" s="118"/>
+      <c r="BZ138" s="118"/>
+      <c r="CA138" s="118"/>
+      <c r="CB138" s="118"/>
+      <c r="CC138" s="118"/>
+      <c r="CD138" s="118"/>
+      <c r="CE138" s="118"/>
+      <c r="CF138" s="118"/>
+      <c r="CG138" s="118"/>
+      <c r="CH138" s="118"/>
+      <c r="CI138" s="118"/>
+      <c r="CJ138" s="118"/>
+      <c r="CK138" s="118"/>
+      <c r="CL138" s="118"/>
+      <c r="CM138" s="118"/>
+      <c r="CN138" s="118"/>
+      <c r="CO138" s="118"/>
+      <c r="CP138" s="118"/>
+      <c r="CQ138" s="118"/>
+      <c r="CR138" s="118"/>
+      <c r="CS138" s="118"/>
+      <c r="CT138" s="118"/>
+      <c r="CU138" s="118"/>
+      <c r="CV138" s="118"/>
+      <c r="CW138" s="118"/>
+      <c r="CX138" s="118"/>
+      <c r="CY138" s="118"/>
+      <c r="CZ138" s="118"/>
+      <c r="DA138" s="118"/>
+      <c r="DB138" s="118"/>
+      <c r="DC138" s="118"/>
+      <c r="DD138" s="118"/>
+      <c r="DE138" s="118"/>
+      <c r="DF138" s="118"/>
+      <c r="DG138" s="118"/>
+      <c r="DH138" s="118"/>
+    </row>
+    <row r="139" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="17"/>
+      <c r="B139" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="109"/>
+      <c r="D139" s="110"/>
+      <c r="E139" s="111"/>
+      <c r="F139" s="112"/>
+      <c r="G139" s="112" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H138" s="106"/>
-      <c r="I138" s="106"/>
-      <c r="J138" s="106"/>
-      <c r="K138" s="106"/>
-      <c r="L138" s="106"/>
-      <c r="M138" s="106"/>
-      <c r="N138" s="106"/>
-      <c r="O138" s="106"/>
-      <c r="P138" s="106"/>
-      <c r="Q138" s="106"/>
-      <c r="R138" s="106"/>
-      <c r="S138" s="106"/>
-      <c r="T138" s="106"/>
-      <c r="U138" s="106"/>
-      <c r="V138" s="106"/>
-      <c r="W138" s="106"/>
-      <c r="X138" s="106"/>
-      <c r="Y138" s="106"/>
-      <c r="Z138" s="106"/>
-      <c r="AA138" s="106"/>
-      <c r="AB138" s="106"/>
-      <c r="AC138" s="106"/>
-      <c r="AD138" s="106"/>
-      <c r="AE138" s="106"/>
-      <c r="AF138" s="106"/>
-      <c r="AG138" s="106"/>
-      <c r="AH138" s="106"/>
-      <c r="AI138" s="106"/>
-      <c r="AJ138" s="106"/>
-      <c r="AK138" s="106"/>
-      <c r="AL138" s="106"/>
-      <c r="AM138" s="106"/>
-      <c r="AN138" s="106"/>
-      <c r="AO138" s="106"/>
-      <c r="AP138" s="106"/>
-      <c r="AQ138" s="106"/>
-      <c r="AR138" s="106"/>
-      <c r="AS138" s="106"/>
-      <c r="AT138" s="106"/>
-      <c r="AU138" s="106"/>
-      <c r="AV138" s="106"/>
-      <c r="AW138" s="106"/>
-      <c r="AX138" s="106"/>
-      <c r="AY138" s="106"/>
-      <c r="AZ138" s="106"/>
-      <c r="BA138" s="106"/>
-      <c r="BB138" s="106"/>
-      <c r="BC138" s="106"/>
-      <c r="BD138" s="106"/>
-      <c r="BE138" s="106"/>
-      <c r="BF138" s="106"/>
-      <c r="BG138" s="106"/>
-      <c r="BH138" s="106"/>
-      <c r="BI138" s="106"/>
-      <c r="BJ138" s="106"/>
-      <c r="BK138" s="106"/>
-      <c r="BL138" s="106"/>
-      <c r="BM138" s="106"/>
-      <c r="BN138" s="106"/>
-      <c r="BO138" s="106"/>
-      <c r="BP138" s="106"/>
-      <c r="BQ138" s="106"/>
-      <c r="BR138" s="106"/>
-      <c r="BS138" s="106"/>
-      <c r="BT138" s="106"/>
-      <c r="BU138" s="106"/>
-      <c r="BV138" s="106"/>
-      <c r="BW138" s="106"/>
-      <c r="BX138" s="106"/>
-      <c r="BY138" s="106"/>
-      <c r="BZ138" s="106"/>
-      <c r="CA138" s="106"/>
-      <c r="CB138" s="106"/>
-      <c r="CC138" s="106"/>
-      <c r="CD138" s="106"/>
-      <c r="CE138" s="106"/>
-      <c r="CF138" s="106"/>
-      <c r="CG138" s="106"/>
-      <c r="CH138" s="106"/>
-      <c r="CI138" s="106"/>
-      <c r="CJ138" s="106"/>
-      <c r="CK138" s="106"/>
-      <c r="CL138" s="106"/>
-      <c r="CM138" s="106"/>
-      <c r="CN138" s="106"/>
-      <c r="CO138" s="106"/>
-      <c r="CP138" s="106"/>
-      <c r="CQ138" s="106"/>
-      <c r="CR138" s="106"/>
-      <c r="CS138" s="106"/>
-      <c r="CT138" s="106"/>
-      <c r="CU138" s="106"/>
-      <c r="CV138" s="106"/>
-      <c r="CW138" s="106"/>
-      <c r="CX138" s="106"/>
-      <c r="CY138" s="106"/>
-      <c r="CZ138" s="106"/>
-      <c r="DA138" s="106"/>
-      <c r="DB138" s="106"/>
-      <c r="DC138" s="106"/>
-      <c r="DD138" s="106"/>
-      <c r="DE138" s="106"/>
-      <c r="DF138" s="106"/>
-      <c r="DG138" s="106"/>
-      <c r="DH138" s="106"/>
+      <c r="H139" s="113"/>
+      <c r="I139" s="113"/>
+      <c r="J139" s="113"/>
+      <c r="K139" s="113"/>
+      <c r="L139" s="113"/>
+      <c r="M139" s="113"/>
+      <c r="N139" s="113"/>
+      <c r="O139" s="113"/>
+      <c r="P139" s="113"/>
+      <c r="Q139" s="113"/>
+      <c r="R139" s="113"/>
+      <c r="S139" s="113"/>
+      <c r="T139" s="113"/>
+      <c r="U139" s="113"/>
+      <c r="V139" s="113"/>
+      <c r="W139" s="113"/>
+      <c r="X139" s="113"/>
+      <c r="Y139" s="113"/>
+      <c r="Z139" s="113"/>
+      <c r="AA139" s="113"/>
+      <c r="AB139" s="113"/>
+      <c r="AC139" s="113"/>
+      <c r="AD139" s="113"/>
+      <c r="AE139" s="113"/>
+      <c r="AF139" s="113"/>
+      <c r="AG139" s="113"/>
+      <c r="AH139" s="113"/>
+      <c r="AI139" s="113"/>
+      <c r="AJ139" s="113"/>
+      <c r="AK139" s="113"/>
+      <c r="AL139" s="113"/>
+      <c r="AM139" s="113"/>
+      <c r="AN139" s="113"/>
+      <c r="AO139" s="113"/>
+      <c r="AP139" s="113"/>
+      <c r="AQ139" s="113"/>
+      <c r="AR139" s="113"/>
+      <c r="AS139" s="113"/>
+      <c r="AT139" s="113"/>
+      <c r="AU139" s="113"/>
+      <c r="AV139" s="113"/>
+      <c r="AW139" s="113"/>
+      <c r="AX139" s="113"/>
+      <c r="AY139" s="113"/>
+      <c r="AZ139" s="113"/>
+      <c r="BA139" s="113"/>
+      <c r="BB139" s="113"/>
+      <c r="BC139" s="113"/>
+      <c r="BD139" s="113"/>
+      <c r="BE139" s="113"/>
+      <c r="BF139" s="113"/>
+      <c r="BG139" s="113"/>
+      <c r="BH139" s="113"/>
+      <c r="BI139" s="113"/>
+      <c r="BJ139" s="113"/>
+      <c r="BK139" s="113"/>
+      <c r="BL139" s="113"/>
+      <c r="BM139" s="113"/>
+      <c r="BN139" s="113"/>
+      <c r="BO139" s="113"/>
+      <c r="BP139" s="113"/>
+      <c r="BQ139" s="113"/>
+      <c r="BR139" s="113"/>
+      <c r="BS139" s="113"/>
+      <c r="BT139" s="113"/>
+      <c r="BU139" s="113"/>
+      <c r="BV139" s="113"/>
+      <c r="BW139" s="113"/>
+      <c r="BX139" s="113"/>
+      <c r="BY139" s="113"/>
+      <c r="BZ139" s="113"/>
+      <c r="CA139" s="113"/>
+      <c r="CB139" s="113"/>
+      <c r="CC139" s="113"/>
+      <c r="CD139" s="113"/>
+      <c r="CE139" s="113"/>
+      <c r="CF139" s="113"/>
+      <c r="CG139" s="113"/>
+      <c r="CH139" s="113"/>
+      <c r="CI139" s="113"/>
+      <c r="CJ139" s="113"/>
+      <c r="CK139" s="113"/>
+      <c r="CL139" s="113"/>
+      <c r="CM139" s="113"/>
+      <c r="CN139" s="113"/>
+      <c r="CO139" s="113"/>
+      <c r="CP139" s="113"/>
+      <c r="CQ139" s="113"/>
+      <c r="CR139" s="113"/>
+      <c r="CS139" s="113"/>
+      <c r="CT139" s="113"/>
+      <c r="CU139" s="113"/>
+      <c r="CV139" s="113"/>
+      <c r="CW139" s="113"/>
+      <c r="CX139" s="113"/>
+      <c r="CY139" s="113"/>
+      <c r="CZ139" s="113"/>
+      <c r="DA139" s="113"/>
+      <c r="DB139" s="113"/>
+      <c r="DC139" s="113"/>
+      <c r="DD139" s="113"/>
+      <c r="DE139" s="113"/>
+      <c r="DF139" s="113"/>
+      <c r="DG139" s="113"/>
+      <c r="DH139" s="113"/>
     </row>
-    <row r="139" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="17"/>
-      <c r="B139" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="C139" s="22">
-        <v>0</v>
-      </c>
-      <c r="D139" s="23">
-        <v>44886</v>
-      </c>
-      <c r="E139" s="23">
-        <v>44889</v>
-      </c>
-      <c r="F139" s="117"/>
-      <c r="G139" s="117">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="H139" s="118"/>
-      <c r="I139" s="118"/>
-      <c r="J139" s="118"/>
-      <c r="K139" s="118"/>
-      <c r="L139" s="118"/>
-      <c r="M139" s="118"/>
-      <c r="N139" s="118"/>
-      <c r="O139" s="118"/>
-      <c r="P139" s="118"/>
-      <c r="Q139" s="118"/>
-      <c r="R139" s="118"/>
-      <c r="S139" s="118"/>
-      <c r="T139" s="118"/>
-      <c r="U139" s="118"/>
-      <c r="V139" s="118"/>
-      <c r="W139" s="118"/>
-      <c r="X139" s="118"/>
-      <c r="Y139" s="118"/>
-      <c r="Z139" s="118"/>
-      <c r="AA139" s="118"/>
-      <c r="AB139" s="118"/>
-      <c r="AC139" s="118"/>
-      <c r="AD139" s="118"/>
-      <c r="AE139" s="118"/>
-      <c r="AF139" s="118"/>
-      <c r="AG139" s="118"/>
-      <c r="AH139" s="118"/>
-      <c r="AI139" s="118"/>
-      <c r="AJ139" s="118"/>
-      <c r="AK139" s="118"/>
-      <c r="AL139" s="118"/>
-      <c r="AM139" s="118"/>
-      <c r="AN139" s="118"/>
-      <c r="AO139" s="118"/>
-      <c r="AP139" s="118"/>
-      <c r="AQ139" s="118"/>
-      <c r="AR139" s="118"/>
-      <c r="AS139" s="118"/>
-      <c r="AT139" s="118"/>
-      <c r="AU139" s="118"/>
-      <c r="AV139" s="118"/>
-      <c r="AW139" s="118"/>
-      <c r="AX139" s="118"/>
-      <c r="AY139" s="118"/>
-      <c r="AZ139" s="118"/>
-      <c r="BA139" s="118"/>
-      <c r="BB139" s="118"/>
-      <c r="BC139" s="118"/>
-      <c r="BD139" s="118"/>
-      <c r="BE139" s="118"/>
-      <c r="BF139" s="118"/>
-      <c r="BG139" s="118"/>
-      <c r="BH139" s="118"/>
-      <c r="BI139" s="118"/>
-      <c r="BJ139" s="118"/>
-      <c r="BK139" s="118"/>
-      <c r="BL139" s="118"/>
-      <c r="BM139" s="118"/>
-      <c r="BN139" s="118"/>
-      <c r="BO139" s="118"/>
-      <c r="BP139" s="118"/>
-      <c r="BQ139" s="118"/>
-      <c r="BR139" s="118"/>
-      <c r="BS139" s="118"/>
-      <c r="BT139" s="118"/>
-      <c r="BU139" s="118"/>
-      <c r="BV139" s="118"/>
-      <c r="BW139" s="118"/>
-      <c r="BX139" s="118"/>
-      <c r="BY139" s="118"/>
-      <c r="BZ139" s="118"/>
-      <c r="CA139" s="118"/>
-      <c r="CB139" s="118"/>
-      <c r="CC139" s="118"/>
-      <c r="CD139" s="118"/>
-      <c r="CE139" s="118"/>
-      <c r="CF139" s="118"/>
-      <c r="CG139" s="118"/>
-      <c r="CH139" s="118"/>
-      <c r="CI139" s="118"/>
-      <c r="CJ139" s="118"/>
-      <c r="CK139" s="118"/>
-      <c r="CL139" s="118"/>
-      <c r="CM139" s="118"/>
-      <c r="CN139" s="118"/>
-      <c r="CO139" s="118"/>
-      <c r="CP139" s="118"/>
-      <c r="CQ139" s="118"/>
-      <c r="CR139" s="118"/>
-      <c r="CS139" s="118"/>
-      <c r="CT139" s="118"/>
-      <c r="CU139" s="118"/>
-      <c r="CV139" s="118"/>
-      <c r="CW139" s="118"/>
-      <c r="CX139" s="118"/>
-      <c r="CY139" s="118"/>
-      <c r="CZ139" s="118"/>
-      <c r="DA139" s="118"/>
-      <c r="DB139" s="118"/>
-      <c r="DC139" s="118"/>
-      <c r="DD139" s="118"/>
-      <c r="DE139" s="118"/>
-      <c r="DF139" s="118"/>
-      <c r="DG139" s="118"/>
-      <c r="DH139" s="118"/>
+    <row r="140" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="F140" s="5"/>
     </row>
-    <row r="140" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="17"/>
-      <c r="B140" s="116" t="s">
-        <v>130</v>
-      </c>
-      <c r="C140" s="22">
-        <v>0</v>
-      </c>
-      <c r="D140" s="23">
-        <v>44890</v>
-      </c>
-      <c r="E140" s="119">
-        <v>44893</v>
-      </c>
-      <c r="F140" s="117"/>
-      <c r="G140" s="117">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="H140" s="118"/>
-      <c r="I140" s="118"/>
-      <c r="J140" s="118"/>
-      <c r="K140" s="118"/>
-      <c r="L140" s="118"/>
-      <c r="M140" s="118"/>
-      <c r="N140" s="118"/>
-      <c r="O140" s="118"/>
-      <c r="P140" s="118"/>
-      <c r="Q140" s="118"/>
-      <c r="R140" s="118"/>
-      <c r="S140" s="118"/>
-      <c r="T140" s="118"/>
-      <c r="U140" s="118"/>
-      <c r="V140" s="118"/>
-      <c r="W140" s="118"/>
-      <c r="X140" s="118"/>
-      <c r="Y140" s="118"/>
-      <c r="Z140" s="118"/>
-      <c r="AA140" s="118"/>
-      <c r="AB140" s="118"/>
-      <c r="AC140" s="118"/>
-      <c r="AD140" s="118"/>
-      <c r="AE140" s="118"/>
-      <c r="AF140" s="118"/>
-      <c r="AG140" s="118"/>
-      <c r="AH140" s="118"/>
-      <c r="AI140" s="118"/>
-      <c r="AJ140" s="118"/>
-      <c r="AK140" s="118"/>
-      <c r="AL140" s="118"/>
-      <c r="AM140" s="118"/>
-      <c r="AN140" s="118"/>
-      <c r="AO140" s="118"/>
-      <c r="AP140" s="118"/>
-      <c r="AQ140" s="118"/>
-      <c r="AR140" s="118"/>
-      <c r="AS140" s="118"/>
-      <c r="AT140" s="118"/>
-      <c r="AU140" s="118"/>
-      <c r="AV140" s="118"/>
-      <c r="AW140" s="118"/>
-      <c r="AX140" s="118"/>
-      <c r="AY140" s="118"/>
-      <c r="AZ140" s="118"/>
-      <c r="BA140" s="118"/>
-      <c r="BB140" s="118"/>
-      <c r="BC140" s="118"/>
-      <c r="BD140" s="118"/>
-      <c r="BE140" s="118"/>
-      <c r="BF140" s="118"/>
-      <c r="BG140" s="118"/>
-      <c r="BH140" s="118"/>
-      <c r="BI140" s="118"/>
-      <c r="BJ140" s="118"/>
-      <c r="BK140" s="118"/>
-      <c r="BL140" s="118"/>
-      <c r="BM140" s="118"/>
-      <c r="BN140" s="118"/>
-      <c r="BO140" s="118"/>
-      <c r="BP140" s="118"/>
-      <c r="BQ140" s="118"/>
-      <c r="BR140" s="118"/>
-      <c r="BS140" s="118"/>
-      <c r="BT140" s="118"/>
-      <c r="BU140" s="118"/>
-      <c r="BV140" s="118"/>
-      <c r="BW140" s="118"/>
-      <c r="BX140" s="118"/>
-      <c r="BY140" s="118"/>
-      <c r="BZ140" s="118"/>
-      <c r="CA140" s="118"/>
-      <c r="CB140" s="118"/>
-      <c r="CC140" s="118"/>
-      <c r="CD140" s="118"/>
-      <c r="CE140" s="118"/>
-      <c r="CF140" s="118"/>
-      <c r="CG140" s="118"/>
-      <c r="CH140" s="118"/>
-      <c r="CI140" s="118"/>
-      <c r="CJ140" s="118"/>
-      <c r="CK140" s="118"/>
-      <c r="CL140" s="118"/>
-      <c r="CM140" s="118"/>
-      <c r="CN140" s="118"/>
-      <c r="CO140" s="118"/>
-      <c r="CP140" s="118"/>
-      <c r="CQ140" s="118"/>
-      <c r="CR140" s="118"/>
-      <c r="CS140" s="118"/>
-      <c r="CT140" s="118"/>
-      <c r="CU140" s="118"/>
-      <c r="CV140" s="118"/>
-      <c r="CW140" s="118"/>
-      <c r="CX140" s="118"/>
-      <c r="CY140" s="118"/>
-      <c r="CZ140" s="118"/>
-      <c r="DA140" s="118"/>
-      <c r="DB140" s="118"/>
-      <c r="DC140" s="118"/>
-      <c r="DD140" s="118"/>
-      <c r="DE140" s="118"/>
-      <c r="DF140" s="118"/>
-      <c r="DG140" s="118"/>
-      <c r="DH140" s="118"/>
+    <row r="141" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="B141" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="38">
+        <v>43113</v>
+      </c>
     </row>
-    <row r="141" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="17"/>
-      <c r="B141" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" s="22">
-        <v>0</v>
-      </c>
-      <c r="D141" s="23">
-        <v>44894</v>
-      </c>
-      <c r="E141" s="24">
-        <v>44899</v>
-      </c>
-      <c r="F141" s="117"/>
-      <c r="G141" s="117">
-        <f t="shared" si="42"/>
-        <v>6</v>
-      </c>
-      <c r="H141" s="118"/>
-      <c r="I141" s="118"/>
-      <c r="J141" s="118"/>
-      <c r="K141" s="118"/>
-      <c r="L141" s="118"/>
-      <c r="M141" s="118"/>
-      <c r="N141" s="118"/>
-      <c r="O141" s="118"/>
-      <c r="P141" s="118"/>
-      <c r="Q141" s="118"/>
-      <c r="R141" s="118"/>
-      <c r="S141" s="118"/>
-      <c r="T141" s="118"/>
-      <c r="U141" s="118"/>
-      <c r="V141" s="118"/>
-      <c r="W141" s="118"/>
-      <c r="X141" s="118"/>
-      <c r="Y141" s="118"/>
-      <c r="Z141" s="118"/>
-      <c r="AA141" s="118"/>
-      <c r="AB141" s="118"/>
-      <c r="AC141" s="118"/>
-      <c r="AD141" s="118"/>
-      <c r="AE141" s="118"/>
-      <c r="AF141" s="118"/>
-      <c r="AG141" s="118"/>
-      <c r="AH141" s="118"/>
-      <c r="AI141" s="118"/>
-      <c r="AJ141" s="118"/>
-      <c r="AK141" s="118"/>
-      <c r="AL141" s="118"/>
-      <c r="AM141" s="118"/>
-      <c r="AN141" s="118"/>
-      <c r="AO141" s="118"/>
-      <c r="AP141" s="118"/>
-      <c r="AQ141" s="118"/>
-      <c r="AR141" s="118"/>
-      <c r="AS141" s="118"/>
-      <c r="AT141" s="118"/>
-      <c r="AU141" s="118"/>
-      <c r="AV141" s="118"/>
-      <c r="AW141" s="118"/>
-      <c r="AX141" s="118"/>
-      <c r="AY141" s="118"/>
-      <c r="AZ141" s="118"/>
-      <c r="BA141" s="118"/>
-      <c r="BB141" s="118"/>
-      <c r="BC141" s="118"/>
-      <c r="BD141" s="118"/>
-      <c r="BE141" s="118"/>
-      <c r="BF141" s="118"/>
-      <c r="BG141" s="118"/>
-      <c r="BH141" s="118"/>
-      <c r="BI141" s="118"/>
-      <c r="BJ141" s="118"/>
-      <c r="BK141" s="118"/>
-      <c r="BL141" s="118"/>
-      <c r="BM141" s="118"/>
-      <c r="BN141" s="118"/>
-      <c r="BO141" s="118"/>
-      <c r="BP141" s="118"/>
-      <c r="BQ141" s="118"/>
-      <c r="BR141" s="118"/>
-      <c r="BS141" s="118"/>
-      <c r="BT141" s="118"/>
-      <c r="BU141" s="118"/>
-      <c r="BV141" s="118"/>
-      <c r="BW141" s="118"/>
-      <c r="BX141" s="118"/>
-      <c r="BY141" s="118"/>
-      <c r="BZ141" s="118"/>
-      <c r="CA141" s="118"/>
-      <c r="CB141" s="118"/>
-      <c r="CC141" s="118"/>
-      <c r="CD141" s="118"/>
-      <c r="CE141" s="118"/>
-      <c r="CF141" s="118"/>
-      <c r="CG141" s="118"/>
-      <c r="CH141" s="118"/>
-      <c r="CI141" s="118"/>
-      <c r="CJ141" s="118"/>
-      <c r="CK141" s="118"/>
-      <c r="CL141" s="118"/>
-      <c r="CM141" s="118"/>
-      <c r="CN141" s="118"/>
-      <c r="CO141" s="118"/>
-      <c r="CP141" s="118"/>
-      <c r="CQ141" s="118"/>
-      <c r="CR141" s="118"/>
-      <c r="CS141" s="118"/>
-      <c r="CT141" s="118"/>
-      <c r="CU141" s="118"/>
-      <c r="CV141" s="118"/>
-      <c r="CW141" s="118"/>
-      <c r="CX141" s="118"/>
-      <c r="CY141" s="118"/>
-      <c r="CZ141" s="118"/>
-      <c r="DA141" s="118"/>
-      <c r="DB141" s="118"/>
-      <c r="DC141" s="118"/>
-      <c r="DD141" s="118"/>
-      <c r="DE141" s="118"/>
-      <c r="DF141" s="118"/>
-      <c r="DG141" s="118"/>
-      <c r="DH141" s="118"/>
+    <row r="142" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="B142" s="42" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="142" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="17"/>
-      <c r="B142" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="C142" s="22">
-        <v>0</v>
-      </c>
-      <c r="D142" s="24">
-        <v>44899</v>
-      </c>
-      <c r="E142" s="24">
-        <v>44899</v>
-      </c>
-      <c r="F142" s="117"/>
-      <c r="G142" s="117">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="H142" s="118"/>
-      <c r="I142" s="118"/>
-      <c r="J142" s="118"/>
-      <c r="K142" s="118"/>
-      <c r="L142" s="118"/>
-      <c r="M142" s="118"/>
-      <c r="N142" s="118"/>
-      <c r="O142" s="118"/>
-      <c r="P142" s="118"/>
-      <c r="Q142" s="118"/>
-      <c r="R142" s="118"/>
-      <c r="S142" s="118"/>
-      <c r="T142" s="118"/>
-      <c r="U142" s="118"/>
-      <c r="V142" s="118"/>
-      <c r="W142" s="118"/>
-      <c r="X142" s="118"/>
-      <c r="Y142" s="118"/>
-      <c r="Z142" s="118"/>
-      <c r="AA142" s="118"/>
-      <c r="AB142" s="118"/>
-      <c r="AC142" s="118"/>
-      <c r="AD142" s="118"/>
-      <c r="AE142" s="118"/>
-      <c r="AF142" s="118"/>
-      <c r="AG142" s="118"/>
-      <c r="AH142" s="118"/>
-      <c r="AI142" s="118"/>
-      <c r="AJ142" s="118"/>
-      <c r="AK142" s="118"/>
-      <c r="AL142" s="118"/>
-      <c r="AM142" s="118"/>
-      <c r="AN142" s="118"/>
-      <c r="AO142" s="118"/>
-      <c r="AP142" s="118"/>
-      <c r="AQ142" s="118"/>
-      <c r="AR142" s="118"/>
-      <c r="AS142" s="118"/>
-      <c r="AT142" s="118"/>
-      <c r="AU142" s="118"/>
-      <c r="AV142" s="118"/>
-      <c r="AW142" s="118"/>
-      <c r="AX142" s="118"/>
-      <c r="AY142" s="118"/>
-      <c r="AZ142" s="118"/>
-      <c r="BA142" s="118"/>
-      <c r="BB142" s="118"/>
-      <c r="BC142" s="118"/>
-      <c r="BD142" s="118"/>
-      <c r="BE142" s="118"/>
-      <c r="BF142" s="118"/>
-      <c r="BG142" s="118"/>
-      <c r="BH142" s="118"/>
-      <c r="BI142" s="118"/>
-      <c r="BJ142" s="118"/>
-      <c r="BK142" s="118"/>
-      <c r="BL142" s="118"/>
-      <c r="BM142" s="118"/>
-      <c r="BN142" s="118"/>
-      <c r="BO142" s="118"/>
-      <c r="BP142" s="118"/>
-      <c r="BQ142" s="118"/>
-      <c r="BR142" s="118"/>
-      <c r="BS142" s="118"/>
-      <c r="BT142" s="118"/>
-      <c r="BU142" s="118"/>
-      <c r="BV142" s="118"/>
-      <c r="BW142" s="118"/>
-      <c r="BX142" s="118"/>
-      <c r="BY142" s="118"/>
-      <c r="BZ142" s="118"/>
-      <c r="CA142" s="118"/>
-      <c r="CB142" s="118"/>
-      <c r="CC142" s="118"/>
-      <c r="CD142" s="118"/>
-      <c r="CE142" s="118"/>
-      <c r="CF142" s="118"/>
-      <c r="CG142" s="118"/>
-      <c r="CH142" s="118"/>
-      <c r="CI142" s="118"/>
-      <c r="CJ142" s="118"/>
-      <c r="CK142" s="118"/>
-      <c r="CL142" s="118"/>
-      <c r="CM142" s="118"/>
-      <c r="CN142" s="118"/>
-      <c r="CO142" s="118"/>
-      <c r="CP142" s="118"/>
-      <c r="CQ142" s="118"/>
-      <c r="CR142" s="118"/>
-      <c r="CS142" s="118"/>
-      <c r="CT142" s="118"/>
-      <c r="CU142" s="118"/>
-      <c r="CV142" s="118"/>
-      <c r="CW142" s="118"/>
-      <c r="CX142" s="118"/>
-      <c r="CY142" s="118"/>
-      <c r="CZ142" s="118"/>
-      <c r="DA142" s="118"/>
-      <c r="DB142" s="118"/>
-      <c r="DC142" s="118"/>
-      <c r="DD142" s="118"/>
-      <c r="DE142" s="118"/>
-      <c r="DF142" s="118"/>
-      <c r="DG142" s="118"/>
-      <c r="DH142" s="118"/>
-    </row>
-    <row r="143" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="17"/>
-      <c r="B143" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" s="109"/>
-      <c r="D143" s="110"/>
-      <c r="E143" s="111"/>
-      <c r="F143" s="112"/>
-      <c r="G143" s="112" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="H143" s="113"/>
-      <c r="I143" s="113"/>
-      <c r="J143" s="113"/>
-      <c r="K143" s="113"/>
-      <c r="L143" s="113"/>
-      <c r="M143" s="113"/>
-      <c r="N143" s="113"/>
-      <c r="O143" s="113"/>
-      <c r="P143" s="113"/>
-      <c r="Q143" s="113"/>
-      <c r="R143" s="113"/>
-      <c r="S143" s="113"/>
-      <c r="T143" s="113"/>
-      <c r="U143" s="113"/>
-      <c r="V143" s="113"/>
-      <c r="W143" s="113"/>
-      <c r="X143" s="113"/>
-      <c r="Y143" s="113"/>
-      <c r="Z143" s="113"/>
-      <c r="AA143" s="113"/>
-      <c r="AB143" s="113"/>
-      <c r="AC143" s="113"/>
-      <c r="AD143" s="113"/>
-      <c r="AE143" s="113"/>
-      <c r="AF143" s="113"/>
-      <c r="AG143" s="113"/>
-      <c r="AH143" s="113"/>
-      <c r="AI143" s="113"/>
-      <c r="AJ143" s="113"/>
-      <c r="AK143" s="113"/>
-      <c r="AL143" s="113"/>
-      <c r="AM143" s="113"/>
-      <c r="AN143" s="113"/>
-      <c r="AO143" s="113"/>
-      <c r="AP143" s="113"/>
-      <c r="AQ143" s="113"/>
-      <c r="AR143" s="113"/>
-      <c r="AS143" s="113"/>
-      <c r="AT143" s="113"/>
-      <c r="AU143" s="113"/>
-      <c r="AV143" s="113"/>
-      <c r="AW143" s="113"/>
-      <c r="AX143" s="113"/>
-      <c r="AY143" s="113"/>
-      <c r="AZ143" s="113"/>
-      <c r="BA143" s="113"/>
-      <c r="BB143" s="113"/>
-      <c r="BC143" s="113"/>
-      <c r="BD143" s="113"/>
-      <c r="BE143" s="113"/>
-      <c r="BF143" s="113"/>
-      <c r="BG143" s="113"/>
-      <c r="BH143" s="113"/>
-      <c r="BI143" s="113"/>
-      <c r="BJ143" s="113"/>
-      <c r="BK143" s="113"/>
-      <c r="BL143" s="113"/>
-      <c r="BM143" s="113"/>
-      <c r="BN143" s="113"/>
-      <c r="BO143" s="113"/>
-      <c r="BP143" s="113"/>
-      <c r="BQ143" s="113"/>
-      <c r="BR143" s="113"/>
-      <c r="BS143" s="113"/>
-      <c r="BT143" s="113"/>
-      <c r="BU143" s="113"/>
-      <c r="BV143" s="113"/>
-      <c r="BW143" s="113"/>
-      <c r="BX143" s="113"/>
-      <c r="BY143" s="113"/>
-      <c r="BZ143" s="113"/>
-      <c r="CA143" s="113"/>
-      <c r="CB143" s="113"/>
-      <c r="CC143" s="113"/>
-      <c r="CD143" s="113"/>
-      <c r="CE143" s="113"/>
-      <c r="CF143" s="113"/>
-      <c r="CG143" s="113"/>
-      <c r="CH143" s="113"/>
-      <c r="CI143" s="113"/>
-      <c r="CJ143" s="113"/>
-      <c r="CK143" s="113"/>
-      <c r="CL143" s="113"/>
-      <c r="CM143" s="113"/>
-      <c r="CN143" s="113"/>
-      <c r="CO143" s="113"/>
-      <c r="CP143" s="113"/>
-      <c r="CQ143" s="113"/>
-      <c r="CR143" s="113"/>
-      <c r="CS143" s="113"/>
-      <c r="CT143" s="113"/>
-      <c r="CU143" s="113"/>
-      <c r="CV143" s="113"/>
-      <c r="CW143" s="113"/>
-      <c r="CX143" s="113"/>
-      <c r="CY143" s="113"/>
-      <c r="CZ143" s="113"/>
-      <c r="DA143" s="113"/>
-      <c r="DB143" s="113"/>
-      <c r="DC143" s="113"/>
-      <c r="DD143" s="113"/>
-      <c r="DE143" s="113"/>
-      <c r="DF143" s="113"/>
-      <c r="DG143" s="113"/>
-      <c r="DH143" s="113"/>
-    </row>
-    <row r="144" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="F144" s="5"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" s="38">
-        <v>43113</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="41" t="s">
+    <row r="143" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="B143" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -20768,7 +20268,7 @@
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="BE4:BK4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:C55 C60:C143">
+  <conditionalFormatting sqref="C56:C139 C7:C51">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -20782,7 +20282,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54:BA60 H7:DH24 H25:AS25 AV25:DH25 H26:DH46 AS48:DH48 H47:AR48 H49:DH53 H61:DH143">
+  <conditionalFormatting sqref="H50:BA56 H7:DH24 H25:AS25 AV25:DH25 AS47:DH47 H46:AR47 H57:DH139 H26:DH45 H48:DH49">
     <cfRule type="expression" dxfId="17" priority="59">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
@@ -20790,12 +20290,12 @@
       <formula>AND(task_end&gt;=H$5,task_start&lt;H$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54:BA60 H5:DH24 H25:AS25 AV25:DH25 H26:DH46 AS48:DH48 H47:AR48 H49:DH53 H61:DH143">
+  <conditionalFormatting sqref="H50:BA56 H5:DH24 H25:AS25 AV25:DH25 AS47:DH47 H46:AR47 H57:DH139 H26:DH45 H48:DH49">
     <cfRule type="expression" dxfId="15" priority="61">
       <formula>AND(today&gt;=H$5,today&lt;H$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE53:DH60">
+  <conditionalFormatting sqref="BE49:DH56">
     <cfRule type="expression" dxfId="14" priority="10">
       <formula>AND(task_start&lt;=BE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BE$5)</formula>
     </cfRule>
@@ -20803,12 +20303,12 @@
       <formula>AND(task_end&gt;=BE$5,task_start&lt;BE$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE53:DH60">
+  <conditionalFormatting sqref="BE49:DH56">
     <cfRule type="expression" dxfId="12" priority="12">
       <formula>AND(today&gt;=BE$5,today&lt;BE$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB54:BD60 AS53:BD53">
+  <conditionalFormatting sqref="BB50:BD56 AS49:BD49">
     <cfRule type="expression" dxfId="11" priority="7">
       <formula>AND(task_start&lt;=AS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AS$5)</formula>
     </cfRule>
@@ -20816,7 +20316,7 @@
       <formula>AND(task_end&gt;=AS$5,task_start&lt;AS$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB54:BD60 AS53:BD53">
+  <conditionalFormatting sqref="BB50:BD56 AS49:BD49">
     <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND(today&gt;=AS$5,today&lt;AS$5+1)</formula>
     </cfRule>
@@ -20834,7 +20334,7 @@
       <formula>AND(today&gt;=AT$5,today&lt;AT$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE47:DH47">
+  <conditionalFormatting sqref="BE46:DH46">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(task_start&lt;=BE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BE$5)</formula>
     </cfRule>
@@ -20842,12 +20342,12 @@
       <formula>AND(task_end&gt;=BE$5,task_start&lt;BE$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE47:DH47">
+  <conditionalFormatting sqref="BE46:DH46">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(today&gt;=BE$5,today&lt;BE$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS47:BD47">
+  <conditionalFormatting sqref="AS46:BD46">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(task_start&lt;=AS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AS$5)</formula>
     </cfRule>
@@ -20855,7 +20355,7 @@
       <formula>AND(task_end&gt;=AS$5,task_start&lt;AS$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS47:BD47">
+  <conditionalFormatting sqref="AS46:BD46">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(today&gt;=AS$5,today&lt;AS$5+1)</formula>
     </cfRule>
@@ -20866,8 +20366,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B145" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B146" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B141" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B142" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="62" fitToHeight="0" orientation="landscape" r:id="rId3"/>
@@ -20889,7 +20389,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C7:C55 C60:C143</xm:sqref>
+          <xm:sqref>C56:C139 C7:C51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt-chart/xlsx/SWYL-Gantt-Chart.xlsx
+++ b/gantt-chart/xlsx/SWYL-Gantt-Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logann131/coding/web-dev/SWYL/documentation/gantt-chart/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D3ABB-5E57-354F-8B1E-5E33D13F5B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00341A4-1F69-524A-B5FB-C06A6AC22466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -2883,9 +2883,9 @@
   </sheetPr>
   <dimension ref="A1:DH143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA63" sqref="AA63"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="65" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CB72" sqref="CB72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D3" s="239">
         <f ca="1">TODAY()</f>
-        <v>44842</v>
+        <v>44847</v>
       </c>
       <c r="E3" s="240"/>
     </row>

--- a/gantt-chart/xlsx/SWYL-Gantt-Chart.xlsx
+++ b/gantt-chart/xlsx/SWYL-Gantt-Chart.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logann131/coding/web-dev/SWYL/documentation/gantt-chart/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logann131/coding/web-dev/SWYL/materials/gantt-chart/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00341A4-1F69-524A-B5FB-C06A6AC22466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356327D7-3CCD-CB48-B5DA-3ADA66BA72EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3440" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
     <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$135</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$C1</definedName>
@@ -245,18 +245,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Smart Contract development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Single NFT SC -- unit test script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Multiple NFTs SC -- unit test script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Donation SC -- unit test script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Marketplace SC -- unit test script</t>
   </si>
   <si>
     <t xml:space="preserve">   Deploying scripts</t>
@@ -742,13 +730,25 @@
     <t xml:space="preserve">    SRS_v4.0 - Database Model Class diagrams</t>
   </si>
   <si>
-    <t xml:space="preserve">        Membership SC - unit test script         </t>
-  </si>
-  <si>
     <t xml:space="preserve">    UI - NFT marketplace</t>
   </si>
   <si>
     <t xml:space="preserve">    UI - NFT relist Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Multiple NFTs SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Single NFT SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Donation SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Membership SC         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Marketplace SC</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1466,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2006,14 +2006,8 @@
     <xf numFmtId="0" fontId="28" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="32" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2881,11 +2875,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DH143"/>
+  <dimension ref="A1:DH142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="65" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CB72" sqref="CB72"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD63" sqref="AD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2909,27 +2903,27 @@
       <c r="E1" s="39"/>
       <c r="G1" s="1"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="234" t="str">
+      <c r="I1" s="232" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","")</f>
         <v/>
       </c>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="235"/>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="235"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="233"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="233"/>
     </row>
     <row r="2" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -2938,21 +2932,21 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="239">
+      <c r="D2" s="237">
         <v>44795</v>
       </c>
-      <c r="E2" s="240"/>
+      <c r="E2" s="238"/>
     </row>
     <row r="3" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="239">
+      <c r="D3" s="237">
         <f ca="1">TODAY()</f>
-        <v>44847</v>
-      </c>
-      <c r="E3" s="240"/>
+        <v>44848</v>
+      </c>
+      <c r="E3" s="238"/>
     </row>
     <row r="4" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
@@ -2961,156 +2955,156 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="236">
+      <c r="H4" s="234">
         <f>H5</f>
         <v>44795</v>
       </c>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="238"/>
-      <c r="O4" s="236">
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="235"/>
+      <c r="L4" s="235"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="236"/>
+      <c r="O4" s="234">
         <f>O5</f>
         <v>44802</v>
       </c>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="237"/>
-      <c r="U4" s="238"/>
-      <c r="V4" s="236">
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="235"/>
+      <c r="U4" s="236"/>
+      <c r="V4" s="234">
         <f>V5</f>
         <v>44809</v>
       </c>
-      <c r="W4" s="237"/>
-      <c r="X4" s="237"/>
-      <c r="Y4" s="237"/>
-      <c r="Z4" s="237"/>
-      <c r="AA4" s="237"/>
-      <c r="AB4" s="238"/>
-      <c r="AC4" s="236">
+      <c r="W4" s="235"/>
+      <c r="X4" s="235"/>
+      <c r="Y4" s="235"/>
+      <c r="Z4" s="235"/>
+      <c r="AA4" s="235"/>
+      <c r="AB4" s="236"/>
+      <c r="AC4" s="234">
         <f>AC5</f>
         <v>44816</v>
       </c>
-      <c r="AD4" s="237"/>
-      <c r="AE4" s="237"/>
-      <c r="AF4" s="237"/>
-      <c r="AG4" s="237"/>
-      <c r="AH4" s="237"/>
-      <c r="AI4" s="238"/>
-      <c r="AJ4" s="236">
+      <c r="AD4" s="235"/>
+      <c r="AE4" s="235"/>
+      <c r="AF4" s="235"/>
+      <c r="AG4" s="235"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="236"/>
+      <c r="AJ4" s="234">
         <f>AJ5</f>
         <v>44823</v>
       </c>
-      <c r="AK4" s="237"/>
-      <c r="AL4" s="237"/>
-      <c r="AM4" s="237"/>
-      <c r="AN4" s="237"/>
-      <c r="AO4" s="237"/>
-      <c r="AP4" s="238"/>
-      <c r="AQ4" s="236">
+      <c r="AK4" s="235"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="235"/>
+      <c r="AO4" s="235"/>
+      <c r="AP4" s="236"/>
+      <c r="AQ4" s="234">
         <f>AQ5</f>
         <v>44830</v>
       </c>
-      <c r="AR4" s="237"/>
-      <c r="AS4" s="237"/>
-      <c r="AT4" s="237"/>
-      <c r="AU4" s="237"/>
-      <c r="AV4" s="237"/>
-      <c r="AW4" s="238"/>
-      <c r="AX4" s="236">
+      <c r="AR4" s="235"/>
+      <c r="AS4" s="235"/>
+      <c r="AT4" s="235"/>
+      <c r="AU4" s="235"/>
+      <c r="AV4" s="235"/>
+      <c r="AW4" s="236"/>
+      <c r="AX4" s="234">
         <f>AX5</f>
         <v>44837</v>
       </c>
-      <c r="AY4" s="237"/>
-      <c r="AZ4" s="237"/>
-      <c r="BA4" s="237"/>
-      <c r="BB4" s="237"/>
-      <c r="BC4" s="237"/>
-      <c r="BD4" s="238"/>
-      <c r="BE4" s="236">
+      <c r="AY4" s="235"/>
+      <c r="AZ4" s="235"/>
+      <c r="BA4" s="235"/>
+      <c r="BB4" s="235"/>
+      <c r="BC4" s="235"/>
+      <c r="BD4" s="236"/>
+      <c r="BE4" s="234">
         <f>BE5</f>
         <v>44844</v>
       </c>
-      <c r="BF4" s="237"/>
-      <c r="BG4" s="237"/>
-      <c r="BH4" s="237"/>
-      <c r="BI4" s="237"/>
-      <c r="BJ4" s="237"/>
-      <c r="BK4" s="238"/>
-      <c r="BL4" s="236">
+      <c r="BF4" s="235"/>
+      <c r="BG4" s="235"/>
+      <c r="BH4" s="235"/>
+      <c r="BI4" s="235"/>
+      <c r="BJ4" s="235"/>
+      <c r="BK4" s="236"/>
+      <c r="BL4" s="234">
         <f>BL5</f>
         <v>44851</v>
       </c>
-      <c r="BM4" s="237"/>
-      <c r="BN4" s="237"/>
-      <c r="BO4" s="237"/>
-      <c r="BP4" s="237"/>
-      <c r="BQ4" s="237"/>
-      <c r="BR4" s="238"/>
-      <c r="BS4" s="236">
+      <c r="BM4" s="235"/>
+      <c r="BN4" s="235"/>
+      <c r="BO4" s="235"/>
+      <c r="BP4" s="235"/>
+      <c r="BQ4" s="235"/>
+      <c r="BR4" s="236"/>
+      <c r="BS4" s="234">
         <f>BS5</f>
         <v>44858</v>
       </c>
-      <c r="BT4" s="237"/>
-      <c r="BU4" s="237"/>
-      <c r="BV4" s="237"/>
-      <c r="BW4" s="237"/>
-      <c r="BX4" s="237"/>
-      <c r="BY4" s="238"/>
-      <c r="BZ4" s="236">
+      <c r="BT4" s="235"/>
+      <c r="BU4" s="235"/>
+      <c r="BV4" s="235"/>
+      <c r="BW4" s="235"/>
+      <c r="BX4" s="235"/>
+      <c r="BY4" s="236"/>
+      <c r="BZ4" s="234">
         <f>BZ5</f>
         <v>44865</v>
       </c>
-      <c r="CA4" s="237"/>
-      <c r="CB4" s="237"/>
-      <c r="CC4" s="237"/>
-      <c r="CD4" s="237"/>
-      <c r="CE4" s="237"/>
-      <c r="CF4" s="238"/>
-      <c r="CG4" s="236">
+      <c r="CA4" s="235"/>
+      <c r="CB4" s="235"/>
+      <c r="CC4" s="235"/>
+      <c r="CD4" s="235"/>
+      <c r="CE4" s="235"/>
+      <c r="CF4" s="236"/>
+      <c r="CG4" s="234">
         <f>CG5</f>
         <v>44872</v>
       </c>
-      <c r="CH4" s="237"/>
-      <c r="CI4" s="237"/>
-      <c r="CJ4" s="237"/>
-      <c r="CK4" s="237"/>
-      <c r="CL4" s="237"/>
-      <c r="CM4" s="238"/>
-      <c r="CN4" s="236">
+      <c r="CH4" s="235"/>
+      <c r="CI4" s="235"/>
+      <c r="CJ4" s="235"/>
+      <c r="CK4" s="235"/>
+      <c r="CL4" s="235"/>
+      <c r="CM4" s="236"/>
+      <c r="CN4" s="234">
         <f>CN5</f>
         <v>44879</v>
       </c>
-      <c r="CO4" s="237"/>
-      <c r="CP4" s="237"/>
-      <c r="CQ4" s="237"/>
-      <c r="CR4" s="237"/>
-      <c r="CS4" s="237"/>
-      <c r="CT4" s="238"/>
-      <c r="CU4" s="236">
+      <c r="CO4" s="235"/>
+      <c r="CP4" s="235"/>
+      <c r="CQ4" s="235"/>
+      <c r="CR4" s="235"/>
+      <c r="CS4" s="235"/>
+      <c r="CT4" s="236"/>
+      <c r="CU4" s="234">
         <f>CU5</f>
         <v>44886</v>
       </c>
-      <c r="CV4" s="237"/>
-      <c r="CW4" s="237"/>
-      <c r="CX4" s="237"/>
-      <c r="CY4" s="237"/>
-      <c r="CZ4" s="237"/>
-      <c r="DA4" s="238"/>
-      <c r="DB4" s="236">
+      <c r="CV4" s="235"/>
+      <c r="CW4" s="235"/>
+      <c r="CX4" s="235"/>
+      <c r="CY4" s="235"/>
+      <c r="CZ4" s="235"/>
+      <c r="DA4" s="236"/>
+      <c r="DB4" s="234">
         <f>DB5</f>
         <v>44893</v>
       </c>
-      <c r="DC4" s="237"/>
-      <c r="DD4" s="237"/>
-      <c r="DE4" s="237"/>
-      <c r="DF4" s="237"/>
-      <c r="DG4" s="237"/>
-      <c r="DH4" s="238"/>
+      <c r="DC4" s="235"/>
+      <c r="DD4" s="235"/>
+      <c r="DE4" s="235"/>
+      <c r="DF4" s="235"/>
+      <c r="DG4" s="235"/>
+      <c r="DH4" s="236"/>
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -3983,7 +3977,7 @@
       <c r="E7" s="111"/>
       <c r="F7" s="112"/>
       <c r="G7" s="112" t="str">
-        <f t="shared" ref="G7:G139" si="42">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G7:G138" si="42">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H7" s="113"/>
@@ -4214,7 +4208,7 @@
     <row r="9" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="122" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C9" s="123">
         <v>1</v>
@@ -5443,7 +5437,7 @@
     <row r="19" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="144" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" s="145">
         <v>1</v>
@@ -5565,7 +5559,7 @@
     <row r="20" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="144" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="145">
         <v>1</v>
@@ -5687,7 +5681,7 @@
     <row r="21" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="144" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" s="145">
         <v>1</v>
@@ -5809,7 +5803,7 @@
     <row r="22" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="144" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22" s="145">
         <v>1</v>
@@ -5931,7 +5925,7 @@
     <row r="23" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="129" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C23" s="159">
         <v>1</v>
@@ -6053,7 +6047,7 @@
     <row r="24" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="138" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="139">
         <v>1</v>
@@ -6175,7 +6169,7 @@
     <row r="25" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="138" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C25" s="139">
         <v>1</v>
@@ -6295,10 +6289,10 @@
     </row>
     <row r="26" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="121" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B26" s="136" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C26" s="131">
         <v>1</v>
@@ -6419,10 +6413,10 @@
     </row>
     <row r="27" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="121" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B27" s="153" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C27" s="154">
         <v>1</v>
@@ -6543,10 +6537,10 @@
     </row>
     <row r="28" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="121" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B28" s="153" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C28" s="154">
         <v>1</v>
@@ -6668,7 +6662,7 @@
     <row r="29" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="164"/>
       <c r="B29" s="171" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C29" s="172">
         <v>0</v>
@@ -6790,7 +6784,7 @@
     <row r="30" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="164"/>
       <c r="B30" s="165" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C30" s="166">
         <v>0</v>
@@ -6912,7 +6906,7 @@
     <row r="31" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="164"/>
       <c r="B31" s="165" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C31" s="166">
         <v>0</v>
@@ -7034,7 +7028,7 @@
     <row r="32" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="164"/>
       <c r="B32" s="165" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C32" s="166">
         <v>0</v>
@@ -7155,16 +7149,16 @@
     </row>
     <row r="33" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="194" t="s">
+      <c r="B33" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="195">
+      <c r="C33" s="193">
         <v>0.3</v>
       </c>
-      <c r="D33" s="225">
+      <c r="D33" s="223">
         <v>44834</v>
       </c>
-      <c r="E33" s="196">
+      <c r="E33" s="194">
         <v>44843</v>
       </c>
       <c r="F33" s="44"/>
@@ -7213,7 +7207,7 @@
       <c r="AW33" s="45"/>
       <c r="AX33" s="45"/>
       <c r="AY33" s="45"/>
-      <c r="AZ33" s="226"/>
+      <c r="AZ33" s="224"/>
       <c r="BA33" s="45"/>
       <c r="BB33" s="45"/>
       <c r="BC33" s="45"/>
@@ -8254,7 +8248,7 @@
     <row r="42" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="47" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C42" s="18">
         <v>1</v>
@@ -8620,7 +8614,7 @@
     <row r="45" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="47" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C45" s="18">
         <v>1</v>
@@ -9108,7 +9102,7 @@
     <row r="49" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C49" s="18">
         <v>1</v>
@@ -9229,76 +9223,76 @@
     </row>
     <row r="50" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
-      <c r="B50" s="191" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="192">
-        <v>0</v>
-      </c>
-      <c r="D50" s="193">
+      <c r="B50" s="189" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="190">
+        <v>1</v>
+      </c>
+      <c r="D50" s="191">
         <v>44849</v>
       </c>
-      <c r="E50" s="193">
+      <c r="E50" s="191">
         <v>44850</v>
       </c>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="189"/>
-      <c r="I50" s="189"/>
-      <c r="J50" s="189"/>
-      <c r="K50" s="189" t="s">
-        <v>142</v>
-      </c>
-      <c r="L50" s="189"/>
-      <c r="M50" s="189"/>
-      <c r="N50" s="189"/>
-      <c r="O50" s="189"/>
-      <c r="P50" s="189"/>
-      <c r="Q50" s="189"/>
-      <c r="R50" s="189"/>
-      <c r="S50" s="189"/>
-      <c r="T50" s="189"/>
-      <c r="U50" s="189"/>
-      <c r="V50" s="189"/>
-      <c r="W50" s="189"/>
-      <c r="X50" s="190"/>
-      <c r="Y50" s="189"/>
-      <c r="Z50" s="189"/>
-      <c r="AA50" s="189"/>
-      <c r="AB50" s="189"/>
-      <c r="AC50" s="189"/>
-      <c r="AD50" s="189"/>
-      <c r="AE50" s="189"/>
-      <c r="AF50" s="189"/>
-      <c r="AG50" s="189"/>
-      <c r="AH50" s="189"/>
-      <c r="AI50" s="189"/>
-      <c r="AJ50" s="189"/>
-      <c r="AK50" s="189"/>
-      <c r="AL50" s="189"/>
-      <c r="AM50" s="189"/>
-      <c r="AN50" s="189"/>
-      <c r="AO50" s="189"/>
-      <c r="AP50" s="189"/>
-      <c r="AQ50" s="189"/>
-      <c r="AR50" s="189"/>
-      <c r="AS50" s="189"/>
-      <c r="AT50" s="189"/>
-      <c r="AU50" s="189"/>
-      <c r="AV50" s="189"/>
-      <c r="AW50" s="189"/>
-      <c r="AX50" s="189"/>
-      <c r="AY50" s="189"/>
-      <c r="AZ50" s="189"/>
-      <c r="BA50" s="189"/>
-      <c r="BB50" s="189"/>
-      <c r="BC50" s="189"/>
-      <c r="BD50" s="189"/>
-      <c r="BE50" s="189"/>
-      <c r="BF50" s="189"/>
-      <c r="BG50" s="189"/>
-      <c r="BH50" s="189"/>
-      <c r="BI50" s="189"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
+      <c r="J50" s="187"/>
+      <c r="K50" s="187" t="s">
+        <v>138</v>
+      </c>
+      <c r="L50" s="187"/>
+      <c r="M50" s="187"/>
+      <c r="N50" s="187"/>
+      <c r="O50" s="187"/>
+      <c r="P50" s="187"/>
+      <c r="Q50" s="187"/>
+      <c r="R50" s="187"/>
+      <c r="S50" s="187"/>
+      <c r="T50" s="187"/>
+      <c r="U50" s="187"/>
+      <c r="V50" s="187"/>
+      <c r="W50" s="187"/>
+      <c r="X50" s="188"/>
+      <c r="Y50" s="187"/>
+      <c r="Z50" s="187"/>
+      <c r="AA50" s="187"/>
+      <c r="AB50" s="187"/>
+      <c r="AC50" s="187"/>
+      <c r="AD50" s="187"/>
+      <c r="AE50" s="187"/>
+      <c r="AF50" s="187"/>
+      <c r="AG50" s="187"/>
+      <c r="AH50" s="187"/>
+      <c r="AI50" s="187"/>
+      <c r="AJ50" s="187"/>
+      <c r="AK50" s="187"/>
+      <c r="AL50" s="187"/>
+      <c r="AM50" s="187"/>
+      <c r="AN50" s="187"/>
+      <c r="AO50" s="187"/>
+      <c r="AP50" s="187"/>
+      <c r="AQ50" s="187"/>
+      <c r="AR50" s="187"/>
+      <c r="AS50" s="187"/>
+      <c r="AT50" s="187"/>
+      <c r="AU50" s="187"/>
+      <c r="AV50" s="187"/>
+      <c r="AW50" s="187"/>
+      <c r="AX50" s="187"/>
+      <c r="AY50" s="187"/>
+      <c r="AZ50" s="187"/>
+      <c r="BA50" s="187"/>
+      <c r="BB50" s="187"/>
+      <c r="BC50" s="187"/>
+      <c r="BD50" s="187"/>
+      <c r="BE50" s="187"/>
+      <c r="BF50" s="187"/>
+      <c r="BG50" s="187"/>
+      <c r="BH50" s="187"/>
+      <c r="BI50" s="187"/>
       <c r="BJ50" s="25"/>
       <c r="BK50" s="25"/>
       <c r="BL50" s="25"/>
@@ -9354,10 +9348,10 @@
     <row r="51" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="178" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C51" s="179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="180">
         <v>44849</v>
@@ -9476,10 +9470,10 @@
     <row r="52" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="184" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="185">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="C52" s="179">
+        <v>1</v>
       </c>
       <c r="D52" s="180">
         <v>44849</v>
@@ -9598,10 +9592,10 @@
     <row r="53" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="185">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="C53" s="179">
+        <v>1</v>
       </c>
       <c r="D53" s="180">
         <v>44849</v>
@@ -9720,10 +9714,10 @@
     <row r="54" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="184" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="185">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="C54" s="179">
+        <v>1</v>
       </c>
       <c r="D54" s="180">
         <v>44850</v>
@@ -9841,11 +9835,11 @@
     </row>
     <row r="55" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
-      <c r="B55" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="187">
-        <v>0</v>
+      <c r="B55" s="185" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="179">
+        <v>1</v>
       </c>
       <c r="D55" s="180">
         <v>44850</v>
@@ -9963,80 +9957,80 @@
     </row>
     <row r="56" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
-      <c r="B56" s="227" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="228">
+      <c r="B56" s="225" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="226">
         <v>0</v>
       </c>
-      <c r="D56" s="229">
+      <c r="D56" s="227">
         <v>44854</v>
       </c>
-      <c r="E56" s="229">
+      <c r="E56" s="227">
         <v>44854</v>
       </c>
-      <c r="F56" s="230"/>
-      <c r="G56" s="230"/>
-      <c r="H56" s="231"/>
-      <c r="I56" s="231"/>
-      <c r="J56" s="231"/>
-      <c r="K56" s="231"/>
-      <c r="L56" s="231"/>
-      <c r="M56" s="231"/>
-      <c r="N56" s="231"/>
-      <c r="O56" s="231"/>
-      <c r="P56" s="231"/>
-      <c r="Q56" s="231"/>
-      <c r="R56" s="231"/>
-      <c r="S56" s="231"/>
-      <c r="T56" s="231"/>
-      <c r="U56" s="231"/>
-      <c r="V56" s="231"/>
-      <c r="W56" s="231"/>
-      <c r="X56" s="232"/>
-      <c r="Y56" s="231"/>
-      <c r="Z56" s="231"/>
-      <c r="AA56" s="231"/>
-      <c r="AB56" s="231"/>
-      <c r="AC56" s="231"/>
-      <c r="AD56" s="231"/>
-      <c r="AE56" s="231"/>
-      <c r="AF56" s="231"/>
-      <c r="AG56" s="231"/>
-      <c r="AH56" s="231"/>
-      <c r="AI56" s="231"/>
-      <c r="AJ56" s="231"/>
-      <c r="AK56" s="231"/>
-      <c r="AL56" s="231"/>
-      <c r="AM56" s="231"/>
-      <c r="AN56" s="231"/>
-      <c r="AO56" s="231"/>
-      <c r="AP56" s="231"/>
-      <c r="AQ56" s="231"/>
-      <c r="AR56" s="231"/>
-      <c r="AS56" s="231"/>
-      <c r="AT56" s="231"/>
-      <c r="AU56" s="231"/>
-      <c r="AV56" s="231"/>
-      <c r="AW56" s="231"/>
-      <c r="AX56" s="231"/>
-      <c r="AY56" s="231"/>
-      <c r="AZ56" s="231"/>
-      <c r="BA56" s="231"/>
-      <c r="BB56" s="231"/>
-      <c r="BC56" s="231"/>
-      <c r="BD56" s="231"/>
-      <c r="BE56" s="231"/>
-      <c r="BF56" s="231"/>
-      <c r="BG56" s="231"/>
-      <c r="BH56" s="231"/>
-      <c r="BI56" s="231"/>
-      <c r="BJ56" s="231"/>
-      <c r="BK56" s="231"/>
-      <c r="BL56" s="231"/>
-      <c r="BM56" s="231"/>
-      <c r="BN56" s="233"/>
-      <c r="BO56" s="233"/>
+      <c r="F56" s="228"/>
+      <c r="G56" s="228"/>
+      <c r="H56" s="229"/>
+      <c r="I56" s="229"/>
+      <c r="J56" s="229"/>
+      <c r="K56" s="229"/>
+      <c r="L56" s="229"/>
+      <c r="M56" s="229"/>
+      <c r="N56" s="229"/>
+      <c r="O56" s="229"/>
+      <c r="P56" s="229"/>
+      <c r="Q56" s="229"/>
+      <c r="R56" s="229"/>
+      <c r="S56" s="229"/>
+      <c r="T56" s="229"/>
+      <c r="U56" s="229"/>
+      <c r="V56" s="229"/>
+      <c r="W56" s="229"/>
+      <c r="X56" s="230"/>
+      <c r="Y56" s="229"/>
+      <c r="Z56" s="229"/>
+      <c r="AA56" s="229"/>
+      <c r="AB56" s="229"/>
+      <c r="AC56" s="229"/>
+      <c r="AD56" s="229"/>
+      <c r="AE56" s="229"/>
+      <c r="AF56" s="229"/>
+      <c r="AG56" s="229"/>
+      <c r="AH56" s="229"/>
+      <c r="AI56" s="229"/>
+      <c r="AJ56" s="229"/>
+      <c r="AK56" s="229"/>
+      <c r="AL56" s="229"/>
+      <c r="AM56" s="229"/>
+      <c r="AN56" s="229"/>
+      <c r="AO56" s="229"/>
+      <c r="AP56" s="229"/>
+      <c r="AQ56" s="229"/>
+      <c r="AR56" s="229"/>
+      <c r="AS56" s="229"/>
+      <c r="AT56" s="229"/>
+      <c r="AU56" s="229"/>
+      <c r="AV56" s="229"/>
+      <c r="AW56" s="229"/>
+      <c r="AX56" s="229"/>
+      <c r="AY56" s="229"/>
+      <c r="AZ56" s="229"/>
+      <c r="BA56" s="229"/>
+      <c r="BB56" s="229"/>
+      <c r="BC56" s="229"/>
+      <c r="BD56" s="229"/>
+      <c r="BE56" s="229"/>
+      <c r="BF56" s="229"/>
+      <c r="BG56" s="229"/>
+      <c r="BH56" s="229"/>
+      <c r="BI56" s="229"/>
+      <c r="BJ56" s="229"/>
+      <c r="BK56" s="229"/>
+      <c r="BL56" s="229"/>
+      <c r="BM56" s="229"/>
+      <c r="BN56" s="231"/>
+      <c r="BO56" s="231"/>
       <c r="BP56" s="25"/>
       <c r="BQ56" s="25"/>
       <c r="BR56" s="25"/>
@@ -10208,18 +10202,18 @@
         <v>53</v>
       </c>
       <c r="C58" s="58">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D58" s="59">
         <v>44844</v>
       </c>
       <c r="E58" s="60">
-        <v>44848</v>
+        <v>44850</v>
       </c>
       <c r="F58" s="61"/>
       <c r="G58" s="61">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H58" s="62"/>
       <c r="I58" s="62"/>
@@ -10333,7 +10327,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="53">
         <v>44844</v>
@@ -10452,10 +10446,10 @@
     <row r="60" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C60" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="53">
         <v>44844</v>
@@ -10574,10 +10568,10 @@
     <row r="61" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C61" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="53">
         <v>44844</v>
@@ -10696,16 +10690,16 @@
     <row r="62" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C62" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="53">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="E62" s="53">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
@@ -10818,16 +10812,16 @@
     <row r="63" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C63" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="53">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="E63" s="53">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
@@ -10940,16 +10934,16 @@
     <row r="64" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="51" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C64" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="53">
-        <v>44844</v>
+        <v>44846</v>
       </c>
       <c r="E64" s="53">
-        <v>44844</v>
+        <v>44846</v>
       </c>
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
@@ -11065,13 +11059,13 @@
         <v>55</v>
       </c>
       <c r="C65" s="52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D65" s="53">
-        <v>44844</v>
+        <v>44847</v>
       </c>
       <c r="E65" s="53">
-        <v>44844</v>
+        <v>44850</v>
       </c>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
@@ -11184,16 +11178,16 @@
     <row r="66" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="51" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="C66" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="53">
-        <v>44844</v>
+        <v>44847</v>
       </c>
       <c r="E66" s="53">
-        <v>44844</v>
+        <v>44847</v>
       </c>
       <c r="F66" s="54"/>
       <c r="G66" s="54">
@@ -11309,16 +11303,16 @@
     <row r="67" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="51" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="C67" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="53">
-        <v>44844</v>
+        <v>44848</v>
       </c>
       <c r="E67" s="53">
-        <v>44844</v>
+        <v>44848</v>
       </c>
       <c r="F67" s="54"/>
       <c r="G67" s="54">
@@ -11434,22 +11428,19 @@
     <row r="68" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="51" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C68" s="52">
         <v>0</v>
       </c>
-      <c r="D68" s="53">
-        <v>44845</v>
-      </c>
-      <c r="E68" s="53">
-        <v>44846</v>
+      <c r="D68" s="57">
+        <v>44848</v>
+      </c>
+      <c r="E68" s="57">
+        <v>44849</v>
       </c>
       <c r="F68" s="54"/>
-      <c r="G68" s="54">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
+      <c r="G68" s="54"/>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
       <c r="J68" s="55"/>
@@ -11466,7 +11457,7 @@
       <c r="U68" s="55"/>
       <c r="V68" s="55"/>
       <c r="W68" s="55"/>
-      <c r="X68" s="56"/>
+      <c r="X68" s="55"/>
       <c r="Y68" s="55"/>
       <c r="Z68" s="55"/>
       <c r="AA68" s="55"/>
@@ -11564,16 +11555,16 @@
       <c r="C69" s="52">
         <v>0</v>
       </c>
-      <c r="D69" s="53">
-        <v>44846</v>
+      <c r="D69" s="57">
+        <v>44849</v>
       </c>
       <c r="E69" s="57">
-        <v>44847</v>
+        <v>44849</v>
       </c>
       <c r="F69" s="54"/>
       <c r="G69" s="54">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="55"/>
       <c r="I69" s="55"/>
@@ -11591,7 +11582,7 @@
       <c r="U69" s="55"/>
       <c r="V69" s="55"/>
       <c r="W69" s="55"/>
-      <c r="X69" s="55"/>
+      <c r="X69" s="56"/>
       <c r="Y69" s="55"/>
       <c r="Z69" s="55"/>
       <c r="AA69" s="55"/>
@@ -11684,19 +11675,22 @@
     <row r="70" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="51" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="C70" s="52">
         <v>0</v>
       </c>
       <c r="D70" s="57">
-        <v>44847</v>
+        <v>44850</v>
       </c>
       <c r="E70" s="57">
-        <v>44848</v>
+        <v>44850</v>
       </c>
       <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
+      <c r="G70" s="54">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
       <c r="J70" s="55"/>
@@ -11806,16 +11800,16 @@
     <row r="71" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C71" s="52">
         <v>0</v>
       </c>
       <c r="D71" s="57">
-        <v>44848</v>
+        <v>44850</v>
       </c>
       <c r="E71" s="57">
-        <v>44848</v>
+        <v>44850</v>
       </c>
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
@@ -11927,83 +11921,83 @@
     </row>
     <row r="72" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
-      <c r="B72" s="197" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="198">
+      <c r="B72" s="195" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="196">
         <v>0</v>
       </c>
-      <c r="D72" s="199">
+      <c r="D72" s="197">
         <v>44854</v>
       </c>
-      <c r="E72" s="199">
+      <c r="E72" s="197">
         <v>44854</v>
       </c>
-      <c r="F72" s="200"/>
-      <c r="G72" s="200">
+      <c r="F72" s="198"/>
+      <c r="G72" s="198">
         <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="H72" s="201"/>
-      <c r="I72" s="201"/>
-      <c r="J72" s="201"/>
-      <c r="K72" s="201"/>
-      <c r="L72" s="201"/>
-      <c r="M72" s="201"/>
-      <c r="N72" s="201"/>
-      <c r="O72" s="201"/>
-      <c r="P72" s="201"/>
-      <c r="Q72" s="201"/>
-      <c r="R72" s="201"/>
-      <c r="S72" s="201"/>
-      <c r="T72" s="201"/>
-      <c r="U72" s="201"/>
-      <c r="V72" s="201"/>
-      <c r="W72" s="201"/>
-      <c r="X72" s="201"/>
-      <c r="Y72" s="201"/>
-      <c r="Z72" s="201"/>
-      <c r="AA72" s="201"/>
-      <c r="AB72" s="201"/>
-      <c r="AC72" s="201"/>
-      <c r="AD72" s="201"/>
-      <c r="AE72" s="201"/>
-      <c r="AF72" s="201"/>
-      <c r="AG72" s="201"/>
-      <c r="AH72" s="201"/>
-      <c r="AI72" s="201"/>
-      <c r="AJ72" s="201"/>
-      <c r="AK72" s="201"/>
-      <c r="AL72" s="201"/>
-      <c r="AM72" s="201"/>
-      <c r="AN72" s="201"/>
-      <c r="AO72" s="201"/>
-      <c r="AP72" s="201"/>
-      <c r="AQ72" s="201"/>
-      <c r="AR72" s="201"/>
-      <c r="AS72" s="201"/>
-      <c r="AT72" s="201"/>
-      <c r="AU72" s="201"/>
-      <c r="AV72" s="201"/>
-      <c r="AW72" s="201"/>
-      <c r="AX72" s="201"/>
-      <c r="AY72" s="201"/>
-      <c r="AZ72" s="201"/>
-      <c r="BA72" s="201"/>
-      <c r="BB72" s="201"/>
-      <c r="BC72" s="201"/>
-      <c r="BD72" s="201"/>
-      <c r="BE72" s="201"/>
-      <c r="BF72" s="201"/>
-      <c r="BG72" s="201"/>
-      <c r="BH72" s="201"/>
-      <c r="BI72" s="201"/>
-      <c r="BJ72" s="201"/>
-      <c r="BK72" s="201"/>
-      <c r="BL72" s="201"/>
-      <c r="BM72" s="201"/>
-      <c r="BN72" s="201"/>
-      <c r="BO72" s="201"/>
+      <c r="H72" s="199"/>
+      <c r="I72" s="199"/>
+      <c r="J72" s="199"/>
+      <c r="K72" s="199"/>
+      <c r="L72" s="199"/>
+      <c r="M72" s="199"/>
+      <c r="N72" s="199"/>
+      <c r="O72" s="199"/>
+      <c r="P72" s="199"/>
+      <c r="Q72" s="199"/>
+      <c r="R72" s="199"/>
+      <c r="S72" s="199"/>
+      <c r="T72" s="199"/>
+      <c r="U72" s="199"/>
+      <c r="V72" s="199"/>
+      <c r="W72" s="199"/>
+      <c r="X72" s="199"/>
+      <c r="Y72" s="199"/>
+      <c r="Z72" s="199"/>
+      <c r="AA72" s="199"/>
+      <c r="AB72" s="199"/>
+      <c r="AC72" s="199"/>
+      <c r="AD72" s="199"/>
+      <c r="AE72" s="199"/>
+      <c r="AF72" s="199"/>
+      <c r="AG72" s="199"/>
+      <c r="AH72" s="199"/>
+      <c r="AI72" s="199"/>
+      <c r="AJ72" s="199"/>
+      <c r="AK72" s="199"/>
+      <c r="AL72" s="199"/>
+      <c r="AM72" s="199"/>
+      <c r="AN72" s="199"/>
+      <c r="AO72" s="199"/>
+      <c r="AP72" s="199"/>
+      <c r="AQ72" s="199"/>
+      <c r="AR72" s="199"/>
+      <c r="AS72" s="199"/>
+      <c r="AT72" s="199"/>
+      <c r="AU72" s="199"/>
+      <c r="AV72" s="199"/>
+      <c r="AW72" s="199"/>
+      <c r="AX72" s="199"/>
+      <c r="AY72" s="199"/>
+      <c r="AZ72" s="199"/>
+      <c r="BA72" s="199"/>
+      <c r="BB72" s="199"/>
+      <c r="BC72" s="199"/>
+      <c r="BD72" s="199"/>
+      <c r="BE72" s="199"/>
+      <c r="BF72" s="199"/>
+      <c r="BG72" s="199"/>
+      <c r="BH72" s="199"/>
+      <c r="BI72" s="199"/>
+      <c r="BJ72" s="199"/>
+      <c r="BK72" s="199"/>
+      <c r="BL72" s="199"/>
+      <c r="BM72" s="199"/>
+      <c r="BN72" s="199"/>
+      <c r="BO72" s="199"/>
       <c r="BP72" s="120"/>
       <c r="BQ72" s="120"/>
       <c r="BR72" s="120"/>
@@ -12052,80 +12046,80 @@
     </row>
     <row r="73" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
-      <c r="B73" s="202" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="203">
+      <c r="B73" s="200" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="201">
         <v>0</v>
       </c>
-      <c r="D73" s="204">
+      <c r="D73" s="202">
         <v>44854</v>
       </c>
-      <c r="E73" s="204">
+      <c r="E73" s="202">
         <v>44854</v>
       </c>
-      <c r="F73" s="205"/>
-      <c r="G73" s="205"/>
-      <c r="H73" s="206"/>
-      <c r="I73" s="206"/>
-      <c r="J73" s="206"/>
-      <c r="K73" s="206"/>
-      <c r="L73" s="206"/>
-      <c r="M73" s="206"/>
-      <c r="N73" s="206"/>
-      <c r="O73" s="206"/>
-      <c r="P73" s="206"/>
-      <c r="Q73" s="206"/>
-      <c r="R73" s="206"/>
-      <c r="S73" s="206"/>
-      <c r="T73" s="206"/>
-      <c r="U73" s="206"/>
-      <c r="V73" s="206"/>
-      <c r="W73" s="206"/>
-      <c r="X73" s="206"/>
-      <c r="Y73" s="206"/>
-      <c r="Z73" s="206"/>
-      <c r="AA73" s="206"/>
-      <c r="AB73" s="206"/>
-      <c r="AC73" s="206"/>
-      <c r="AD73" s="206"/>
-      <c r="AE73" s="206"/>
-      <c r="AF73" s="206"/>
-      <c r="AG73" s="206"/>
-      <c r="AH73" s="206"/>
-      <c r="AI73" s="206"/>
-      <c r="AJ73" s="206"/>
-      <c r="AK73" s="206"/>
-      <c r="AL73" s="206"/>
-      <c r="AM73" s="206"/>
-      <c r="AN73" s="206"/>
-      <c r="AO73" s="206"/>
-      <c r="AP73" s="206"/>
-      <c r="AQ73" s="206"/>
-      <c r="AR73" s="206"/>
-      <c r="AS73" s="206"/>
-      <c r="AT73" s="206"/>
-      <c r="AU73" s="206"/>
-      <c r="AV73" s="206"/>
-      <c r="AW73" s="206"/>
-      <c r="AX73" s="206"/>
-      <c r="AY73" s="206"/>
-      <c r="AZ73" s="206"/>
-      <c r="BA73" s="206"/>
-      <c r="BB73" s="206"/>
-      <c r="BC73" s="206"/>
-      <c r="BD73" s="206"/>
-      <c r="BE73" s="206"/>
-      <c r="BF73" s="206"/>
-      <c r="BG73" s="206"/>
-      <c r="BH73" s="206"/>
-      <c r="BI73" s="206"/>
-      <c r="BJ73" s="206"/>
-      <c r="BK73" s="206"/>
-      <c r="BL73" s="206"/>
-      <c r="BM73" s="206"/>
-      <c r="BN73" s="206"/>
-      <c r="BO73" s="206"/>
+      <c r="F73" s="203"/>
+      <c r="G73" s="203"/>
+      <c r="H73" s="204"/>
+      <c r="I73" s="204"/>
+      <c r="J73" s="204"/>
+      <c r="K73" s="204"/>
+      <c r="L73" s="204"/>
+      <c r="M73" s="204"/>
+      <c r="N73" s="204"/>
+      <c r="O73" s="204"/>
+      <c r="P73" s="204"/>
+      <c r="Q73" s="204"/>
+      <c r="R73" s="204"/>
+      <c r="S73" s="204"/>
+      <c r="T73" s="204"/>
+      <c r="U73" s="204"/>
+      <c r="V73" s="204"/>
+      <c r="W73" s="204"/>
+      <c r="X73" s="204"/>
+      <c r="Y73" s="204"/>
+      <c r="Z73" s="204"/>
+      <c r="AA73" s="204"/>
+      <c r="AB73" s="204"/>
+      <c r="AC73" s="204"/>
+      <c r="AD73" s="204"/>
+      <c r="AE73" s="204"/>
+      <c r="AF73" s="204"/>
+      <c r="AG73" s="204"/>
+      <c r="AH73" s="204"/>
+      <c r="AI73" s="204"/>
+      <c r="AJ73" s="204"/>
+      <c r="AK73" s="204"/>
+      <c r="AL73" s="204"/>
+      <c r="AM73" s="204"/>
+      <c r="AN73" s="204"/>
+      <c r="AO73" s="204"/>
+      <c r="AP73" s="204"/>
+      <c r="AQ73" s="204"/>
+      <c r="AR73" s="204"/>
+      <c r="AS73" s="204"/>
+      <c r="AT73" s="204"/>
+      <c r="AU73" s="204"/>
+      <c r="AV73" s="204"/>
+      <c r="AW73" s="204"/>
+      <c r="AX73" s="204"/>
+      <c r="AY73" s="204"/>
+      <c r="AZ73" s="204"/>
+      <c r="BA73" s="204"/>
+      <c r="BB73" s="204"/>
+      <c r="BC73" s="204"/>
+      <c r="BD73" s="204"/>
+      <c r="BE73" s="204"/>
+      <c r="BF73" s="204"/>
+      <c r="BG73" s="204"/>
+      <c r="BH73" s="204"/>
+      <c r="BI73" s="204"/>
+      <c r="BJ73" s="204"/>
+      <c r="BK73" s="204"/>
+      <c r="BL73" s="204"/>
+      <c r="BM73" s="204"/>
+      <c r="BN73" s="204"/>
+      <c r="BO73" s="204"/>
       <c r="BP73" s="120"/>
       <c r="BQ73" s="120"/>
       <c r="BR73" s="120"/>
@@ -12174,80 +12168,80 @@
     </row>
     <row r="74" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
-      <c r="B74" s="202" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="203">
+      <c r="B74" s="200" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="201">
         <v>0</v>
       </c>
-      <c r="D74" s="204">
+      <c r="D74" s="202">
         <v>44854</v>
       </c>
-      <c r="E74" s="204">
+      <c r="E74" s="202">
         <v>44854</v>
       </c>
-      <c r="F74" s="205"/>
-      <c r="G74" s="205"/>
-      <c r="H74" s="206"/>
-      <c r="I74" s="206"/>
-      <c r="J74" s="206"/>
-      <c r="K74" s="206"/>
-      <c r="L74" s="206"/>
-      <c r="M74" s="206"/>
-      <c r="N74" s="206"/>
-      <c r="O74" s="206"/>
-      <c r="P74" s="206"/>
-      <c r="Q74" s="206"/>
-      <c r="R74" s="206"/>
-      <c r="S74" s="206"/>
-      <c r="T74" s="206"/>
-      <c r="U74" s="206"/>
-      <c r="V74" s="206"/>
-      <c r="W74" s="206"/>
-      <c r="X74" s="206"/>
-      <c r="Y74" s="206"/>
-      <c r="Z74" s="206"/>
-      <c r="AA74" s="206"/>
-      <c r="AB74" s="206"/>
-      <c r="AC74" s="206"/>
-      <c r="AD74" s="206"/>
-      <c r="AE74" s="206"/>
-      <c r="AF74" s="206"/>
-      <c r="AG74" s="206"/>
-      <c r="AH74" s="206"/>
-      <c r="AI74" s="206"/>
-      <c r="AJ74" s="206"/>
-      <c r="AK74" s="206"/>
-      <c r="AL74" s="206"/>
-      <c r="AM74" s="206"/>
-      <c r="AN74" s="206"/>
-      <c r="AO74" s="206"/>
-      <c r="AP74" s="206"/>
-      <c r="AQ74" s="206"/>
-      <c r="AR74" s="206"/>
-      <c r="AS74" s="206"/>
-      <c r="AT74" s="206"/>
-      <c r="AU74" s="206"/>
-      <c r="AV74" s="206"/>
-      <c r="AW74" s="206"/>
-      <c r="AX74" s="206"/>
-      <c r="AY74" s="206"/>
-      <c r="AZ74" s="206"/>
-      <c r="BA74" s="206"/>
-      <c r="BB74" s="206"/>
-      <c r="BC74" s="206"/>
-      <c r="BD74" s="206"/>
-      <c r="BE74" s="206"/>
-      <c r="BF74" s="206"/>
-      <c r="BG74" s="206"/>
-      <c r="BH74" s="206"/>
-      <c r="BI74" s="206"/>
-      <c r="BJ74" s="206"/>
-      <c r="BK74" s="206"/>
-      <c r="BL74" s="206"/>
-      <c r="BM74" s="206"/>
-      <c r="BN74" s="206"/>
-      <c r="BO74" s="206"/>
+      <c r="F74" s="203"/>
+      <c r="G74" s="203"/>
+      <c r="H74" s="204"/>
+      <c r="I74" s="204"/>
+      <c r="J74" s="204"/>
+      <c r="K74" s="204"/>
+      <c r="L74" s="204"/>
+      <c r="M74" s="204"/>
+      <c r="N74" s="204"/>
+      <c r="O74" s="204"/>
+      <c r="P74" s="204"/>
+      <c r="Q74" s="204"/>
+      <c r="R74" s="204"/>
+      <c r="S74" s="204"/>
+      <c r="T74" s="204"/>
+      <c r="U74" s="204"/>
+      <c r="V74" s="204"/>
+      <c r="W74" s="204"/>
+      <c r="X74" s="204"/>
+      <c r="Y74" s="204"/>
+      <c r="Z74" s="204"/>
+      <c r="AA74" s="204"/>
+      <c r="AB74" s="204"/>
+      <c r="AC74" s="204"/>
+      <c r="AD74" s="204"/>
+      <c r="AE74" s="204"/>
+      <c r="AF74" s="204"/>
+      <c r="AG74" s="204"/>
+      <c r="AH74" s="204"/>
+      <c r="AI74" s="204"/>
+      <c r="AJ74" s="204"/>
+      <c r="AK74" s="204"/>
+      <c r="AL74" s="204"/>
+      <c r="AM74" s="204"/>
+      <c r="AN74" s="204"/>
+      <c r="AO74" s="204"/>
+      <c r="AP74" s="204"/>
+      <c r="AQ74" s="204"/>
+      <c r="AR74" s="204"/>
+      <c r="AS74" s="204"/>
+      <c r="AT74" s="204"/>
+      <c r="AU74" s="204"/>
+      <c r="AV74" s="204"/>
+      <c r="AW74" s="204"/>
+      <c r="AX74" s="204"/>
+      <c r="AY74" s="204"/>
+      <c r="AZ74" s="204"/>
+      <c r="BA74" s="204"/>
+      <c r="BB74" s="204"/>
+      <c r="BC74" s="204"/>
+      <c r="BD74" s="204"/>
+      <c r="BE74" s="204"/>
+      <c r="BF74" s="204"/>
+      <c r="BG74" s="204"/>
+      <c r="BH74" s="204"/>
+      <c r="BI74" s="204"/>
+      <c r="BJ74" s="204"/>
+      <c r="BK74" s="204"/>
+      <c r="BL74" s="204"/>
+      <c r="BM74" s="204"/>
+      <c r="BN74" s="204"/>
+      <c r="BO74" s="204"/>
       <c r="BP74" s="120"/>
       <c r="BQ74" s="120"/>
       <c r="BR74" s="120"/>
@@ -12296,80 +12290,80 @@
     </row>
     <row r="75" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
-      <c r="B75" s="202" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="203">
+      <c r="B75" s="200" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="201">
         <v>0</v>
       </c>
-      <c r="D75" s="204">
+      <c r="D75" s="202">
         <v>44854</v>
       </c>
-      <c r="E75" s="204">
+      <c r="E75" s="202">
         <v>44854</v>
       </c>
-      <c r="F75" s="205"/>
-      <c r="G75" s="205"/>
-      <c r="H75" s="206"/>
-      <c r="I75" s="206"/>
-      <c r="J75" s="206"/>
-      <c r="K75" s="206"/>
-      <c r="L75" s="206"/>
-      <c r="M75" s="206"/>
-      <c r="N75" s="206"/>
-      <c r="O75" s="206"/>
-      <c r="P75" s="206"/>
-      <c r="Q75" s="206"/>
-      <c r="R75" s="206"/>
-      <c r="S75" s="206"/>
-      <c r="T75" s="206"/>
-      <c r="U75" s="206"/>
-      <c r="V75" s="206"/>
-      <c r="W75" s="206"/>
-      <c r="X75" s="206"/>
-      <c r="Y75" s="206"/>
-      <c r="Z75" s="206"/>
-      <c r="AA75" s="206"/>
-      <c r="AB75" s="206"/>
-      <c r="AC75" s="206"/>
-      <c r="AD75" s="206"/>
-      <c r="AE75" s="206"/>
-      <c r="AF75" s="206"/>
-      <c r="AG75" s="206"/>
-      <c r="AH75" s="206"/>
-      <c r="AI75" s="206"/>
-      <c r="AJ75" s="206"/>
-      <c r="AK75" s="206"/>
-      <c r="AL75" s="206"/>
-      <c r="AM75" s="206"/>
-      <c r="AN75" s="206"/>
-      <c r="AO75" s="206"/>
-      <c r="AP75" s="206"/>
-      <c r="AQ75" s="206"/>
-      <c r="AR75" s="206"/>
-      <c r="AS75" s="206"/>
-      <c r="AT75" s="206"/>
-      <c r="AU75" s="206"/>
-      <c r="AV75" s="206"/>
-      <c r="AW75" s="206"/>
-      <c r="AX75" s="206"/>
-      <c r="AY75" s="206"/>
-      <c r="AZ75" s="206"/>
-      <c r="BA75" s="206"/>
-      <c r="BB75" s="206"/>
-      <c r="BC75" s="206"/>
-      <c r="BD75" s="206"/>
-      <c r="BE75" s="206"/>
-      <c r="BF75" s="206"/>
-      <c r="BG75" s="206"/>
-      <c r="BH75" s="206"/>
-      <c r="BI75" s="206"/>
-      <c r="BJ75" s="206"/>
-      <c r="BK75" s="206"/>
-      <c r="BL75" s="206"/>
-      <c r="BM75" s="206"/>
-      <c r="BN75" s="206"/>
-      <c r="BO75" s="206"/>
+      <c r="F75" s="203"/>
+      <c r="G75" s="203"/>
+      <c r="H75" s="204"/>
+      <c r="I75" s="204"/>
+      <c r="J75" s="204"/>
+      <c r="K75" s="204"/>
+      <c r="L75" s="204"/>
+      <c r="M75" s="204"/>
+      <c r="N75" s="204"/>
+      <c r="O75" s="204"/>
+      <c r="P75" s="204"/>
+      <c r="Q75" s="204"/>
+      <c r="R75" s="204"/>
+      <c r="S75" s="204"/>
+      <c r="T75" s="204"/>
+      <c r="U75" s="204"/>
+      <c r="V75" s="204"/>
+      <c r="W75" s="204"/>
+      <c r="X75" s="204"/>
+      <c r="Y75" s="204"/>
+      <c r="Z75" s="204"/>
+      <c r="AA75" s="204"/>
+      <c r="AB75" s="204"/>
+      <c r="AC75" s="204"/>
+      <c r="AD75" s="204"/>
+      <c r="AE75" s="204"/>
+      <c r="AF75" s="204"/>
+      <c r="AG75" s="204"/>
+      <c r="AH75" s="204"/>
+      <c r="AI75" s="204"/>
+      <c r="AJ75" s="204"/>
+      <c r="AK75" s="204"/>
+      <c r="AL75" s="204"/>
+      <c r="AM75" s="204"/>
+      <c r="AN75" s="204"/>
+      <c r="AO75" s="204"/>
+      <c r="AP75" s="204"/>
+      <c r="AQ75" s="204"/>
+      <c r="AR75" s="204"/>
+      <c r="AS75" s="204"/>
+      <c r="AT75" s="204"/>
+      <c r="AU75" s="204"/>
+      <c r="AV75" s="204"/>
+      <c r="AW75" s="204"/>
+      <c r="AX75" s="204"/>
+      <c r="AY75" s="204"/>
+      <c r="AZ75" s="204"/>
+      <c r="BA75" s="204"/>
+      <c r="BB75" s="204"/>
+      <c r="BC75" s="204"/>
+      <c r="BD75" s="204"/>
+      <c r="BE75" s="204"/>
+      <c r="BF75" s="204"/>
+      <c r="BG75" s="204"/>
+      <c r="BH75" s="204"/>
+      <c r="BI75" s="204"/>
+      <c r="BJ75" s="204"/>
+      <c r="BK75" s="204"/>
+      <c r="BL75" s="204"/>
+      <c r="BM75" s="204"/>
+      <c r="BN75" s="204"/>
+      <c r="BO75" s="204"/>
       <c r="BP75" s="120"/>
       <c r="BQ75" s="120"/>
       <c r="BR75" s="120"/>
@@ -12418,16 +12412,16 @@
     </row>
     <row r="76" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
-      <c r="B76" s="216" t="s">
+      <c r="B76" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="217">
+      <c r="C76" s="215">
         <v>0</v>
       </c>
-      <c r="D76" s="218">
-        <v>44850</v>
-      </c>
-      <c r="E76" s="218">
+      <c r="D76" s="216">
+        <v>44851</v>
+      </c>
+      <c r="E76" s="216">
         <v>44857</v>
       </c>
       <c r="F76" s="79"/>
@@ -12541,13 +12535,13 @@
     <row r="77" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="78" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C77" s="21">
         <v>0</v>
       </c>
       <c r="D77" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E77" s="76">
         <v>44850</v>
@@ -12663,16 +12657,16 @@
     <row r="78" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="78" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C78" s="21">
         <v>0</v>
       </c>
       <c r="D78" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E78" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F78" s="81"/>
       <c r="G78" s="81"/>
@@ -12785,16 +12779,16 @@
     <row r="79" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="78" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C79" s="21">
         <v>0</v>
       </c>
       <c r="D79" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E79" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F79" s="81"/>
       <c r="G79" s="81"/>
@@ -12907,16 +12901,16 @@
     <row r="80" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C80" s="21">
         <v>0</v>
       </c>
       <c r="D80" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E80" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F80" s="81"/>
       <c r="G80" s="81"/>
@@ -13029,16 +13023,16 @@
     <row r="81" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C81" s="21">
         <v>0</v>
       </c>
       <c r="D81" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E81" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F81" s="81"/>
       <c r="G81" s="81"/>
@@ -13151,16 +13145,16 @@
     <row r="82" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="78" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C82" s="21">
         <v>0</v>
       </c>
       <c r="D82" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E82" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F82" s="81"/>
       <c r="G82" s="81"/>
@@ -13273,16 +13267,16 @@
     <row r="83" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="78" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="21">
         <v>0</v>
       </c>
       <c r="D83" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E83" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F83" s="81"/>
       <c r="G83" s="81"/>
@@ -13395,16 +13389,16 @@
     <row r="84" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C84" s="21">
         <v>0</v>
       </c>
       <c r="D84" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E84" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F84" s="81"/>
       <c r="G84" s="81"/>
@@ -13517,16 +13511,16 @@
     <row r="85" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="21">
         <v>0</v>
       </c>
       <c r="D85" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="E85" s="76">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="F85" s="81"/>
       <c r="G85" s="81"/>
@@ -13638,10 +13632,18 @@
     </row>
     <row r="86" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
+      <c r="B86" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="21">
+        <v>0</v>
+      </c>
+      <c r="D86" s="76">
+        <v>44852</v>
+      </c>
+      <c r="E86" s="76">
+        <v>44852</v>
+      </c>
       <c r="F86" s="81"/>
       <c r="G86" s="81"/>
       <c r="H86" s="82"/>
@@ -13750,19 +13752,19 @@
       <c r="DG86" s="25"/>
       <c r="DH86" s="25"/>
     </row>
-    <row r="87" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="78" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C87" s="21">
         <v>0</v>
       </c>
       <c r="D87" s="76">
-        <v>44850</v>
+        <v>44852</v>
       </c>
       <c r="E87" s="76">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="F87" s="81"/>
       <c r="G87" s="81"/>
@@ -13875,16 +13877,16 @@
     <row r="88" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="78" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C88" s="21">
         <v>0</v>
       </c>
-      <c r="D88" s="76">
-        <v>44851</v>
-      </c>
-      <c r="E88" s="76">
-        <v>44851</v>
+      <c r="D88" s="77">
+        <v>44853</v>
+      </c>
+      <c r="E88" s="77">
+        <v>44853</v>
       </c>
       <c r="F88" s="81"/>
       <c r="G88" s="81"/>
@@ -13997,13 +13999,13 @@
     <row r="89" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="78" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C89" s="21">
         <v>0</v>
       </c>
-      <c r="D89" s="76">
-        <v>44852</v>
+      <c r="D89" s="77">
+        <v>44853</v>
       </c>
       <c r="E89" s="77">
         <v>44853</v>
@@ -14119,16 +14121,16 @@
     <row r="90" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="78" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C90" s="21">
         <v>0</v>
       </c>
-      <c r="D90" s="77">
-        <v>44853</v>
+      <c r="D90" s="76">
+        <v>44854</v>
       </c>
       <c r="E90" s="77">
-        <v>44853</v>
+        <v>44855</v>
       </c>
       <c r="F90" s="81"/>
       <c r="G90" s="81"/>
@@ -14238,16 +14240,16 @@
       <c r="DG90" s="25"/>
       <c r="DH90" s="25"/>
     </row>
-    <row r="91" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91" s="21">
         <v>0</v>
       </c>
-      <c r="D91" s="76">
-        <v>44854</v>
+      <c r="D91" s="77">
+        <v>44855</v>
       </c>
       <c r="E91" s="77">
         <v>44855</v>
@@ -14363,16 +14365,16 @@
     <row r="92" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="78" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C92" s="21">
         <v>0</v>
       </c>
-      <c r="D92" s="77">
-        <v>44855</v>
+      <c r="D92" s="76">
+        <v>44856</v>
       </c>
       <c r="E92" s="77">
-        <v>44855</v>
+        <v>44857</v>
       </c>
       <c r="F92" s="81"/>
       <c r="G92" s="81"/>
@@ -14485,13 +14487,13 @@
     <row r="93" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="78" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C93" s="21">
         <v>0</v>
       </c>
-      <c r="D93" s="76">
-        <v>44856</v>
+      <c r="D93" s="77">
+        <v>44857</v>
       </c>
       <c r="E93" s="77">
         <v>44857</v>
@@ -14606,87 +14608,87 @@
     </row>
     <row r="94" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
-      <c r="B94" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="21">
+      <c r="B94" s="211" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="217">
         <v>0</v>
       </c>
-      <c r="D94" s="77">
-        <v>44857</v>
-      </c>
-      <c r="E94" s="77">
-        <v>44857</v>
-      </c>
-      <c r="F94" s="81"/>
-      <c r="G94" s="81"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="82"/>
-      <c r="K94" s="82"/>
-      <c r="L94" s="82"/>
-      <c r="M94" s="82"/>
-      <c r="N94" s="82"/>
-      <c r="O94" s="82"/>
-      <c r="P94" s="82"/>
-      <c r="Q94" s="82"/>
-      <c r="R94" s="82"/>
-      <c r="S94" s="82"/>
-      <c r="T94" s="82"/>
-      <c r="U94" s="82"/>
-      <c r="V94" s="82"/>
-      <c r="W94" s="82"/>
-      <c r="X94" s="82"/>
-      <c r="Y94" s="82"/>
-      <c r="Z94" s="82"/>
-      <c r="AA94" s="82"/>
-      <c r="AB94" s="82"/>
-      <c r="AC94" s="82"/>
-      <c r="AD94" s="82"/>
-      <c r="AE94" s="82"/>
-      <c r="AF94" s="82"/>
-      <c r="AG94" s="82"/>
-      <c r="AH94" s="82"/>
-      <c r="AI94" s="82"/>
-      <c r="AJ94" s="82"/>
-      <c r="AK94" s="82"/>
-      <c r="AL94" s="82"/>
-      <c r="AM94" s="82"/>
-      <c r="AN94" s="82"/>
-      <c r="AO94" s="82"/>
-      <c r="AP94" s="82"/>
-      <c r="AQ94" s="82"/>
-      <c r="AR94" s="82"/>
-      <c r="AS94" s="82"/>
-      <c r="AT94" s="82"/>
-      <c r="AU94" s="82"/>
-      <c r="AV94" s="82"/>
-      <c r="AW94" s="82"/>
-      <c r="AX94" s="82"/>
-      <c r="AY94" s="82"/>
-      <c r="AZ94" s="82"/>
-      <c r="BA94" s="82"/>
-      <c r="BB94" s="82"/>
-      <c r="BC94" s="82"/>
-      <c r="BD94" s="82"/>
-      <c r="BE94" s="82"/>
-      <c r="BF94" s="82"/>
-      <c r="BG94" s="82"/>
-      <c r="BH94" s="82"/>
-      <c r="BI94" s="82"/>
-      <c r="BJ94" s="82"/>
-      <c r="BK94" s="82"/>
-      <c r="BL94" s="82"/>
-      <c r="BM94" s="82"/>
-      <c r="BN94" s="82"/>
-      <c r="BO94" s="82"/>
-      <c r="BP94" s="82"/>
-      <c r="BQ94" s="82"/>
-      <c r="BR94" s="82"/>
-      <c r="BS94" s="120"/>
-      <c r="BT94" s="25"/>
-      <c r="BU94" s="25"/>
-      <c r="BV94" s="25"/>
+      <c r="D94" s="218">
+        <v>44861</v>
+      </c>
+      <c r="E94" s="218">
+        <v>44861</v>
+      </c>
+      <c r="F94" s="205"/>
+      <c r="G94" s="205"/>
+      <c r="H94" s="206"/>
+      <c r="I94" s="206"/>
+      <c r="J94" s="206"/>
+      <c r="K94" s="206"/>
+      <c r="L94" s="206"/>
+      <c r="M94" s="206"/>
+      <c r="N94" s="206"/>
+      <c r="O94" s="206"/>
+      <c r="P94" s="206"/>
+      <c r="Q94" s="206"/>
+      <c r="R94" s="206"/>
+      <c r="S94" s="206"/>
+      <c r="T94" s="206"/>
+      <c r="U94" s="206"/>
+      <c r="V94" s="206"/>
+      <c r="W94" s="206"/>
+      <c r="X94" s="206"/>
+      <c r="Y94" s="206"/>
+      <c r="Z94" s="206"/>
+      <c r="AA94" s="206"/>
+      <c r="AB94" s="206"/>
+      <c r="AC94" s="206"/>
+      <c r="AD94" s="206"/>
+      <c r="AE94" s="206"/>
+      <c r="AF94" s="206"/>
+      <c r="AG94" s="206"/>
+      <c r="AH94" s="206"/>
+      <c r="AI94" s="206"/>
+      <c r="AJ94" s="206"/>
+      <c r="AK94" s="206"/>
+      <c r="AL94" s="206"/>
+      <c r="AM94" s="206"/>
+      <c r="AN94" s="206"/>
+      <c r="AO94" s="206"/>
+      <c r="AP94" s="206"/>
+      <c r="AQ94" s="206"/>
+      <c r="AR94" s="206"/>
+      <c r="AS94" s="206"/>
+      <c r="AT94" s="206"/>
+      <c r="AU94" s="206"/>
+      <c r="AV94" s="206"/>
+      <c r="AW94" s="206"/>
+      <c r="AX94" s="206"/>
+      <c r="AY94" s="206"/>
+      <c r="AZ94" s="206"/>
+      <c r="BA94" s="206"/>
+      <c r="BB94" s="206"/>
+      <c r="BC94" s="206"/>
+      <c r="BD94" s="206"/>
+      <c r="BE94" s="206"/>
+      <c r="BF94" s="206"/>
+      <c r="BG94" s="206"/>
+      <c r="BH94" s="206"/>
+      <c r="BI94" s="206"/>
+      <c r="BJ94" s="206"/>
+      <c r="BK94" s="206"/>
+      <c r="BL94" s="206"/>
+      <c r="BM94" s="206"/>
+      <c r="BN94" s="206"/>
+      <c r="BO94" s="206"/>
+      <c r="BP94" s="206"/>
+      <c r="BQ94" s="206"/>
+      <c r="BR94" s="206"/>
+      <c r="BS94" s="206"/>
+      <c r="BT94" s="206"/>
+      <c r="BU94" s="206"/>
+      <c r="BV94" s="206"/>
       <c r="BW94" s="25"/>
       <c r="BX94" s="25"/>
       <c r="BY94" s="25"/>
@@ -14728,17 +14730,17 @@
     </row>
     <row r="95" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
-      <c r="B95" s="213" t="s">
-        <v>149</v>
+      <c r="B95" s="212" t="s">
+        <v>146</v>
       </c>
       <c r="C95" s="219">
         <v>0</v>
       </c>
       <c r="D95" s="220">
-        <v>44861</v>
+        <v>44865</v>
       </c>
       <c r="E95" s="220">
-        <v>44861</v>
+        <v>44865</v>
       </c>
       <c r="F95" s="207"/>
       <c r="G95" s="207"/>
@@ -14809,10 +14811,10 @@
       <c r="BT95" s="208"/>
       <c r="BU95" s="208"/>
       <c r="BV95" s="208"/>
-      <c r="BW95" s="25"/>
-      <c r="BX95" s="25"/>
-      <c r="BY95" s="25"/>
-      <c r="BZ95" s="25"/>
+      <c r="BW95" s="208"/>
+      <c r="BX95" s="208"/>
+      <c r="BY95" s="208"/>
+      <c r="BZ95" s="208"/>
       <c r="CA95" s="25"/>
       <c r="CB95" s="25"/>
       <c r="CC95" s="25"/>
@@ -14850,17 +14852,17 @@
     </row>
     <row r="96" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
-      <c r="B96" s="214" t="s">
-        <v>150</v>
+      <c r="B96" s="213" t="s">
+        <v>147</v>
       </c>
       <c r="C96" s="221">
         <v>0</v>
       </c>
       <c r="D96" s="222">
-        <v>44865</v>
+        <v>44870</v>
       </c>
       <c r="E96" s="222">
-        <v>44865</v>
+        <v>44870</v>
       </c>
       <c r="F96" s="209"/>
       <c r="G96" s="209"/>
@@ -14935,11 +14937,11 @@
       <c r="BX96" s="210"/>
       <c r="BY96" s="210"/>
       <c r="BZ96" s="210"/>
-      <c r="CA96" s="25"/>
-      <c r="CB96" s="25"/>
-      <c r="CC96" s="25"/>
-      <c r="CD96" s="25"/>
-      <c r="CE96" s="25"/>
+      <c r="CA96" s="210"/>
+      <c r="CB96" s="210"/>
+      <c r="CC96" s="210"/>
+      <c r="CD96" s="210"/>
+      <c r="CE96" s="210"/>
       <c r="CF96" s="25"/>
       <c r="CG96" s="25"/>
       <c r="CH96" s="25"/>
@@ -14972,111 +14974,114 @@
     </row>
     <row r="97" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
-      <c r="B97" s="215" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="223">
+      <c r="B97" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="91">
         <v>0</v>
       </c>
-      <c r="D97" s="224">
-        <v>44870</v>
-      </c>
-      <c r="E97" s="224">
-        <v>44870</v>
-      </c>
-      <c r="F97" s="211"/>
-      <c r="G97" s="211"/>
-      <c r="H97" s="212"/>
-      <c r="I97" s="212"/>
-      <c r="J97" s="212"/>
-      <c r="K97" s="212"/>
-      <c r="L97" s="212"/>
-      <c r="M97" s="212"/>
-      <c r="N97" s="212"/>
-      <c r="O97" s="212"/>
-      <c r="P97" s="212"/>
-      <c r="Q97" s="212"/>
-      <c r="R97" s="212"/>
-      <c r="S97" s="212"/>
-      <c r="T97" s="212"/>
-      <c r="U97" s="212"/>
-      <c r="V97" s="212"/>
-      <c r="W97" s="212"/>
-      <c r="X97" s="212"/>
-      <c r="Y97" s="212"/>
-      <c r="Z97" s="212"/>
-      <c r="AA97" s="212"/>
-      <c r="AB97" s="212"/>
-      <c r="AC97" s="212"/>
-      <c r="AD97" s="212"/>
-      <c r="AE97" s="212"/>
-      <c r="AF97" s="212"/>
-      <c r="AG97" s="212"/>
-      <c r="AH97" s="212"/>
-      <c r="AI97" s="212"/>
-      <c r="AJ97" s="212"/>
-      <c r="AK97" s="212"/>
-      <c r="AL97" s="212"/>
-      <c r="AM97" s="212"/>
-      <c r="AN97" s="212"/>
-      <c r="AO97" s="212"/>
-      <c r="AP97" s="212"/>
-      <c r="AQ97" s="212"/>
-      <c r="AR97" s="212"/>
-      <c r="AS97" s="212"/>
-      <c r="AT97" s="212"/>
-      <c r="AU97" s="212"/>
-      <c r="AV97" s="212"/>
-      <c r="AW97" s="212"/>
-      <c r="AX97" s="212"/>
-      <c r="AY97" s="212"/>
-      <c r="AZ97" s="212"/>
-      <c r="BA97" s="212"/>
-      <c r="BB97" s="212"/>
-      <c r="BC97" s="212"/>
-      <c r="BD97" s="212"/>
-      <c r="BE97" s="212"/>
-      <c r="BF97" s="212"/>
-      <c r="BG97" s="212"/>
-      <c r="BH97" s="212"/>
-      <c r="BI97" s="212"/>
-      <c r="BJ97" s="212"/>
-      <c r="BK97" s="212"/>
-      <c r="BL97" s="212"/>
-      <c r="BM97" s="212"/>
-      <c r="BN97" s="212"/>
-      <c r="BO97" s="212"/>
-      <c r="BP97" s="212"/>
-      <c r="BQ97" s="212"/>
-      <c r="BR97" s="212"/>
-      <c r="BS97" s="212"/>
-      <c r="BT97" s="212"/>
-      <c r="BU97" s="212"/>
-      <c r="BV97" s="212"/>
-      <c r="BW97" s="212"/>
-      <c r="BX97" s="212"/>
-      <c r="BY97" s="212"/>
-      <c r="BZ97" s="212"/>
-      <c r="CA97" s="212"/>
-      <c r="CB97" s="212"/>
-      <c r="CC97" s="212"/>
-      <c r="CD97" s="212"/>
-      <c r="CE97" s="212"/>
-      <c r="CF97" s="25"/>
-      <c r="CG97" s="25"/>
-      <c r="CH97" s="25"/>
-      <c r="CI97" s="25"/>
-      <c r="CJ97" s="25"/>
-      <c r="CK97" s="25"/>
-      <c r="CL97" s="25"/>
-      <c r="CM97" s="25"/>
-      <c r="CN97" s="25"/>
-      <c r="CO97" s="25"/>
-      <c r="CP97" s="25"/>
-      <c r="CQ97" s="25"/>
-      <c r="CR97" s="25"/>
-      <c r="CS97" s="25"/>
-      <c r="CT97" s="25"/>
+      <c r="D97" s="92">
+        <v>44858</v>
+      </c>
+      <c r="E97" s="93">
+        <v>44885</v>
+      </c>
+      <c r="F97" s="94"/>
+      <c r="G97" s="94">
+        <f t="shared" si="42"/>
+        <v>28</v>
+      </c>
+      <c r="H97" s="95"/>
+      <c r="I97" s="95"/>
+      <c r="J97" s="95"/>
+      <c r="K97" s="95"/>
+      <c r="L97" s="95"/>
+      <c r="M97" s="95"/>
+      <c r="N97" s="95"/>
+      <c r="O97" s="95"/>
+      <c r="P97" s="95"/>
+      <c r="Q97" s="95"/>
+      <c r="R97" s="95"/>
+      <c r="S97" s="95"/>
+      <c r="T97" s="95"/>
+      <c r="U97" s="95"/>
+      <c r="V97" s="95"/>
+      <c r="W97" s="95"/>
+      <c r="X97" s="95"/>
+      <c r="Y97" s="95"/>
+      <c r="Z97" s="95"/>
+      <c r="AA97" s="95"/>
+      <c r="AB97" s="95"/>
+      <c r="AC97" s="95"/>
+      <c r="AD97" s="95"/>
+      <c r="AE97" s="95"/>
+      <c r="AF97" s="95"/>
+      <c r="AG97" s="95"/>
+      <c r="AH97" s="95"/>
+      <c r="AI97" s="95"/>
+      <c r="AJ97" s="95"/>
+      <c r="AK97" s="95"/>
+      <c r="AL97" s="95"/>
+      <c r="AM97" s="95"/>
+      <c r="AN97" s="95"/>
+      <c r="AO97" s="95"/>
+      <c r="AP97" s="95"/>
+      <c r="AQ97" s="95"/>
+      <c r="AR97" s="95"/>
+      <c r="AS97" s="95"/>
+      <c r="AT97" s="95"/>
+      <c r="AU97" s="95"/>
+      <c r="AV97" s="95"/>
+      <c r="AW97" s="95"/>
+      <c r="AX97" s="95"/>
+      <c r="AY97" s="95"/>
+      <c r="AZ97" s="95"/>
+      <c r="BA97" s="95"/>
+      <c r="BB97" s="95"/>
+      <c r="BC97" s="95"/>
+      <c r="BD97" s="95"/>
+      <c r="BE97" s="95"/>
+      <c r="BF97" s="95"/>
+      <c r="BG97" s="95"/>
+      <c r="BH97" s="95"/>
+      <c r="BI97" s="95"/>
+      <c r="BJ97" s="95"/>
+      <c r="BK97" s="95"/>
+      <c r="BL97" s="95"/>
+      <c r="BM97" s="95"/>
+      <c r="BN97" s="95"/>
+      <c r="BO97" s="95"/>
+      <c r="BP97" s="95"/>
+      <c r="BQ97" s="95"/>
+      <c r="BR97" s="95"/>
+      <c r="BS97" s="95"/>
+      <c r="BT97" s="95"/>
+      <c r="BU97" s="95"/>
+      <c r="BV97" s="95"/>
+      <c r="BW97" s="95"/>
+      <c r="BX97" s="95"/>
+      <c r="BY97" s="95"/>
+      <c r="BZ97" s="95"/>
+      <c r="CA97" s="95"/>
+      <c r="CB97" s="95"/>
+      <c r="CC97" s="95"/>
+      <c r="CD97" s="95"/>
+      <c r="CE97" s="95"/>
+      <c r="CF97" s="95"/>
+      <c r="CG97" s="95"/>
+      <c r="CH97" s="95"/>
+      <c r="CI97" s="95"/>
+      <c r="CJ97" s="95"/>
+      <c r="CK97" s="95"/>
+      <c r="CL97" s="95"/>
+      <c r="CM97" s="95"/>
+      <c r="CN97" s="87"/>
+      <c r="CO97" s="87"/>
+      <c r="CP97" s="87"/>
+      <c r="CQ97" s="87"/>
+      <c r="CR97" s="87"/>
+      <c r="CS97" s="87"/>
+      <c r="CT97" s="87"/>
       <c r="CU97" s="25"/>
       <c r="CV97" s="25"/>
       <c r="CW97" s="25"/>
@@ -15094,107 +15099,104 @@
     </row>
     <row r="98" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
-      <c r="B98" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="91">
+      <c r="B98" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="98">
         <v>0</v>
       </c>
-      <c r="D98" s="92">
+      <c r="D98" s="100">
         <v>44858</v>
       </c>
-      <c r="E98" s="93">
-        <v>44885</v>
-      </c>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94">
-        <f t="shared" si="42"/>
-        <v>28</v>
-      </c>
-      <c r="H98" s="95"/>
-      <c r="I98" s="95"/>
-      <c r="J98" s="95"/>
-      <c r="K98" s="95"/>
-      <c r="L98" s="95"/>
-      <c r="M98" s="95"/>
-      <c r="N98" s="95"/>
-      <c r="O98" s="95"/>
-      <c r="P98" s="95"/>
-      <c r="Q98" s="95"/>
-      <c r="R98" s="95"/>
-      <c r="S98" s="95"/>
-      <c r="T98" s="95"/>
-      <c r="U98" s="95"/>
-      <c r="V98" s="95"/>
-      <c r="W98" s="95"/>
-      <c r="X98" s="95"/>
-      <c r="Y98" s="95"/>
-      <c r="Z98" s="95"/>
-      <c r="AA98" s="95"/>
-      <c r="AB98" s="95"/>
-      <c r="AC98" s="95"/>
-      <c r="AD98" s="95"/>
-      <c r="AE98" s="95"/>
-      <c r="AF98" s="95"/>
-      <c r="AG98" s="95"/>
-      <c r="AH98" s="95"/>
-      <c r="AI98" s="95"/>
-      <c r="AJ98" s="95"/>
-      <c r="AK98" s="95"/>
-      <c r="AL98" s="95"/>
-      <c r="AM98" s="95"/>
-      <c r="AN98" s="95"/>
-      <c r="AO98" s="95"/>
-      <c r="AP98" s="95"/>
-      <c r="AQ98" s="95"/>
-      <c r="AR98" s="95"/>
-      <c r="AS98" s="95"/>
-      <c r="AT98" s="95"/>
-      <c r="AU98" s="95"/>
-      <c r="AV98" s="95"/>
-      <c r="AW98" s="95"/>
-      <c r="AX98" s="95"/>
-      <c r="AY98" s="95"/>
-      <c r="AZ98" s="95"/>
-      <c r="BA98" s="95"/>
-      <c r="BB98" s="95"/>
-      <c r="BC98" s="95"/>
-      <c r="BD98" s="95"/>
-      <c r="BE98" s="95"/>
-      <c r="BF98" s="95"/>
-      <c r="BG98" s="95"/>
-      <c r="BH98" s="95"/>
-      <c r="BI98" s="95"/>
-      <c r="BJ98" s="95"/>
-      <c r="BK98" s="95"/>
-      <c r="BL98" s="95"/>
-      <c r="BM98" s="95"/>
-      <c r="BN98" s="95"/>
-      <c r="BO98" s="95"/>
-      <c r="BP98" s="95"/>
-      <c r="BQ98" s="95"/>
-      <c r="BR98" s="95"/>
-      <c r="BS98" s="95"/>
-      <c r="BT98" s="95"/>
-      <c r="BU98" s="95"/>
-      <c r="BV98" s="95"/>
-      <c r="BW98" s="95"/>
-      <c r="BX98" s="95"/>
-      <c r="BY98" s="95"/>
-      <c r="BZ98" s="95"/>
-      <c r="CA98" s="95"/>
-      <c r="CB98" s="95"/>
-      <c r="CC98" s="95"/>
-      <c r="CD98" s="95"/>
-      <c r="CE98" s="95"/>
-      <c r="CF98" s="95"/>
-      <c r="CG98" s="95"/>
-      <c r="CH98" s="95"/>
-      <c r="CI98" s="95"/>
-      <c r="CJ98" s="95"/>
-      <c r="CK98" s="95"/>
-      <c r="CL98" s="95"/>
-      <c r="CM98" s="95"/>
+      <c r="E98" s="101">
+        <v>44864</v>
+      </c>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="87"/>
+      <c r="J98" s="87"/>
+      <c r="K98" s="87"/>
+      <c r="L98" s="87"/>
+      <c r="M98" s="87"/>
+      <c r="N98" s="87"/>
+      <c r="O98" s="87"/>
+      <c r="P98" s="87"/>
+      <c r="Q98" s="87"/>
+      <c r="R98" s="87"/>
+      <c r="S98" s="87"/>
+      <c r="T98" s="87"/>
+      <c r="U98" s="87"/>
+      <c r="V98" s="87"/>
+      <c r="W98" s="87"/>
+      <c r="X98" s="87"/>
+      <c r="Y98" s="87"/>
+      <c r="Z98" s="87"/>
+      <c r="AA98" s="87"/>
+      <c r="AB98" s="87"/>
+      <c r="AC98" s="87"/>
+      <c r="AD98" s="87"/>
+      <c r="AE98" s="87"/>
+      <c r="AF98" s="87"/>
+      <c r="AG98" s="87"/>
+      <c r="AH98" s="87"/>
+      <c r="AI98" s="87"/>
+      <c r="AJ98" s="87"/>
+      <c r="AK98" s="87"/>
+      <c r="AL98" s="87"/>
+      <c r="AM98" s="87"/>
+      <c r="AN98" s="87"/>
+      <c r="AO98" s="87"/>
+      <c r="AP98" s="87"/>
+      <c r="AQ98" s="87"/>
+      <c r="AR98" s="87"/>
+      <c r="AS98" s="87"/>
+      <c r="AT98" s="87"/>
+      <c r="AU98" s="87"/>
+      <c r="AV98" s="87"/>
+      <c r="AW98" s="87"/>
+      <c r="AX98" s="87"/>
+      <c r="AY98" s="87"/>
+      <c r="AZ98" s="87"/>
+      <c r="BA98" s="87"/>
+      <c r="BB98" s="87"/>
+      <c r="BC98" s="87"/>
+      <c r="BD98" s="87"/>
+      <c r="BE98" s="87"/>
+      <c r="BF98" s="87"/>
+      <c r="BG98" s="87"/>
+      <c r="BH98" s="87"/>
+      <c r="BI98" s="87"/>
+      <c r="BJ98" s="87"/>
+      <c r="BK98" s="87"/>
+      <c r="BL98" s="87"/>
+      <c r="BM98" s="87"/>
+      <c r="BN98" s="87"/>
+      <c r="BO98" s="87"/>
+      <c r="BP98" s="87"/>
+      <c r="BQ98" s="87"/>
+      <c r="BR98" s="87"/>
+      <c r="BS98" s="87"/>
+      <c r="BT98" s="87"/>
+      <c r="BU98" s="87"/>
+      <c r="BV98" s="87"/>
+      <c r="BW98" s="87"/>
+      <c r="BX98" s="87"/>
+      <c r="BY98" s="87"/>
+      <c r="BZ98" s="87"/>
+      <c r="CA98" s="87"/>
+      <c r="CB98" s="87"/>
+      <c r="CC98" s="87"/>
+      <c r="CD98" s="87"/>
+      <c r="CE98" s="87"/>
+      <c r="CF98" s="87"/>
+      <c r="CG98" s="87"/>
+      <c r="CH98" s="87"/>
+      <c r="CI98" s="87"/>
+      <c r="CJ98" s="87"/>
+      <c r="CK98" s="87"/>
+      <c r="CL98" s="87"/>
+      <c r="CM98" s="87"/>
       <c r="CN98" s="87"/>
       <c r="CO98" s="87"/>
       <c r="CP98" s="87"/>
@@ -15220,16 +15222,16 @@
     <row r="99" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" s="98">
+        <v>83</v>
+      </c>
+      <c r="C99" s="84">
         <v>0</v>
       </c>
-      <c r="D99" s="100">
+      <c r="D99" s="85">
         <v>44858</v>
       </c>
-      <c r="E99" s="101">
-        <v>44864</v>
+      <c r="E99" s="85">
+        <v>44858</v>
       </c>
       <c r="F99" s="86"/>
       <c r="G99" s="86"/>
@@ -15342,7 +15344,7 @@
     <row r="100" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="83" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C100" s="84">
         <v>0</v>
@@ -15586,16 +15588,16 @@
     <row r="102" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="83" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C102" s="84">
         <v>0</v>
       </c>
-      <c r="D102" s="85">
+      <c r="D102" s="97">
         <v>44858</v>
       </c>
-      <c r="E102" s="85">
-        <v>44858</v>
+      <c r="E102" s="97">
+        <v>44859</v>
       </c>
       <c r="F102" s="86"/>
       <c r="G102" s="86"/>
@@ -15708,16 +15710,16 @@
     <row r="103" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C103" s="84">
         <v>0</v>
       </c>
       <c r="D103" s="97">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="E103" s="97">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="F103" s="86"/>
       <c r="G103" s="86"/>
@@ -15829,17 +15831,17 @@
     </row>
     <row r="104" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
-      <c r="B104" s="83" t="s">
-        <v>90</v>
+      <c r="B104" s="96" t="s">
+        <v>87</v>
       </c>
       <c r="C104" s="84">
         <v>0</v>
       </c>
       <c r="D104" s="97">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="E104" s="97">
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="F104" s="86"/>
       <c r="G104" s="86"/>
@@ -15958,10 +15960,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="97">
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="E105" s="97">
-        <v>44862</v>
+        <v>44864</v>
       </c>
       <c r="F105" s="86"/>
       <c r="G105" s="86"/>
@@ -16073,17 +16075,17 @@
     </row>
     <row r="106" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
-      <c r="B106" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" s="84">
+      <c r="B106" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" s="98">
         <v>0</v>
       </c>
-      <c r="D106" s="97">
-        <v>44862</v>
-      </c>
-      <c r="E106" s="97">
-        <v>44864</v>
+      <c r="D106" s="99">
+        <v>44865</v>
+      </c>
+      <c r="E106" s="99">
+        <v>44885</v>
       </c>
       <c r="F106" s="86"/>
       <c r="G106" s="86"/>
@@ -16196,16 +16198,16 @@
     <row r="107" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107" s="98">
+        <v>111</v>
+      </c>
+      <c r="C107" s="84">
         <v>0</v>
       </c>
-      <c r="D107" s="99">
+      <c r="D107" s="97">
         <v>44865</v>
       </c>
-      <c r="E107" s="99">
-        <v>44885</v>
+      <c r="E107" s="97">
+        <v>44865</v>
       </c>
       <c r="F107" s="86"/>
       <c r="G107" s="86"/>
@@ -16318,7 +16320,7 @@
     <row r="108" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C108" s="84">
         <v>0</v>
@@ -16440,7 +16442,7 @@
     <row r="109" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="83" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C109" s="84">
         <v>0</v>
@@ -16562,7 +16564,7 @@
     <row r="110" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="83" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C110" s="84">
         <v>0</v>
@@ -16684,7 +16686,7 @@
     <row r="111" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="83" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C111" s="84">
         <v>0</v>
@@ -16803,10 +16805,10 @@
       <c r="DG111" s="25"/>
       <c r="DH111" s="25"/>
     </row>
-    <row r="112" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:112" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C112" s="84">
         <v>0</v>
@@ -16925,10 +16927,10 @@
       <c r="DG112" s="25"/>
       <c r="DH112" s="25"/>
     </row>
-    <row r="113" spans="1:112" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="83" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C113" s="84">
         <v>0</v>
@@ -17050,7 +17052,7 @@
     <row r="114" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="83" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C114" s="84">
         <v>0</v>
@@ -17171,17 +17173,17 @@
     </row>
     <row r="115" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
-      <c r="B115" s="83" t="s">
-        <v>122</v>
+      <c r="B115" s="88" t="s">
+        <v>94</v>
       </c>
       <c r="C115" s="84">
         <v>0</v>
       </c>
       <c r="D115" s="97">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="E115" s="97">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="F115" s="86"/>
       <c r="G115" s="86"/>
@@ -17201,7 +17203,7 @@
       <c r="U115" s="87"/>
       <c r="V115" s="87"/>
       <c r="W115" s="87"/>
-      <c r="X115" s="87"/>
+      <c r="X115" s="89"/>
       <c r="Y115" s="87"/>
       <c r="Z115" s="87"/>
       <c r="AA115" s="87"/>
@@ -17294,7 +17296,7 @@
     <row r="116" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="88" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C116" s="84">
         <v>0</v>
@@ -17416,7 +17418,7 @@
     <row r="117" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="88" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C117" s="84">
         <v>0</v>
@@ -17538,7 +17540,7 @@
     <row r="118" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="88" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C118" s="84">
         <v>0</v>
@@ -17547,7 +17549,7 @@
         <v>44866</v>
       </c>
       <c r="E118" s="97">
-        <v>44866</v>
+        <v>44869</v>
       </c>
       <c r="F118" s="86"/>
       <c r="G118" s="86"/>
@@ -17660,13 +17662,13 @@
     <row r="119" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="B119" s="88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C119" s="84">
         <v>0</v>
       </c>
       <c r="D119" s="97">
-        <v>44866</v>
+        <v>44869</v>
       </c>
       <c r="E119" s="97">
         <v>44869</v>
@@ -17782,7 +17784,7 @@
     <row r="120" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="88" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C120" s="84">
         <v>0</v>
@@ -17791,7 +17793,7 @@
         <v>44869</v>
       </c>
       <c r="E120" s="97">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="F120" s="86"/>
       <c r="G120" s="86"/>
@@ -17904,16 +17906,16 @@
     <row r="121" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C121" s="84">
         <v>0</v>
       </c>
       <c r="D121" s="97">
-        <v>44869</v>
+        <v>44871</v>
       </c>
       <c r="E121" s="97">
-        <v>44870</v>
+        <v>44872</v>
       </c>
       <c r="F121" s="86"/>
       <c r="G121" s="86"/>
@@ -18026,16 +18028,16 @@
     <row r="122" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="88" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C122" s="84">
         <v>0</v>
       </c>
       <c r="D122" s="97">
-        <v>44871</v>
+        <v>44873</v>
       </c>
       <c r="E122" s="97">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="F122" s="86"/>
       <c r="G122" s="86"/>
@@ -18148,16 +18150,16 @@
     <row r="123" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="88" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C123" s="84">
         <v>0</v>
       </c>
       <c r="D123" s="97">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="E123" s="97">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="F123" s="86"/>
       <c r="G123" s="86"/>
@@ -18270,16 +18272,16 @@
     <row r="124" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="88" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C124" s="84">
         <v>0</v>
       </c>
-      <c r="D124" s="97">
-        <v>44874</v>
-      </c>
-      <c r="E124" s="97">
-        <v>44874</v>
+      <c r="D124" s="85">
+        <v>44875</v>
+      </c>
+      <c r="E124" s="85">
+        <v>44877</v>
       </c>
       <c r="F124" s="86"/>
       <c r="G124" s="86"/>
@@ -18392,16 +18394,16 @@
     <row r="125" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="88" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C125" s="84">
         <v>0</v>
       </c>
       <c r="D125" s="85">
-        <v>44875</v>
+        <v>44878</v>
       </c>
       <c r="E125" s="85">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="F125" s="86"/>
       <c r="G125" s="86"/>
@@ -18514,16 +18516,16 @@
     <row r="126" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17"/>
       <c r="B126" s="88" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C126" s="84">
         <v>0</v>
       </c>
       <c r="D126" s="85">
-        <v>44878</v>
-      </c>
-      <c r="E126" s="85">
-        <v>44878</v>
+        <v>44879</v>
+      </c>
+      <c r="E126" s="97">
+        <v>44879</v>
       </c>
       <c r="F126" s="86"/>
       <c r="G126" s="86"/>
@@ -18636,12 +18638,12 @@
     <row r="127" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="88" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C127" s="84">
         <v>0</v>
       </c>
-      <c r="D127" s="85">
+      <c r="D127" s="97">
         <v>44879</v>
       </c>
       <c r="E127" s="97">
@@ -18758,16 +18760,16 @@
     <row r="128" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C128" s="84">
         <v>0</v>
       </c>
       <c r="D128" s="97">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="E128" s="97">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="F128" s="86"/>
       <c r="G128" s="86"/>
@@ -18880,16 +18882,16 @@
     <row r="129" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="88" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C129" s="84">
         <v>0</v>
       </c>
       <c r="D129" s="97">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="E129" s="97">
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="F129" s="86"/>
       <c r="G129" s="86"/>
@@ -18999,16 +19001,16 @@
       <c r="DG129" s="25"/>
       <c r="DH129" s="25"/>
     </row>
-    <row r="130" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="88" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C130" s="84">
         <v>0</v>
       </c>
       <c r="D130" s="97">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="E130" s="97">
         <v>44882</v>
@@ -19124,16 +19126,16 @@
     <row r="131" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="88" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C131" s="84">
         <v>0</v>
       </c>
       <c r="D131" s="97">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="E131" s="97">
-        <v>44882</v>
+        <v>44885</v>
       </c>
       <c r="F131" s="86"/>
       <c r="G131" s="86"/>
@@ -19246,13 +19248,13 @@
     <row r="132" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="88" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C132" s="84">
         <v>0</v>
       </c>
       <c r="D132" s="97">
-        <v>44883</v>
+        <v>44885</v>
       </c>
       <c r="E132" s="97">
         <v>44885</v>
@@ -19367,258 +19369,261 @@
     </row>
     <row r="133" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
-      <c r="B133" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C133" s="84">
-        <v>0</v>
-      </c>
-      <c r="D133" s="97">
-        <v>44885</v>
-      </c>
-      <c r="E133" s="97">
-        <v>44885</v>
-      </c>
-      <c r="F133" s="86"/>
-      <c r="G133" s="86"/>
-      <c r="H133" s="87"/>
-      <c r="I133" s="87"/>
-      <c r="J133" s="87"/>
-      <c r="K133" s="87"/>
-      <c r="L133" s="87"/>
-      <c r="M133" s="87"/>
-      <c r="N133" s="87"/>
-      <c r="O133" s="87"/>
-      <c r="P133" s="87"/>
-      <c r="Q133" s="87"/>
-      <c r="R133" s="87"/>
-      <c r="S133" s="87"/>
-      <c r="T133" s="87"/>
-      <c r="U133" s="87"/>
-      <c r="V133" s="87"/>
-      <c r="W133" s="87"/>
-      <c r="X133" s="89"/>
-      <c r="Y133" s="87"/>
-      <c r="Z133" s="87"/>
-      <c r="AA133" s="87"/>
-      <c r="AB133" s="87"/>
-      <c r="AC133" s="87"/>
-      <c r="AD133" s="87"/>
-      <c r="AE133" s="87"/>
-      <c r="AF133" s="87"/>
-      <c r="AG133" s="87"/>
-      <c r="AH133" s="87"/>
-      <c r="AI133" s="87"/>
-      <c r="AJ133" s="87"/>
-      <c r="AK133" s="87"/>
-      <c r="AL133" s="87"/>
-      <c r="AM133" s="87"/>
-      <c r="AN133" s="87"/>
-      <c r="AO133" s="87"/>
-      <c r="AP133" s="87"/>
-      <c r="AQ133" s="87"/>
-      <c r="AR133" s="87"/>
-      <c r="AS133" s="87"/>
-      <c r="AT133" s="87"/>
-      <c r="AU133" s="87"/>
-      <c r="AV133" s="87"/>
-      <c r="AW133" s="87"/>
-      <c r="AX133" s="87"/>
-      <c r="AY133" s="87"/>
-      <c r="AZ133" s="87"/>
-      <c r="BA133" s="87"/>
-      <c r="BB133" s="87"/>
-      <c r="BC133" s="87"/>
-      <c r="BD133" s="87"/>
-      <c r="BE133" s="87"/>
-      <c r="BF133" s="87"/>
-      <c r="BG133" s="87"/>
-      <c r="BH133" s="87"/>
-      <c r="BI133" s="87"/>
-      <c r="BJ133" s="87"/>
-      <c r="BK133" s="87"/>
-      <c r="BL133" s="87"/>
-      <c r="BM133" s="87"/>
-      <c r="BN133" s="87"/>
-      <c r="BO133" s="87"/>
-      <c r="BP133" s="87"/>
-      <c r="BQ133" s="87"/>
-      <c r="BR133" s="87"/>
-      <c r="BS133" s="87"/>
-      <c r="BT133" s="87"/>
-      <c r="BU133" s="87"/>
-      <c r="BV133" s="87"/>
-      <c r="BW133" s="87"/>
-      <c r="BX133" s="87"/>
-      <c r="BY133" s="87"/>
-      <c r="BZ133" s="87"/>
-      <c r="CA133" s="87"/>
-      <c r="CB133" s="87"/>
-      <c r="CC133" s="87"/>
-      <c r="CD133" s="87"/>
-      <c r="CE133" s="87"/>
-      <c r="CF133" s="87"/>
-      <c r="CG133" s="87"/>
-      <c r="CH133" s="87"/>
-      <c r="CI133" s="87"/>
-      <c r="CJ133" s="87"/>
-      <c r="CK133" s="87"/>
-      <c r="CL133" s="87"/>
-      <c r="CM133" s="87"/>
-      <c r="CN133" s="87"/>
-      <c r="CO133" s="87"/>
-      <c r="CP133" s="87"/>
-      <c r="CQ133" s="87"/>
-      <c r="CR133" s="87"/>
-      <c r="CS133" s="87"/>
-      <c r="CT133" s="87"/>
-      <c r="CU133" s="25"/>
-      <c r="CV133" s="25"/>
-      <c r="CW133" s="25"/>
-      <c r="CX133" s="25"/>
-      <c r="CY133" s="25"/>
-      <c r="CZ133" s="25"/>
-      <c r="DA133" s="25"/>
-      <c r="DB133" s="25"/>
-      <c r="DC133" s="25"/>
-      <c r="DD133" s="25"/>
-      <c r="DE133" s="25"/>
-      <c r="DF133" s="25"/>
-      <c r="DG133" s="25"/>
-      <c r="DH133" s="25"/>
+      <c r="B133" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="102"/>
+      <c r="D133" s="103"/>
+      <c r="E133" s="104"/>
+      <c r="F133" s="105"/>
+      <c r="G133" s="105" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H133" s="106"/>
+      <c r="I133" s="106"/>
+      <c r="J133" s="106"/>
+      <c r="K133" s="106"/>
+      <c r="L133" s="106"/>
+      <c r="M133" s="106"/>
+      <c r="N133" s="106"/>
+      <c r="O133" s="106"/>
+      <c r="P133" s="106"/>
+      <c r="Q133" s="106"/>
+      <c r="R133" s="106"/>
+      <c r="S133" s="106"/>
+      <c r="T133" s="106"/>
+      <c r="U133" s="106"/>
+      <c r="V133" s="106"/>
+      <c r="W133" s="106"/>
+      <c r="X133" s="106"/>
+      <c r="Y133" s="106"/>
+      <c r="Z133" s="106"/>
+      <c r="AA133" s="106"/>
+      <c r="AB133" s="106"/>
+      <c r="AC133" s="106"/>
+      <c r="AD133" s="106"/>
+      <c r="AE133" s="106"/>
+      <c r="AF133" s="106"/>
+      <c r="AG133" s="106"/>
+      <c r="AH133" s="106"/>
+      <c r="AI133" s="106"/>
+      <c r="AJ133" s="106"/>
+      <c r="AK133" s="106"/>
+      <c r="AL133" s="106"/>
+      <c r="AM133" s="106"/>
+      <c r="AN133" s="106"/>
+      <c r="AO133" s="106"/>
+      <c r="AP133" s="106"/>
+      <c r="AQ133" s="106"/>
+      <c r="AR133" s="106"/>
+      <c r="AS133" s="106"/>
+      <c r="AT133" s="106"/>
+      <c r="AU133" s="106"/>
+      <c r="AV133" s="106"/>
+      <c r="AW133" s="106"/>
+      <c r="AX133" s="106"/>
+      <c r="AY133" s="106"/>
+      <c r="AZ133" s="106"/>
+      <c r="BA133" s="106"/>
+      <c r="BB133" s="106"/>
+      <c r="BC133" s="106"/>
+      <c r="BD133" s="106"/>
+      <c r="BE133" s="106"/>
+      <c r="BF133" s="106"/>
+      <c r="BG133" s="106"/>
+      <c r="BH133" s="106"/>
+      <c r="BI133" s="106"/>
+      <c r="BJ133" s="106"/>
+      <c r="BK133" s="106"/>
+      <c r="BL133" s="106"/>
+      <c r="BM133" s="106"/>
+      <c r="BN133" s="106"/>
+      <c r="BO133" s="106"/>
+      <c r="BP133" s="106"/>
+      <c r="BQ133" s="106"/>
+      <c r="BR133" s="106"/>
+      <c r="BS133" s="106"/>
+      <c r="BT133" s="106"/>
+      <c r="BU133" s="106"/>
+      <c r="BV133" s="106"/>
+      <c r="BW133" s="106"/>
+      <c r="BX133" s="106"/>
+      <c r="BY133" s="106"/>
+      <c r="BZ133" s="106"/>
+      <c r="CA133" s="106"/>
+      <c r="CB133" s="106"/>
+      <c r="CC133" s="106"/>
+      <c r="CD133" s="106"/>
+      <c r="CE133" s="106"/>
+      <c r="CF133" s="106"/>
+      <c r="CG133" s="106"/>
+      <c r="CH133" s="106"/>
+      <c r="CI133" s="106"/>
+      <c r="CJ133" s="106"/>
+      <c r="CK133" s="106"/>
+      <c r="CL133" s="106"/>
+      <c r="CM133" s="106"/>
+      <c r="CN133" s="106"/>
+      <c r="CO133" s="106"/>
+      <c r="CP133" s="106"/>
+      <c r="CQ133" s="106"/>
+      <c r="CR133" s="106"/>
+      <c r="CS133" s="106"/>
+      <c r="CT133" s="106"/>
+      <c r="CU133" s="106"/>
+      <c r="CV133" s="106"/>
+      <c r="CW133" s="106"/>
+      <c r="CX133" s="106"/>
+      <c r="CY133" s="106"/>
+      <c r="CZ133" s="106"/>
+      <c r="DA133" s="106"/>
+      <c r="DB133" s="106"/>
+      <c r="DC133" s="106"/>
+      <c r="DD133" s="106"/>
+      <c r="DE133" s="106"/>
+      <c r="DF133" s="106"/>
+      <c r="DG133" s="106"/>
+      <c r="DH133" s="106"/>
     </row>
     <row r="134" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
-      <c r="B134" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="C134" s="102"/>
-      <c r="D134" s="103"/>
-      <c r="E134" s="104"/>
-      <c r="F134" s="105"/>
-      <c r="G134" s="105" t="str">
+      <c r="B134" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" s="22">
+        <v>0</v>
+      </c>
+      <c r="D134" s="23">
+        <v>44886</v>
+      </c>
+      <c r="E134" s="23">
+        <v>44889</v>
+      </c>
+      <c r="F134" s="117"/>
+      <c r="G134" s="117">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="H134" s="106"/>
-      <c r="I134" s="106"/>
-      <c r="J134" s="106"/>
-      <c r="K134" s="106"/>
-      <c r="L134" s="106"/>
-      <c r="M134" s="106"/>
-      <c r="N134" s="106"/>
-      <c r="O134" s="106"/>
-      <c r="P134" s="106"/>
-      <c r="Q134" s="106"/>
-      <c r="R134" s="106"/>
-      <c r="S134" s="106"/>
-      <c r="T134" s="106"/>
-      <c r="U134" s="106"/>
-      <c r="V134" s="106"/>
-      <c r="W134" s="106"/>
-      <c r="X134" s="106"/>
-      <c r="Y134" s="106"/>
-      <c r="Z134" s="106"/>
-      <c r="AA134" s="106"/>
-      <c r="AB134" s="106"/>
-      <c r="AC134" s="106"/>
-      <c r="AD134" s="106"/>
-      <c r="AE134" s="106"/>
-      <c r="AF134" s="106"/>
-      <c r="AG134" s="106"/>
-      <c r="AH134" s="106"/>
-      <c r="AI134" s="106"/>
-      <c r="AJ134" s="106"/>
-      <c r="AK134" s="106"/>
-      <c r="AL134" s="106"/>
-      <c r="AM134" s="106"/>
-      <c r="AN134" s="106"/>
-      <c r="AO134" s="106"/>
-      <c r="AP134" s="106"/>
-      <c r="AQ134" s="106"/>
-      <c r="AR134" s="106"/>
-      <c r="AS134" s="106"/>
-      <c r="AT134" s="106"/>
-      <c r="AU134" s="106"/>
-      <c r="AV134" s="106"/>
-      <c r="AW134" s="106"/>
-      <c r="AX134" s="106"/>
-      <c r="AY134" s="106"/>
-      <c r="AZ134" s="106"/>
-      <c r="BA134" s="106"/>
-      <c r="BB134" s="106"/>
-      <c r="BC134" s="106"/>
-      <c r="BD134" s="106"/>
-      <c r="BE134" s="106"/>
-      <c r="BF134" s="106"/>
-      <c r="BG134" s="106"/>
-      <c r="BH134" s="106"/>
-      <c r="BI134" s="106"/>
-      <c r="BJ134" s="106"/>
-      <c r="BK134" s="106"/>
-      <c r="BL134" s="106"/>
-      <c r="BM134" s="106"/>
-      <c r="BN134" s="106"/>
-      <c r="BO134" s="106"/>
-      <c r="BP134" s="106"/>
-      <c r="BQ134" s="106"/>
-      <c r="BR134" s="106"/>
-      <c r="BS134" s="106"/>
-      <c r="BT134" s="106"/>
-      <c r="BU134" s="106"/>
-      <c r="BV134" s="106"/>
-      <c r="BW134" s="106"/>
-      <c r="BX134" s="106"/>
-      <c r="BY134" s="106"/>
-      <c r="BZ134" s="106"/>
-      <c r="CA134" s="106"/>
-      <c r="CB134" s="106"/>
-      <c r="CC134" s="106"/>
-      <c r="CD134" s="106"/>
-      <c r="CE134" s="106"/>
-      <c r="CF134" s="106"/>
-      <c r="CG134" s="106"/>
-      <c r="CH134" s="106"/>
-      <c r="CI134" s="106"/>
-      <c r="CJ134" s="106"/>
-      <c r="CK134" s="106"/>
-      <c r="CL134" s="106"/>
-      <c r="CM134" s="106"/>
-      <c r="CN134" s="106"/>
-      <c r="CO134" s="106"/>
-      <c r="CP134" s="106"/>
-      <c r="CQ134" s="106"/>
-      <c r="CR134" s="106"/>
-      <c r="CS134" s="106"/>
-      <c r="CT134" s="106"/>
-      <c r="CU134" s="106"/>
-      <c r="CV134" s="106"/>
-      <c r="CW134" s="106"/>
-      <c r="CX134" s="106"/>
-      <c r="CY134" s="106"/>
-      <c r="CZ134" s="106"/>
-      <c r="DA134" s="106"/>
-      <c r="DB134" s="106"/>
-      <c r="DC134" s="106"/>
-      <c r="DD134" s="106"/>
-      <c r="DE134" s="106"/>
-      <c r="DF134" s="106"/>
-      <c r="DG134" s="106"/>
-      <c r="DH134" s="106"/>
+        <v>4</v>
+      </c>
+      <c r="H134" s="118"/>
+      <c r="I134" s="118"/>
+      <c r="J134" s="118"/>
+      <c r="K134" s="118"/>
+      <c r="L134" s="118"/>
+      <c r="M134" s="118"/>
+      <c r="N134" s="118"/>
+      <c r="O134" s="118"/>
+      <c r="P134" s="118"/>
+      <c r="Q134" s="118"/>
+      <c r="R134" s="118"/>
+      <c r="S134" s="118"/>
+      <c r="T134" s="118"/>
+      <c r="U134" s="118"/>
+      <c r="V134" s="118"/>
+      <c r="W134" s="118"/>
+      <c r="X134" s="118"/>
+      <c r="Y134" s="118"/>
+      <c r="Z134" s="118"/>
+      <c r="AA134" s="118"/>
+      <c r="AB134" s="118"/>
+      <c r="AC134" s="118"/>
+      <c r="AD134" s="118"/>
+      <c r="AE134" s="118"/>
+      <c r="AF134" s="118"/>
+      <c r="AG134" s="118"/>
+      <c r="AH134" s="118"/>
+      <c r="AI134" s="118"/>
+      <c r="AJ134" s="118"/>
+      <c r="AK134" s="118"/>
+      <c r="AL134" s="118"/>
+      <c r="AM134" s="118"/>
+      <c r="AN134" s="118"/>
+      <c r="AO134" s="118"/>
+      <c r="AP134" s="118"/>
+      <c r="AQ134" s="118"/>
+      <c r="AR134" s="118"/>
+      <c r="AS134" s="118"/>
+      <c r="AT134" s="118"/>
+      <c r="AU134" s="118"/>
+      <c r="AV134" s="118"/>
+      <c r="AW134" s="118"/>
+      <c r="AX134" s="118"/>
+      <c r="AY134" s="118"/>
+      <c r="AZ134" s="118"/>
+      <c r="BA134" s="118"/>
+      <c r="BB134" s="118"/>
+      <c r="BC134" s="118"/>
+      <c r="BD134" s="118"/>
+      <c r="BE134" s="118"/>
+      <c r="BF134" s="118"/>
+      <c r="BG134" s="118"/>
+      <c r="BH134" s="118"/>
+      <c r="BI134" s="118"/>
+      <c r="BJ134" s="118"/>
+      <c r="BK134" s="118"/>
+      <c r="BL134" s="118"/>
+      <c r="BM134" s="118"/>
+      <c r="BN134" s="118"/>
+      <c r="BO134" s="118"/>
+      <c r="BP134" s="118"/>
+      <c r="BQ134" s="118"/>
+      <c r="BR134" s="118"/>
+      <c r="BS134" s="118"/>
+      <c r="BT134" s="118"/>
+      <c r="BU134" s="118"/>
+      <c r="BV134" s="118"/>
+      <c r="BW134" s="118"/>
+      <c r="BX134" s="118"/>
+      <c r="BY134" s="118"/>
+      <c r="BZ134" s="118"/>
+      <c r="CA134" s="118"/>
+      <c r="CB134" s="118"/>
+      <c r="CC134" s="118"/>
+      <c r="CD134" s="118"/>
+      <c r="CE134" s="118"/>
+      <c r="CF134" s="118"/>
+      <c r="CG134" s="118"/>
+      <c r="CH134" s="118"/>
+      <c r="CI134" s="118"/>
+      <c r="CJ134" s="118"/>
+      <c r="CK134" s="118"/>
+      <c r="CL134" s="118"/>
+      <c r="CM134" s="118"/>
+      <c r="CN134" s="118"/>
+      <c r="CO134" s="118"/>
+      <c r="CP134" s="118"/>
+      <c r="CQ134" s="118"/>
+      <c r="CR134" s="118"/>
+      <c r="CS134" s="118"/>
+      <c r="CT134" s="118"/>
+      <c r="CU134" s="118"/>
+      <c r="CV134" s="118"/>
+      <c r="CW134" s="118"/>
+      <c r="CX134" s="118"/>
+      <c r="CY134" s="118"/>
+      <c r="CZ134" s="118"/>
+      <c r="DA134" s="118"/>
+      <c r="DB134" s="118"/>
+      <c r="DC134" s="118"/>
+      <c r="DD134" s="118"/>
+      <c r="DE134" s="118"/>
+      <c r="DF134" s="118"/>
+      <c r="DG134" s="118"/>
+      <c r="DH134" s="118"/>
     </row>
     <row r="135" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="116" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C135" s="22">
         <v>0</v>
       </c>
       <c r="D135" s="23">
-        <v>44886</v>
-      </c>
-      <c r="E135" s="23">
-        <v>44889</v>
+        <v>44890</v>
+      </c>
+      <c r="E135" s="119">
+        <v>44893</v>
       </c>
       <c r="F135" s="117"/>
       <c r="G135" s="117">
@@ -19731,24 +19736,24 @@
       <c r="DG135" s="118"/>
       <c r="DH135" s="118"/>
     </row>
-    <row r="136" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17"/>
       <c r="B136" s="116" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="C136" s="22">
         <v>0</v>
       </c>
       <c r="D136" s="23">
-        <v>44890</v>
-      </c>
-      <c r="E136" s="119">
-        <v>44893</v>
+        <v>44894</v>
+      </c>
+      <c r="E136" s="24">
+        <v>44899</v>
       </c>
       <c r="F136" s="117"/>
       <c r="G136" s="117">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H136" s="118"/>
       <c r="I136" s="118"/>
@@ -19859,13 +19864,13 @@
     <row r="137" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="116" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C137" s="22">
         <v>0</v>
       </c>
-      <c r="D137" s="23">
-        <v>44894</v>
+      <c r="D137" s="24">
+        <v>44899</v>
       </c>
       <c r="E137" s="24">
         <v>44899</v>
@@ -19873,7 +19878,7 @@
       <c r="F137" s="117"/>
       <c r="G137" s="117">
         <f t="shared" si="42"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H137" s="118"/>
       <c r="I137" s="118"/>
@@ -19983,267 +19988,142 @@
     </row>
     <row r="138" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
-      <c r="B138" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" s="22">
+      <c r="B138" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D138" s="24">
-        <v>44899</v>
-      </c>
-      <c r="E138" s="24">
-        <v>44899</v>
-      </c>
-      <c r="F138" s="117"/>
-      <c r="G138" s="117">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="H138" s="118"/>
-      <c r="I138" s="118"/>
-      <c r="J138" s="118"/>
-      <c r="K138" s="118"/>
-      <c r="L138" s="118"/>
-      <c r="M138" s="118"/>
-      <c r="N138" s="118"/>
-      <c r="O138" s="118"/>
-      <c r="P138" s="118"/>
-      <c r="Q138" s="118"/>
-      <c r="R138" s="118"/>
-      <c r="S138" s="118"/>
-      <c r="T138" s="118"/>
-      <c r="U138" s="118"/>
-      <c r="V138" s="118"/>
-      <c r="W138" s="118"/>
-      <c r="X138" s="118"/>
-      <c r="Y138" s="118"/>
-      <c r="Z138" s="118"/>
-      <c r="AA138" s="118"/>
-      <c r="AB138" s="118"/>
-      <c r="AC138" s="118"/>
-      <c r="AD138" s="118"/>
-      <c r="AE138" s="118"/>
-      <c r="AF138" s="118"/>
-      <c r="AG138" s="118"/>
-      <c r="AH138" s="118"/>
-      <c r="AI138" s="118"/>
-      <c r="AJ138" s="118"/>
-      <c r="AK138" s="118"/>
-      <c r="AL138" s="118"/>
-      <c r="AM138" s="118"/>
-      <c r="AN138" s="118"/>
-      <c r="AO138" s="118"/>
-      <c r="AP138" s="118"/>
-      <c r="AQ138" s="118"/>
-      <c r="AR138" s="118"/>
-      <c r="AS138" s="118"/>
-      <c r="AT138" s="118"/>
-      <c r="AU138" s="118"/>
-      <c r="AV138" s="118"/>
-      <c r="AW138" s="118"/>
-      <c r="AX138" s="118"/>
-      <c r="AY138" s="118"/>
-      <c r="AZ138" s="118"/>
-      <c r="BA138" s="118"/>
-      <c r="BB138" s="118"/>
-      <c r="BC138" s="118"/>
-      <c r="BD138" s="118"/>
-      <c r="BE138" s="118"/>
-      <c r="BF138" s="118"/>
-      <c r="BG138" s="118"/>
-      <c r="BH138" s="118"/>
-      <c r="BI138" s="118"/>
-      <c r="BJ138" s="118"/>
-      <c r="BK138" s="118"/>
-      <c r="BL138" s="118"/>
-      <c r="BM138" s="118"/>
-      <c r="BN138" s="118"/>
-      <c r="BO138" s="118"/>
-      <c r="BP138" s="118"/>
-      <c r="BQ138" s="118"/>
-      <c r="BR138" s="118"/>
-      <c r="BS138" s="118"/>
-      <c r="BT138" s="118"/>
-      <c r="BU138" s="118"/>
-      <c r="BV138" s="118"/>
-      <c r="BW138" s="118"/>
-      <c r="BX138" s="118"/>
-      <c r="BY138" s="118"/>
-      <c r="BZ138" s="118"/>
-      <c r="CA138" s="118"/>
-      <c r="CB138" s="118"/>
-      <c r="CC138" s="118"/>
-      <c r="CD138" s="118"/>
-      <c r="CE138" s="118"/>
-      <c r="CF138" s="118"/>
-      <c r="CG138" s="118"/>
-      <c r="CH138" s="118"/>
-      <c r="CI138" s="118"/>
-      <c r="CJ138" s="118"/>
-      <c r="CK138" s="118"/>
-      <c r="CL138" s="118"/>
-      <c r="CM138" s="118"/>
-      <c r="CN138" s="118"/>
-      <c r="CO138" s="118"/>
-      <c r="CP138" s="118"/>
-      <c r="CQ138" s="118"/>
-      <c r="CR138" s="118"/>
-      <c r="CS138" s="118"/>
-      <c r="CT138" s="118"/>
-      <c r="CU138" s="118"/>
-      <c r="CV138" s="118"/>
-      <c r="CW138" s="118"/>
-      <c r="CX138" s="118"/>
-      <c r="CY138" s="118"/>
-      <c r="CZ138" s="118"/>
-      <c r="DA138" s="118"/>
-      <c r="DB138" s="118"/>
-      <c r="DC138" s="118"/>
-      <c r="DD138" s="118"/>
-      <c r="DE138" s="118"/>
-      <c r="DF138" s="118"/>
-      <c r="DG138" s="118"/>
-      <c r="DH138" s="118"/>
-    </row>
-    <row r="139" spans="1:112" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="17"/>
-      <c r="B139" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="109"/>
-      <c r="D139" s="110"/>
-      <c r="E139" s="111"/>
-      <c r="F139" s="112"/>
-      <c r="G139" s="112" t="str">
+      <c r="C138" s="109"/>
+      <c r="D138" s="110"/>
+      <c r="E138" s="111"/>
+      <c r="F138" s="112"/>
+      <c r="G138" s="112" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H139" s="113"/>
-      <c r="I139" s="113"/>
-      <c r="J139" s="113"/>
-      <c r="K139" s="113"/>
-      <c r="L139" s="113"/>
-      <c r="M139" s="113"/>
-      <c r="N139" s="113"/>
-      <c r="O139" s="113"/>
-      <c r="P139" s="113"/>
-      <c r="Q139" s="113"/>
-      <c r="R139" s="113"/>
-      <c r="S139" s="113"/>
-      <c r="T139" s="113"/>
-      <c r="U139" s="113"/>
-      <c r="V139" s="113"/>
-      <c r="W139" s="113"/>
-      <c r="X139" s="113"/>
-      <c r="Y139" s="113"/>
-      <c r="Z139" s="113"/>
-      <c r="AA139" s="113"/>
-      <c r="AB139" s="113"/>
-      <c r="AC139" s="113"/>
-      <c r="AD139" s="113"/>
-      <c r="AE139" s="113"/>
-      <c r="AF139" s="113"/>
-      <c r="AG139" s="113"/>
-      <c r="AH139" s="113"/>
-      <c r="AI139" s="113"/>
-      <c r="AJ139" s="113"/>
-      <c r="AK139" s="113"/>
-      <c r="AL139" s="113"/>
-      <c r="AM139" s="113"/>
-      <c r="AN139" s="113"/>
-      <c r="AO139" s="113"/>
-      <c r="AP139" s="113"/>
-      <c r="AQ139" s="113"/>
-      <c r="AR139" s="113"/>
-      <c r="AS139" s="113"/>
-      <c r="AT139" s="113"/>
-      <c r="AU139" s="113"/>
-      <c r="AV139" s="113"/>
-      <c r="AW139" s="113"/>
-      <c r="AX139" s="113"/>
-      <c r="AY139" s="113"/>
-      <c r="AZ139" s="113"/>
-      <c r="BA139" s="113"/>
-      <c r="BB139" s="113"/>
-      <c r="BC139" s="113"/>
-      <c r="BD139" s="113"/>
-      <c r="BE139" s="113"/>
-      <c r="BF139" s="113"/>
-      <c r="BG139" s="113"/>
-      <c r="BH139" s="113"/>
-      <c r="BI139" s="113"/>
-      <c r="BJ139" s="113"/>
-      <c r="BK139" s="113"/>
-      <c r="BL139" s="113"/>
-      <c r="BM139" s="113"/>
-      <c r="BN139" s="113"/>
-      <c r="BO139" s="113"/>
-      <c r="BP139" s="113"/>
-      <c r="BQ139" s="113"/>
-      <c r="BR139" s="113"/>
-      <c r="BS139" s="113"/>
-      <c r="BT139" s="113"/>
-      <c r="BU139" s="113"/>
-      <c r="BV139" s="113"/>
-      <c r="BW139" s="113"/>
-      <c r="BX139" s="113"/>
-      <c r="BY139" s="113"/>
-      <c r="BZ139" s="113"/>
-      <c r="CA139" s="113"/>
-      <c r="CB139" s="113"/>
-      <c r="CC139" s="113"/>
-      <c r="CD139" s="113"/>
-      <c r="CE139" s="113"/>
-      <c r="CF139" s="113"/>
-      <c r="CG139" s="113"/>
-      <c r="CH139" s="113"/>
-      <c r="CI139" s="113"/>
-      <c r="CJ139" s="113"/>
-      <c r="CK139" s="113"/>
-      <c r="CL139" s="113"/>
-      <c r="CM139" s="113"/>
-      <c r="CN139" s="113"/>
-      <c r="CO139" s="113"/>
-      <c r="CP139" s="113"/>
-      <c r="CQ139" s="113"/>
-      <c r="CR139" s="113"/>
-      <c r="CS139" s="113"/>
-      <c r="CT139" s="113"/>
-      <c r="CU139" s="113"/>
-      <c r="CV139" s="113"/>
-      <c r="CW139" s="113"/>
-      <c r="CX139" s="113"/>
-      <c r="CY139" s="113"/>
-      <c r="CZ139" s="113"/>
-      <c r="DA139" s="113"/>
-      <c r="DB139" s="113"/>
-      <c r="DC139" s="113"/>
-      <c r="DD139" s="113"/>
-      <c r="DE139" s="113"/>
-      <c r="DF139" s="113"/>
-      <c r="DG139" s="113"/>
-      <c r="DH139" s="113"/>
+      <c r="H138" s="113"/>
+      <c r="I138" s="113"/>
+      <c r="J138" s="113"/>
+      <c r="K138" s="113"/>
+      <c r="L138" s="113"/>
+      <c r="M138" s="113"/>
+      <c r="N138" s="113"/>
+      <c r="O138" s="113"/>
+      <c r="P138" s="113"/>
+      <c r="Q138" s="113"/>
+      <c r="R138" s="113"/>
+      <c r="S138" s="113"/>
+      <c r="T138" s="113"/>
+      <c r="U138" s="113"/>
+      <c r="V138" s="113"/>
+      <c r="W138" s="113"/>
+      <c r="X138" s="113"/>
+      <c r="Y138" s="113"/>
+      <c r="Z138" s="113"/>
+      <c r="AA138" s="113"/>
+      <c r="AB138" s="113"/>
+      <c r="AC138" s="113"/>
+      <c r="AD138" s="113"/>
+      <c r="AE138" s="113"/>
+      <c r="AF138" s="113"/>
+      <c r="AG138" s="113"/>
+      <c r="AH138" s="113"/>
+      <c r="AI138" s="113"/>
+      <c r="AJ138" s="113"/>
+      <c r="AK138" s="113"/>
+      <c r="AL138" s="113"/>
+      <c r="AM138" s="113"/>
+      <c r="AN138" s="113"/>
+      <c r="AO138" s="113"/>
+      <c r="AP138" s="113"/>
+      <c r="AQ138" s="113"/>
+      <c r="AR138" s="113"/>
+      <c r="AS138" s="113"/>
+      <c r="AT138" s="113"/>
+      <c r="AU138" s="113"/>
+      <c r="AV138" s="113"/>
+      <c r="AW138" s="113"/>
+      <c r="AX138" s="113"/>
+      <c r="AY138" s="113"/>
+      <c r="AZ138" s="113"/>
+      <c r="BA138" s="113"/>
+      <c r="BB138" s="113"/>
+      <c r="BC138" s="113"/>
+      <c r="BD138" s="113"/>
+      <c r="BE138" s="113"/>
+      <c r="BF138" s="113"/>
+      <c r="BG138" s="113"/>
+      <c r="BH138" s="113"/>
+      <c r="BI138" s="113"/>
+      <c r="BJ138" s="113"/>
+      <c r="BK138" s="113"/>
+      <c r="BL138" s="113"/>
+      <c r="BM138" s="113"/>
+      <c r="BN138" s="113"/>
+      <c r="BO138" s="113"/>
+      <c r="BP138" s="113"/>
+      <c r="BQ138" s="113"/>
+      <c r="BR138" s="113"/>
+      <c r="BS138" s="113"/>
+      <c r="BT138" s="113"/>
+      <c r="BU138" s="113"/>
+      <c r="BV138" s="113"/>
+      <c r="BW138" s="113"/>
+      <c r="BX138" s="113"/>
+      <c r="BY138" s="113"/>
+      <c r="BZ138" s="113"/>
+      <c r="CA138" s="113"/>
+      <c r="CB138" s="113"/>
+      <c r="CC138" s="113"/>
+      <c r="CD138" s="113"/>
+      <c r="CE138" s="113"/>
+      <c r="CF138" s="113"/>
+      <c r="CG138" s="113"/>
+      <c r="CH138" s="113"/>
+      <c r="CI138" s="113"/>
+      <c r="CJ138" s="113"/>
+      <c r="CK138" s="113"/>
+      <c r="CL138" s="113"/>
+      <c r="CM138" s="113"/>
+      <c r="CN138" s="113"/>
+      <c r="CO138" s="113"/>
+      <c r="CP138" s="113"/>
+      <c r="CQ138" s="113"/>
+      <c r="CR138" s="113"/>
+      <c r="CS138" s="113"/>
+      <c r="CT138" s="113"/>
+      <c r="CU138" s="113"/>
+      <c r="CV138" s="113"/>
+      <c r="CW138" s="113"/>
+      <c r="CX138" s="113"/>
+      <c r="CY138" s="113"/>
+      <c r="CZ138" s="113"/>
+      <c r="DA138" s="113"/>
+      <c r="DB138" s="113"/>
+      <c r="DC138" s="113"/>
+      <c r="DD138" s="113"/>
+      <c r="DE138" s="113"/>
+      <c r="DF138" s="113"/>
+      <c r="DG138" s="113"/>
+      <c r="DH138" s="113"/>
+    </row>
+    <row r="139" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="F139" s="5"/>
     </row>
     <row r="140" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="F140" s="5"/>
+      <c r="B140" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="38">
+        <v>43113</v>
+      </c>
     </row>
     <row r="141" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="B141" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="38">
-        <v>43113</v>
+      <c r="B141" s="42" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="B142" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="B143" s="41" t="s">
+      <c r="B142" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -20268,7 +20148,7 @@
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="BE4:BK4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C56:C139 C7:C51">
+  <conditionalFormatting sqref="C7:C138">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -20282,7 +20162,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:BA56 H7:DH24 H25:AS25 AV25:DH25 AS47:DH47 H46:AR47 H57:DH139 H26:DH45 H48:DH49">
+  <conditionalFormatting sqref="H50:BA56 H7:DH24 H25:AS25 AV25:DH25 AS47:DH47 H46:AR47 H26:DH45 H48:DH49 H57:DH138">
     <cfRule type="expression" dxfId="17" priority="59">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
@@ -20290,7 +20170,7 @@
       <formula>AND(task_end&gt;=H$5,task_start&lt;H$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:BA56 H5:DH24 H25:AS25 AV25:DH25 AS47:DH47 H46:AR47 H57:DH139 H26:DH45 H48:DH49">
+  <conditionalFormatting sqref="H50:BA56 H5:DH24 H25:AS25 AV25:DH25 AS47:DH47 H46:AR47 H26:DH45 H48:DH49 H57:DH138">
     <cfRule type="expression" dxfId="15" priority="61">
       <formula>AND(today&gt;=H$5,today&lt;H$5+1)</formula>
     </cfRule>
@@ -20366,11 +20246,11 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B141" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B142" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B140" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B141" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="62" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter scaleWithDoc="0"/>
   <legacyDrawing r:id="rId4"/>
   <extLst>
@@ -20389,7 +20269,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C56:C139 C7:C51</xm:sqref>
+          <xm:sqref>C7:C138</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
